--- a/results/test2/raw_outputs/gpt-5.2_outputs.xlsx
+++ b/results/test2/raw_outputs/gpt-5.2_outputs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,81 @@
           <t>completion_tokens</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>claim_7</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ruling_7</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning_7</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>claim_8</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ruling_8</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning_8</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>claim_9</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ruling_9</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning_9</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>claim_10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ruling_10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning_10</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>claim_11</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>ruling_11</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reasoning_11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -571,23 +646,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This putative securities class action is brought by Lead Plaintiffs United Association National Pension Fund (“UANPF”) and Saskatchewan Healthcare Employees’ Pension Plan (“SHEPP”) on behalf of (1) a class of purchasers of Carvana Co. (“Carvana” or the “Company”) Class A common stock from May 6, 2020 through November 3, 2022 (the “Class Period”), and (2) a separate Securities Act class of purchasers in Carvana’s April 2022 public offering (the “2022 Public Offering”).
-Parties. The principal defendant is Carvana, a Delaware corporation headquartered in Tempe, Arizona, whose Class A common stock trades on the NYSE (CVNA). The “Exchange Act Defendants” include Carvana and four senior executives/founders—Ernest Garcia III (CEO/President/Chairman), Mark Jenkins (CFO), Ryan Keeton (Chief Brand Officer), and Benjamin Huston (COO)—and Carvana’s controlling shareholder and co-founder Ernest Garcia II (Garcia Senior). The complaint alleges Garcia Senior controlled Carvana through a dual-class structure conferring approximately 80%+ voting power and exercised de facto control despite a prior fraud felony conviction that allegedly barred him from NYSE-company employment. 
-For the Securities Act claims tied to the 2022 Public Offering, defendants include Carvana; certain signatories to the registration statement (Garcia Junior, Jenkins, Stephen Palmer (VP Accounting/Finance), and directors Michael Maroone, Neha Parikh, Ira Platt, and Gregory Sullivan); and underwriters Citigroup Global Markets Inc. and J.P. Morgan Securities LLC.
-Alleged fraudulent conduct / misconduct. Plaintiffs plead a “classic pump-and-dump scheme” in which defendants allegedly: (i) inflated Carvana’s reported retail unit growth and portrayed it as sustainable and profitable, while (ii) concealing that growth depended on unsustainable and unlawful practices that increased costs and regulatory exposure, and (iii) used the inflated stock price to sell approximately $3.87 billion of insider holdings (with Garcia Senior allegedly realizing over $3.6 billion).
-Key factual allegations supporting the claims. The complaint centers on three operational themes allegedly concealed or misrepresented:
-1) Growth-at-any-cost vehicle acquisition and inventory quality. Plaintiffs allege Carvana abruptly accelerated buying cars from customers (including trade-ins) by lowering verification and purchasing standards, overpaying for poor-quality vehicles, accepting misrepresented vehicles, and tolerating internal overrides of appraisals. Confidential witnesses describe “buy everything” directives, acceptance of inoperable/unsafe vehicles, and a resulting surge in vehicles that had to be diverted to wholesale.
-2) Unsustainable geographic expansion and logistics costs. Plaintiffs allege Carvana expanded into 150+ new markets without sufficient inspection/reconditioning infrastructure (IRCs), causing long-distance vehicle moves, reliance on expensive third-party logistics, and rising SG&amp;A/logistics costs. Plaintiffs contend defendants touted a “capital-light,” scalable logistics network while internally facing dysfunction, inventory backlogs, and rising per-unit costs—especially in markets far from IRCs.
-3) Title and registration violations and regulatory backlash. Plaintiffs allege Carvana systematically sold vehicles before holding title, failed to timely register vehicles, and issued out-of-state temporary tags, contrary to state law. Confidential witnesses describe pervasive missing-title problems, internal tracking spreadsheets, repeated revamps of the title department, customer complaints, and management awareness. Plaintiffs cite regulatory actions and suspensions/probations in multiple states (including North Carolina, Michigan, Illinois, Arizona, Pennsylvania, Florida, Texas, Ohio, Maryland) and allege these were foreseeable consequences of the concealed practices.
-Additional alleged misconduct includes (a) “pass-through” retail sales arrangements with DriveTime (a Garcia-affiliated entity) that allegedly inflated reported retail unit sales without economic substance for Carvana in some instances, and (b) alleged manipulation of a key profitability metric (Total GPU) by excluding outbound logistics and title/registration expenses from cost of sales, thereby overstating per-unit profitability.
-Alleged misstatements/omissions. Plaintiffs identify a large set of statements in earnings releases, shareholder letters, SEC filings (10-Qs/10-K), conference calls, and presentations that allegedly misrepresented: (i) the sustainability and profitability of retail unit growth; (ii) the rigor and profitability of buying cars from customers; (iii) the efficiency and scalability of the logistics network and “capital-light” expansion; (iv) the quality of inventory and inspections; (v) the scope and severity of title/registration problems (often minimized as limited, unusual, or pandemic-related); and (vi) the causes of cost increases (attributing them to “transitory” macro factors rather than defendants’ operational choices).
-Class period and significant dates. The Exchange Act class period is May 6, 2020 through November 3, 2022. Key dates/events alleged include: March 30, 2020 direct offering enabling Garcia Senior to buy low; May 6, 2020 start-of-period disclosures; August 10–11, 2021 disclosure of North Carolina suspension; October 22, 2021 Wall Street Journal report on state scrutiny; April 20–29, 2022 Q1 2022 results and equity/debt financings tied to ADESA; May 10–11, 2022 layoffs/operating plan; June 24–28, 2022 Barron’s “Undriveable Cars” exposé; October 7–10, 2022 Michigan suspension; and November 3–7, 2022 Q3 2022 results and sharp stock decline. The Securities Act sub-class concerns the April 2022 Public Offering: shelf registration filed April 20, 2022; prospectus supplement filed April 25, 2022; offering completed April 26, 2022; plaintiffs allege they purchased in the offering on April 22, 2022 at $80/share.
-Legal claims asserted. Exchange Act claims: (Count I) Section 10(b) and Rule 10b-5 (misstatements/omissions and scheme liability) against the Exchange Act Defendants; (Count II) Section 20(a) control-person liability against the Exchange Act Defendants; and (Count III) Section 20A insider trading against Garcia Senior, Jenkins, Keeton, and Huston (based on contemporaneous trading). Securities Act claims for the 2022 Public Offering: (Count IV) Section 11 against issuer, signatories, and underwriters; (Count V) Section 12(a)(2) against Securities Act defendants (including underwriters) for offers/sales by means of a prospectus; and (Count VI) Section 15 control-person liability against the Individual Securities Act Defendants.</t>
+          <t>Parties: Lead Plaintiffs United Association National Pension Fund and Saskatchewan Healthcare Employees’ Pension Plan sue Carvana Co. (issuer) and certain insiders/officers (Ernest Garcia III (CEO/Chair), Mark Jenkins (CFO), Benjamin Huston (COO), Ryan Keeton (Chief Brand Officer)) plus controlling shareholder Ernest Garcia II (Garcia Senior) (collectively, “Exchange Act Defendants”). For the Securities Act claims tied to the April 2022 offering, Plaintiffs also sue additional signatories/directors (Stephen Palmer; directors Maroone, Parikh, Platt, Sullivan) and underwriters Citigroup and J.P. Morgan (collectively, “Securities Act Defendants”).
+Class period(s): (1) Exchange Act class: purchasers/acquirers of Carvana Class A common stock from May 6, 2020 through November 3, 2022 (inclusive). (2) Securities Act subclass: purchasers in the April 2022 public offering (priced at $80/share; Plaintiffs allege purchases on April 22, 2022 from Citigroup).
+Alleged misconduct and key facts: The complaint pleads a “pump-and-dump” scheme in which defendants allegedly inflated Carvana’s reported retail unit growth and portrayed the company as a scalable, “capital-light,” Amazon-like disruptor with improving unit economics, while concealing that growth was driven by unsustainable and unlawful practices and that true per-unit profitability was overstated. Plaintiffs allege insiders sold approximately $3.87 billion in stock at inflated prices (Garcia Senior about $3.6 billion) while the stock rose to a high around $376 and later fell to about $7.39.
+The alleged inflationary practices include: (i) lowering vehicle acquisition and verification standards to buy “as much as was humanly possible,” inducing trade-ins and increasing website inventory; (ii) overpaying for poor-quality vehicles, leading to high wholesale volume and inventory/logistics strain; (iii) rapid nationwide market expansion into many markets far from inspection/reconditioning centers, increasing logistics costs and complexity and undermining the “capital-light” narrative; (iv) systematic title/registration noncompliance—selling vehicles without holding title, failing timely registration, and issuing out-of-state temporary tags—leading to customer harm and regulatory actions; (v) related-party pass-through arrangements with DriveTime that allegedly inflated reported retail units without economic substance.
+Scienter allegations: Plaintiffs rely on confidential witnesses describing widespread title failures, quality problems, inventory/logistics dysfunction, and management emphasis on growth over operations; regulatory actions (e.g., North Carolina suspension; Michigan probation and later suspension; Illinois suspension); alleged manipulation of GPU metrics by excluding outbound logistics and title/registration costs; and substantial, allegedly suspicious insider sales and 10b5-1 plan modifications.
+Claims asserted: Exchange Act claims under §10(b) and Rule 10b-5 (misstatements/omissions and scheme), §20(a) control-person liability, and §20A insider trading. Securities Act claims for the April 2022 offering under §§11, 12(a)(2), and 15, alleging the registration statement/prospectus incorporated misleading disclosures about scalability, logistics, inventory quality, and compliance risks, while omitting then-existing title/registration and operational problems. Plaintiffs plead loss causation through a series of partial disclosures (state actions, media reports, earnings/financing announcements, and November 3, 2022 results).</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (Count I)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -597,20 +666,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiffs must allege: (1) a material misrepresentation or omission (or a deceptive scheme), (2) scienter, (3) a connection with the purchase or sale of a security, (4) reliance, (5) economic loss, and (6) loss causation. The PSLRA and Rule 9(b) require particularity as to the “who, what, when, where, and why” of the alleged misstatements, and a “strong inference” of scienter that is “cogent and at least as compelling as any opposing inference.”
-1) Material misstatements/omissions and falsity. The complaint pleads a detailed set of challenged statements in SEC filings, earnings calls, shareholder letters, and investor presentations, and ties them to specific alleged contrary facts: (i) that retail unit growth was driven by lowered purchasing/verification standards, overpaying and accepting poor-quality vehicles, and a resulting increase in wholesale disposals; (ii) that market expansion was not “capital-light” and created long-distance logistics costs and constraints; (iii) that Carvana’s title/registration practices allegedly violated state laws and created pervasive delays; and (iv) that the Company’s profitability presentation (Total GPU) allegedly omitted significant per-unit costs (outbound logistics and title/registration) that management allegedly considered part of unit economics.
-At the pleading stage, these allegations are sufficient to plausibly allege falsity and misleading half-truths. Defendants’ statements were not limited to vague corporate optimism; plaintiffs identify concrete representations about how vehicles were assessed (“quality,” “expected reconditioning costs,” “in-demand and profitable vehicles”), about the efficiency and predictability of the logistics network, about the ability to expand markets with “limited incremental investment,” and about the scope of title/registration problems. When a defendant chooses to speak on a subject, it must speak fully and truthfully; plaintiffs plausibly allege defendants’ descriptions of the drivers of growth, profitability, and operational capability omitted known adverse facts that rendered the statements misleading.
-To the extent some statements (e.g., “our business gets better as it gets bigger,” “we remain firmly on the path,” “best experiences,” “excited”) could be characterized as puffery, the complaint also pleads numerous actionable statements of present or historical fact and operational capability. The motion to dismiss is therefore denied as to falsity/materiality.
-2) Scienter. Plaintiffs plead multiple scienter indicia that, taken together, support a strong inference at least as compelling as nonfraudulent explanations: (a) magnitude and timing of insider sales (alleged billions in sales, concentrated before major negative disclosures); (b) allegations of Garcia Senior’s control and involvement; (c) confidential witness accounts describing pervasive operational problems (inventory quality, titles, logistics) and management awareness through meetings, all-hands calls, and leadership summits; (d) allegations that key executives responsible for the relevant operations (particularly the COO) had access to internal metrics and systems (Tableau/SQL, title spreadsheets) reflecting the adverse conditions; and (e) alleged minimization of known regulatory issues as “small in scope” or “miscommunication.”
-At this stage, the Court does not weigh competing inferences as to ultimate truth; it asks whether plaintiffs plead particularized facts supporting a cogent inference of at least recklessness. The complaint meets that burden.
-3) Reliance. Plaintiffs plead reliance under Basic’s fraud-on-the-market presumption for an NYSE-traded security and also invoke Affiliated Ute for omissions. These allegations suffice at the motion stage.
-4) Loss causation. Plaintiffs plead a series of partial corrective disclosures tied to the alleged concealed risks and practices (state suspensions and press investigations into title/registration; disclosures of operational constraints and cost issues; layoffs and operating-plan changes; and the eventual disclosure of declining retail sales) and plead stock price declines in temporal proximity. That is sufficient to plead loss causation and economic loss.
-Accordingly, the motion to dismiss Count I is denied.</t>
+          <t>Accepting the allegations as true and applying Rule 9(b) and the PSLRA, the complaint pleads with sufficient particularity (i) actionable misstatements/omissions and (ii) a strong inference of scienter.
+Material misstatements/omissions: Plaintiffs identify numerous specific statements in SEC filings, earnings calls, and shareholder letters touting sustainable retail unit growth, efficient/scalable logistics, “capital-light” expansion, quality/discipline in sourcing cars from customers, and the limited scope of title/registration issues. The complaint plausibly alleges these statements were misleading because they omitted then-existing facts: pervasive title/registration failures (including selling without title and repeated temporary tag issuance), operational/logistics constraints and costs driven by expansion far from IRCs, and lowered acquisition standards leading to poor-quality inventory and increased wholesale volume. At the pleading stage, these alleged undisclosed conditions are plausibly material given (a) defendants’ own emphasis on retail units, GPU, logistics efficiency, and market expansion as key metrics, and (b) the alleged regulatory exposure and customer inability to lawfully drive purchased vehicles.
+Scienter: The complaint pleads a strong inference at least of deliberate recklessness, supported by (1) confidential-witness accounts describing widespread and escalating title/registration problems, inventory/quality issues, and management awareness through meetings and all-hands calls; (2) contemporaneous regulatory actions/investigations during the class period (e.g., North Carolina suspension; Michigan investigation and probation) inconsistent with defendants’ minimization; (3) alleged metric manipulation (GPU presentation excluding outbound logistics and title/registration costs) and cessation of certain operational metrics; and (4) magnitude and timing of insider sales, including Garcia Senior’s large sales and plan modifications. Taken together and weighed against non-culpable inferences, the pleaded inference of scienter is at least as compelling as any opposing inference.
+Reliance and loss causation are adequately alleged via fraud-on-the-market and a series of partial disclosures plausibly tied to the concealed operational/regulatory problems. Defendants’ arguments that statements are puffery or forward-looking may apply to some generalized corporate optimism, but the complaint also targets concrete operational representations and risk disclosures allegedly rendered misleading by then-known, ongoing violations and constraints. Accordingly, Count I survives.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability)</t>
+          <t>Exchange Act §20(a) control-person liability (Count II)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -620,16 +684,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Legal standard. Section 20(a) imposes joint and several liability on a “controlling person” who controls a primary violator, unless the defendant acted in good faith and did not directly or indirectly induce the violation. At the pleading stage, plaintiffs must allege (1) a primary violation of the Exchange Act and (2) control.
-Primary violation. Because the Section 10(b)/Rule 10b-5 claim is sustained, plaintiffs have adequately alleged a primary violation.
-Control. Plaintiffs plead that Garcia Junior and Jenkins, as CEO/Chairman and CFO who signed SEC filings and spoke on earnings calls, exercised control over the Company’s public statements and disclosures. Plaintiffs also plead that Huston and Keeton, as senior officers and founders, had operational authority and participated in communications to the market. As to Garcia Senior, plaintiffs plead majority voting power, de facto control, related-party dominance, and influence over corporate decisions.
-These allegations plausibly plead control for Section 20(a) purposes. Any good-faith defense is fact-intensive and not resolved on a motion to dismiss.
-Accordingly, the motion to dismiss Count II is denied.</t>
+          <t>Because the complaint adequately pleads a primary violation under §10(b)/Rule 10b-5, it also plausibly pleads control by the Individual Defendants (executive roles; voting control by Garcia Senior; alleged ability to direct disclosures and operations). At the pleading stage, these allegations suffice to state §20(a) liability, subject to proof of control and culpable participation as required by the governing circuit’s standard.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Section 20(A) of the Exchange Act (insider trading)</t>
+          <t>Exchange Act §20A insider trading (Count III)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -639,16 +699,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Legal standard. Section 20A provides a private right of action against a person who violates the Exchange Act by trading while in possession of material nonpublic information, to contemporaneous traders. Plaintiffs must plead: (1) a predicate Exchange Act violation (typically Section 10(b)/Rule 10b-5 insider trading), (2) a purchase or sale by the defendant while in possession of material nonpublic information, and (3) contemporaneous trading by the plaintiff.
-Predicate violation and material nonpublic information. Because the complaint adequately pleads a primary securities fraud scheme and management knowledge of concealed operational and regulatory problems, it plausibly pleads that senior insiders possessed material nonpublic information about the sustainability of growth, per-unit economics, title/registration violations, and the scope of regulatory exposure at the times alleged.
-Trading and contemporaneousness. The complaint pleads specific insider sales by Garcia Senior, Jenkins, Keeton, and Huston and pleads contemporaneous purchases by plaintiffs (with detailed tables). That suffices at the pleading stage.
-Defendants’ arguments that some sales were pursuant to Rule 10b5-1 plans do not warrant dismissal at this stage; the existence, timing, and modification of such plans are fact issues and, in any event, do not negate the plausibility of possession of MNPI for Section 20A pleading purposes.
-Accordingly, the motion to dismiss Count III is denied.</t>
+          <t>The complaint plausibly alleges (1) a predicate Exchange Act violation, (2) insider status and possession of material nonpublic information concerning the alleged undisclosed operational/regulatory problems, and (3) contemporaneous trading by plaintiffs and the insider defendants during the class period. The pleading includes specific sale windows, quantities, and prices and alleges contemporaneous purchases by named plaintiffs. At the motion-to-dismiss stage, these allegations are sufficient to state a §20A claim; issues such as the scope of contemporaneity, affirmative defenses, and tracing of particular information to particular trades are better addressed on a fuller record.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (2022 Public Offering)</t>
+          <t>Securities Act §11 (Count IV) (2022 Public Offering)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -658,16 +714,13 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Legal standard. Section 11 imposes liability on issuers, signatories, directors, and underwriters for a registration statement that, at the time it became effective, contained an untrue statement of material fact or omitted a material fact required to be stated or necessary to make the statements not misleading. Issuer liability is strict; other defendants may assert due diligence defenses, not resolved on a motion to dismiss. Plaintiffs must plead standing (purchase traceable to the offering) and material misstatement/omission.
-Standing/traceability. Plaintiffs allege they purchased shares directly in the 2022 Public Offering from an underwriter at the offering price. That is sufficient.
-Material misstatement/omission. Plaintiffs allege the registration statement incorporated the 2021 10-K and other disclosures that touted scalable, cost-efficient logistics, “capital-light” expansion, robust inventory acquisition and inspection, and framed title/registration issues largely as risks and operational challenges rather than ongoing widespread violations and delays. Plaintiffs allege that, by April 2022, Carvana was already experiencing mounting logistics constraints and costs, inventory quality problems and excess wholesale, and widespread title/registration failures that had already triggered regulatory discipline in some jurisdictions.
-At the pleading stage, these allegations plausibly state that the offering documents contained materially misleading half-truths and inadequate risk disclosures (risk-factor warnings do not immunize a registrant if the warned-of risk has already materialized and is not fairly disclosed).
-Accordingly, the motion to dismiss Count IV is denied.</t>
+          <t>Section 11 requires plausible allegations that the registration statement contained an untrue statement of material fact or omitted material facts required to be stated or necessary to make statements not misleading. Plaintiffs plausibly allege that the offering documents (including incorporated 2021 10-K disclosures) touted scalable logistics, disciplined customer-vehicle acquisition, and compliance-risk framing while omitting then-existing widespread title/registration failures and mounting operational constraints and costs. The complaint also alleges that regulatory actions and internal conditions predated the offering and rendered generic risk warnings misleading because they spoke in contingent terms while the risks had allegedly already materialized.
+Plaintiffs also plead standing as purchasers in the offering. At this stage, the allegations suffice to proceed against issuer and signatories; underwriters’ due-diligence defense is affirmative and not resolved on the pleadings.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) of the Securities Act (2022 Public Offering)</t>
+          <t>Securities Act §12(a)(2) (Count V) (2022 Public Offering)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -677,16 +730,15 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Legal standard. Section 12(a)(2) provides rescission/damages against a statutory “seller” who offers or sells a security by means of a prospectus or oral communication containing a material misstatement or omission. A defendant is a statutory seller if it (1) passed title to the plaintiff, or (2) successfully solicited the purchase for its own financial gain. Plaintiffs must also plead that the securities were sold pursuant to a prospectus.
-Misstatement/omission. For the reasons stated under Section 11, plaintiffs plausibly plead material misstatements/omissions in the prospectus materials.
-Statutory seller requirement. Plaintiffs allege they purchased in the offering directly from Citigroup; that suffices to plead Citigroup as a statutory seller. Plaintiffs also plead underwriter solicitation generally. However, the complaint does not plead with sufficient specificity that all non-selling defendants (e.g., issuer and individual signatories/directors) directly solicited plaintiffs’ purchases within the meaning of Pinter v. Dahl, as opposed to participating in preparing offering documents.
-Thus, the Section 12(a)(2) claim is sustained as to Citigroup (and, to the extent plaintiffs can plead and prove solicitation, potentially as to other underwriters), but dismissed as to defendants for whom the complaint does not plausibly allege statutory-seller status.
-Accordingly, Count V is dismissed in part.</t>
+          <t>To state a §12(a)(2) claim, plaintiffs must plausibly allege a material misstatement/omission in a prospectus or oral communication and that each defendant is a statutory seller (passed title or solicited the purchase for its own financial benefit).
+The complaint plausibly alleges material omissions/misstatements in the prospectus materials for the same reasons supporting the §11 claim.
+However, statutory-seller allegations are adequately pleaded as to the underwriter from whom plaintiffs allege they purchased (Citigroup) and, at least at the pleading stage, as to Carvana as the issuer offering securities through the underwriting syndicate.
+The complaint does not plead with sufficient particularity that each non-selling director/officer defendant (and J.P. Morgan, absent allegations that plaintiffs purchased from it or that it directly solicited plaintiffs) qualifies as a §12(a)(2) seller. Conclusory assertions that all defendants “promoted and sold” are insufficient without factual allegations connecting each defendant to solicitation of plaintiffs’ purchases. Accordingly, Count V is dismissed as to defendants other than Carvana and Citigroup (and any other defendant, if any, from whom plaintiffs can plausibly allege direct purchase/solicitation), with leave to amend if plaintiffs can plead statutory-seller facts.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Section 15 of the Securities Act (control person liability)</t>
+          <t>Securities Act §15 control-person liability (Count VI) (2022 Public Offering)</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -696,18 +748,30 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Legal standard. Section 15 imposes liability on persons who control a primary violator of Section 11 or Section 12. Plaintiffs must plead (1) a primary violation and (2) control.
-Primary violation. Because the Section 11 claim survives, plaintiffs have pleaded a primary Securities Act violation.
-Control. Plaintiffs plead that the individual Securities Act defendants were senior officers and directors who signed the registration statement and allegedly had the power to influence and control the issuer’s statements in the offering documents. Those allegations suffice at the pleading stage.
-Accordingly, the motion to dismiss Count VI is denied.</t>
+          <t>Because the complaint states a primary §11 claim, and because it plausibly alleges that the Individual Securities Act Defendants (senior officers/directors who signed the registration statement) had the power to control the issuer’s offering disclosures, the §15 claim is adequately pleaded at this stage. To the extent §15 is predicated solely on §12(a)(2), it proceeds only insofar as the underlying §12(a)(2) claim survives against a controlled primary violator.</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>100819</v>
+        <v>100572</v>
       </c>
       <c r="X2" t="n">
-        <v>3826</v>
-      </c>
+        <v>2199</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -725,20 +789,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This is a federal securities class action brought by Lead Plaintiff Glen Littleton on behalf of a putative class of all persons and entities who purchased or sold Tesla, Inc. (“Tesla”) securities (including common stock and exchange-traded options) during the period August 7, 2018 through August 17, 2018 (the “Class Period”), and were allegedly damaged thereby.
-Parties. Plaintiff is Glen Littleton, who alleges he purchased and sold Tesla common stock and options during the Class Period. Defendants are: (1) Tesla, a Delaware corporation headquartered in Palo Alto, California, whose common stock traded on NASDAQ under ticker TSLA; (2) Elon R. Musk, Tesla’s CEO and (at the time) Chairman and principal public spokesperson; and (3) Tesla’s Board of Directors, sued as “control persons” under Section 20(a): Brad W. Buss, Robyn Denholm, Ira Ehrenpreis, Antonio J. Gracias, James Murdoch, Kimbal Musk, and Linda Johnson Rice (collectively, the “Board”).
-Alleged fraudulent conduct/misconduct. The complaint centers on Musk’s August 7, 2018 public statements—primarily via Twitter, which Tesla had previously identified as an “official channel” for dissemination of company information—announcing that he was “considering taking Tesla private at $420” and that “Funding [was] secured,” and later that “Investor support is confirmed” and that the “only reason” the transaction was not certain was a shareholder vote. Plaintiff alleges these statements (and related tweets and Tesla blog communications) were materially false and misleading because no financing was actually secured, key deal terms had not been negotiated, and the going-private transaction was at most a preliminary, uncertain concept.
-Key factual allegations supporting falsity. Plaintiff alleges that, despite the market impression created by Musk’s tweets and related communications, Musk had not reached any binding commitment or agreement to fund a $420-per-share going-private transaction, had not negotiated key terms (including price) with any funding source, had not retained advisors at the time of the initial tweets, had not assessed shareholder/institutional/retail feasibility, and had not determined regulatory requirements. The complaint describes Musk’s contacts with Saudi Arabia’s Public Investment Fund (“PIF”) as preliminary and contingent, including a purported contingency about building a Tesla production facility in the Middle East, which at least one Board member allegedly viewed as a “non-starter.” The complaint also alleges Musk privately believed the probability of consummating a going-private transaction was only about 50% at the time.
-Market impact and loss allegations. Plaintiff alleges the August 7 “funding secured” tweet caused immediate market disruption: NASDAQ halted trading; Tesla’s stock rose materially (closing up about 10% that day); and short sellers and options traders suffered losses due to price movement and increased implied volatility. The complaint alleges that as information emerged casting doubt on the truth of “funding secured” (including press reports of SEC investigation and, critically, a New York Times interview published online after market close August 16 and in print August 17 stating the PIF had not committed cash and no one reviewed the tweet before posting), Tesla’s stock fell sharply, including an approximately 9% drop on August 17, 2018.
-Scienter/motive allegations. Plaintiff alleges Musk acted intentionally or with deliberate recklessness, motivated in part by animus toward short sellers (citing prior anti-short statements and conduct) and also by Tesla’s need to keep its stock price above a convertible bond conversion price to avoid cash repayment. Plaintiff further relies on the SEC enforcement actions filed in late September 2018 and subsequent settlements (including penalties and governance reforms) as support for an inference of scienter and as corroboration that the statements lacked an adequate factual basis.
-Board-related allegations. Plaintiff alleges the Board, having identified Musk’s Twitter as an official disclosure channel and having oversight responsibility for Tesla’s public disclosures, had the power to control or correct Musk’s statements and failed timely to do so. The complaint cites the Board’s August 8 press release referencing discussion of funding and “appropriate next steps,” and alleges the Board later directed Musk to refrain from tweeting about the transaction without prior Board discussion.
-Claims asserted. The complaint asserts two causes of action: (1) Section 10(b) of the Exchange Act and Rule 10b-5 against Tesla and Musk for material misrepresentations/omissions and a fraudulent scheme in connection with the purchase or sale of securities; and (2) Section 20(a) against the Board as control persons of Tesla.
-Significant dates. July 31, 2018: Musk meets with PIF representatives. August 2, 2018: Musk emails Board about an “Offer to Take Tesla Private at $420.” August 7, 2018: “Funding secured” tweet and follow-on tweets; NASDAQ trading halt; Tesla employee email/blog post; “Investor support is confirmed” tweet. August 8, 2018: Board press release; reports of SEC inquiry. August 13, 2018: Musk Tesla blog post attempting to explain “funding secured”; tweet about working with Silver Lake/Goldman as advisors. August 14, 2018: Tesla announces special committee; press reports question advisor engagement. August 16–17, 2018: New York Times interview/article reporting funding was far from secure; stock drops sharply on August 17. (Post-class-period context: August 24, 2018: Musk announces “Staying Public.” September 27–29, 2018: SEC files actions; October 16, 2018: judgments/settlements approved.)</t>
+          <t>Parties: Lead Plaintiff Glen Littleton alleges claims on behalf of a putative class of all persons and entities who purchased or sold Tesla, Inc. (“Tesla”) securities (including common stock and exchange-traded options) during August 7, 2018 through August 17, 2018 (the “Class Period”), excluding defendants and affiliates. Defendants are Tesla; Elon R. Musk (CEO during the period, and then-Chairman); and Tesla’s directors Brad W. Buss, Robyn Denholm, Ira Ehrenpreis, Antonio Gracias, James Murdoch, Kimbal Musk, and Linda Johnson Rice (the “Board”), sued as control persons.
+Alleged misconduct and key facts: The complaint centers on Musk’s August 7, 2018 tweets and related communications stating, among other things, that he was “considering taking Tesla private at $420” and that “Funding [was] secured,” and later that “Investor support is confirmed” and the “only reason why this is not certain is that it’s contingent on a shareholder vote.” Plaintiff alleges these statements were materially false and misleading because no financing had been secured, discussions with the Saudi Public Investment Fund were preliminary and contingent, key deal terms (including price) had not been negotiated, no firm commitments or documentation existed, advisors had not been formally retained at the time of the initial tweets, and multiple contingencies (board approval, regulatory approvals, shareholder support, feasibility of a retail-holder structure, and potential Middle East factory condition) remained unresolved. The complaint further alleges Musk chose $420 unilaterally (including for personal/joke reasons) without discussing it with any funding source.
+The complaint pleads market impact and loss: TSLA spiked on August 7, trading was halted, and the stock closed up materially; thereafter, as media reports and disclosures suggested financing was not secured and the SEC was investigating, TSLA declined, including a sharp drop on August 17 following a New York Times report stating the PIF had not committed cash and no one reviewed Musk’s tweet. Plaintiff alleges damages to purchasers at inflated prices, to short sellers forced to cover at inflated prices, and to options traders affected by price and volatility changes.
+Scienter and motive allegations: Plaintiff alleges Musk acted intentionally or with deliberate recklessness, motivated in part by animus toward short sellers and by Tesla’s financing considerations (convertible bond conversion price). The complaint also relies heavily on subsequent SEC enforcement actions and settlements against Musk (10b-5) and Tesla (disclosure controls), including alleged admissions/non-denials in the SEC case.
+Legal claims: (1) Section 10(b) and Rule 10b-5 against Tesla and Musk, based on alleged material misstatements/omissions and scheme to defraud in connection with purchases/sales of Tesla securities during the Class Period; and (2) Section 20(a) against the Board as controlling persons of Tesla, premised on the alleged primary violation by Tesla/Musk and the Board’s purported power to control Tesla’s disclosures and Musk’s use of Twitter as an identified corporate communications channel.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 (against Tesla and Elon Musk)</t>
+          <t>Count I — Exchange Act §10(b) and Rule 10b-5 (against Tesla and Musk)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -748,21 +808,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, a plaintiff must allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. The PSLRA and Rule 9(b) require particularity as to the alleged misstatements and why they were misleading, and require facts giving rise to a strong inference of scienter.
-1. Material misrepresentation/omission. The complaint identifies with specificity the challenged statements (date/time, speaker, medium, and content), including: “Funding secured,” “Investor support is confirmed,” and statements implying shareholders could choose to cash out at $420 or remain invested in a private Tesla with periodic liquidity. These are not vague puffery; they are concrete assertions about the status of financing and investor support for a massive transaction and, if false, are plainly material to a reasonable investor. The complaint pleads falsity by alleging that no binding financing commitment existed, key terms (including price) were not discussed with the principal purported source (PIF), advisors were not retained at the time, and substantial contingencies remained. At the pleading stage, these allegations adequately state that “funding secured” and the related certainty-implying statements were misleading.
-Defendants’ likely arguments that the statements were merely preliminary “consideration” or forward-looking do not warrant dismissal on this record. Even if “considering” suggests some tentativeness, the phrase “Funding secured” is an assertion of present fact. Likewise, “Investor support is confirmed” and “only reason … is … shareholder vote” plausibly communicate that the transaction is effectively locked up except for a vote. The complaint plausibly alleges those impressions were false.
-2. Scienter. Under the PSLRA, the Court must consider whether the pleaded facts, taken collectively, give rise to a strong inference that Musk acted with intent to deceive or deliberate recklessness. The complaint alleges Musk personally controlled the relevant information: he was the participant in the PIF discussions; he allegedly had not negotiated price or terms; he allegedly believed the deal had only a 50% chance; and he allegedly knew of significant contingencies and missing steps. Those allegations support an inference that Musk knew (or was deliberately reckless in not knowing) that “funding secured” and the accompanying certainty framing lacked an adequate factual basis.
-The complaint also pleads motive and opportunity—animus toward short sellers and the desire to pressure shorts—though motive is not required. The allegations of prior anti-short statements and conduct, coupled with the immediate market impact and Musk’s continued reiteration of certainty, further support scienter.
-The Court does not treat the SEC settlements as admissions of liability in this private action, but the complaint’s reliance on the SEC’s contemporaneous allegations and the undisputed fact of enforcement proceedings and remedial measures may be considered as part of the overall mosaic at the pleading stage. In any event, the complaint independently pleads particularized facts about what Musk allegedly knew and did not have in hand when he made the statements.
-As to Tesla, the complaint plausibly pleads corporate scienter through Musk as CEO and the alleged authorized use of his Twitter as an official disclosure channel, together with agency principles. At minimum, the complaint plausibly alleges Musk spoke with apparent authority on Tesla’s behalf and that his scienter is attributable to Tesla for pleading purposes.
-3. Connection with purchase/sale; reliance. The statements were made publicly and are alleged to have affected the market for Tesla stock and options. The complaint pleads an efficient market for TSLA and invokes Basic’s fraud-on-the-market presumption. At the motion to dismiss stage, those allegations are sufficient to plead reliance for a class of market participants.
-4. Economic loss and loss causation. The complaint alleges that the stock price rose on the alleged misrepresentations and declined as the market learned information undermining the “funding secured” narrative, including the New York Times reporting that the PIF had not committed cash and that no one vetted the tweet. The complaint ties the August 17 decline to corrective disclosures and the dissipation of inflation. While some intervening reporting (SEC investigation news) may have contributed, loss causation does not require a single revelation or a full confession; it is enough to plead that the truth became known through a series of partial disclosures and that the price decline was plausibly caused by the materialization of the concealed risk or the revelation of the falsity. The complaint adequately pleads that linkage.
-Accordingly, the motion to dismiss is denied as to the Section 10(b)/Rule 10b-5 claim against Musk and Tesla.</t>
+          <t>Pleading standard: At the motion-to-dismiss stage, the Court tests whether the complaint plausibly alleges (i) a material misrepresentation or omission, (ii) scienter, (iii) a connection with the purchase or sale of a security, (iv) reliance, (v) economic loss, and (vi) loss causation, and for fraud claims must satisfy Rule 9(b) and the PSLRA’s heightened pleading requirements.
+Material misstatement/omission: The complaint pleads with specificity the time, place, and content of the challenged statements (multiple August 7 tweets; the employee email/blog post; the August 13 blog post and tweet about advisors), why they were misleading, and what facts allegedly made them false at the time. “Funding secured” and statements conveying near certainty (only contingent on a shareholder vote; investor support confirmed) plausibly constitute concrete, verifiable assertions about financing status and transaction viability, not mere puffery. The alleged contrary facts—absence of any commitment/term sheet, lack of price discussions with funders, preliminary nature of PIF discussions, and unresolved contingencies—plausibly render the statements misleading. Materiality is plausibly alleged given the immediate trading halt, price spike, heavy volume, analyst reports treating the statements as serious, and the centrality of financing certainty to a going-private transaction.
+Scienter: The complaint pleads a strong inference that Musk knew or was deliberately reckless as to falsity. It alleges Musk personally knew the state of financing discussions (preliminary), had not discussed the $420 price with any funding source, believed success was only ~50% and “a lot of uncertainty,” and nevertheless publicly represented “funding secured” and near certainty. The alleged motive (short-seller animus and potential convert-related incentives) is not required but adds some weight. The magnitude and specificity of the statements, the alleged lack of internal vetting, and the asserted contemporaneous contradictions support a cogent inference of scienter at least as strong as competing nonfraudulent inferences. As to Tesla, the complaint plausibly imputes scienter through Musk’s role as CEO/spokesperson and alleged apparent authority for corporate communications via an officially identified Twitter channel; at this stage, those allegations suffice to plead corporate scienter.
+Reliance and transaction causation: The complaint adequately pleads reliance via the fraud-on-the-market theory, alleging market efficiency, analyst coverage, active trading, rapid incorporation of news, and that class members traded at market prices.
+Loss causation and economic loss: The complaint plausibly alleges corrective disclosures and partial dissipation of inflation through market reports and disclosures (including press reporting that financing was not secured and SEC investigation developments), followed by price declines, including the August 17 drop tied to the New York Times report. While defendants may later contest whether price movements were attributable to other factors, at the pleading stage the complaint plausibly links revelation of the alleged truth to declines and alleges damages.
+Safe harbor/forward-looking: The challenged statements are largely present-tense assertions about secured funding and confirmed support, not protected forward-looking statements accompanied by meaningful cautionary language. Accordingly, dismissal on safe-harbor grounds is not warranted on the face of the pleading.
+Result: Count I is plausibly and particularly pled under Rule 9(b) and the PSLRA and is sustained.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Section 20(a) control person liability (against Tesla Board members Buss, Denholm, Ehrenpreis, Gracias, Murdoch, Kimbal Musk, and Rice)</t>
+          <t>Count II — Exchange Act §20(a) (against the Board)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -772,13 +829,10 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Legal standard. Section 20(a) imposes joint and several liability on a “controlling person” who controls a primary violator, unless the controlling person acted in good faith and did not directly or indirectly induce the violation. To plead Section 20(a), a plaintiff must allege (1) a primary violation by the controlled person/entity and (2) that the defendant exercised actual power or control over the primary violator’s general operations and the specific transaction or activity giving rise to the violation.
-1. Primary violation. Because the Section 10(b) claim is adequately pleaded at this stage, the primary-violation element is satisfied for pleading purposes.
-2. Control. The complaint’s control allegations as to the individual directors are largely conclusory. It alleges that directors, by virtue of their positions and oversight duties, had the power to influence Tesla’s disclosures and had “authority over and/or controlled” Musk’s Twitter because Tesla identified it as an official channel. But Section 20(a) requires more than status as a director and generalized oversight responsibilities; it requires plausible allegations of actual power to control the specific conduct at issue.
-Here, the alleged misstatements were made by Musk on August 7, 2018 without prior review by anyone, and the complaint itself emphasizes that no one saw or vetted the tweet before publication. That allegation undercuts the inference that the Board exercised actual control over the specific communications at the time they were made.
-The complaint further alleges that after August 7, a director (Gracias) instructed Musk to refrain from tweeting about privatization without prior Board discussion, and that the Board issued an August 8 press release and later formed a special committee. Those allegations tend to show reactive governance steps after the initial alleged fraud, not preexisting control over the specific misstatements when made. Post hoc ability to influence future communications is not, without more, a plausible allegation that each director controlled the specific acts giving rise to the primary violation.
-Nor does the complaint plead particularized facts showing that each director had the ability to prevent Musk’s tweets, directed or induced the challenged statements, or participated in drafting/approving them. The complaint does not allege, for example, that the Board approved the “funding secured” language, instructed Musk to make the statements, or had a disclosure-control mechanism in place that they exercised and overrode. Indeed, the complaint’s narrative is that such controls were lacking.
-Because the complaint does not plausibly allege the requisite control by each individual director over the specific fraudulent conduct, the Section 20(a) claim against the Board is dismissed. Dismissal is without prejudice to amendment if Plaintiff can plead nonconclusory facts showing actual control (and, where required by circuit law, culpable participation) by the individual directors in the challenged communications.</t>
+          <t>To plead control-person liability under §20(a), plaintiff must plausibly allege (1) a primary violation by the controlled person and (2) that the defendant exercised actual power or control over the primary violator’s general operations and the specific transaction or activity upon which the primary violation is predicated.
+Although the complaint adequately pleads a primary violation (Count I) at this stage, it does not plausibly plead that the individual directors, as alleged, exercised actual control over Musk’s specific challenged communications (the August 7 tweets and related statements) or Tesla’s disclosure decisions in a manner sufficient for §20(a). The allegations are largely generalized: that directors had oversight duties, had access to reports, and that Tesla had identified Musk’s Twitter as an official channel. The complaint also alleges that after August 7, the lead independent director instructed Musk to refrain from tweeting about the transaction absent prior discussion, and that the Board issued an August 8 press release. Those allegations, however, tend to show reactive steps after the key misstatements and do not plausibly establish that the directors had the requisite contemporaneous power to prevent or control Musk’s August 7 tweets or that they directed, authorized, or meaningfully participated in the specific fraudulent statements.
+Moreover, the complaint does not plead particularized facts as to each director’s role, involvement, or control over the challenged communications, instead relying on status-based assertions that board membership alone conferred control. Such conclusory allegations are insufficient under Twombly/Iqbal and the PSLRA’s emphasis on particularity in securities-fraud pleadings.
+Result: Count II is dismissed, without prejudice, for failure to plausibly plead control over the specific alleged primary violation.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -794,11 +848,26 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>27558</v>
+        <v>27311</v>
       </c>
       <c r="X3" t="n">
-        <v>2875</v>
-      </c>
+        <v>1783</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -816,17 +885,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Plaintiff Fiyyaz Pirani, as Trustee of Imperium Irrevocable Trust, brings this putative securities-fraud class action under the Exchange Act on behalf of all persons and entities that purchased or otherwise acquired Netflix, Inc. (“Netflix”) common stock or call options, or sold put options, between January 19, 2021 and April 19, 2022, inclusive (the “Class Period”). Defendants are Netflix and four senior executives: Reed Hastings (Co-CEO/Chair), Ted Sarandos (Co-CEO), Spencer Neumann (CFO), and Gregory Peters (COO) (collectively, the “Individual Defendants”).
-The complaint alleges that Netflix’s revenue model depended primarily on paid subscriptions and that investors focused heavily on “paid net adds” as a key operating metric. Netflix historically tolerated “account sharing” (password sharing across households), publicly downplaying it as not a material growth inhibitor. According to the complaint, during and after the COVID-19 pandemic Netflix attributed slowing subscriber growth to “COVID pull-forward” dynamics and “choppiness,” while assuring investors that markets—particularly the U.S. and Canada (“UCAN”)—remained only about “60% penetrated” with “ample runway” and “headroom” for growth.
-The alleged fraud centers on Netflix’s purported failure to disclose the true extent of account sharing and the resulting effective market saturation. Plaintiff alleges that, unbeknownst to investors, Netflix had extensive internal data showing that account sharing was massive (over 100 million additional households globally and over 30 million in UCAN) and that this meant Netflix was far more penetrated than its reported subscriber counts and public statements suggested—approximately 83–84% penetrated in UCAN (not ~60%), and approximately 35–36% globally (not ~24–25%). Plaintiff alleges that this undisclosed effective saturation materially hindered Netflix’s ability to add new paying subscribers, and that Netflix’s engagement and retention metrics were also misleadingly portrayed because non-paying sharers inflated viewing/engagement and reduced churn by increasing the perceived value of subscriptions.
-Key alleged misstatements/omissions include: (i) repeated assurances that UCAN was roughly 60% penetrated and that Netflix had significant headroom and runway for growth; (ii) repeated attribution of slowing acquisition and paid net adds primarily to COVID pull-forward, production delays, and macro conditions, while denying structural issues such as saturation; and (iii) risk-factor disclosures in Forms 10-K and 10-Q describing account sharing as a contingent risk (“if … abused” / “if … efforts … are ineffective”) rather than disclosing that multi-household sharing was already pervasive and materially affecting growth.
-The complaint identifies two principal corrective-disclosure events. First, on January 20, 2022 (Q4’21 results), Netflix missed paid net adds guidance and issued weak Q1’22 guidance; the stock fell about 21.7% on January 21, 2022. Plaintiff characterizes this as a partial revelation of acquisition problems, though Netflix continued to attribute weakness to COVID/macro factors and denied structural saturation. Second, on April 19, 2022 (Q1’22 results), Netflix disclosed that it estimated over 100 million additional households were sharing accounts (including over 30 million in UCAN) and admitted that high household penetration including sharing, combined with competition, created revenue-growth headwinds; Netflix also reported a subscriber decline and forecast further declines. The stock fell about 35% on April 20, 2022.
-The complaint asserts two causes of action: (1) Section 10(b) and Rule 10b-5 against all defendants for alleged material misstatements/omissions and a fraudulent scheme; and (2) Section 20(a) control-person liability against the Individual Defendants predicated on the alleged primary violation by Netflix and the executives’ control over Netflix’s public statements and SEC filings.</t>
+          <t>Parties: Lead Plaintiff Fiyyaz Pirani, as Trustee of Imperium Irrevocable Trust, brings an Exchange Act securities-fraud class action on behalf of purchasers/acquirers of Netflix, Inc. (“Netflix”) common stock or call options, and sellers of put options, during January 19, 2021 through April 19, 2022 (the “Class Period”). Defendants are Netflix and four senior executives: Reed Hastings (Co-CEO/Chair), Ted Sarandos (Co-CEO), Spencer Neumann (CFO), and Gregory Peters (COO).
+Business/metric context: Netflix is a subscription streaming business whose revenue depends primarily on paid memberships; investors focused heavily on “paid net adds.” Netflix permitted multiple streams within a household but prohibited password sharing outside the household (“account sharing”), historically describing it as not material. Netflix publicly discussed COVID “pull-forward” effects on subscriber growth.
+Alleged misconduct and key facts: The complaint centers on alleged misstatements/omissions about (1) Netflix’s market penetration (“headroom”/“runway” for growth), (2) the causes of slowing subscriber acquisition (COVID pull-forward vs. structural saturation), and (3) the extent and impact of account sharing. Plaintiff alleges Netflix and executives knew (or were reckless in not knowing) that account sharing was massive and effectively saturated key markets, particularly UCAN.
+Core alleged false statements include: (a) January 19, 2021 earnings call: Neumann stated UCAN was “roughly 60% penetrated” and Netflix had “a lot of headroom” across markets; (b) repeated statements through 2021–early 2022 attributing weak acquisition primarily to COVID pull-forward/choppiness and content timing while describing underlying metrics as “healthy,” and denying “structural” issues such as saturation; (c) risk disclosures in 2020/2021 10-Ks and 10-Qs framing multi-household usage as a contingent risk rather than a present condition.
+According to Plaintiff, the truth was that account sharing was long-standing and enormous—later disclosed by Netflix on April 19, 2022 as “over 100m additional households” globally sharing Netflix, including “over 30m” in UCAN—and that this high household penetration, combined with competition, created revenue growth headwinds and inhibited acquisition. Plaintiff alleges Netflix internally tracked/quantified sharing (citing two former employees) and had been testing monetization/crackdown approaches since early 2021, but did not disclose the magnitude or resulting effective penetration.
+Corrective disclosures and price impact: (1) January 20, 2022: Netflix reported a small Q4’21 paid net adds miss and weak Q1’22 guidance; stock fell ~21.7% on January 21, 2022. Plaintiff characterizes this as a partial revelation of acquisition challenges. (2) April 19, 2022: Netflix disclosed the extent of account sharing (&gt;100m households; &gt;30m UCAN) and stated that high household penetration including sharing, combined with competition, created growth headwinds; Netflix also reported Q1’22 paid net adds of -0.2m (or +0.5m excluding Russia) and guided Q2’22 -2.0m; stock fell ~35% on April 20, 2022.
+Legal claims: (1) Section 10(b) and Rule 10b-5 against all Defendants, alleging material misstatements/omissions, scienter, reliance (fraud-on-the-market and Affiliated Ute), loss causation, and damages; (2) Section 20(a) control-person liability against the Individual Defendants predicated on a primary violation by Netflix/individuals under Section 10(b).</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (against all Defendants)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (all Defendants)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -836,33 +906,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiff must allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA and Rule 9(b), falsity and scienter must be pled with particularity, and the complaint must state with particularity facts giving rise to a strong inference that each defendant acted with the required state of mind.
-1) Material misrepresentation/omission.
-(a) Actionable statements (sufficiently pled). The complaint plausibly pleads falsity and materiality as to a core set of statements about market penetration/headroom and the causes of slowing acquisition.
-First, the repeated “~60% UCAN penetration” statements (e.g., January 19, 2021 earnings call; March 8, 2022 conference) are pled as concrete, quantitative assertions about the degree of penetration in Netflix’s most important market. Plaintiff alleges that Netflix itself later disclosed that UCAN had “over 30m” additional sharing households on top of ~75m paying households, and that sharing as a percentage of paying membership “hasn’t changed much over the years.” Taking those allegations as true at the pleading stage, the complaint plausibly alleges that Netflix’s public “penetration” figure omitted a known and very large category of households already consuming Netflix (non-paying sharers) and thereby conveyed a materially misleading picture of how much incremental subscriber growth remained in UCAN.
-Second, statements assuring “a lot of headroom,” “ample runway,” “no structural change,” and attributing weak acquisition primarily to “COVID pull-forward,” “choppiness,” and macro factors are plausibly alleged to be misleading when coupled with the alleged undisclosed fact that Netflix had extensive internal data showing account sharing materially increased effective penetration and was inhibiting acquisition growth. The April 19, 2022 disclosure—“high household penetration—when including … sharing—combined with competition, is creating revenue growth headwinds,” and that COVID “obscured” the issue—supports a plausible inference that saturation from sharing was a known alternative explanation that rendered prior categorical denials of structural change potentially misleading.
-Third, the complaint plausibly pleads that certain risk-factor statements about account sharing in the 2020 and 2021 Forms 10-K (and related 10-Q language) could be misleading to the extent they presented account sharing as a hypothetical risk (“if … abused” / “if … efforts … are ineffective”) while allegedly omitting that multi-household sharing was already pervasive at the alleged scale and already hindering growth. Risk disclosures can be actionable when they warn of a risk as merely potential when the risk has already materialized.
-(b) Non-actionable statements (dismissed). Other categories of statements are not actionable as pled.
-• Puffery/immaterial optimism. Generalized statements such as “the business remains healthy,” “fundamentals … pretty solid,” “optimistic about long-term growth,” and similar corporate optimism are, in substantial part, non-actionable puffery absent specific, verifiable content. While plaintiff ties these statements to alleged undisclosed sharing data, many are too vague to be material misrepresentations.
-• Metrics-inflation theory (engagement/churn). The complaint alleges that engagement was “artificially inflated” and churn “artificially suppressed” by account sharing. But it does not identify a specific false numerical engagement or churn figure that Netflix reported (as opposed to qualitative characterizations), nor does it plead with particularity what Netflix’s reported engagement/churn was, what it would have been absent sharing, and why Netflix’s descriptions were false rather than merely incomplete. At most, the allegations suggest that account sharing is a confounding factor in interpreting engagement and retention; that does not, without more particularized pleading, convert general statements about engagement/retention into actionable misrepresentations.
-Accordingly, the Section 10(b) claim is sustained only to the extent it is predicated on (i) the UCAN penetration/headroom/runway representations and (ii) statements and risk disclosures that plausibly misattributed slowing acquisition primarily to COVID/macro factors while omitting the alleged known impact of account sharing on effective penetration and growth.
-2) Scienter.
-The PSLRA requires a “strong inference” of scienter that is at least as compelling as any opposing inference.
-As to Netflix and the Individual Defendants, the complaint pleads scienter adequately for the surviving misstatement categories. The alleged subject matter—subscriber growth, penetration, and account sharing—goes to Netflix’s core operations and key performance indicators. The complaint alleges that Netflix monitored account sharing for years, reportedly used credential-sharing analytics, and internally discussed password sharing as “lost revenue” and a limiter on subscriber goals. It further alleges that Netflix began testing monetization/crackdown approaches “early last year” (i.e., early 2021) and that Peters stated on April 19, 2022 that Netflix had been working on this “a little bit over a year,” supporting an inference that management understood account sharing’s scale and its relationship to growth during the Class Period. The later disclosure that sharing levels “hasn’t changed much over the years” supports the inference that the relevant information existed throughout the Class Period.
-The competing non-fraudulent inference—that Netflix reasonably viewed “penetration” as referring to paying households only and that the timing and magnitude of sharing estimates were uncertain—does not defeat scienter at this stage because plaintiff alleges (i) Netflix had internal data quantifying sharing, (ii) executives were asked directly about saturation and account sharing and responded with categorical denials of structural issues, and (iii) Netflix later characterized the issue as a key factor that COVID had “obscured,” suggesting it was knowable and material.
-Scienter is not adequately pled, however, to the extent the claim rests on the more generalized “healthy fundamentals” puffery or the metrics-inflation theory, for which the complaint does not plead with particularity what was known, when, and how the challenged statements were false.
-3) Reliance.
-At the pleading stage, plaintiff adequately invokes the Basic fraud-on-the-market presumption for Netflix’s NASDAQ-traded common stock, alleging an efficient market and public dissemination. To the extent the case involves options trading, reliance and classwide proof may present additional issues at class certification, but they do not warrant dismissal on the pleadings here.
-4) Loss causation.
-Plaintiff adequately pleads loss causation as to the surviving theory. The complaint identifies two price drops tied to disclosures about slowing acquisition and, later, the extent of account sharing and high household penetration. The April 19, 2022 disclosure is plausibly pled as a corrective disclosure of previously concealed information (the scale of sharing and its impact on penetration and growth). The January 20, 2022 event is plausibly pled as a partial materialization/corrective event concerning acquisition weakness; whether and to what extent that decline is attributable to the alleged fraud versus other disclosed factors is a loss-causation merits question not resolved on a motion to dismiss.
-5) Scheme liability.
-To the extent plaintiff pleads a “scheme” under Rule 10b-5(a) and (c), the claim survives only insofar as it is coextensive with the adequately pled misstatement/omission theory and not an impermissible attempt to repackage misstatement claims without additional deceptive conduct.
-Disposition. The motion to dismiss is granted in part and denied in part. The Section 10(b)/Rule 10b-5 claim is dismissed to the extent it is based on non-actionable puffery and the inadequately pled engagement/churn inflation theory, and otherwise sustained as described above.</t>
+          <t>Pleading standards: The claim must satisfy Rule 9(b) and the PSLRA by pleading (i) each actionable misstatement/omission, (ii) why it was misleading, (iii) materiality, (iv) a strong inference of scienter, and (v) loss causation.
+1) Actionable misstatements/omissions (material falsity). The complaint plausibly pleads falsity as to a subset of statements—particularly Neumann’s repeated quantitative/near-quantitative market-penetration representations (e.g., UCAN “roughly 60% penetrated”) and related assurances of substantial “headroom/runway” and “no structural change/saturation” when, accepting the pleaded facts as true, Netflix allegedly possessed data showing massive multi-household usage that materially increased effective penetration. The alleged April 19, 2022 disclosure (over 30m UCAN sharing households; over 100m globally; sharing percentage “hasn’t changed much over the years”) supports an inference that the omitted sharing magnitude existed throughout the Class Period and rendered the penetration framing misleading.
+However, many challenged statements are non-actionable to the extent they are (a) corporate optimism/puffery (“business is healthy,” “fundamentals are solid,” “ample runway,” “optimistic long-term”), (b) generalized statements about secular streaming trends, or (c) opinions/forward-looking statements accompanied by cautionary context, unless tied to specific, contrary contemporaneous facts. The complaint often treats broad explanations (COVID noise, content slate timing, macro factors, competition) as fraudulent “because account sharing also mattered,” but §10(b) does not impose liability for incomplete causal narratives unless the omitted facts made the statements misleading. At the pleading stage, statements that COVID and macro factors contributed to acquisition softness are not rendered false merely because saturation/account sharing was another contributor.
+Accordingly, the §10(b) claim is sustained only as to the narrower theory that Defendants materially misled investors by understating/obscuring effective market penetration and saturation risk by (i) affirmatively representing UCAN penetration at about 60% and (ii) denying structural saturation concerns, while allegedly possessing data showing extensive multi-household usage that materially increased effective penetration and constrained growth.
+2) Scienter. The complaint pleads a strong inference of at least recklessness as to the penetration/saturation theory: account sharing directly bears on Netflix’s core metric (paid net adds) and growth ceiling; Netflix allegedly monitored sharing for years; two former employees describe internal presentations and tracking of IP addresses and quantification of “lost revenue”; Netflix later stated sharing levels had not changed much over the years; and Netflix began testing monetization/crackdown approaches during the Class Period. These allegations, taken together, support a cogent inference that senior executives responsible for subscriber-growth messaging were aware (or were deliberately reckless in not knowing) that their penetration framing omitted critical facts.
+But scienter is not adequately pled for every challenged statement, particularly generalized statements about engagement/retention health, competitive dynamics, and COVID “noise,” where the complaint does not plead with particularity that Defendants knew those statements were false when made (as opposed to incomplete or debatable).
+3) Loss causation. The April 19, 2022 disclosure directly linked high household penetration including account sharing to growth headwinds and was followed by a substantial price drop; this is adequately pled. January 20, 2022 is more attenuated because Netflix did not disclose account-sharing magnitude then; nonetheless, Plaintiff plausibly pleads a partial materialization/partial corrective disclosure theory tied to acquisition weakness. At minimum, loss causation is adequately pled as to the April 2022 event.
+Result: The motion is granted in part and denied in part. The §10(b) claim is dismissed to the extent it is premised on non-actionable puffery, generalized optimism, or statements that are not plausibly misleading absent a duty to provide a complete causal attribution. It is sustained as to the alleged misleading penetration/saturation representations and omissions concerning the magnitude of multi-household usage and its impact on growth headroom.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability) (against Individual Defendants)</t>
+          <t>Exchange Act §20(a) (control-person liability) (Individual Defendants)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -872,11 +928,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Legal standard. To state a claim under Section 20(a), plaintiff must plead: (1) a primary violation of the securities laws by the controlled person; and (2) that the defendant exercised actual power or control over the primary violator. Many courts also require culpable participation, though the precise requirement varies by circuit; at the pleading stage, allegations of control coupled with a plausible primary violation generally suffice.
-Primary violation. Because the Section 10(b)/Rule 10b-5 claim is sustained in part against Netflix (and, in part, against the Individual Defendants as speakers/signatories), the complaint adequately pleads a predicate primary violation.
-Control. The complaint alleges that Hastings, Sarandos, Neumann, and Peters were top executives with authority over Netflix’s public statements and SEC filings; that certain filings were signed by Hastings, Sarandos, and Neumann; and that they participated in earnings calls and investor conferences where the challenged statements were made. These allegations are sufficient at the pleading stage to plead control.
-Culpable participation/defenses. To the extent culpable participation is required, the same allegations supporting scienter for the surviving Section 10(b) theory—core-operations nature of subscriber/penetration metrics, alleged internal tracking and testing to monetize sharing during the Class Period, and later admissions about the role of sharing and unchanged sharing percentages—plausibly support culpable participation.
-Disposition. The motion to dismiss the Section 20(a) claim is denied. The claim may proceed to the extent it is predicated on the surviving portions of the Section 10(b) claim.</t>
+          <t>Because the complaint states a primary §10(b) claim in part (as narrowed to the penetration/saturation misstatement/omission theory), the §20(a) claim may proceed at the pleading stage. The complaint adequately alleges control: each Individual Defendant held senior executive roles with authority over Netflix’s public reporting and earnings-call communications, signed or had responsibility for SEC filings (10-K/10-Q/8-K materials), and allegedly had access to internal data bearing on subscriber growth and account sharing. Whether any Individual Defendant can establish the statutory good-faith defense is fact-intensive and not resolved on a motion to dismiss.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -892,16 +944,31 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>44706</v>
+        <v>44459</v>
       </c>
       <c r="X4" t="n">
-        <v>2923</v>
-      </c>
+        <v>1878</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cand_22_cv_00105</t>
+          <t>cand_22_cv_02094</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -914,22 +981,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This consolidated securities class action is brought by lead plaintiffs Martin Dugan, Leon Yu, and Max Wisdom Technology Limited on behalf of two overlapping proposed classes: (1) a Securities Act class of purchasers of Talis Biomedical Corporation (“Talis”) common stock pursuant and/or traceable to Talis’s February 11, 2021 initial public offering (“IPO”) Registration Statement; and (2) an Exchange Act class of purchasers of Talis common stock on the open market between March 30, 2021 and March 15, 2022 (inclusive).
-Defendants fall into two groups. For the Securities Act claims, defendants are Talis (issuer) and the Individual Defendants who signed the Registration Statement: CEO/co-founder Brian Coe, CFO J. Roger Moody, and directors Felix Baker, Raymond Cheong, Melissa Gilliam, co-founder/director Rustem Ismagilov, director/Chair Kimberly Popovits, and directors Matthew Posard and Randal Scott. For the Exchange Act claims, defendants are Talis and three officer defendants: Coe, Moody, and Robert Kelley (Chief Commercial Officer during much of the period and CEO from December 2021).
-The complaint centers on alleged misstatements and omissions concerning the development and commercialization readiness of the “Talis One,” a point-of-care molecular diagnostic platform that Talis pivoted to develop for COVID-19 testing in 2020. Plaintiffs allege that, by the time of the IPO, Talis had no functioning commercial product and no viable near-term path to commercialization, but nevertheless marketed the IPO with statements portraying the device as highly accurate, regulatory-ready, and capable of being manufactured at scale.
-Key alleged misconduct and supporting facts:
-1) FDA EUA submission/comparator assay problems. Talis submitted an Emergency Use Authorization (“EUA”) application to the FDA on January 29, 2021. Plaintiffs allege that the submission was “doomed from inception” because Talis used an insufficiently sensitive comparator assay (a benchmark test used to calculate PPA/NPA), contrary to FDA guidance requiring a “high sensitivity” comparator. Plaintiffs allege the Registration Statement touted detailed performance metrics (including high PPA/NPA and “FDA-authorized” comparators) while omitting that the comparator assay was inadequate and that the FDA had already requested additional information pre-IPO. Post-IPO, in late February 2021, the FDA informed Talis it could not ensure the comparator assay had sufficient sensitivity; Talis withdrew the EUA submission and disclosed this on March 8, 2021.
-2) Product design and reliability/high invalid rates. Plaintiffs allege that, before the IPO, the Talis One had serious design defects and high “invalid” test rates (tests yielding unusable results), known internally. The Registration Statement allegedly described the product as “highly accurate” and “reliable,” while framing defects and reliability issues as hypothetical risks rather than existing conditions.
-3) Manufacturing scale and instrument order representations. Plaintiffs allege that the Registration Statement falsely claimed Talis had “ordered 5,000 instruments” for delivery beginning Q4 2020 through Q1 2021 and that automated cartridge lines capable of producing one million cartridges per month would come online in Q1 2021 and scale to full capacity through 2021. According to plaintiffs, Talis had only ordered “components for up to 5,000 instruments” (revealed in the March 15, 2022 Form 10-K) and lacked any realistic ability to achieve the promised cartridge scale in 2021.
-4) Post-IPO Exchange Act statements. For the Exchange Act class period (March 30, 2021–March 15, 2022), plaintiffs challenge repeated statements in SEC filings and earnings calls asserting Talis was “on track,” “on plan,” “ready to go,” in “final stages of validation” of automated cartridge lines, and could ship promptly following EUA approval. Plaintiffs allege these statements were false because manufacturing was not validated, production was not scalable, and invalid rates remained unacceptably high.
-Corrective disclosures and stock-price declines alleged include: March 8, 2021 (withdrawal of first EUA submission); August 10, 2021 (admission of extended timelines); August 30, 2021 (Coe’s abrupt departure); November 15–16, 2021 (phased/limited rollout and delay); December 8, 2021 (new CEO Blaser’s abrupt departure after one week); and March 15, 2022 (no launch timeline; manufacturing insufficient; unacceptable invalid rates; external consultants; workforce reduction; disclosure that only components for up to 5,000 instruments were ordered).
-Claims asserted: (i) Section 11 of the Securities Act against Talis and the Individual Defendants (strict liability as to issuer; negligence as to signatories), (ii) Section 15 of the Securities Act against the Individual Defendants as control persons, (iii) Section 10(b) and Rule 10b-5 against Talis and the officer defendants for the Exchange Act class period, and (iv) Section 20(a) of the Exchange Act against the officer defendants as control persons.
-Significant dates: October 15, 2020 (draft S-1 filed); January 29, 2021 (first EUA submission); February 11, 2021 (IPO pricing/effectiveness); February 12, 2021 (trading begins); March 8, 2021 (withdrawal disclosure); March 30, 2021 (start of Exchange Act class period; 2020 Form 10-K); August 10, 2021 (timeline delay admission); August 30, 2021 (Coe steps down); November 8, 2021 (EUA obtained for second submission); December 1/8, 2021 (Blaser becomes CEO then departs); March 15, 2022 (end of Exchange Act class period; major negative disclosures).</t>
+          <t>Lead Plaintiff Sjunde AP-Fonden (AP7) brings this putative securities-fraud class action on behalf of purchasers of Lucid Group, Inc. (“Lucid”) common stock between November 15, 2021 and August 3, 2022 (inclusive). Defendants are Lucid; its CEO/CTO Peter Rawlinson; and its CFO Sherry House. The complaint alleges Defendants materially misrepresented and omitted facts about Lucid’s ability to ramp production of its only commercially available vehicle, the Lucid Air, and the causes of production shortfalls.
+Core theory: throughout the Class Period Defendants publicly reaffirmed aggressive production guidance (initially 20,000 vehicles for 2022; later reduced to 12,000–14,000) and attributed production risks and shortfalls primarily to external, industry-wide supply-chain/logistics disruptions that Lucid was “mitigating,” while allegedly concealing severe, company-specific internal problems that were already materially impairing production. The alleged internal problems include: dysfunctional/inaccurate inventory systems (failed SAP implementation and reliance on ad hoc spreadsheets), inability to locate and move parts from an over-capacity and disorganized warehouse to the production line, frequent “hot calls” and line shutdowns, widespread scrapping/damage of parts, reflashing/sequencing/quality-control failures, and design-for-manufacturability defects causing supplier inability to meet specs and last-minute design changes. The complaint relies heavily on accounts from multiple former employees describing persistent logistics failures and management awareness, including allegations that Rawlinson internally acknowledged in Oct/early Nov 2021 that 2022 production would be under 10,000 and instructed employees to keep that confidential.
+Key alleged misstatements include: (1) Nov. 15, 2021 earnings release/call (signed by House) stating confidence in producing 20,000 vehicles in 2022 and framing risks as industry-wide supply chain/logistics challenges being mitigated; (2) Nov. 16, 2021 CNBC interview where Rawlinson stated the factory was ready for 34,000 units/year and discussed mitigation of supply-chain issues; (3) Feb. 14, 2022 public-policy executive’s remarks to Arizona legislature reiterating ~20,000 production and suggesting Lucid was in an “enviable” supply position; (4) Feb. 28, 2022 earnings release/call cutting guidance to 12,000–14,000 but continuing to attribute constraints largely to supply-chain/commodity parts and logistics issues framed as external/temporary; (5) May 5, 2022 earnings release/call reaffirming 12,000–14,000 guidance and emphasizing global supply chain/COVID disruptions; and (6) other statements through May 2022 continuing the same theme.
+Corrective disclosures/loss causation: Plaintiffs plead two partial corrective events. On Feb. 28, 2022 Lucid cut 2022 guidance from 20,000 to 12,000–14,000 and disclosed weak 2021 deliveries/production; the stock fell ~13% the next day. On Aug. 3, 2022 Lucid again cut guidance to 6,000–7,000 and, for the first time, emphasized internal logistics-process “immaturity” and inability to feed the line as “primary bottlenecks,” with additional stock decline (~9.7% next day).
+Motive allegations include: Rawlinson’s performance-based RSUs tied to market-cap milestones (allegedly yielding ~14 million RSUs valued around $263 million) and Lucid’s December 2021 convertible notes offering raising roughly $2.0 billion while the stock was allegedly inflated. Claims asserted are (Count I) Section 10(b)/Rule 10b-5 against all Defendants and (Count II) Section 20(a) control-person liability against Rawlinson and House.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (15 U.S.C. § 77k)</t>
+          <t>Count I — Exchange Act §10(b) and Rule 10b-5 (against Lucid, Rawlinson, House)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -939,17 +1000,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a Section 11 claim, plaintiffs must allege that the registration statement, when it became effective, contained an untrue statement of material fact or omitted to state a material fact required to be stated or necessary to make the statements not misleading. Scienter, reliance, and loss causation are not elements (though defendants may raise negative causation as an affirmative defense). Claims sounding in fraud must satisfy Rule 9(b), but plaintiffs expressly disclaim fraud as to the Securities Act counts and plead negligence/strict liability.
-Application. The complaint plausibly alleges multiple actionable misstatements/omissions in the IPO Registration Statement.
-(1) Comparator assay / EUA submission. Plaintiffs allege that Talis chose to speak in detail about PPA/NPA, limits of detection, and use of “FDA-authorized” comparators, and also disclosed that FDA requested “additional information” during preliminary review. Having spoken, Talis had a duty not to omit material facts necessary to make those statements not misleading. The alleged omission—that the comparator assay used for the EUA submission lacked sufficient sensitivity under FDA guidance and thus undermined the reliability of the touted agreement metrics—plausibly renders the described test-performance narrative misleading. Materiality is plausibly alleged because FDA authorization and test accuracy were central to valuation for a development-stage diagnostics company trying to monetize COVID testing in a time-sensitive market.
-(2) Manufacturing scale and “5,000 instruments.” Plaintiffs plausibly plead falsity as to the statement that Talis had “ordered 5,000 instruments” for near-term delivery, based on later admissions that it had ordered only “components for up to 5,000 instruments,” and that delivery timing differed. At the pleading stage, that is sufficient to allege a materially false statement of present fact. Likewise, statements that automated cartridge lines were scheduled to come online in Q1 2021 and scale to full capacity (one million/month) through 2021 are plausibly misleading if, as alleged, Talis lacked a realistic ability to achieve that capacity and was already materially behind internal deadlines.
-(3) Reliability/invalid rates. The Registration Statement’s affirmative statements describing the platform as designed for “highly accurate” and “reliable results,” coupled with risk-factor language framing defects and reliability issues as potential future risks, are plausibly misleading if Talis already faced known high invalid rates and significant design problems. Risk disclosures are not a safe harbor for failing to disclose that the risk has already materialized.
-Rule 8/9(b). The Securities Act allegations are pleaded with sufficient particularity even under Rule 9(b) standards: they identify the challenged statements, the alleged contemporaneous contrary facts, and the basis for those facts (including FDA events and later company disclosures). Accordingly, the motion to dismiss is denied as to Section 11.</t>
+          <t>Taking the allegations as true and applying the PSLRA and Rule 12(b)(6), the complaint plausibly pleads each element.
+(1) Material misstatement/omission. Plaintiffs identify numerous specific statements during the Class Period reaffirming concrete production guidance (20,000; later 12,000–14,000) and attributing production constraints primarily to external/industry-wide supply-chain issues while assuring mitigation. Those are not mere puffery; production guidance and the reasons for inability to meet it are plausibly material to a single-product EV manufacturer whose valuation allegedly turned on production ramp. The complaint also pleads a plausible omission theory: once Defendants chose to speak about the causes of production constraints and the nature of risks to meeting guidance, they had a duty to disclose company-specific, then-existing internal logistics/inventory/design failures that allegedly were the primary bottlenecks.
+(2) Scienter. The complaint pleads a strong inference that at least Rawlinson acted with actual knowledge or deliberate recklessness. It alleges (i) an internal admission in Oct/early Nov 2021 that 2022 production would be &lt;10,000 (contradicting public 20,000 guidance) and instructions to keep it confidential; (ii) repeated management briefings, frequent visits to the plant/warehouse, and daily reports reflecting inventory/hot-call/line-stoppage problems; and (iii) later disclosures characterizing internal logistics immaturity as the primary bottleneck. These allegations, viewed holistically, support an inference at least as compelling as nonfraudulent explanations at the pleading stage. As to House, the complaint plausibly pleads scienter through her role signing key filings, alleged participation in inventory meetings, and alleged receipt of internal information about inventory/logistics dysfunction and scrapping decisions; at minimum, it pleads deliberate recklessness.
+(3) Connection with purchase/sale; (4) reliance; (5) economic loss; and (6) loss causation are adequately alleged. Lucid stock traded in an efficient market; plaintiffs plead inflation/maintenance and invoke Basic/Affiliated Ute presumptions. They allege price declines following Feb. 28, 2022 and Aug. 3, 2022 disclosures that plausibly revealed the truth (guidance cuts and disclosure of internal logistics bottlenecks) and thus plead loss causation at this stage.
+Safe harbor/bespeaks caution. While portions of the guidance are forward-looking, the complaint plausibly alleges they were mixed with present-tense representations about then-existing constraints and mitigation, and that Defendants allegedly knew the guidance lacked a reasonable basis (including alleged internal &lt;10,000 forecast). On the pleadings, this precludes dismissal under the PSLRA safe harbor.
+Accordingly, dismissal is denied as to Count I.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Section 15 of the Securities Act (15 U.S.C. § 77o) (control person liability)</t>
+          <t>Count II — Exchange Act §20(a) (against Rawlinson and House)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -959,47 +1020,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Legal standard. Section 15 imposes liability on persons who control a primary violator of Section 11, unless the control person had no knowledge of or reasonable grounds to believe in the facts giving rise to the violation. At the pleading stage, plaintiffs must allege (1) a primary violation and (2) control.
-Application. Because the Section 11 claim survives, plaintiffs adequately plead a primary violation. The complaint plausibly alleges control by the Individual Defendants based on their roles as CEO/CFO and directors who signed the Registration Statement and allegedly had power to influence its contents and the offering. Signature and board/officer status, together with allegations of authority over disclosures and the offering process, suffice at this stage. Any “no knowledge” defense is fact-intensive and not resolved on a motion to dismiss. The motion is denied as to Section 15.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (17 C.F.R. § 240.10b-5)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Legal standard. To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must plead: (1) a material misrepresentation or omission; (2) scienter (intent to deceive or deliberate recklessness); (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA and Rule 9(b), falsity and scienter must be pleaded with particularity, and scienter must be supported by facts giving rise to a strong inference that is at least as compelling as any opposing inference.
-Material misstatements/omissions. Plaintiffs identify specific statements in SEC filings and earnings calls during the Exchange Act class period: repeated assertions that automated cartridge lines would scale to meet demand through 2021 and reach one million/month capacity; that the company was “on track” and “ready to go” to ship promptly after EUA; that cartridge lines were in the “final stages of validation”; that “results really look terrific” and Talis was “way ahead” in ability to produce product; and that Talis had ordered “5,000 instruments.” Plaintiffs plead contemporaneous contrary facts: internal missed deadlines, inability to scale, lack of validated production lines, high invalid rates, and later admissions that only components were ordered. At the pleading stage, these allegations plausibly establish falsity and materiality because they go to the core question for investors: whether Talis could commercialize and manufacture its only product.
-Scienter. The complaint pleads a strong inference of scienter as to the officer defendants and corporate scienter as to Talis. It relies on multiple confidential former-employee accounts describing known manufacturing failures, unrealistic timelines, and high invalid rates; allegations that Coe was directly briefed in May 2021 about manufacturing timeline problems; allegations that supply-chain issues were raised to personnel reporting to CFO Moody; and the centrality of the Talis One to the company. It further alleges contemporaneous documentary/structural facts supporting access to contrary information: the NIH RADx contract’s milestone and reporting requirements concerning manufacturing and production rates; the thinXXS supply agreement’s forecasting and volume-commitment structure; and the FDA’s requirement to track and report invalid rates post-EUA. The alleged repeated and specific reassurances about manufacturing readiness and “validation,” juxtaposed with later admissions that the company was only “beginning to evaluate” cartridge performance months later and still could not commercialize due to manufacturing yield/consistency and unacceptable invalid rates, support an inference of at least deliberate recklessness.
-Defendants’ alternative inference—that these were good-faith but overly optimistic projections typical of a development-stage company—does not defeat the claim at this stage because plaintiffs allege not merely failed predictions, but misstatements of then-existing conditions (e.g., “final stages of validation,” “ordered 5,000 instruments,” readiness to ship promptly) and omission of known problems already undermining those claims.
-Reliance. Plaintiffs plead market efficiency and invoke Basic’s fraud-on-the-market presumption, which is sufficient at the pleading stage.
-Loss causation. Plaintiffs plead a series of partially corrective disclosures and materialization of concealed risks (August 2021 delay admission; leadership departures; November 2021 phased rollout delay; March 15, 2022 disclosure of unacceptable invalid rates, manufacturing insufficiency, no timeline, external consultants, and correction re “components” vs. “instruments”), along with associated stock declines. That plausibly pleads loss causation.
-Accordingly, the motion to dismiss is denied as to the Section 10(b)/Rule 10b-5 claim.</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Section 20(a) of the Exchange Act (15 U.S.C. § 78t(a)) (control person liability)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Legal standard. To plead Section 20(a), plaintiffs must allege: (1) a primary violation of the federal securities laws by the controlled person; and (2) that the defendant exercised actual power or control over the primary violator. Some circuits also require culpable participation; at the pleading stage, allegations of power to control corporate statements and policies generally suffice.
-Application. Because the Section 10(b) claim survives, the complaint pleads a primary violation by Talis. The officer defendants are alleged to have held senior executive positions (CEO/CFO/CEO) with authority over SEC filings and public statements, and to have signed and certified certain reports and made challenged statements on earnings calls. These allegations plausibly plead control. Any good-faith defense is not resolved on a motion to dismiss. The motion is denied as to Section 20(a).</t>
-        </is>
-      </c>
+          <t>Because the §10(b) claim is adequately pleaded, and the complaint plausibly alleges Rawlinson and House exercised control over Lucid’s public statements and operations as CEO/CTO and CFO (including signing filings and participating in earnings calls and disclosures), the control-person claim is sufficiently pleaded at this stage. The complaint also pleads culpable participation/knowledge sufficient to survive a motion to dismiss under the standards typically applied in this Circuit. Accordingly, Count II is sustained.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -1007,16 +1036,31 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>39748</v>
+        <v>76302</v>
       </c>
       <c r="X5" t="n">
-        <v>3173</v>
-      </c>
+        <v>1606</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cand_22_cv_02094</t>
+          <t>cand_23_cv_02560</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1029,19 +1073,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>This putative securities-fraud class action is brought by court-appointed Lead Plaintiff Sjunde AP-Fonden (“AP7”) on behalf of all persons and entities who purchased or otherwise acquired Lucid Group, Inc. (“Lucid”) common stock between November 15, 2021 and August 3, 2022, inclusive (the “Class Period”), and were damaged thereby. Defendants are: (1) Lucid (a Delaware corporation headquartered in Newark, California, trading on Nasdaq as “LCID”), and (2) two individual officers—Peter Rawlinson (CEO/CTO) and Sherry House (CFO) (together, the “Individual Defendants”).
-The complaint alleges a scheme to mislead investors about Lucid’s ability to ramp production of its only commercially available vehicle, the Lucid Air, and about the real reasons production was falling short. According to the complaint, Lucid’s business success depended on mass production and delivery of the Air; investors and analysts were “laser-focused” on production guidance, and Lucid repeatedly touted aggressive production targets (notably 20,000 vehicles in 2022) in connection with and after its July 2021 SPAC merger that took the company public.
-The alleged fraudulent conduct centers on Defendants’ repeated public statements during the Class Period that Lucid remained confident it could meet (i) 20,000 vehicles in 2022, then (ii) after a February 28, 2022 cut, 12,000–14,000 vehicles in 2022—while allegedly concealing that Lucid was suffering from severe, pervasive, Lucid-specific internal logistics and production problems that made those targets unattainable. The complaint alleges Defendants instead attributed the production shortfalls primarily to external, industry-wide supply chain and logistics disruptions, and assured investors Lucid was mitigating those issues. Plaintiffs allege this created a materially misleading impression that Lucid was internally ready and able to scale, constrained mainly by transient external factors.
-Key factual allegations supporting falsity and omission include extensive accounts from former employees and contractors describing: (1) dysfunctional inventory and warehouse-management systems (failed SAP implementations; reliance on inaccurate third-party systems and manual spreadsheets; inability to locate parts; inaccurate counts); (2) a warehouse operating far above capacity (parts stacked unsafely, aisles blocked, parts crushed/damaged); (3) inability to get parts to the Arizona manufacturing plant in time, leading to frequent “hot calls” and repeated line shutdowns; (4) reflashing/sequencing/quality-check failures that caused parts to be rejected or unusable; (5) significant scrapping of parts (including alleged management awareness and approvals); and (6) design/manufacturability problems causing supplier inability to meet specifications, last-minute design changes, and rework.
-Scienter allegations include that Rawlinson and senior management allegedly knew before the Class Period that the 20,000 target was unattainable. A key allegation is that in October 2021 or early November 2021 Rawlinson told a small group of employees Lucid would produce fewer than 10,000 vehicles in 2022 and instructed confidentiality. The complaint also alleges Rawlinson regularly visited the warehouse and plant, received internal reports, and took steps to “band-aid” logistics issues—supporting an inference he knew the problems were severe and ongoing. As to motive, the complaint alleges Rawlinson’s compensation included large performance-based RSUs tied to market-cap milestones, and Lucid also conducted a December 2021 convertible notes offering raising approximately $2.0 billion when the stock was allegedly inflated.
-The complaint pleads two partial corrective disclosures: (1) February 28, 2022—Lucid cut 2022 production guidance from 20,000 to 12,000–14,000, and the stock fell about 13% (from $28.98 to $24.99). Plaintiffs allege this was only a partial revelation because Defendants still blamed external supply chain issues and concealed the internal logistics dysfunction; and (2) August 3, 2022—Lucid again cut guidance to 6,000–7,000 and disclosed that internal logistics-process immaturity and inability to get the right parts to the line were “primary bottlenecks,” with the stock falling about 9.7% (from $20.56 to $18.56).
-The legal claims asserted are: (Count I) Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants, based on alleged material misrepresentations and omissions regarding production guidance and the causes of production constraints; and (Count II) Section 20(a) control-person liability against the Individual Defendants based on the alleged primary violation.
-Significant dates: Feb. 22, 2021 (SPAC merger announced); July 23, 2021 (merger closed); July 26, 2021 (LCID begins trading); Sept. 28, 2021 (Lucid announces start of production); Oct. 30, 2021 (first deliveries); Nov. 15, 2021 (start of Class Period; first public-company quarterly results; reaffirmed 20,000 guidance); Dec. 8, 2021 (convertible notes offering announced); Feb. 28, 2022 (guidance cut to 12,000–14,000); May 5, 2022 (reaffirmed 12,000–14,000); Aug. 3, 2022 (end of Class Period; guidance cut to 6,000–7,000; internal logistics disclosed).</t>
+          <t>This is a putative securities-fraud class action brought by court-appointed Lead Plaintiff New England Teamsters Pension Fund on behalf of purchasers of Cutera, Inc. (“Cutera” or “CUTR”) common stock during the alleged class period March 1, 2022 through March 21, 2024. Defendants are Cutera and senior executives/directors: former CEO David Mowry, former CFO Rohan Seth, former Executive Chairman/Chairman J. Daniel Plants, former Interim CEO/Director Sheila Hopkins, current CEO/Director Taylor Harris, current/Interim CFO Stuart Drummond, and former General Counsel Vikram Varma.
+The Complaint alleges a company-wide breakdown in inventory management and internal controls over financial reporting (ICFR), coupled with a rushed and ultimately unsuccessful commercial rollout of Cutera’s acne laser device “AviClear.” Plaintiffs allege Defendants (i) misrepresented the effectiveness of Cutera’s internal controls and inventory systems (including through SOX certifications), (ii) misrepresented the success of AviClear and the health of Cutera’s “Core Capital” legacy business, and (iii) concealed that AviClear’s rollout diverted manufacturing/sales resources from the core business, caused quality/reliability and service issues, led to excessive returns and excess inventory, and contributed to accounting errors.
+Key factual themes include: (1) implementation problems with ERP/SAP and Salesforce beginning in early 2022, lack of training/oversight, and inadequate physical inventory controls; (2) operational consequences such as parts shortages, order-fulfillment failures, service delays, and a multi-week plant shutdown tied to inventory audit/count issues; (3) AviClear commercialization allegedly driven by an executive equity incentive plan (“AviClear Incentive Plan”/“Acne Equity Grant”) rewarding rapid device placements rather than utilization, leading to aggressive placements (sometimes allegedly “free” or bundled), low utilization, customer dissatisfaction, and returns; and (4) eventual disclosures culminating in a March 2024 restatement of Q1 and Q2 2023 financials for inventory-related accounting errors (overstated inventory/understated cost of revenue) and additional identified material weaknesses.
+The Complaint pleads a series of alleged corrective disclosures/materializations of risk with associated stock drops: January 9, 2023 (revenue miss linked to AviClear diversion), March 16, 2023 (late 10-K and material weakness disclosures), April 12, 2023 (Mowry/Plants terminated “with cause”), May 9, 2023 (poor Q1 2023 results, plant shutdown disclosure, Seth resignation), August 8, 2023 (reliability and utilization issues), November 8, 2023 (inventory shortfall, delayed 10-Q, restatement announcement), March 5, 2024 (restatement filed), and March 21, 2024 (further disclosures tying excessive inventory—“most notably AviClear”—to margins and expected returns). The asserted claims are (1) Section 10(b) and Rule 10b-5(b) against all Defendants, and (2) Section 20(a) control-person liability against the Individual Defendants.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (against all Defendants)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5(b) (misstatements/omissions) against Cutera and Individual Defendants</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1051,23 +1091,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiffs must allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007). Under the PSLRA and Rule 9(b), falsity must be pleaded with particularity, and scienter must be pleaded with particularity giving rise to a “strong inference” that is at least as compelling as any opposing inference.
-1. Material misrepresentation/omission (PSLRA). The complaint identifies specific statements during the Class Period, including: (a) November 15, 2021 press release and earnings call (confidence in achieving 20,000 units in 2022; risks framed as industrywide supply chain/logistics, mitigated); (b) November 16, 2021 CNBC interview (factory “ready for 34,000 units per annum,” and supply-chain issues framed as industrywide with mitigation plans); (c) February 14, 2022 Arizona legislature remarks (20,000 units; Lucid in “enviable position” vs larger OEMs; capacity to fill orders); (d) February 28, 2022 guidance cut to 12,000–14,000, framed as extraordinary supply chain/logistics challenges and quality focus; (e) May 5, 2022 reaffirmation of 12,000–14,000, again conditioned on supply chain/logistics disruptions and mitigation plans; and (f) other similar statements through May 2022.
-At the pleading stage, plaintiffs adequately allege falsity in two interrelated ways: (i) the production guidance itself allegedly lacked a reasonable basis because Defendants allegedly knew internally that production would be under 10,000 for 2022; and (ii) Defendants allegedly misled investors by attributing the primary constraints to external, industrywide supply-chain/logistics issues while omitting severe Lucid-specific internal logistics/inventory/warehouse dysfunction and design/manufacturability problems that were allegedly already materially impairing production.
-Statements of production “guidance” can be actionable where plaintiffs plead particularized facts showing the speaker lacked a reasonable basis or did not genuinely believe the projection when made. Here, the complaint pleads, with detail, that Rawlinson allegedly told employees in October/early November 2021 that Lucid would produce fewer than 10,000 vehicles in 2022 and instructed confidentiality; multiple former employees allegedly corroborate broad internal understanding that targets would be missed; and the complaint provides extensive factual allegations (inventory-system failures, overcapacity, inability to locate parts, hot calls, line shutdowns, scrapping, and design issues) that plausibly support why the guidance could be unattainable.
-Additionally, once Defendants chose to speak about the reasons for production constraints—repeatedly emphasizing industrywide supply chain disruptions and mitigation—they assumed a duty to speak fully and not misleadingly. At the pleading stage, the alleged omission of severe internal logistics dysfunction is plausibly material because production capacity and ramp feasibility were central valuation drivers, and the complaint plausibly alleges the market reacted to production guidance and explanations.
-Defendants’ likely arguments that some statements are puffery (e.g., “progress,” “confident,” “mitigation plans,” “quality focus”) do not warrant dismissal of the claim as a whole because the complaint also targets concrete, verifiable guidance numbers and specific causal explanations about what was constraining production. Similarly, the PSLRA safe harbor does not require dismissal at this stage because plaintiffs plead particularized facts supporting actual knowledge of falsity as to forward-looking guidance (including the alleged internal &lt;10,000 admission and contemporaneous operational facts), and many challenged statements are mixed present/future statements (e.g., describing current bottlenecks, current readiness, current mitigation).
-2. Scienter (Tellabs; PSLRA). Plaintiffs plead a strong inference of scienter as to Rawlinson. The complaint alleges: (a) an internal admission by Rawlinson in October/early November 2021 that 2022 production would be &lt;10,000 and instruction to keep it confidential; (b) repeated, detailed warnings to Rawlinson about warehouse dysfunction and inability to get parts to the line; (c) Rawlinson’s frequent visits to the warehouse and plant and receipt of internal reports; and (d) repeated public reaffirmations of higher guidance notwithstanding those alleged facts.
-As to House, the complaint pleads scienter adequately at the motion-to-dismiss stage. It alleges House signed key SEC filings/press releases containing the guidance and explanations; attended or was involved in meetings about inventory-control problems; denied or was involved in denials of full physical inventory requests allegedly for “books” reasons; and received requests to approve scrapping material. While the inference of House’s scienter may be weaker than Rawlinson’s, Tellabs requires a holistic assessment. Given the centrality of production guidance to Lucid’s business, the repeated nature of the statements, her role as CFO signing the challenged disclosures, and the pleaded allegations that she was informed of inventory/logistics dysfunction, plaintiffs plead at least deliberate recklessness sufficient at this stage.
-Lucid’s scienter is adequately pleaded through the alleged scienter of its senior officers and the detailed allegations that information about production constraints and warehouse dysfunction was known and communicated within management.
-3. Reliance. Plaintiffs plead reliance via the fraud-on-the-market presumption (Basic Inc. v. Levinson) based on an efficient market for Nasdaq-traded LCID and analyst coverage, and alternatively via Affiliated Ute for omissions. At the pleading stage, that suffices.
-4. Loss causation and economic loss. Plaintiffs plead two alleged corrective disclosures/partial revelations: February 28, 2022 (guidance cut to 12,000–14,000; stock drop ~13%) and August 3, 2022 (guidance cut to 6,000–7,000 and disclosure that internal logistics immaturity was a primary bottleneck; stock drop ~9.7%). These allegations plausibly connect the revelation of the concealed risk/true state of production constraints to price declines. Whether other market forces contributed is a merits question not resolved on a motion to dismiss where plaintiffs plausibly plead a causal link.
-Accordingly, the motion to dismiss is denied as to Count I.</t>
+          <t>Taking the allegations as true and applying the PSLRA and Rule 9(b), the Complaint pleads with sufficient particularity (i) numerous identified public statements (press releases, earnings calls, SEC filings, and SOX certifications) concerning internal controls, inventory management, AviClear demand/success, and Core Capital performance; (ii) why they were allegedly misleading at the time (ERP/SAP/Salesforce failures, lack of physical inventory controls, known supply chain/service disruptions, customer dissatisfaction/returns, diversion of resources, and ultimately admitted inventory shortfalls and restatement); and (iii) when and how the truth emerged through a sequence of disclosures.
+Materiality is plausibly alleged: internal-control effectiveness, inventory accuracy, and product demand/utilization are the sort of information a reasonable investor would consider important, and the alleged restatement and inventory shortfalls support an inference of material misstatement as to the affected quarters.
+Scienter is plausibly and strongly inferred at the pleading stage as to the Company and key officers who signed filings/certifications and spoke on the challenged topics. The Complaint alleges contemporaneous internal knowledge from multiple confidential witnesses about pervasive inventory/system failures and customer/service problems; executive-level involvement in AviClear strategy and resource allocation; repeated reassurances despite mounting operational failures; terminations “with cause” and CFO resignation in temporal proximity to disclosures; and the later restatement and identification of material weaknesses. While defendants may ultimately contest the reliability of CW accounts, the allegations collectively support at least a cogent inference of recklessness sufficient under Tellabs at this stage.
+Loss causation is plausibly alleged through a chain of partial corrective disclosures/materialization of risk events tied to the alleged misrepresentations (revenue miss linked to AviClear diversion; late filings and material weaknesses; leadership terminations; plant shutdown and execution issues; reliability/utilization disclosures; inventory shortfall and restatement; and final disclosures tying excess inventory/returns to AviClear and margins), each followed by significant price declines.
+To the extent some statements are arguably corporate optimism or puffery (e.g., generalized enthusiasm about “momentum” or “green shoots”), the Complaint also pleads concrete, verifiable statements about internal controls and inventory accounting (including SOX certifications) and specific representations about AviClear adoption/demand and customer non-attrition. Those non-puffery statements independently support the claim. Accordingly, dismissal is denied.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability) (against Rawlinson and House)</t>
+          <t>Exchange Act §20(a) (control person) against Individual Defendants</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1077,11 +1110,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Legal standard. To plead Section 20(a) control-person liability, plaintiffs must allege: (1) a primary violation of the federal securities laws by the controlled person; and (2) that the defendant exercised actual power or control over the primary violator. Many courts also require culpable participation, though the precise formulation varies by circuit; at the pleading stage, allegations of control plus participation in the challenged statements typically suffice.
-1. Primary violation. Because the Section 10(b) and Rule 10b-5 claim is adequately pleaded and survives, the first element is satisfied.
-2. Control. The complaint pleads that Rawlinson was CEO/CTO and House was CFO during the Class Period; both allegedly had authority over Lucid’s public statements, participated in earnings calls, and House signed key SEC filings/Forms 8-K. Those allegations plausibly establish control at the pleading stage.
-3. Culpable participation/role. Plaintiffs further allege each Individual Defendant’s direct involvement in the challenged disclosures and access to information about production constraints. That is sufficient to plead Section 20(a) at this stage.
-Accordingly, the motion to dismiss is denied as to Count II.</t>
+          <t>Because the §10(b) claim is adequately pleaded, the Complaint also plausibly pleads §20(a) control-person liability. It alleges each Individual Defendant’s position, authority over SEC filings/earnings communications, participation in management, and—at least at the pleading stage—culpable participation in the alleged primary violations through signing filings/SOX certifications and/or making or approving challenged statements. Defendants’ arguments about lack of control or good faith raise fact issues not resolvable on a motion to dismiss. Accordingly, the §20(a) claim is sustained.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1097,16 +1126,31 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>76549</v>
+        <v>66670</v>
       </c>
       <c r="X6" t="n">
-        <v>2922</v>
-      </c>
+        <v>1387</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cand_23_cv_02560</t>
+          <t>cand_23_cv_03518</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1119,31 +1163,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>This putative securities-fraud class action is brought by court-appointed Lead Plaintiff New England Teamsters Pension Fund on behalf of purchasers of Cutera, Inc. (“Cutera” or “CUTR”) common stock during March 1, 2022 through March 21, 2024 (the “Class Period”). Defendants are Cutera and seven current/former senior executives: former CEO David Mowry; former CFO Rohan Seth; former Executive Chairman/Chairman J. Daniel Plants; former Interim CEO Sheila Hopkins; current CEO Taylor Harris; current CFO/Interim CFO Stuart Drummond; and former SVP/General Counsel Vikram Varma.
-The complaint alleges a company-wide fraud centered on (1) undisclosed, pervasive failures of inventory management and internal controls over financial reporting (“ICFR”), and (2) a rushed and ultimately unsuccessful rollout of Cutera’s acne laser device “AviClear,” which allegedly exacerbated inventory and operational chaos and harmed Cutera’s core business (“Core Capital”). Plaintiffs contend defendants repeatedly told investors the opposite: that internal controls were effective or being remediated, that AviClear’s launch and demand were strong, and that Cutera’s core business remained healthy.
-Key factual allegations include:
-• Inventory/ERP/internal controls failures: Cutera allegedly lacked adequate inventory controls and had a botched implementation of SAP/ERP and Salesforce beginning in early 2022, with inadequate training and oversight. Former employees (CWs) describe discrepancies between system-record inventory and physical inventory, lack of warehouse access controls, backorders, inability to fulfill parts/orders, and a January 2023 extended plant shutdown (additional ~3 weeks beyond the normal annual count) driven by audit/inventory-count issues. Plaintiffs allege these deficiencies caused Cutera to overstate inventory and understate cost of revenue, gross margin, and losses in 1Q and 2Q 2023.
-• AviClear rollout allegedly driven by executive compensation incentives: Plaintiffs allege an “AviClear Incentive Plan” (also referred to as the “Acne Equity Grant”) rewarded executives based on the number and speed of AviClear placements, not utilization. Plaintiffs allege this incentive caused defendants (especially Mowry and Plants) to push aggressive placements (including via a leasing/subscription model and giving devices away/bundling), divert sales/manufacturing resources from Core Capital, and rush product readiness, resulting in reliability issues, customer dissatisfaction, and returns.
-• Misstatements/omissions: Throughout the Class Period, defendants allegedly made materially false or misleading statements in SEC filings, earnings calls, and press releases concerning (a) the effectiveness/remediation of internal controls and inventory management; (b) the success, demand, adoption, and utilization of AviClear; and (c) the health of Core Capital. The complaint emphasizes SOX certifications signed by various CEO/CFO combinations and alleges those certifications were false given the later restatement and disclosed material weaknesses.
-• Corrective disclosures / significant dates:
-  - April 2022: limited commercial launch of AviClear; March 2022 FDA clearance referenced.
-  - Jan. 9, 2023: preliminary 2022 revenue below expectations, attributed in part to sales focus on AviClear; stock fell &gt;23%.
-  - Mar. 16, 2023: disclosure of inability to timely file 2022 Form 10-K and material weaknesses (including inventory count controls); stock fell ~12.5%.
-  - Apr. 11–12, 2023: Mowry and Plants terminated “with cause,” outlook withdrawn; stock fell &gt;28%.
-  - May 9, 2023: poor 1Q 2023 results; disclosure of extended plant shutdown; Seth resigned as CFO; stock fell ~30% over two sessions.
-  - Aug. 8–9, 2023: disclosure of reliability/service issues and declining AviClear utilization; stock fell ~22–25%.
-  - Nov. 8–9, 2023: disclosure of $8–$9M inventory shortfall vs. system of record, delay of 10-Q, and intent to restate 1Q/2Q 2023; stock fell ~42.6%.
-  - Mar. 5, 2024: issuance of restated 1Q/2Q 2023 financials (inventory overstatement; cost-of-revenue understatement) and disclosure of an additional material weakness in risk assessment; stock fell ~3.3%.
-  - Mar. 21–22, 2024: disclosure of excessive inventory (notably AviClear), large inventory reserves, and expected additional AviClear returns; stock fell &gt;30% (and further next day). Plaintiffs allege this date fully revealed the fraud.
-Legal claims asserted:
-• First claim: Section 10(b) of the Exchange Act and SEC Rule 10b-5(b) against Cutera and all Individual Defendants, based on alleged material misstatements/omissions concerning internal controls/inventory, AviClear rollout success, and financial statements (including restated quarters).
-• Second claim: Section 20(a) control-person liability against the Individual Defendants, predicated on a primary Section 10(b)/Rule 10b-5 violation.
-The complaint alleges reliance under the fraud-on-the-market presumption and pleads loss causation via the above series of partial corrective disclosures culminating on March 21, 2024.</t>
+          <t>Parties: Lead Plaintiff Dr. Myo Thant brings a putative securities class action on behalf of purchasers of Rain Oncology Inc. (f/k/a Rain Therapeutics Inc.) common stock during the Class Period, April 23, 2021 through May 19, 2023, inclusive. Additional named plaintiff Branden Schenkhuizen alleges purchases pursuant and/or traceable to Rain’s April 2021 IPO registration statement/prospectus. Defendants are (i) Rain; (ii) Avanish Vellanki (Chairman/CEO) and Richard Bryce (EVP/CMO) (the “Individual Defendants”); and (iii) six director defendants (Berger, Davis, Hrustanovic, Nguyen, Radovich, Wolff) who served on the board at the time of the IPO (the “Director Defendants”).
+Alleged misconduct / theory: Plaintiffs allege Defendants materially misrepresented and omitted facts about Rain’s clinical development strategy for milademetan (RAIN-32), an MDM2 inhibitor licensed from Daiichi Sankyo, by portraying the drug as “de-risked” and the dosing schedule as “validated,” and by touting Rain’s decision to skip Phase 2 and proceed directly from Daiichi Sankyo’s Phase 1 data to a “pivotal” Phase 3 trial (the MANTRA study). Plaintiffs contend Phase 2 bypass is appropriate only in narrow circumstances (well-characterized mechanism of action and safety profile), which milademetan allegedly lacked given it was first-in-human in Phase 1 and MDM2 inhibitors’ known hematologic toxicity risks. Plaintiffs further allege Rain repeatedly described itself as a “late-stage” precision oncology/biotechnology company and used pipeline tables/graphics implying Rain conducted Phase 1 and Phase 2 work, despite having no role in the Phase 1 trial and not conducting Phase 2. Plaintiffs allege the SEC had previously required Rain (pre-IPO) to remove “late-stage,” “best-in-class,” and misleading pipeline depictions, and that Rain resumed similar messaging post-IPO.
+Key facts alleged: (1) Daiichi Sankyo’s Phase 1 (U101) was a first-in-human, single-arm study (2013–2020) that sought a recommended Phase 2 dose; a dosing schedule of 260 mg intermittently was identified during the study; only 16 DDLPS patients received that regimen, reporting median PFS of 7.4 months. (2) Rain licensed milademetan in Sept. 2020 and went public April 2021, raising ~$121.9 million net. (3) Rain initiated the Phase 3 MANTRA trial July 20, 2021 (randomized against trabectedin; ~160 patients). (4) September 20, 2021 publication of a separate Daiichi Sankyo intimal sarcoma study reported high rates of Grade 3 hematologic toxicities at 260 mg; stock allegedly fell. (5) On May 22, 2023, Rain announced MANTRA topline results: primary endpoint not met (median PFS 3.6 months vs 2.2 months; HR 0.89; p=0.53) and high Grade 3/4 hematologic adverse events; Rain stated it did not expect to pursue further development of milademetan in DDLPS; stock fell from $9.93 (May 19, 2023) to $1.22 (May 22, 2023). (6) Thereafter Rain suspended/wound down milademetan development and pursued strategic alternatives, culminating in a Pathos AI tender offer announced Dec. 13, 2023.
+Claims asserted: (Count I) Exchange Act §10(b) and Rule 10b-5 against Rain, Vellanki, and Bryce; (Count II) Exchange Act §20(a) control-person liability against Vellanki and Bryce; (Count III) Securities Act §11 against Rain and Director Defendants based on the IPO registration statement/prospectus; (Count IV) Securities Act §15 control-person liability against Director Defendants. Plaintiffs seek classwide damages for alleged inflation and corrective disclosures/materialization of risk.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5(b)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (Count I) against Rain, Vellanki, and Bryce</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1153,24 +1181,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiffs must allege (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd.; Dura Pharm., Inc. v. Broudo. Under the PSLRA and Rule 9(b), falsity must be pled with particularity, and scienter must be pled with facts giving rise to a strong inference that is cogent and at least as compelling as any opposing inference.
-1. Material misrepresentation/omission (falsity and materiality). The complaint pleads with sufficient particularity multiple categories of actionable statements.
-(a) Statements about internal controls and inventory/accounting. Plaintiffs identify specific SEC filings and SOX certifications in which CEO/CFO signatories represented that disclosure controls and ICFR were designed and effective to provide reasonable assurance of reliable GAAP reporting. The complaint then pleads concrete, later-disclosed facts: (i) an $8–$9 million inventory shortfall vs. the system of record revealed in November 2023; (ii) the March 2024 restatement of 1Q and 2Q 2023 financials correcting inventory overstatements and corresponding cost-of-revenue understatements; and (iii) disclosure of material weaknesses, including an additional material weakness in risk assessment.
-At the pleading stage, a restatement and disclosure of material weaknesses do not automatically establish fraud, but they are strong, particularized factual support for falsity as to statements asserting accurate financials and effective controls during the affected periods. Here, plaintiffs also plead operational facts (botched ERP implementation, lack of training/oversight, physical access/control issues, parts backlogs, and an extended audit-driven shutdown) that plausibly connect the misstatements to contemporaneous conditions.
-(b) Statements touting AviClear “successful launch,” “growing adoption,” “strong demand,” and denials that customers stopped using AviClear. Some of these statements are potentially nonactionable puffery (e.g., generalized optimism), but several are pleaded as concrete factual assertions about adoption/demand and customer behavior (e.g., “AviClear has seen growing physician adoption and steadily increasing patient demand”; and Mowry’s categorical “No” to whether any customer stopped using AviClear). The complaint pleads contrary internal facts from multiple former employees: low utilization, customer dissatisfaction, attempted returns, and internal discussions of poor performance by mid-2022. At this stage, those allegations suffice to plead falsity and materiality.
-(c) Statements about Core Capital strength and resource allocation. Plaintiffs plead that defendants repeatedly represented Core Capital was strong and that the sales process was “aligned,” while internally directing the sales force to prioritize AviClear placements and thereby harming Core Capital sales. The complaint cites contemporaneous analyst reports reflecting management’s admissions that the sales force “took their eye off the ball” on the core business. These allegations plausibly support that the challenged statements were misleading by omission (failing to disclose the extent of diversion and its impact).
-Materiality is plausibly alleged because the challenged topics—ICFR/inventory accuracy, restated financial metrics, and the success of a “transformative” product line—are the sort of information a reasonable investor would consider important.
-2. Scienter. Plaintiffs plead a strong inference of at least deliberate recklessness. The complaint alleges: (i) repeated internal warnings and complaints reaching senior leadership (including direct customer complaints to the CEO); (ii) the centrality of inventory management and AviClear to Cutera’s operations; (iii) the magnitude and persistence of inventory discrepancies culminating in an $8–$9M shortfall and restatement; (iv) the extended plant shutdown tied to audit/inventory count issues; (v) executive compensation incentives tied to AviClear placements; and (vi) abrupt leadership changes (Mowry and Plants terminated “with cause,” Seth resignation).
-While defendants may ultimately argue a nonculpable inference (poor execution, negligent controls, or accounting mistakes during a systems transition), at the motion-to-dismiss stage the pleaded facts, taken collectively, support an inference that is at least as compelling: senior executives allegedly knew of serious inventory/control breakdowns and AviClear performance issues while making affirmative public assurances and signing SOX certifications.
-3. Reliance. Plaintiffs plead an efficient market for CUTR (Nasdaq listing, analyst coverage, trading volume) and invoke Basic fraud-on-the-market reliance. That is sufficient at this stage.
-4. Loss causation and economic loss. Plaintiffs plead a series of stock drops tied to disclosures about revenue misses linked to AviClear, late filings and material weaknesses, executive terminations, plant shutdown and operational issues, the inventory shortfall and restatement, and later disclosures of excessive inventory (notably AviClear) and inventory reserves. Under Dura and Ninth Circuit pleading standards, plaintiffs need only plausibly allege that the revelation of the truth (or materialization of the concealed risk) caused the loss. The complaint does so with specific dates, content of disclosures, and price reactions.
-5. PSLRA safe harbor/puffery. To the extent some statements are forward-looking or vague corporate optimism, defendants may later narrow the actionable set. But the complaint also targets present-tense assertions about controls, adoption/demand, utilization, and the accuracy of financial statements, which are not immunized by the safe harbor. At the pleading stage, the presence of some nonactionable statements does not warrant dismissal of the entire claim.
-Accordingly, the motion to dismiss is denied as to the Section 10(b)/Rule 10b-5(b) claim.</t>
+          <t>Accepting the pleaded facts as true at the motion-to-dismiss stage, the complaint plausibly alleges actionable misstatements/omissions, materiality, scienter, loss causation, and reliance.
+(1) Misstatement/omission and materiality. Plaintiffs identify numerous specific statements in the IPO prospectus, Forms 10-Q/10-K, press releases, and presentations asserting that Phase 1 data “validated” a dosing schedule that “mitigate[d] safety concerns,” and that “based on these data” Rain could commence/commenced a “pivotal Phase 3” trial—i.e., that the Phase 1 dataset sufficiently supported Phase 2 bypass. Plaintiffs allege contrary facts: Daiichi Sankyo’s protocol contemplated a recommended Phase 2 dose and a Phase 2 program; Part 2 dose expansion was abandoned; the key DDLPS efficacy signal was based on 16 patients; and MDM2 inhibitors carried known hematologic toxicity concerns. At minimum, these allegations plausibly support that the challenged statements could mislead a reasonable investor about the evidentiary basis and risk profile of Rain’s development plan and dosing optimization. Separately, statements describing Rain as “late-stage” and pipeline depictions implying Rain conducted Phase 1/Phase 2 work are plausibly misleading as to Rain’s operational experience and the maturity of its program, particularly where the complaint alleges the SEC required Rain to remove similar characterizations pre-IPO.
+(2) PSLRA scienter. The complaint pleads a strong inference of at least deliberate recklessness. It alleges (i) repeated SEC comments to Vellanki pre-IPO flagging the very issues later repeated post-IPO (late-stage characterization, pipeline table accuracy, and best-in-class inferences); (ii) the centrality of milademetan/MANTRA to Rain’s valuation and survival; (iii) former-employee allegations that Vellanki and Bryce understood Phase 1 produced a recommended Phase 2 dose and that proceeding directly to Phase 3 was aggressive given the small dataset; and (iv) post-IPO repetition of the challenged themes in signed/certified SEC filings. These allegations, taken together, support a cogent and compelling inference that defendants knew or were reckless in not knowing that their “validated/de-risked/mitigated safety” and “based on these data” messaging could be misleading.
+(3) Loss causation. Plaintiffs plead corrective disclosure/materialization-of-risk theories tied to identified events and price drops, including the May 22, 2023 MANTRA failure and safety profile, and an earlier September 20, 2021 toxicity publication viewed as a red flag. At this stage, it is plausible that revelation of lack of efficacy and elevated hematologic AEs in MANTRA, coupled with analyst commentary attributing the outcome to Phase 2 bypass/dose optimization issues, removed inflation attributable to the alleged misrepresentations.
+(4) Reliance. The complaint pleads an efficient market (Nasdaq, analyst coverage, trading volume) supporting Basic’s fraud-on-the-market presumption, and alternatively pleads omissions supporting Affiliated Ute.
+To the extent some statements (e.g., “potential to be best-in-class”) may be argued puffery, the claim is nonetheless sustained because the complaint pleads multiple concrete statements about validation of dosing/safety mitigation, the basis for Phase 3 advancement, and Rain’s stage/experience—statements that are not mere optimism when coupled with alleged contradictory facts.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Section 20(a) (control person liability)</t>
+          <t>Exchange Act §20(a) (Count II) against Vellanki and Bryce</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1180,19 +1201,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Legal standard. Section 20(a) imposes joint and several liability on a person who directly or indirectly controls a primary violator of the Exchange Act, unless the defendant acted in good faith and did not directly or indirectly induce the act constituting the violation. To plead a Section 20(a) claim, plaintiffs must allege (1) a primary violation by the controlled person/entity and (2) control by the defendant.
-Primary violation. Because the Section 10(b)/Rule 10b-5 claim is adequately pleaded, the complaint sufficiently alleges a primary violation by Cutera.
-Control. The complaint alleges each Individual Defendant’s senior officer/director role during the Class Period and their authority over SEC filings, earnings calls, press releases, and SOX certifications, including that several signed the challenged filings. Those allegations plausibly plead control at the pleading stage.
-Good faith. Good faith is an affirmative defense not typically resolved on a motion to dismiss unless it is apparent on the face of the complaint. It is not.
-Accordingly, the motion to dismiss is denied as to the Section 20(a) claim.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+          <t>Because the §10(b) claim is adequately pleaded, and the complaint plausibly alleges Vellanki and Bryce exercised control over Rain’s public statements and SEC filings (executive roles, signing/certifying filings, quoted in press releases, involvement in strategy and disclosures), plaintiffs state a plausible §20(a) claim. Any “culpable participation” requirement is satisfied at the pleading stage by the same allegations supporting scienter and direct involvement in dissemination of the challenged statements.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Securities Act §11 (Count III) against Rain and Director Defendants (IPO registration statement/prospectus)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Plaintiffs plausibly allege the IPO registration statement/prospectus contained materially untrue statements and/or omitted material facts.
+The prospectus allegedly stated that the Phase 1 trial “validated” a rationally designed dosing schedule shown to mitigate safety concerns and, “[b]ased on these data,” Rain anticipated commencing a pivotal Phase 3 trial. Plaintiffs allege the Phase 1 trial instead identified a recommended Phase 2 dose for further testing, that the key efficacy signal was based on a small subset (16 patients), and that Phase 2 bypass was atypical and risk-enhancing for an MDM2 inhibitor with known hematologic toxicity concerns. These allegations plausibly support that the prospectus overstated the degree of validation and de-risking and omitted the specific, heightened risk allegedly created by skipping Phase 2.
+Plaintiffs also plead an Item 105 theory: that generic risk warnings about clinical trial uncertainty did not adequately disclose the most significant, offering-specific risk—namely, the alleged decision to bypass Phase 2 despite an uncharacterized safety profile and limited dose-optimization data. At the pleading stage, plaintiffs plausibly allege the omission of that specific risk rendered the risk-factor disclosure misleading.
+Rain, as issuer, is subject to §11 liability, and the Director Defendants are plausibly alleged to have signed the registration statement and thus are proper §11 defendants. Traceability/purchase pursuant to the offering is pleaded by the named Securities Act plaintiff.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Securities Act §15 (Count IV) against Director Defendants</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Given a adequately pleaded primary violation under §11 and allegations that the Director Defendants, by virtue of their board positions and signing of the registration statement, had the power to control the issuer’s offering disclosures, plaintiffs plausibly state a §15 control-person claim at the pleading stage. Defendants’ merits arguments regarding lack of control or due diligence present factual issues not resolved on a motion to dismiss.</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -1200,16 +1244,31 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>66917</v>
+        <v>31505</v>
       </c>
       <c r="X7" t="n">
-        <v>2695</v>
-      </c>
+        <v>2280</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cand_23_cv_03518</t>
+          <t>cand_24_cv_03170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1222,42 +1281,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This putative securities class action is brought by Lead Plaintiff Dr. Myo Thant and named plaintiff Branden Schenkhuizen on behalf of purchasers of Rain Oncology Inc. (f/k/a Rain Therapeutics Inc.) common stock. Plaintiffs allege that Rain and certain officers and directors misled investors about (i) the strength and implications of Phase 1 data for Rain’s lead drug candidate milademetan (an MDM2 inhibitor), (ii) the propriety and risk of skipping Phase 2 and proceeding directly to a pivotal Phase 3 trial (“Phase 2 Bypass”), and (iii) Rain’s clinical-stage status and its role in prior clinical trials.
-Parties. Defendant Rain is a Delaware corporation headquartered in Newark, California, whose common stock traded on Nasdaq under the symbol “RAIN” during the class period. The “Individual Defendants” are Avanish Vellanki (Chairman and CEO) and Richard Bryce (EVP and Chief Medical Officer). The “Director Defendants” (Franklin Berger, Aaron Davis, Gorjan Hrustanovic, Tran Nguyen, Peter Radovich, and Stefani A. Wolff) served on Rain’s Board at the time of the April 2021 IPO and signed the registration statement.
-Alleged misconduct and theory. Plaintiffs’ core theory is that Rain’s IPO pitch and subsequent public disclosures touted milademetan as “de-risked” and supported by Daiichi Sankyo’s Phase 1 trial data such that Rain could appropriately skip Phase 2 and rapidly commence a pivotal Phase 3 trial in dedifferentiated liposarcoma (the MANTRA trial). Plaintiffs allege this was misleading because Phase 2 Bypass is appropriate only in narrow circumstances when a drug’s mechanism of action and safety profile are well characterized; milademetan, as a first-in-human MDM2 inhibitor with known class hematologic toxicities, allegedly did not meet those criteria. Plaintiffs further allege Daiichi Sankyo’s Phase 1 trial (U101) was intended to identify a “recommended Phase 2 dose,” and that the key efficacy data Rain highlighted (median PFS 7.4 months vs ~2.0–2.2 months SOC) came from only 16 patients on an intermittent 260 mg schedule—too small and insufficiently optimized to justify Phase 3 without Phase 2 dose refinement.
-Key factual allegations supporting falsity/omissions. Plaintiffs allege: (1) Daiichi Sankyo’s U101 trial ran July 2013–October 2020; it initially contemplated dose escalation and dose expansion, but the expansion component was abandoned because effective dosing was not tolerable, prompting intermittent schedules; (2) the 260 mg intermittent schedule (days 1–3 and 15–17 of a 28-day cycle) was identified during the trial and administered to only 16 DDLPS patients; (3) Rain licensed milademetan in September 2020 and then represented in IPO materials and later SEC filings that the Phase 1 trial “validated” a dosing schedule that “mitigate[d] safety concerns” and supported commencing a pivotal Phase 3 trial; (4) Rain repeatedly described itself as “late-stage” despite having just initiated its first company-sponsored trial in July 2021 and having no prior clinical trials conducted by Rain itself; (5) Rain’s SEC filings and presentations allegedly included “pipeline” graphics implying Rain conducted Phase 1 and Phase 2 work, despite the Phase 1 being conducted by Daiichi Sankyo and Rain skipping Phase 2; and (6) Rain and executives allegedly used “best-in-class” language for milademetan despite SEC comments during the IPO process directing removal of such inferences.
-Confidential witness and SEC-comment allegations. Plaintiffs rely in part on a former employee (Senior Director, Program Management) who allegedly reported to Vellanki and states that Phase 2 is typically needed to “dial in” dosing in oncology; that Daiichi Sankyo’s Phase 1 did not dial in dosing; that the Phase 1 results were a “recommended Phase 2 dose” and not a Phase 3-ready dose; and that both Vellanki and Bryce understood these limitations. Plaintiffs also allege SEC comment letters during the IPO process admonished Rain to remove “late-stage” characterizations, revise pipeline tables to accurately source the Phase 1 trial to Daiichi Sankyo and remove planned trials, and remove “best-in-class/first-in-class” inferences; plaintiffs allege Rain resumed the challenged characterizations after the IPO.
-Class period and significant dates. The Exchange Act class period is April 23, 2021 through May 19, 2023 (inclusive). The IPO final prospectus was filed April 23, 2021 (offering price alleged $17/share; ~7.5 million shares; net proceeds alleged $121.9 million). Rain commenced the Phase 3 MANTRA trial on July 20, 2021. On September 20, 2021, Daiichi Sankyo published separate intimal sarcoma trial results at 260 mg showing high rates of hematologic toxicities; plaintiffs allege the stock declined from $15.88 (Sept. 17) to $13.21 (Sept. 20). On May 22, 2023, Rain announced MANTRA topline results: primary endpoint not met (median PFS 3.6 months vs 2.2 months; HR 0.89; p=0.53) and significant Grade 3/4 hematologic adverse events; Rain announced it would not pursue further development in DDLPS; the stock fell from $9.93 (May 19) to $1.22 (May 22). Rain later suspended development and pursued strategic alternatives, culminating in a December 13, 2023 announcement of a tender offer acquisition by Pathos AI.
-Claims asserted. Plaintiffs assert: (1) Exchange Act Section 10(b) and Rule 10b-5 against Rain, Vellanki, and Bryce based on alleged material misstatements/omissions and a fraudulent scheme concerning Phase 2 Bypass, dosing validation, “late-stage” status, pipeline depictions, and “best-in-class” claims; (2) Exchange Act Section 20(a) control-person claims against Vellanki and Bryce; (3) Securities Act Section 11 against Rain and the Director Defendants based on alleged material misstatements/omissions in the IPO registration statement/prospectus, including alleged Item 105 risk-factor deficiencies regarding the heightened risk from Phase 2 Bypass; and (4) Securities Act Section 15 control-person claims against the Director Defendants.</t>
+          <t>Parties: Lead Plaintiff and named plaintiff Ken Kula sue on behalf of a putative class of purchasers/acquirers of Fastly, Inc. (“Fastly”) securities. Defendants are Fastly (NYSE: FSLY), CEO Todd Nightingale, and CFO Ronald Kisling.
+Class period: November 15, 2023 through August 7, 2024, inclusive.
+Business context and alleged significance: Fastly operates an edge cloud/CDN platform with usage-based pricing. Plaintiffs allege Fastly is highly dependent on existing enterprise customers (≈95% of revenue from platform usage; top 10 customers ≈37% of FY 2023 revenue), making traffic/usage declines and pricing “rerates” at large accounts material.
+Alleged misconduct (core theory): Plaintiffs allege Defendants made materially false and misleading statements and omissions about (1) macroeconomic headwinds and Fastly’s exposure to them; (2) the stability of customer retention and the continued expansion/spend of existing enterprise customers, including large “media” accounts; and (3) Fastly’s continued emphasis on driving growth from existing customers, while internally (a) large customers were throttling usage/traffic, (b) customers were demanding steeper discounts and threatening churn, and (c) Fastly shifted sales incentives toward new-customer acquisition. Plaintiffs also allege Fastly’s risk-factor disclosures falsely framed realized risks (declining usage by major customers) as hypothetical, and that Fastly discontinued disclosing DBNER and quarterly NRR beginning in Q1 2024 to obscure weakening existing-customer trends.
+Key alleged misstatements/omissions:
+- Nov. 15, 2023 conference: Nightingale stated macro headwinds were mainly in SMB/mid-market and Fastly had little exposure; and that competitors were seeing slowing growth but “we’re not seeing that.” Plaintiffs allege internal conditions showed macro forces and pricing pressure were negatively affecting Fastly, including among large customers.
+- Feb. 14, 2024 earnings call / FY 2023 results: Nightingale said customer retention efforts were “stable,” and Kisling’s FY 2024 guidance assumed continued expansion of existing customers; Nightingale attributed revenue weakness to weaker international traffic while allegedly omitting that several largest customers were simultaneously reducing traffic.
+- Feb. 22, 2024 Form 10-K: statements that enterprise customers “continue to leverage our platform, increasing their spend … driving our revenue growth,” and risk factors describing reductions in major-customer usage as contingent/hypothetical.
+- May 1, 2024 Q1 earnings / Form 10-Q: after cutting guidance and acknowledging declines at a small number of largest customers due to pricing pressure and lack of commensurate traffic expansion, Defendants allegedly still misled by suggesting the new “engagement model” was progressing and by repeating MD&amp;A statements emphasizing focus on expanding existing customers, while internally sales compensation shifted to prioritize new logos.
+Corrective disclosures and alleged loss causation:
+- Feb. 14–15, 2024: Q4/FY 2023 revenue on low end/miss; stock fell ~30.6%.
+- May 1–2, 2024: Q1 2024 call disclosed largest-customer revenue declines, higher-than-expected discounts/rerates without traffic growth, and reduced FY 2024 revenue guidance; stock fell ~32.0%.
+- Aug. 7–8, 2024: Q2 2024 call disclosed continued sequential declines from some largest customers, top-10 revenue share falling to 34%, and an explicit strategic shift toward new customer acquisition to mitigate concentration risk; FY 2024 revenue guidance reduced again; stock fell ~14.3%.
+Scienter allegations: Plaintiffs rely on confidential witnesses describing internal all-hands meetings and weekly customer-ops traffic/throughput reporting (red/yellow/green), tiger teams/war rooms addressing large-account traffic drops, and management’s tracking of top accounts. Plaintiffs also allege insider sales by Nightingale and Kisling during the class period and the discontinuation of DBNER/quarterly NRR disclosures as circumstantial indicia.
+Claims asserted: (Count I) Exchange Act §10(b) and Rule 10b-5 against all Defendants; (Count II) Exchange Act §20(a) control-person liability against Nightingale and Kisling.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (against Rain, Vellanki, and Bryce)</t>
+          <t>Section 10(b) and Rule 10b-5 (against Fastly, Nightingale, Kisling)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>dismissed_in_part</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiffs must allege (1) a material misrepresentation or omission; (2) scienter (intent to deceive or deliberate recklessness); (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA and Rule 9(b), falsity and scienter must be pleaded with particularity, and plaintiffs must plead facts giving rise to a strong inference of scienter that is cogent and at least as compelling as any opposing inference.
-1. Actionable misstatements/omissions—Phase 1 data “validated” dosing / supported Phase 2 Bypass. Plaintiffs plausibly plead falsity and materiality as to repeated statements (in the IPO prospectus and later SEC filings) that Daiichi Sankyo’s Phase 1 trial “validated” a dosing schedule that “mitigate[d] safety concerns” and that “[b]ased on these data” Rain could commence a pivotal Phase 3 trial. The complaint alleges concrete, contemporaneous facts: Daiichi Sankyo’s protocol objective was to identify a recommended Phase 2 dose; the intermittent 260 mg schedule was identified mid-trial; the key DDLPS efficacy data came from only 16 patients; and the Phase 1 dose-expansion component was abandoned due to tolerability issues. Taking those allegations as true at the pleading stage, a reasonable investor could view “validated” and “shown to mitigate safety concerns” as statements of present fact about the sufficiency/robustness of the Phase 1 dataset and dose optimization, not mere puffery. The alleged omission—that the Phase 1 result was expressly a “recommended Phase 2 dose” and that Daiichi Sankyo’s plan contemplated Phase 2 testing—also plausibly renders the affirmative “validated”/“based on these data” framing misleading.
-Defendants argue (as is typical in this genre of case) that disagreements about trial design, whether Phase 2 Bypass is appropriate, and how to interpret early data are nonactionable opinions. But under Omnicare principles, opinions can be actionable where plaintiffs plead that the speaker omitted material facts about the basis for the opinion that rendered it misleading to a reasonable investor. Here, plaintiffs plead that defendants presented the Phase 1 dataset as having de-risked and validated dosing for a pivotal trial while allegedly knowing the dataset was small, the dose was a Phase 2 recommendation, and tolerability/dose optimization remained unresolved. At this stage, those allegations suffice to plead a misleading half-truth.
-2. “Late-stage” company statements. Plaintiffs also plausibly plead that repeated descriptions of Rain as a “late-stage” precision oncology/biotechnology company were misleading in context. The complaint alleges Rain had not conducted clinical trials prior to July 2021 and was relying on a third-party Phase 1 trial. Whether “late-stage” is sometimes used colloquially in biotech is not dispositive; the SEC-comment allegations pleaded in the complaint support that the term carried a specific meaning in Rain’s offering context and that regulators viewed it as potentially misleading. At minimum, plaintiffs plausibly allege that calling Rain “late-stage” conveyed that Rain had a late-stage asset supported by adequate clinical development work and organizational experience in late-stage trials—an inference plaintiffs allege was false.
-3. Pipeline tables/graphics implying Rain conducted Phase 1/2. Plaintiffs plausibly plead falsity and materiality as to pipeline depictions in later 10-Qs/10-Ks and presentations that allegedly implied Rain conducted Phase 1 and Phase 2 work, despite Daiichi Sankyo conducting Phase 1 and Rain skipping Phase 2. The SEC-comment allegations that the SEC required similar tables to be revised during the IPO process reinforce plausibility that such depictions could mislead reasonable investors about the maturity of the program and Rain’s role.
-4. “Best-in-class” statements. The complaint challenges statements that milademetan had the “potential to be” or was “best-in-class.” Much of this is classic, nonactionable corporate optimism and opinion not capable of objective verification, particularly where framed as “potential.” Absent specific allegations that defendants possessed contrary head-to-head data or a defined, objective benchmark showing the claim was false when made, these allegations do not plead falsity with the particularity required by the PSLRA. To the extent any “best-in-class” statement could be read as a concrete representation of proven superiority on safety/efficacy, the complaint does not identify contemporaneous data establishing that falsity.
-Accordingly, the motion is denied as to the Phase 2 Bypass/dose-validation and “late-stage”/pipeline-misrepresentation theories, and granted as to the “best-in-class” theory.
-Scienter. Plaintiffs plead a strong inference of scienter as to the surviving theories. The complaint alleges: (i) repeated, consistent statements over time about validation and de-risking; (ii) the centrality of milademetan and the MANTRA trial to Rain’s business; (iii) SEC comment letters directed to Vellanki (copied to senior scientific leadership) warning about misleading “late-stage,” pipeline, and “best-in-class” inferences; (iv) a confidential witness alleging Vellanki and Bryce understood the Phase 1 dose was a recommended Phase 2 dose and that dose optimization remained unresolved; and (v) that Rain’s strategy was an aggressive “Phase 2 Bypass” adopted to save time and money. While defendants may ultimately offer nonfraudulent explanations (e.g., good-faith scientific judgment), at the pleading stage the inference that senior executives knowingly or recklessly overstated the sufficiency of Phase 1 data and minimized the heightened risk of skipping Phase 2 is at least as compelling as competing inferences.
-Reliance, loss causation, and damages. Plaintiffs plead market efficiency and invoke the fraud-on-the-market presumption; at this stage, that suffices. Loss causation is plausibly alleged through corrective disclosures/materialization of risk tied to (a) September 20, 2021 publication of high hematologic toxicity at the 260 mg dose in another study and (b) May 22, 2023 failure of MANTRA and disclosure of elevated Grade 3/4 hematologic adverse events and lack of efficacy. The alleged price declines are temporally linked to these disclosures.
-Result. Count I is sustained as to alleged misstatements/omissions concerning (1) Phase 1 data “validating” dosing and supporting Phase 2 Bypass/mitigating safety concerns, (2) Rain’s “late-stage” characterization, and (3) pipeline depictions implying Rain conducted Phase 1/2. It is dismissed to the extent predicated solely on generalized “best-in-class” statements.</t>
+          <t>Accepting the pleaded facts as true and drawing reasonable inferences in plaintiffs’ favor, the complaint plausibly alleges actionable misstatements/omissions, scienter, and loss causation under the PSLRA at the pleading stage.
+1) Actionable misstatements/omissions (materiality and falsity): Plaintiffs plead specific statements with time, speaker, and context—e.g., Nov. 15, 2023 macro-exposure denials; Feb. 14, 2024 statements that retention was “stable” and guidance assumed continued expansion of existing customers; 2023 Form 10-K assertions that enterprise customers were increasing spend and driving revenue growth; and repeated risk disclosures portraying major-customer usage declines as hypothetical. The alleged omitted facts—simultaneous traffic throttling by several top customers, increased rerates/discounting without traffic expansion, and internal recognition of declining large-account throughput—concern Fastly’s principal revenue driver (usage by existing enterprise customers and top-10 concentration) and are plausibly material.
+2) Puffery/forward-looking protections not dispositive on the pleadings: While some statements (e.g., being “happy with progress”) may be arguably optimistic, plaintiffs tie them to concrete contrary internal facts (e.g., lack of progress with large accounts; delayed product delivery demanded by Apple/Amazon; continuing declines). Moreover, several challenged statements are framed as present-tense descriptions of business conditions (exposure to macro headwinds; stability of retention; existing customers increasing spend), not merely forward-looking projections. To the extent guidance is forward-looking, plaintiffs plausibly allege it rested on misleading present-tense assumptions about existing-customer expansion and undisclosed adverse trends.
+3) Scienter: Plaintiffs plead a cogent inference that defendants knew or were reckless in not knowing of the adverse large-customer traffic/price dynamics when making contrary public statements. The complaint alleges (a) quarterly all-hands meetings led by Nightingale discussing decreasing revenue from “big customers” and large accounts “throttling down” usage as early as November 2023; (b) weekly cross-functional customer-ops meetings with throughput color-coding and escalation/tiger teams, occasionally attended by Nightingale and attended by other senior leaders; (c) the centrality of top accounts to Fastly’s business and Nightingale’s admission he tracks top 10/20 deals; (d) timing allegations that large-customer rerate negotiations would have been underway by early 2024; (e) suspicious timing of discontinuing DBNER and quarterly NRR disclosures; and (f) insider sales during the class period. Taken together, these allegations support a strong inference of at least recklessness as to the truth of the challenged statements.
+4) Loss causation: Plaintiffs plausibly allege a causal connection between the revelation of the concealed risk (largest-customer revenue/traffic and pricing deterioration) and stock drops on May 2, 2024 and August 8, 2024 following disclosures expressly attributing guidance cuts and revenue weakness to declines and pricing pressure among a small number of the largest customers. At the pleading stage, these alleged corrective disclosures and market reactions suffice.
+Accordingly, the §10(b)/Rule 10b-5 claim is adequately pleaded and is sustained.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (against Vellanki and Bryce)</t>
+          <t>Section 20(a) control-person liability (against Nightingale, Kisling)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1267,49 +1330,15 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Legal standard. To state a claim under Section 20(a), plaintiffs must plead (1) a primary violation of the federal securities laws by the controlled person, and (2) that the defendant exercised actual power or control over the primary violator. Many courts also consider culpable participation, but at the pleading stage in this Circuit, adequately alleging control plus a primary violation generally suffices; defendants may assert a good-faith defense.
-Primary violation. Because the Court sustains Count I in part against Rain (and also as to primary liability theories against the Individual Defendants), the complaint adequately pleads an underlying primary violation at this stage.
-Control. Plaintiffs allege Vellanki was CEO/Chairman and signed and SOX-certified multiple SEC filings containing the challenged statements, and Bryce was EVP/CMO and was quoted in press releases promoting the pivotal Phase 3 initiation and the program’s prospects. Those allegations plausibly plead control over Rain’s public statements and disclosures.
-Result. The motion to dismiss Count II is denied.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Section 11 of the Securities Act (against Rain and the Director Defendants)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Legal standard. Section 11 imposes liability for material misstatements or omissions in a registration statement on the issuer (strict liability) and on signatories/directors and other specified persons (subject to due diligence defenses). Plaintiffs must plead (1) a registration statement contained an untrue statement of material fact or omitted a material fact required to be stated or necessary to make the statements not misleading; and (2) the plaintiff purchased shares traceable to the registration statement. Scienter, reliance, and loss causation are not elements (though negative causation may be a defense).
-Material misstatement/omission in the April 23, 2021 IPO prospectus/registration statement. Plaintiffs plausibly plead that the prospectus’s statements that the Phase 1 trial “validated” a dosing schedule that had been “shown to mitigate safety concerns” and that “[b]ased on these data” Rain anticipated commencing a pivotal Phase 3 trial could be materially misleading for the same reasons discussed under Count I: the complaint alleges the Phase 1 outcome was a recommended Phase 2 dose based on a small subset, that tolerability/dose optimization remained unresolved, and that Daiichi Sankyo’s plan contemplated Phase 2 testing.
-Item 105 risk-factor theory. Plaintiffs also plausibly plead an omission theory under Item 105 of Regulation S-K: that Rain disclosed only generic clinical-trial risk (early results may not predict later results) while omitting the allegedly heightened, offering-specific risk created by its decision to bypass Phase 2 despite the asserted lack of a well-characterized safety profile and dose optimization. At the pleading stage, plaintiffs need only plausibly allege that the omitted risk was among the “most significant” factors making the offering speculative or risky and that the omission rendered the risk disclosures misleadingly incomplete.
-Traceability. Named plaintiff Schenkhuizen alleges he purchased shares pursuant to and/or traceable to the IPO registration statement. That suffices at this stage.
-Result. The motion to dismiss Count III is denied as to Rain and the Director Defendants.</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act (against the Director Defendants)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Legal standard. Section 15 provides control-person liability for Securities Act violations where the defendant controls a primary violator. Plaintiffs must plead (1) a primary violation (here, Section 11), and (2) control.
-Primary violation. Because the Court sustains the Section 11 claim at this stage, the first element is met.
-Control. Plaintiffs allege the Director Defendants were Rain directors at the IPO, signed the registration statement, and had power to control the contents of the registration statement and prospectus. At the pleading stage, these allegations plausibly plead control.
-Result. The motion to dismiss Count IV is denied.</t>
-        </is>
-      </c>
+          <t>Because the complaint adequately pleads a primary violation under §10(b) and plausibly alleges that Nightingale and Kisling, as CEO and CFO, had power to control Fastly’s public statements and SEC filings (including signing the 10-K/10-Q and speaking on earnings calls), the §20(a) claim is sufficiently pleaded at this stage. Any merits defenses (including good faith) are not resolved on a motion to dismiss on this record.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -1317,16 +1346,31 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>31752</v>
+        <v>25057</v>
       </c>
       <c r="X8" t="n">
-        <v>3790</v>
-      </c>
+        <v>1804</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cand_24_cv_03170</t>
+          <t>cand_24_cv_04196</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1339,61 +1383,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>This putative federal securities class action is brought by Lead Plaintiff and named plaintiff Ken Kula (collectively, “Plaintiffs”) on behalf of all persons and entities (excluding Defendants and related insiders) who purchased or otherwise acquired Fastly, Inc. (“Fastly” or the “Company”) securities during the class period November 15, 2023 through August 7, 2024, inclusive (the “Class Period”). Defendants are Fastly (a Delaware corporation headquartered in San Francisco, California, whose common stock trades on the NYSE under ticker FSLY), its Chief Executive Officer Todd Nightingale, and its Chief Financial Officer Ronald Kisling (together, the “Individual Defendants”).
-Fastly provides an edge cloud platform and content delivery network (“CDN”) services. The complaint alleges Fastly’s revenue is highly concentrated in existing enterprise customers and particularly its “top 10” large customers (often media/streaming accounts), with approximately 95% of revenue derived from customer usage of the platform and the top ten customers comprising roughly 37% of FY 2023 revenue. Plaintiffs allege that because Fastly’s business model depends heavily on usage-based revenue from large customers, reductions in traffic/usage, customer rerates (discount demands), and churn among enterprise customers would materially impair revenues.
-The core alleged misconduct is that, beginning in November 2023 and continuing through at least August 7, 2024, Defendants made materially false and misleading statements and omissions about: (1) the extent to which macroeconomic pressures (rising interest rates, budget tightening) were affecting Fastly’s business; (2) the stability of customer retention and the continued expansion/spend of existing enterprise customers (including top customers) on Fastly’s platform; (3) the causes of revenue weakness (attributing weakness to international traffic while allegedly omitting that multiple large customers were simultaneously “throttling down” usage); (4) the adequacy and progress of Fastly’s “engagement model” and efforts to stabilize/restore growth in key large accounts; and (5) Fastly’s strategic focus—publicly emphasizing expansion of existing customers while allegedly shifting sales incentives and strategy toward new-customer acquisition due to stagnation/declines in existing-customer growth.
-Key factual allegations are supported primarily by seven confidential witnesses (“CW1–CW7”), former employees in sales, account management, product/program management, and customer operations. The witnesses describe, among other things: (i) beginning in 2023, customers increasingly demanded steeper discounts at renewal and threatened to leave; (ii) enterprise customers cancelled or failed to renew (examples include Indeed and USAA); (iii) by late 2023, sales quota attainment deteriorated and new business “fell off a cliff”; (iv) Fastly management—including Nightingale—discussed at quarterly “all hands” meetings that large customers were “throttling down” traffic and that revenue from “big whales” was decreasing; (v) Fastly tracked customer throughput/traffic internally and discussed top-customer usage in regular meetings (including a red/yellow/green status system), with senior executives attending; (vi) in 2024 Fastly changed sales compensation to prioritize “new logos” over renewals/upsells, allegedly discouraging focus on existing-customer expansion; and (vii) Fastly had not timely delivered a requested “staging environment” product for major customers Apple and Amazon, allegedly undermining assertions of progress with major accounts.
-The complaint identifies several significant dates and disclosures:
-• November 15, 2023: At an RBC conference, Nightingale stated macro pressures were largely confined to SMB/mid-market and that competitors were seeing slowing growth but “we’re not seeing that.” Plaintiffs allege this was misleading because macro pressures and discounting were already affecting Fastly, including large customers.
-• February 14, 2024 (after market): Fastly announced Q4 and FY 2023 results and provided FY 2024 revenue guidance of $580–$590 million. On the earnings call, Nightingale stated “customer retention efforts were stable” and denied fundamental changes beyond deal elongation; Kisling stated guidance assumed continued expansion of existing customers; Nightingale attributed weakness to international traffic. Plaintiffs allege these statements omitted/contradicted known declines in large-customer traffic and pricing pressure. February 15, 2024: stock fell from $23.54 to $16.34 (down 30.59%).
-• February 22, 2024: Fastly filed its FY 2023 Form 10-K, signed by Nightingale and Kisling with Sarbanes-Oxley certifications. Plaintiffs challenge statements that enterprise customers “continue to leverage our platform, increasing their spend” and risk-factor language describing reductions in usage or loss of major customers as hypothetical, despite alleged known ongoing declines.
-• May 1, 2024: Fastly issued Q1 2024 results and held an earnings call disclosing that the “biggest factor” in revenue pressure was reduced revenue from a small number of largest customers, increased rerates/discounts without commensurate traffic expansion, and volatility including reversal of vendor consolidation. Fastly cut FY 2024 revenue guidance to $555–$565 million. May 2, 2024: stock fell to $8.79 (down 32.02%). Plaintiffs characterize this as a corrective disclosure.
-• May 1, 2024: Fastly filed its Q1 2024 Form 10-Q, also signed and SOX-certified by Nightingale and Kisling. Plaintiffs challenge statements emphasizing focus on expanding existing-customer usage and risk factors still framed as hypothetical.
-• August 7, 2024: Fastly announced Q2 2024 results and held an earnings call disclosing continuing demand challenges and sequential revenue declines among some largest customers (primarily large media accounts), with top-10 revenue share falling to 34% from 38% in Q1, and further reduced FY 2024 guidance to $530–$540 million. August 8, 2024: stock fell to $5.86 (down 14.33%). Plaintiffs allege this was the “full truth” revealing ongoing large-customer declines and Fastly’s shift toward new customer acquisition to mitigate concentration risk.
-Plaintiffs assert two Exchange Act causes of action: (Count I) Section 10(b) and Rule 10b-5 against all Defendants based on alleged material misstatements/omissions, scienter, reliance (fraud-on-the-market and/or Affiliated Ute), loss causation, and damages; and (Count II) Section 20(a) control-person liability against Nightingale and Kisling predicated on a primary violation by Fastly and their control of the Company’s public statements and SEC filings. The complaint also references Item 303 of Regulation S-K (MD&amp;A known trends/uncertainties) as a basis for omissions, but does not plead a standalone statutory claim separate from the Section 10(b) theory.</t>
+          <t>Parties: Plaintiffs are seven individuals (U.S. and Canadian citizens) who allege they were short sellers of Vicor Corporation (NASDAQ: VICR) in 2023 and were forced to cover at inflated prices. Defendants are Vicor Corporation (Delaware corporation, principal place of business Massachusetts) and its founder/CEO Patrizio Vinciarelli.
+Alleged misconduct and key facts: The Complaint centers on statements made in connection with Vicor’s Q2 2023 earnings release and July 25, 2023 earnings call. Plaintiffs allege that Vicor, through Vinciarelli, represented that Vicor had an agreement with a “significant” “existing customer” for a next-generation “4G” lateral power distribution network (PDN) design, expected to “ramp” with deliveries beginning in Q4 2023. Analysts asked whether the customer was significant and existing; Vinciarelli answered it was an existing customer and “a significant customer,” and described technical implementation details. Plaintiffs allege the market inferred the customer was one of Vicor’s two major customers (Nvidia or Google), and the stock rose sharply (from a $59 close on July 25 to a $93.70 close on July 26 on unusually high volume). Plaintiffs allege they covered short positions in reliance on the announcement and suffered losses.
+Plaintiffs contend the July 25 statements were false when made because no such “significant existing customer” deal existed (or, alternatively, any arrangement was too tentative and required risk qualification). They allege that at Vicor’s October 24, 2023 Q3 earnings call, management did not mention the touted customer and, when questioned, allegedly dodged and reframed the prior statements, emphasizing medium-to-long-term opportunities and “diversify[ing] away from the two big guys.” Plaintiffs characterize this as a corrective disclosure, after which the stock fell materially (alleged drop to ~$39 at the next open). Plaintiffs further cite a post-suit September 3, 2024 Vicor press release asserting it had “booked” $30 million in “non-cancellable, non-returnable” orders reflecting what Vicor “understood” to be a customer allocation, and argue the timing and wording support an inference the July 25 depiction lacked a factual basis.
+Legal claims: (1) Exchange Act §10(b) and Rule 10b-5(b) against Vicor and Vinciarelli based on alleged material misstatements/omissions about a significant existing-customer ramp and Q4 2023 deliveries, scienter, reliance (fraud-on-the-market/Affiliated Ute), loss causation, and damages; and (2) Exchange Act §20(a) control-person liability against Vinciarelli.
+Proposed class and class period: Plaintiffs propose a Rule 23(b)(3) class of all persons who held short positions in Vicor common stock prior to and on July 25, 2023 and covered their short positions in the days following and including October 24, 2023 (the “Class Period”).</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (against all Defendants)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5(b) (misstatements/omissions) against Vicor and Vinciarelli</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, Plaintiffs must allege (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. At the pleading stage, Rule 9(b) and the PSLRA require Plaintiffs to plead with particularity the statements alleged to be false or misleading, why they are false, and facts giving rise to a strong inference of scienter.
-1. Material misrepresentation or omission. Plaintiffs identify specific statements, speakers, dates, and contexts, including: (a) the November 15, 2023 RBC conference statements minimizing macro headwinds and stating competitors saw slowing growth but Fastly was not seeing that; (b) February 14, 2024 earnings-call statements that retention was “stable,” that guidance assumed continued expansion of existing customers, and that weakness was attributable to international traffic and mere deal elongation; (c) February 22, 2024 10-K statements that enterprise customers were increasing spend and driving revenue growth, and risk factors describing loss/reduction of major customers and reduced usage as hypothetical; (d) May 1, 2024 10-Q statements emphasizing focus on expanding existing customers; and (e) May 1–2, 2024 earnings-call statements suggesting the new “engagement model” for top accounts was already producing progress.
-At this stage, the complaint plausibly alleges falsity and misleading omission. The alleged “truth” is not merely that macro conditions existed or that customer behavior could change, but that (i) significant pricing pressure and discount demands were already occurring (beginning March/April 2023 and continuing), (ii) multiple large customers had already reduced traffic/usage (“throttled down”), and (iii) management knew by late 2023 that top-customer traffic and revenue were declining. The complaint supports those allegations with multiple confidential witnesses describing contemporaneous internal discussions at quarterly all-hands meetings, internal traffic monitoring tools, and weekly customer-ops throughput meetings. Those allegations, taken as true, plausibly render misleading statements that Fastly was not seeing macro headwinds, that retention and existing-customer expansion were stable, and that risks of major-customer pullbacks were merely hypothetical.
-Defendants’ likely arguments that certain statements are nonactionable puffery or opinion do not warrant dismissal on this record. Some statements (e.g., generalized optimism) may ultimately be inactionable, but Plaintiffs also plead concrete assertions about macro exposure (“we’re not seeing that”), retention stability, and the drivers of revenue weakness (attributing weakness to international traffic while allegedly omitting contemporaneous, known top-customer traffic declines). Those are the type of representations that can be material to investors in a usage-based, customer-concentrated business.
-Similarly, risk-factor “hypotheticals” can be actionable where the complaint plausibly alleges the risk had already materialized and the disclosure therefore misleads by omission. Plaintiffs plead that large-customer usage declines were ongoing by late 2023 and that Defendants knew it, yet the 10-K and 10-Q framed reduction-in-usage/loss-of-major-customer risks as contingent. That is sufficient at the pleading stage.
-2. Scienter. Under the PSLRA, Plaintiffs must plead facts giving rise to a strong inference that each defendant acted with intent to deceive or with deliberate recklessness. Plaintiffs do so here. The complaint alleges: (a) repeated internal reporting and meetings addressing top-customer traffic/throughput, including quarterly all-hands where Nightingale allegedly discussed decreasing revenue from “big customers” and customers “throttling down”; (b) weekly customer-ops meetings tracking top-customer throughput with executive attendance and escalation (“tiger teams”) for persistently underperforming major accounts; (c) the centrality of top customers to Fastly’s revenue model (top ten ~37% of revenue; ~95% usage-based revenue), supporting a core-operations inference that senior executives would closely monitor top-customer traffic and rerates; (d) Kisling’s later admission that the problematic rerate/discount dynamics arose in late March/early April 2024, coupled with allegations that renewal negotiations begin months earlier, supporting an inference that management had visibility into significant pricing pressure when February 2024 guidance and “stable retention” statements were made; (e) alleged suspicious timing of discontinuing disclosure of DBNER and quarterly NRR beginning Q1 2024, which Plaintiffs allege would have highlighted weakening existing-customer expansion; and (f) alleged insider sales by Nightingale and Kisling during the Class Period.
-Taken together, these allegations support a strong inference of at least deliberate recklessness as to the truth of statements about macro headwinds, existing-customer expansion, and the stability/trajectory of large-customer usage. While Defendants may ultimately offer competing inferences (e.g., ordinary-course sales, good-faith optimism, or uncertainty in forecasting), the Court’s task at this stage is to determine whether the inference of scienter is “cogent and at least as compelling” as opposing inferences. On the pleaded facts—particularly the alleged internal discussions specifically about large customers throttling usage, and the later partial disclosures attributing guidance cuts to a small number of largest customers—the scienter inference is sufficiently strong.
-3. Reliance. Plaintiffs plead an efficient market for Fastly’s NYSE-traded stock and invoke the fraud-on-the-market presumption. That is adequate at the motion-to-dismiss stage. To the extent Plaintiffs also rely on omissions, Affiliated Ute may apply, but Plaintiffs need not elect a single reliance theory now.
-4. Loss causation and economic loss. Plaintiffs plead price declines following alleged corrective disclosures on February 15, 2024 (Q4/FY 2023 results and market reaction), May 2, 2024 (guidance cut and disclosure that the biggest factor was reduced revenue from a small number of largest customers, rerates without traffic expansion, and volatility), and August 8, 2024 (continued declines among largest customers and further guidance cut). The May and August disclosures plausibly revealed the previously concealed risk that large customers were driving the revenue shortfall through reduced traffic and pricing pressure. At the pleading stage, Plaintiffs need only allege that the revelation of the truth was a substantial cause of the stock drop; they have done so.
-Accordingly, the motion to dismiss Count I is denied.</t>
+          <t>The Complaint does not plausibly plead a materially false statement or omission with the particularity required by Rule 9(b) and the PSLRA. The challenged July 25 statements, as quoted, describe expectations about a product ramp and identify the customer only as an “existing” and “significant” customer; they do not plead the concrete contractual terms Plaintiffs repeatedly assert (e.g., that Vicor stated it had “entered into a new agreement” or “contracts” guaranteeing Q4 deliveries). The pleading’s central falsity theory—“clearly no such customer existed”—is conclusory and not supported by particularized facts showing that, as of July 25, Vicor had no significant existing-customer program or orders relating to the 4G lateral PDN. The October 24 call excerpts show reluctance to discuss customer-specific details and a shift in emphasis, but do not, on their face, constitute an admission that the earlier statements were false when made. Absent well-pleaded facts identifying what exactly was untrue (e.g., that no such program existed, that no bookings/orders existed, or that deliveries were not expected), the claim fails at the falsity/material omission stage.
+Scienter is also inadequately pleaded. The allegations rely largely on (i) the importance of the purported customer, (ii) later stock-price movement, (iii) generalized access-to-information assertions, and (iv) motive based on stock ownership and some insider sales. Under the PSLRA, these allegations do not create a strong inference that Defendants knowingly or recklessly made a false statement on July 25, as opposed to making an optimistic but ultimately unrealized projection about timing/volume or declining to provide customer-specific updates later.
+Additionally, the proposed class definition and theory of reliance/damages underscore a threshold standing/transaction-causation problem: Plaintiffs are short sellers who allege injury from covering at a higher price after an alleged inflationary statement. While short sellers can in some circumstances pursue §10(b) claims, the Complaint’s reliance allegations are largely framed as reliance on market price integrity and “forced” covering, without pleading with specificity how each Plaintiff’s cover transactions were caused by the alleged fraud rather than independent risk management, margin, or trading decisions. Coupled with the insufficient falsity and scienter allegations, the §10(b)/Rule 10b-5 claim is dismissed.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability against Nightingale and Kisling)</t>
+          <t>Exchange Act §20(a) control-person liability against Vinciarelli</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Legal standard. To state a claim under Section 20(a), Plaintiffs must plead (1) a primary violation of the securities laws by the controlled person; and (2) that the defendant exercised actual power or control over the primary violator. Many courts also consider culpable participation, but at minimum Plaintiffs must plausibly allege control.
-Primary violation. Because the Court sustains the Section 10(b)/Rule 10b-5 claim at the pleading stage, Plaintiffs have adequately pleaded a primary violation.
-Control. Plaintiffs allege Nightingale was CEO and Kisling was CFO throughout the Class Period; that they had power and authority over Fastly’s public statements and SEC filings; that they signed the challenged 10-K and 10-Q and provided SOX certifications; and that they spoke on earnings calls and investor conferences. Those allegations plausibly establish control over the content and dissemination of the allegedly misleading statements.
-Defenses (good faith). Whether the Individual Defendants can establish a good-faith defense is a fact-intensive issue not resolved on a motion to dismiss.
-Accordingly, the motion to dismiss Count II is denied.</t>
+          <t>Section 20(a) requires a primary violation. Because the §10(b)/Rule 10b-5 claim is dismissed for failure to plead a primary securities-fraud violation, the derivative control-person claim under §20(a) is also dismissed.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -1409,16 +1435,31 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>25304</v>
+        <v>11603</v>
       </c>
       <c r="X9" t="n">
-        <v>3208</v>
-      </c>
+        <v>1310</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cand_24_cv_04196</t>
+          <t>cand_3_22-cv-00956</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1431,60 +1472,51 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plaintiffs (seven individuals residing in various U.S. states and Canada/UAE) allege they were short sellers of Vicor Corporation (“Vicor”) common stock in 2023 and were harmed by allegedly false and misleading statements made by Vicor and its CEO, Patrizio Vinciarelli.
-Defendants are (1) Vicor, a Delaware corporation headquartered in Massachusetts whose common stock trades on NASDAQ (VICR), and (2) Patrizio Vinciarelli, Vicor’s founder and long-time CEO/President, alleged to control Vicor’s governance through super-voting stock and to have signed Vicor’s periodic reports.
-The alleged misconduct centers on statements made in connection with Vicor’s Q2 2023 earnings release and earnings call on July 25, 2023. Plaintiffs allege that Vicor, through Vinciarelli, represented that Vicor had an agreement with an “existing” and “significant” customer for Vicor’s next-generation “4G” lateral power distribution network (PDN) design, with deliveries expected to begin and “ramp” in Q4 2023. Plaintiffs contend the statements conveyed a concrete, near-term customer commitment that would reverse Vicor’s then-weak bookings/backlog trends. They allege the market understood the “existing” significant customer to be one of Vicor’s two major customers (Nvidia or Google). The complaint quotes the July 25 call where Vinciarelli said the customer was “an existing customer” and, when asked if it would be significant, responded: “This is a significant customer.”
-Plaintiffs allege the July 25 statements were false when made because “clearly no such customer existed,” or alternatively because Vicor lacked a reasonable basis to portray the arrangement as a concrete near-term ramp without disclosing that it was tentative or subject to reversal. They point to the alleged “cover up” as evidence of falsity and scienter: during Vicor’s Q3 earnings call on October 24, 2023, Vicor did not mention the previously touted customer/ramp, and when analysts asked for updates, Vicor executives allegedly dodged, refused to discuss “any one customer,” and suggested growth would come in the “medium to long term” via diversification away from the “two big guys.” Plaintiffs characterize these October 24 responses as effectively retracting or contradicting the July 25 message, without admitting that the supposed customer had backed out.
-Plaintiffs plead market reaction and loss: Vicor closed at $59 on July 25, 2023, then opened at $77.40 on July 26 and closed at $93.70 (intra-day high over $94), with trading volume spiking to over 4.5 million shares. Plaintiffs allege that due to the price spike and in reliance on the July 25 announcement and the market’s assimilation of it, they were forced to cover their short positions (including some derivatives), suffering substantial losses. They allege a corrective disclosure occurred on/after the October 24, 2023 call, after which Vicor’s stock fell sharply: Vicor closed at $53.19 on October 24, opened at $39.01 on October 25, and volume again approached 4.5 million shares.
-The complaint further alleges that after litigation was filed, Vicor issued a September 3, 2024 press release “respond[ing] to allegations,” purportedly stating it had “booked” $30 million in “non-cancellable, non-returnable” orders reflecting what Vicor “understood to be” a customer allocation for a new program. Plaintiffs argue this post hoc explanation is inconsistent, was not timely disclosed, and supports an inference that the July 25 statements lacked a proper factual basis. Plaintiffs also allege motive and opportunity: Vinciarelli’s large equity stake and options, the effect of stock price increases on his net worth, prior insider sales in 2021, and alleged insider sales exceeding $1 million in the days after July 25, 2023.
-Legal claims: (1) Section 10(b) of the Exchange Act and SEC Rule 10b-5 (including 10b-5(b) misstatements/omissions and also scheme language) against Vicor and Vinciarelli; and (2) Section 20(a) control-person liability against Vinciarelli.
-Class period and key dates: Plaintiffs propose a class of persons who took short positions in Vicor stock prior to and on July 25, 2023 and covered their short positions in the days following and including October 24, 2023 (the “Class Period”). Significant dates include: May 1, 2023 (approximate start of plaintiffs’ shorting activity); July 25, 2023 (Q2 earnings release/call and alleged misstatements); July 26, 2023 (stock surge and alleged forced covering); October 24–25, 2023 (Q3 call and alleged corrective disclosure/price drop); and September 3, 2024 (post-suit Vicor press release).</t>
+          <t>Parties: Lead Plaintiff Steamfitters Local 449 Pension &amp; Retirement Security Funds alleges claims on behalf of a putative class of purchasers/acquirers of SunPower Corporation (“SunPower”) publicly traded securities. Defendants are SunPower; Peter Faricy (CEO/President and Board Chair during the Class Period); and Manavendra S. Sial (CFO/EVP during the Class Period).
+Class period: August 3, 2021 through January 20, 2022, inclusive.
+Alleged misconduct and theory: The complaint alleges a classic “concealed known product defect/quality issue” and “false risk-factor” theory. Plaintiffs contend that throughout the Class Period Defendants made materially false and misleading statements and omissions about (i) the status/trajectory of SunPower’s commercial business (CIS and light commercial/CVAR), including margin performance and balance sheet strength; (ii) being on track to meet FY21 guidance; and (iii) product-quality risks, by framing quality defects as merely hypothetical (“if we have quality issues…”) when, according to Plaintiff, Defendants already knew that cracking defects in third-party factory-installed connectors had developed in nearly all commercial systems and would require tens of millions of dollars in remediation costs. The alleged “truth” was revealed on January 20, 2022 when SunPower preannounced it would miss guidance and recorded supplier-quality charges (~$27M in Q4 2021 and ~$4M in Q1 2022) to proactively replace cracked connectors across commercial segments.
+Key alleged misstatements/omissions:
+- August 3, 2021 press release and earnings call: statements that results reflected “continued execution” in commercial, that the company remained “on track” for 2021 outlook, and that CIS margins were “significantly better” and expected to be profitable in 2H.
+- August 4, 2021 and November 4, 2021 Forms 10-Q: risk-factor disclosures warning of potential supplier quality failures and product defects in conditional terms, alleged misleading because cracking had already occurred and remediation costs were allegedly inevitable.
+- October 5, 2021 call regarding “strategic options” for CIS: despite lowering guidance due to CIS timing/costs, Defendants described the commercial business as “a point of strength,” “very healthy,” and a market leader.
+- November 3, 2021 call: Faricy stated SunPower had “found our footing” and had its “healthiest balance sheet in years,” alleged misleading in light of undisclosed looming remediation liabilities.
+Corrective disclosure and loss causation: On January 20, 2022 SunPower disclosed a cracking issue in certain third-party connectors in commercial equipment, announced proactive replacement largely during 2022, and disclosed ~$31M in charges across Q4 2021/Q1 2022. The stock fell from $19.02 to $15.80 on January 21, 2022 (16.9% drop) on elevated volume. The complaint also points to a December 7, 2021 updated safety/installation manual adding connector “stress cracking” warnings as circumstantial evidence Defendants’ earlier statements were misleading.
+Claims asserted: Count I alleges violations of Exchange Act §10(b) and Rule 10b-5 (misstatements/omissions and scheme). Count II alleges control-person liability under Exchange Act §20(a) against the Individual Defendants.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (Count I) against SunPower, Faricy, and Sial</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private damages claim under Section 10(b) and Rule 10b-5, plaintiffs must allege: (1) a material misrepresentation or omission; (2) scienter (intent to deceive, manipulate, or defraud, or deliberate recklessness); (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. See Dura Pharm., Inc. v. Broudo, 544 U.S. 336 (2005). Under the PSLRA and Rule 9(b), plaintiffs must plead with particularity each allegedly false statement, why it was false or misleading when made, and must plead facts giving rise to a strong inference of scienter that is cogent and at least as compelling as any opposing inference. 15 U.S.C. § 78u-4(b)(1)-(2); Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007).
-1) Material misstatement/omission not adequately pleaded. The complaint quotes the July 25, 2023 earnings call and plausibly alleges the market took away that Vicor had a meaningful near-term customer ramp. But the pleading fails at the critical step required by the PSLRA: alleging particularized facts showing the statements were false when made.
-The core falsity allegation is conclusory: “clearly no such customer existed.” The complaint does not identify any internal report, contemporaneous contract status, customer communication, witness account, or other concrete factual basis showing that, as of July 25, 2023, Vicor had no significant existing customer planning a Q4 ramp, or that Vicor’s statements about a ramp were knowingly untrue. The later October 24, 2023 call is pleaded as a “reversal,” but the transcript excerpts show primarily (i) a refusal to discuss customer-specific details and (ii) generalized discussion of diversification and longer-term opportunities. A later refusal to provide specificity, or a change in tone, does not itself establish that the earlier statements were false when made.
-Nor does the complaint plead a clear “corrective disclosure” revealing the truth of the alleged falsity. The October call excerpts do not contain an admission that no customer existed, that the July statements were wrong, or that an identified Q4 ramp was cancelled. At most, the complaint alleges defendants did not repeat the earlier optimism and declined to discuss a particular customer. That is not enough to plead falsity with the specificity the PSLRA requires.
-The complaint’s alternative theory—Vicor had only a tentative understanding and omitted risks/qualifications—also is not adequately pleaded as an actionable omission. Plaintiffs do not identify a specific omitted fact that rendered the July 25 statements misleading (e.g., that there were no purchase orders, that the customer had not committed, that Vicor lacked capacity, or that the customer had communicated uncertainty). The pleading instead infers tentativeness from the fact that the company later spoke differently. That is hindsight pleading.
-2) Scienter not strongly inferred. Even assuming arguendo the July 25 statements were misleading, the complaint does not plead facts giving rise to a strong inference that defendants acted with scienter.
-The main scienter allegations are: (a) Vinciarelli’s position and access to information; (b) the importance of the customer to Vicor’s business; (c) the later October call’s evasiveness; (d) Vinciarelli’s equity stake and the stock-price impact on his net worth; and (e) allegations of insider sales by “certain Vicor insiders” after July 25.
-Position/access and importance are insufficient on their own; the PSLRA requires particularized facts showing contemporaneous knowledge of falsity. The October call’s refusal to discuss customers is at least as consistent with a non-fraudulent inference (e.g., customer confidentiality, evolving program timing, or competitive sensitivity) as with fraud.
-Motive allegations are also weak as pleaded. Vinciarelli’s large holdings create a generalized desire for a higher stock price shared by most corporate executives and do not, without more, strongly imply fraudulent intent. The complaint does not allege Vinciarelli himself sold shares during the relevant period, and it does not plead the alleged other insiders’ sales with the specificity typically required (who sold, how many shares, when, under what plans, and why the sales were unusual in amount or timing). Without particularized, unusual insider trading allegations tied to the alleged fraud, these assertions do not create a strong inference of scienter.
-3) Reliance and the proposed “short-seller” class. Plaintiffs plead reliance in an atypical posture: they were short sellers who bought to cover after a price increase. While Section 10(b) can, in principle, apply to purchasers who cover short positions, the complaint’s reliance theory is not coherently pleaded under Basic.
-Basic’s fraud-on-the-market presumption is designed for purchasers (or sellers) who transacted at a market price allegedly distorted by defendants’ misstatements. Here, plaintiffs allege they were “forced” to cover because the price rose. That is not the same as alleging they relied on the integrity of the market price in deciding to buy; it suggests compelled risk management in response to price movement, which may be driven by many factors including short squeeze dynamics unrelated to the alleged misstatement. The complaint does not plead facts showing that each plaintiff’s decision to cover was caused by believing the July 25 statements, as opposed to margin requirements, risk limits, or other trading constraints.
-Further, plaintiffs’ class definition is limited to persons who were short before July 25 and covered through October 24. That framing underscores that the alleged injury is not the classic inflationary overpayment injury but rather losses from covering into a price spike. The complaint does not adequately plead how Basic or Affiliated Ute presumptions apply to this class-wide theory, particularly where the alleged misrepresentation caused an increase (not decrease) and the class members’ relevant transactions are purchases to cover.
-4) Loss causation is not adequately pleaded. Loss causation requires a plausible allegation that the revelation of the truth concealed by the fraud caused the economic loss. Dura, 544 U.S. at 342-46.
-The complaint identifies the October 24/25 price drop as the loss-causing event, but it does not plead a corrective disclosure that revealed the falsity of the July 25 statements. The October call excerpts show non-specific discussion and refusal to discuss customer details, not a disclosure that the July 25 “significant customer” statement was false. Absent a pleaded revelation of the truth (as opposed to disappointment, changed expectations, or general negative performance news), plaintiffs do not plausibly connect the later price decline to the alleged fraud.
-Because plaintiffs do not plead falsity with PSLRA particularity, do not plead a strong inference of scienter, and do not adequately plead reliance and loss causation in this short-seller covering posture, the Section 10(b)/Rule 10b-5 claim is dismissed. Dismissal is without prejudice to amendment unless amendment would be futile; on this record, plaintiffs may attempt to plead particularized facts (e.g., contemporaneous documents, witness allegations, specific order/contract facts, and a true corrective disclosure) if they exist.</t>
+          <t>Taking the allegations as true and applying the PSLRA and Rule 9(b), Plaintiff adequately pleads (1) actionable misstatements/omissions, (2) materiality, (3) scienter, (4) loss causation, and (5) reliance.
+Actionable statements/omissions: The complaint does not rest solely on inactionable puffery. While some statements (e.g., “point of strength,” “very healthy,” “found our footing”) may be generalized optimism, the pleaded misstatements include concrete assertions about being “on track” to meet FY21 outlook and specific representations about commercial margin trajectory/profitability. In addition, Plaintiff pleads a viable omission theory: Defendants’ risk-factor disclosures framed quality defects as contingent (“if”) even though Plaintiff alleges the cracking issue had already developed in nearly all commercial systems and would require substantial remediation. Under Ninth Circuit law, risk disclosures may be actionable when they speak of risks as hypothetical while the risk has already materialized.
+Materiality: A pervasive defect affecting “nearly all” commercial systems and requiring tens of millions in charges is plausibly material, particularly where the company touted commercial execution and provided/updated guidance.
+Scienter: Plaintiff pleads a strong inference of at least deliberate recklessness. The alleged defect was widespread (“nearly all” systems), developed over time, and ultimately resulted in a significant charge and operational response (proactive replacement program; appointment of an EVP for supply chain/quality). The complaint further alleges that Defendants were conducting an intensive review and due diligence in connection with strategic alternatives/sale of the CIS business during the Class Period, supporting an inference they learned of (or consciously disregarded) the defect and associated costs before the January 20 disclosure.
+Loss causation: The January 20, 2022 disclosure linked the cracking issue to charges and guidance miss, followed by a 16.9% one-day decline on heavy volume, plausibly pleading that revelation of the concealed defect and its financial impact caused the loss.
+Safe harbor/puffery defenses: At the pleading stage, the Court cannot conclude the PSLRA safe harbor bars the claim as a matter of law where Plaintiff alleges the forward-looking statements were made with actual knowledge of falsity and were intertwined with allegedly false present-tense representations (existing defect and inevitable costs). Any portion of the challenged statements that is mere puffery may be disregarded without warranting dismissal of the claim as a whole.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability)</t>
+          <t>Exchange Act §20(a) control-person liability (Count II) against Faricy and Sial</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Legal standard. To state a claim under Section 20(a), plaintiffs must plead (1) a primary violation of the securities laws by the controlled person (here, Vicor), and (2) that the defendant exercised actual power or control over the primary violator. See 15 U.S.C. § 78t(a). Many courts also require culpable participation, though the requirement varies by circuit; in any event, Section 20(a) liability cannot exist without a well-pleaded primary violation.
-Here, the Section 10(b)/Rule 10b-5 claim is dismissed for failure to plead falsity, scienter, reliance, and loss causation adequately. Without a sustained primary violation, the Section 20(a) claim necessarily fails and is dismissed.
-Even if a primary violation had been pleaded, the complaint’s control allegations (Vinciarelli’s CEO role and voting control) would likely satisfy the control element at the pleading stage. But because the predicate claim does not survive, Count Two is dismissed as well.</t>
+          <t>Because Plaintiff adequately pleads a primary violation under §10(b)/Rule 10b-5, and alleges Faricy and Sial held senior executive control positions with authority over SEC filings and public statements (including signing/certifying Forms 10-Q and speaking on earnings calls), Plaintiff plausibly pleads control and culpable participation sufficient at the motion-to-dismiss stage. Defendants’ good-faith/non-culpable participation defenses are fact-bound and not resolved on the pleadings.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1500,16 +1532,31 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>11850</v>
+        <v>20213</v>
       </c>
       <c r="X10" t="n">
-        <v>2935</v>
-      </c>
+        <v>1444</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cand_3_21-cv-09767</t>
+          <t>casd_3_23-cv-01216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1522,18 +1569,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>This is a Securities Act putative class action arising from Robinhood Markets, Inc.’s July 2021 initial public offering. Lead Plaintiffs Vinod Sodha and Amee Sodha allege they purchased Robinhood common stock issued pursuant and traceable to the IPO registration statement/prospectus and were damaged when the truth about Robinhood’s business trajectory and operational shortcomings emerged.
-Parties. Plaintiffs sue (1) Robinhood Markets, Inc. (the issuer/registrant); (2) “Individual Defendants” consisting of senior executives and directors who signed the registration statement: CEO/President/co-founder Vladimir Tenev, CFO Jason Warnick, co-founder/Chief Creative Officer Baiju Bhatt, and directors Jan Hammer, Paula Loop, Jonathan Rubenstein, Scott Sandell, and Robert Zoellick; and (3) the IPO underwriters (Goldman Sachs &amp; Co. LLC, J.P. Morgan Securities LLC, Barclays, Citigroup, Wells Fargo, Mizuho, JMP, KeyBanc, Piper Sandler, Rosenblatt, BMO, BTIG, Santander, Academy, Loop Capital, Ramirez, and Siebert).
-Alleged misconduct. Plaintiffs contend the IPO Offering Documents (Registration Statement declared effective July 28, 2021 and final Prospectus filed July 30, 2021) contained materially false and misleading statements and omissions. The core theory is that Robinhood marketed itself as executing a “democratize finance” strategy centered on safety/reliability, customer-centricity, responsive support, and long-term customer success, and simultaneously presented KPI and revenue information that purportedly conveyed ongoing massive growth through June 30, 2021. Plaintiffs allege those statements were misleading because (a) Robinhood allegedly was not following its stated “safety-first” and customer-first principles (e.g., insufficient fraud controls, inadequate customer support/training, and app design features that encouraged frequent trading and risky products), and (b) by June–July 2021 (immediately pre-IPO) Robinhood’s performance metrics and revenue were allegedly deteriorating sharply, contradicting the growth narrative.
-Key factual allegations supporting falsity/omissions. Plaintiffs rely on confidential witnesses (former employees/contractors) and later-disclosed KPI data. They allege, among other things: (i) inadequate fraud detection and significant backlogs in fraud reviews; (ii) customer support infrastructure and training deficiencies; (iii) easy access to complex products (options/margin) for inexperienced customers; (iv) internal tracking of KPIs in real time (Looker dashboards) and discussion of declining MAU/attrition at all-hands/management meetings attended by Tenev and Bhatt; and (v) pre-IPO KPI deterioration in June and July 2021 including alleged declines in MAUs (from ~24.1M in May 2021 to 21.3M in June to 19.5M in July), crypto trading volume (from ~$127B in May to ~$30B in June to ~$13B in July), AUC deterioration (from ~$98.5B in May to ~$94.7B in July), stagnation in net cumulative funded accounts (~22.3–22.5M May–July), and declining ARPU (alleged to have fallen materially from Q1 2021 levels).
-Plaintiffs also plead that the Offering Documents’ risk disclosures (e.g., risks of outages, cybersecurity breaches, declining trading volumes/crypto volatility, and slowing growth) were misleading because the risks had allegedly already materialized by the time of the IPO. They further allege violations of SEC disclosure requirements, specifically Item 303 (known trends/uncertainties) and Item 105 (risk factors), based on the alleged known KPI/revenue deterioration and operational/customer-trust issues.
-Class definition and period. The proposed class consists of all persons/entities who purchased or otherwise acquired Robinhood common stock “issued in connection with the Company’s IPO,” i.e., shares purchased pursuant and traceable to the July 2021 offering (not a traditional Exchange Act “class period”). Significant dates: July 1, 2021 (draft S-1 filed); July 25, 2021 (final amendment filed); July 28, 2021 (Registration Statement effective); July 30, 2021 (IPO priced at $38 and final Prospectus filed). Plaintiffs allege partial corrective disclosures beginning October 26–27, 2021 (Q3 2021 results showing KPI/revenue declines), and continuing through later disclosures and reporting in 2021–2022, including November 2021 cybersecurity incident disclosure and April 28, 2022 reporting that included monthly KPI data allegedly revealing the pre-IPO declines.
-Claims asserted. Plaintiffs bring three Securities Act causes of action: (1) Section 11 against all defendants; (2) Section 12(a)(2) against all defendants; and (3) Section 15 control-person liability against the Individual Defendants predicated on the Section 11 claim. Plaintiffs expressly disclaim scienter/fraud and proceed on strict liability/negligence theories typical of Securities Act claims.</t>
+          <t>Parties: Court-appointed Lead Plaintiff Dipak Patel brings this putative federal securities class action on behalf of purchasers/acquirers of ImmunityBio, Inc. (“ImmunityBio” or the “Company”) securities during the alleged class period. Defendants are ImmunityBio and three senior executives/directors: Patrick Soon-Shiong (Executive Chairman; Global Chief Scientific and Medical Officer), Richard Adcock (CEO; Board member), and David C. Sachs (CFO) (collectively, “Individual Defendants”).
+Class period: The complaint pleads a class period of March 10, 2021 through May 10, 2023 (inclusive) in the “Nature of the Action,” though the Rule 23 section contains an apparent inconsistency stating March 7, 2021 through May 10, 2023. The alleged corrective disclosure occurred May 11, 2023 (pre-market), after the pleaded end date.
+Business context and key facts: ImmunityBio is a clinical-stage biotech formed through a March 9, 2021 merger of two Soon‑Shiong-controlled entities. The Company’s lead and most value-critical product candidate was Anktiva (N‑803), a biologic for bladder cancer (NMIBC). ImmunityBio allegedly had no meaningful product revenues and depended on FDA approval of Anktiva.
+Alleged misconduct: Plaintiffs allege Defendants made materially false and misleading statements and omissions about ImmunityBio’s manufacturing readiness and cGMP compliance for Anktiva—particularly regarding third-party contract manufacturing organizations (“CMOs”) used to manufacture Anktiva drug substance (AGC Biologics, Bothell, WA) and to perform fill/finish into vials (a separate CMO). Plaintiffs allege that, contrary to repeated public statements touting “GMP manufacturing capacity at scale,” “cGMP-compliant” third-party facilities, and robust quality oversight, the AGC facility was plagued by serious, recurring cGMP deficiencies throughout the class period, including FDA Form 483s in March 2021 (16 observations) and July 2021 (3 observations), chronic delays and failures in batch record disposition, deviation initiation/closure, CAPA implementation, stability testing, reference standard availability, and multiple failed PPQ runs. Plaintiffs further allege that Defendants knew of these issues through quality agreements, reporting of deviations/batch records, frequent executive meetings with AGC, a January 2023 mock inspection requested by ImmunityBio, and real-time involvement during the FDA’s February 2023 pre-license inspection.
+Regulatory events and alleged concealment: The Company submitted a BLA for Anktiva on May 23, 2022; FDA accepted it in late July 2022 with a May 23, 2023 PDUFA date. FDA conducted a pre-license inspection at AGC February 2–10, 2023, issued a 15-page Form 483 with five categories of serious observations, and classified the inspection “Official Action Indicated” (OAI). FDA also issued a Form 483 to the fill/finish CMO after a January 11–16, 2023 inspection. Plaintiffs allege that even after these inspections, ImmunityBio continued to make statements implying compliance and describing approval timing as “unclear,” while omitting that the inspection results made approval no longer viable.
+Corrective disclosure and loss: On May 11, 2023, ImmunityBio disclosed it received an FDA Complete Response Letter (CRL) dated May 9, 2023, stating the FDA could not approve the BLA in its present form due to deficiencies relating to pre-license inspections of its third-party CMOs and additional CMC issues. The stock allegedly fell about 55% on May 11, 2023.
+Claims asserted: (1) Section 10(b) and Rule 10b‑5 against all Defendants, based on alleged misstatements/omissions and scheme; and (2) Section 20(a) control-person liability against the Individual Defendants, predicated on a primary violation.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (15 U.S.C. § 77k)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (misstatements/omissions and scheme) against ImmunityBio, Soon-Shiong, Adcock, and Sachs</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1543,49 +1590,34 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a Section 11 claim, a plaintiff must plausibly allege (1) it purchased securities issued pursuant and traceable to a registration statement, and (2) the registration statement contained an untrue statement of material fact or omitted to state a material fact required to be stated therein or necessary to make the statements therein not misleading. Section 11 does not require scienter, reliance, or loss causation at the pleading stage (though damages/negative causation may be litigated later). Materiality is assessed under the substantial-likelihood/total-mix standard.
-Application. Plaintiffs adequately plead traceability to the IPO offering and identify multiple categories of allegedly actionable misstatements/omissions in the Offering Documents. At the motion-to-dismiss stage, the Court accepts as true well-pleaded allegations that, by June–July 2021, Robinhood’s key engagement and transaction metrics were declining sharply (MAU declines, crypto volume collapse, AUC deterioration, stagnating funded accounts, and falling ARPU), and that Robinhood tracked these metrics in real time and nonetheless presented IPO investors with KPI tables/estimates and narrative emphasizing continued growth and positioning for continued expansion.
-The alleged omissions are plausibly material. Robinhood’s IPO materials highlighted KPIs (MAU, AUC, NCFA, ARPU) as central indicators of engagement and revenue correlation. A sharp, near-term reversal in those same KPIs immediately before pricing—particularly where the issuer provided a June 30, 2021 estimate and described increases as driven by new users—could significantly alter the total mix for a reasonable IPO investor evaluating sustainability of growth and the valuation implied by the offering price.
-Defendants’ principal counterarguments (as typically raised on such motions) do not warrant dismissal on this record. First, many challenged statements are not mere puffery; plaintiffs target concrete KPI estimates/tables and specific representations about current-quarter KPI levels and drivers. Second, cautionary “risk factor” language about potential future declines does not immunize alleged omissions of then-existing, already-occurring KPI deterioration; risk disclosures are not adequate if they speak of risks as hypothetical when the complaint plausibly alleges the risk has already materialized. Third, to the extent some statements about mission, customer focus, or “safety-first” are aspirational, plaintiffs also allege contemporaneous operational facts (fraud backlogs, inadequate controls/support, and internal recognition of customer attrition/NPS decline) that, if proven, could render certain qualitative statements misleading in context.
-Accordingly, plaintiffs have plausibly stated a Section 11 claim against the issuer, signatories, and underwriters (subject to statutory defenses such as due diligence and negative causation, which are not resolved on a Rule 12(b)(6) motion).</t>
+          <t>Taking the allegations as true and applying the PSLRA and Rule 9(b), the complaint pleads (i) particularized statements, (ii) why they were misleading, (iii) a plausible theory of materiality, (iv) a strong inference of scienter at least as to Soon‑Shiong and Adcock, and (v) plausible loss causation.
+1) Material misstatement/omission. Plaintiffs identify numerous repeated statements in SEC filings and press releases touting “GMP manufacturing capacity at scale,” “cGMP-compliant” third-party facilities for Anktiva, and robust quality oversight, as well as risk-factor language framing cGMP failures as hypothetical. The complaint pleads with detail that the AGC facility had serious, recurring cGMP deficiencies during the same period (Form 483s in March/July 2021; chronic deviation/batch/stability failures; reference standard shortage; multiple failed PPQ runs), and that the FDA later issued a severe Form 483 and OAI classification during the pre-license inspection. At the pleading stage, these allegations plausibly render the challenged affirmative statements and “hypothetical risk” framing misleading by omission, because they allegedly conveyed that manufacturing systems supporting the Company’s lead approval catalyst were compliant/robust when, in fact, they were not.
+2) Materiality. Where a clinical-stage biotech’s valuation depends heavily on a single BLA and the FDA’s ability to approve it, information that the sole-source drug-substance CMO was experiencing persistent cGMP breakdowns and later received an OAI pre-license inspection is plausibly material to a reasonable investor. The alleged 55% one-day decline following disclosure of the CRL tied to CMO inspection deficiencies further supports materiality at this stage.
+3) Scienter. The complaint alleges more than generalized “must have known” assertions. It pleads (a) the centrality of Anktiva to the Company; (b) specific reporting mechanisms (quality agreements; deviation and batch disposition reporting; inspection observations sharing); (c) frequent executive-level meetings between AGC and ImmunityBio (monthly/bi-monthly) involving Adcock and the COO; (d) a January 2023 mock inspection prompted by concern over an unusually intensive FDA inspection, with findings presented to Adcock; (e) real-time executive involvement during the February 2023 inspection, including Soon‑Shiong’s daily calls and Adcock’s on-site presence; and (f) continued public statements after the February 2023 inspection. These allegations, viewed holistically, support a cogent and at least as compelling inference of knowing or deliberately reckless concealment as any nonculpable inference.
+As to CFO Sachs, the scienter allegations are comparatively weaker (more tied to signing filings than direct operational involvement). Nonetheless, the complaint alleges pervasive, long-running manufacturing failures tied to the Company’s key asset, coupled with repeated incorporation of the same manufacturing representations into registration statements and periodic reports signed by Sachs. At the motion-to-dismiss stage, and given the pleaded corporate reporting structures and the magnitude/importance of the manufacturing issues, the scienter allegations are sufficient to proceed.
+4) Reliance. The complaint pleads an efficient market for a NASDAQ-listed security and invokes Basic fraud-on-the-market; it also pleads omission-based reliance under Affiliated Ute. That is sufficient at this stage.
+5) Loss causation. Plaintiffs allege a corrective disclosure on May 11, 2023: the Company’s disclosure of the CRL and that the deficiencies related to pre-license inspections of its CMOs and additional CMC issues, followed by a sharp stock drop. This adequately pleads that the concealed risk materialized and/or the truth was revealed, causing economic loss.
+Accordingly, the §10(b)/Rule 10b‑5 claim is plausibly stated and is sustained.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Section 12(a)(2) of the Securities Act (15 U.S.C. § 77l(a)(2))</t>
+          <t>Exchange Act §20(a) control-person liability against Soon-Shiong, Adcock, and Sachs</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Legal standard. Section 12(a)(2) imposes liability on a person who offers or sells a security by means of a prospectus or oral communication containing a material misstatement or omission, to a purchaser from that seller. A plaintiff must plausibly allege statutory standing by pleading that the defendant was a “seller,” meaning either (1) the defendant passed title directly to the plaintiff (direct seller), or (2) the defendant solicited the purchase, motivated at least in part by its own financial interest (Pinter v. Dahl). Conclusory allegations that defendants “promoted” or “solicited” are insufficient; the complaint must connect particular defendants to the plaintiff’s purchase in a manner that makes seller status plausible.
-Application. While plaintiffs adequately plead material misstatements/omissions in the prospectus for purposes of Section 12(a)(2), they do not adequately plead seller/solicitation standing as to “all defendants.” The complaint alleges in generalized terms that defendants “promoted, solicited, and sold” shares and that underwriters conducted roadshow activities, but it does not plausibly allege that Lead Plaintiffs purchased their shares from any particular underwriter (or from Robinhood) or that any particular defendant directly solicited Lead Plaintiffs’ purchases. The pleading does not identify the offering channel used by Lead Plaintiffs, the counterparty to their transaction, or any individualized solicitation.
-Courts routinely dismiss Section 12(a)(2) claims at the pleading stage where plaintiffs plead only group allegations of solicitation in an IPO without alleging from whom they purchased or how a particular defendant solicited their purchase. That defect is not cured by alleging that underwriters generally sold allotted shares or that executives participated in a roadshow; without a plausible nexus to plaintiffs’ purchases, seller status remains speculative.
-Accordingly, the motion to dismiss is granted as to the Section 12(a)(2) claim, with leave to amend typically appropriate if plaintiffs can plead facts supporting statutory seller standing (not addressed here because the requested output is claim disposition).</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Section 15 of the Securities Act (15 U.S.C. § 77o) (control person liability)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Legal standard. Section 15 imposes joint and several liability on persons who control a primary violator of Sections 11 or 12, unless the control person had no knowledge of or reasonable ground to believe in the facts giving rise to the violation. At the pleading stage, plaintiffs must plausibly allege (1) a primary violation and (2) control by the defendant.
-Application. Plaintiffs have plausibly pleaded a primary Section 11 violation for the reasons stated above. They also plausibly allege control by the Individual Defendants: Tenev (CEO/President and director), Warnick (CFO), Bhatt (co-founder and director), and the director defendants who signed the registration statement. Executive officers and directors who sign the registration statement and are alleged to have power to influence corporate policy and disclosures generally suffice to plead control at this stage.
-Because Section 15 is derivative, the survival of the Section 11 claim supports the Section 15 claim. Defendants’ potential good-faith/no-knowledge defense is fact-intensive and not resolved on a motion to dismiss where plaintiffs allege, among other things, that key KPIs were tracked internally and discussed in meetings attended by top leadership.
-Accordingly, the Section 15 claim against the Individual Defendants survives.</t>
-        </is>
-      </c>
+          <t>Section 20(a) requires a primary violation and plausible control by the individual defendants. Because the complaint adequately pleads a primary §10(b) violation, it also plausibly alleges control: Soon‑Shiong (Executive Chairman and Global Chief Scientific/Medical Officer, alleged to exercise dominant influence), Adcock (CEO and Board member, alleged direct involvement with the CMO and inspection response), and Sachs (CFO who signed key SEC filings and participated in dissemination of the challenged statements). At the pleading stage, these allegations suffice to infer power to control the Company’s public statements and the conduct at issue. Any good-faith defense is fact-intensive and not resolved on a motion to dismiss. The §20(a) claim is therefore sustained.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -1596,16 +1628,31 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>29908</v>
+        <v>33785</v>
       </c>
       <c r="X11" t="n">
-        <v>2494</v>
-      </c>
+        <v>1933</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cand_3_22-cv-00956</t>
+          <t>ctd-3-23-cv-01035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1618,51 +1665,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lead Plaintiff Steamfitters Local 449 Pension &amp; Retirement Security Funds brings this putative federal securities class action on behalf of purchasers or acquirers of SunPower Corporation (“SunPower”) publicly traded securities during August 3, 2021 through January 20, 2022, inclusive (the “Class Period”). Defendants are (1) SunPower (NASDAQ: SPWR), headquartered in San Jose, California; (2) Peter Faricy, SunPower’s CEO and President during the Class Period (and a director at the start of the period; became Chairman on November 1, 2021); and (3) Manavendra S. Sial, SunPower’s CFO and EVP during the Class Period.
-The complaint alleges a scheme to mislead investors about (i) the status and trajectory of SunPower’s commercial business (including margin performance and balance sheet impacts), (ii) whether SunPower was on track to meet FY2021 financial guidance, and (iii) the nature and magnitude of product-quality risks—specifically, defects/cracking in third-party connectors used in SunPower’s commercial solar systems. SunPower had divested manufacturing in 2020 and relied on third-party suppliers for key components; the complaint alleges that defects in “factory-installed connectors within third-party commercial equipment” had already developed “in nearly all” commercial systems, requiring SunPower to incur “tens of millions” in replacement/retrofit costs, rendering prior upbeat statements and “risk factor” disclosures misleading.
-Key alleged misstatements/omissions include: (1) August 3, 2021 2Q21 earnings press release and call: Faricy stated results reflected “continued execution in both our residential and commercial businesses” and that SunPower remained “on track to achieve our 2021 financial outlook”; Sial stated CIS (heavy commercial) was “significantly better” year-over-year “from a margin point of view” and would be profitable in the back half of the year. (2) August 4, 2021 2Q21 Form 10-Q: risk disclosures framed quality problems as hypothetical (“If we have quality issues…,” “potential future… failures”) and warned of supplier-quality risks, which plaintiff alleges was misleading because the cracking issue already existed and was pervasive. (3) October 5, 2021 call regarding Blue Raven acquisition and CIS “strategic options”: while revising guidance downward due to CIS delays/costs and exploring a CIS sale, defendants allegedly continued to portray commercial as a “point of strength,” “market share leader,” and “very healthy,” implying issues were merely lumpiness/permitting/supply chain rather than an existing widespread defect. (4) November 3, 2021 3Q21 earnings call: Faricy stated SunPower had “found our footing” with its “healthiest balance sheet in years”; November 4, 2021 3Q21 Form 10-Q repeated the same “hypothetical” quality-risk disclosures.
-The complaint further alleges that on December 7, 2021 SunPower posted an updated safety/installation manual adding new warnings about “stress cracking” in connectors and handling practices, which plaintiff characterizes as a partial disclosure consistent with an already-known cracking problem.
-Corrective disclosure and alleged loss causation: On January 20, 2022 after market close, SunPower issued a press release (Form 8-K) preannouncing it would miss guidance and would record approximately $27 million in supplier-quality related charges in 4Q21 and $4 million in 1Q22 due to a “cracking issue” that developed over time in certain factory-installed connectors within third-party commercial equipment across CVAR (light commercial) and CIS. The Company stated it would proactively replace all impacted connectors largely during 2022. The next trading day, January 21, 2022, SunPower’s stock fell from $19.02 to $15.80 (down 16.9%) on elevated volume. Analysts cited the breadth (“nearly all” C&amp;I systems since 2019) and suggested the issue likely surfaced during due diligence for the CIS sale process.
-The legal claims asserted are: (1) Count I—Section 10(b) of the Exchange Act and Rule 10b-5 against all defendants, based on alleged materially false and misleading statements/omissions and a fraudulent course of conduct; and (2) Count II—Section 20(a) control-person liability against the individual defendants.
-Significant dates: April 19, 2021 Faricy became CEO; August 3–4, 2021 2Q21 earnings release/call and 10-Q; October 5, 2021 strategic options call; November 3–4, 2021 3Q21 earnings release/call and 10-Q; December 7, 2021 updated manual posted; January 20, 2022 press release disclosing cracking issue and charges (end of Class Period); January 21, 2022 stock drop; February 6, 2022 CIS sale to TotalEnergies announced (post-Class Period).</t>
+          <t>Parties and posture. Lead Plaintiffs New England Teamsters Pension Fund, Laborers Local 60 Benefits Fund, and Roofers Local 8 WBPA Fund sue on behalf of a putative class of purchasers of RTX Corporation common stock. Defendants are RTX and five senior executives (Hayes, Mitchill, O’Brien, Calio, Eddy). The class period is February 8, 2021 through September 8, 2023 (inclusive). The complaint asserts Exchange Act claims under Section 10(b) and Rule 10b-5 (Count I) and Section 20(a) control-person liability (Count II).
+Core alleged misconduct. Plaintiffs allege RTX, through its Pratt &amp; Whitney subsidiary, concealed a pervasive manufacturing defect in Pratt &amp; Whitney’s Geared Turbofan (“GTF”) commercial jet engines. The alleged defect is “contaminated powdered metal” used to manufacture critical rotating engine parts (notably high-pressure turbine disks), which could crack and fail and require extensive “off-wing” inspections and part replacement. Plaintiffs allege Defendants learned by no later than March 2020—after a V2500 engine disk failure and ensuing FAA scrutiny—that the contamination affected parts manufactured from roughly late 2015 through Q3 2021 and thus implicated the GTF fleet. Plaintiffs further allege Defendants made multiple undisclosed process changes (nine changes through late 2021) to eliminate contamination going forward, while continuing to manufacture and sell engines with suspect parts and keeping in-service engines operating to avoid massive warranty, repair, and customer-compensation costs.
+Key facts and timeline. (1) March 18, 2020: V2500 engine disk failure triggers FAA directives and Pratt &amp; Whitney root-cause work; plaintiffs allege this revealed the powdered-metal contamination and its broader fleet implications. (2) February 8, 2021: RTX 2020 Form 10-K describes GTF “technical issues” as usual for new engines and states they have been “addressed” through improvements/modifications; plaintiffs allege this was misleading because the powdered-metal defect was known and not addressed for in-service GTF engines. (3) 2021–2023: Executives allegedly touted GTF performance (dispatch reliability, upgrades, time-on-wing improvements) and represented that costs/contract accounting and guidance contemplated known engine issues, while omitting the defect’s scope and financial impact. (4) December 24, 2022: GTF-equipped aircraft aborted takeoff/fire; plaintiffs allege RTX linked it to the same powdered-metal anomaly but did not disclose it. (5) July 25, 2023: RTX disclosed a “rare condition” in powdered metal requiring accelerated inspections/removals (initially ~200 engines, ~1,000 more within 9–12 months) and reduced 2023 cash-flow guidance by $500 million; stock fell ~10%. (6) September 11, 2023: RTX disclosed broader scope (~3,000 engines touched) and projected $3–$3.5 billion operating profit impact (gross $6–$7 billion) with long shop times (250–300 days); stock fell ~8%. Plaintiffs allege these were corrective disclosures revealing the concealed defect and its true magnitude.
+Alleged misstatements/omissions. Plaintiffs identify as actionable: (i) statements characterizing GTF issues as typical/teething and “addressed,” (ii) repeated assurances that GTF was performing “very, very well,” with high dispatch reliability and upgrades largely complete, (iii) statements that contract accounting, estimates, and guidance contemplated everything known about the engine and that no “surprise” was coming, and (iv) risk-factor language presenting manufacturing/safety failures and recalls as hypothetical when the defect allegedly already existed.
+Scienter allegations. Plaintiffs plead scienter based on: Defendants’ alleged knowledge from the 2020 V2500 incident and internal analyses; FAA interactions and service bulletins; former-employee accounts of internal awareness (including a 2019 call discussing contamination); the asserted centrality of the GTF program to RTX; alleged contemporaneous internal planning for multi-billion-dollar costs; and the timing/contrast between upbeat public statements and later admissions.
+Loss causation and damages theory. Plaintiffs allege the stock price was artificially inflated during the class period and declined on July 25, 2023 and September 11, 2023 as the truth emerged, causing investor losses.
+Claims. Count I asserts Section 10(b)/Rule 10b-5 against RTX and the individual defendants based on misstatements and omissions regarding the defect and its financial/safety implications. Count II asserts Section 20(a) control-person liability against the individual defendants predicated on the alleged primary violation.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Count I – Section 10(b) and Rule 10b-5 (misstatements/omissions) against RTX and Individual Defendants</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>dismissed_in_part</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiffs must allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA and Rule 9(b), falsity must be pleaded with particularity, and scienter must be pleaded with particularity giving rise to a strong inference that is at least as compelling as any opposing inference.
-1. Material misrepresentation/omission (falsity).
-(a) Actionable statements sufficiently pleaded. The complaint plausibly pleads falsity as to a subset of statements that conveyed that SunPower’s commercial business was executing well and that the Company was on track with FY21 outlook, while allegedly concealing an already-existing, widespread connector cracking defect that would require tens of millions in remediation costs.
-The January 20, 2022 disclosure describes a cracking issue in factory-installed connectors in third-party commercial equipment, found through a “product quality assessment,” with expected charges of ~$31 million across 4Q21/1Q22 and proactive replacement “largely during 2022.” Coupled with allegations that the issue affected “nearly all” commercial systems and had developed “over time” (with analysts placing affected systems back to 2019), the complaint plausibly alleges that, during at least part of the Class Period, the defect and its financial implications were not merely a contingent risk but an existing condition reasonably likely to materially impact results.
-Against that backdrop, statements such as Faricy’s August 3, 2021 assertion of “continued execution in both our residential and commercial businesses” and that the Company remained “on track to achieve our 2021 financial outlook,” and Sial’s statements that CIS was “significantly better” from a “margin point of view” and expected to be profitable in the back half, are not mere puffery on this pleading record. They speak to current operational performance and trajectory and were made in the context of guidance and segment profitability. If, as alleged, nearly all commercial systems were already affected by a defect requiring large remediation charges, then describing the commercial segment as executing well and implying guidance remained on track could be misleading by omission.
-Similarly, the October 5, 2021 characterization of the commercial business as a “point of great strength” and “very healthy,” while simultaneously attributing guidance variance to lumpiness/permitting/schedule delays, is plausibly misleading if defendants knew the segment’s economics and timing were materially impaired by an existing pervasive defect and looming remediation.
-(b) Risk-factor “hypothetical” warnings (Forms 10-Q) — dismissed. The complaint’s theory that the 2Q21 and 3Q21 Forms 10-Q were actionable because they warned only that SunPower “might” face quality issues “if” products were defective, when the defect had already manifested, is not adequately pleaded as a standalone actionable misrepresentation on these facts.
-Risk disclosures are actionable when they “speak of risks as hypothetical when in fact they have already materialized,” but plaintiffs must plead with particularity that the risk had in fact materialized at the time and that defendants knew of it. Here, while the complaint alleges the cracking issue had already developed in nearly all commercial systems, it pleads that allegation largely in conclusory terms and by inference from (i) the January 20, 2022 disclosure that the issue developed “over time,” (ii) later analyst commentary suggesting the issue existed since 2019 and may have surfaced in due diligence, and (iii) the December 7, 2021 manual update. Those allegations plausibly support that the issue existed by late 2021 and certainly by January 2022, but they do not plead with the required particularity that, as of August 4, 2021 or November 4, 2021, defendants knew the defect had manifested broadly and that the specific risk-factor language was rendered misleading at those times. The complaint does not identify internal reports, dates of discovery, warranty reserve discussions, customer complaints, field failure rates, or other contemporaneous facts tying knowledge of a pervasive defect to the dates the 10-Qs were filed. Without more, the risk-factor statements are too generalized and forward-looking to be actionable as pleaded.
-(c) Certain statements are nonactionable puffery/opinion — dismissed in part. Statements such as “we have found our footing” and generalized optimism about being “well positioned” or having “solid” results may be puffery, but where they are intertwined with concrete assertions about being on track with guidance and segment profitability, they may contribute to the overall misleading impression. The Court dismisses the claim to the extent it is predicated solely on vague corporate optimism untethered to concrete facts.
-2. Scienter.
-As to the surviving subset of statements (commercial execution/trajectory and on-track guidance statements), the complaint pleads a strong inference of scienter sufficient to survive at this stage.
-The alleged defect concerned a core aspect of SunPower’s commercial business—factory-installed connectors in third-party commercial equipment—and the remediation allegedly affected “nearly all” commercial systems with charges of approximately $31 million and operational replacement efforts throughout 2022. The magnitude and pervasiveness alleged support an inference that senior management would have been aware of the issue (or at minimum reckless in not knowing) when speaking about commercial margins, profitability, and guidance.
-In addition, the complaint alleges that during the Class Period SunPower was actively exploring and then pursuing a sale of the CIS business, with management describing the process as advanced and aiming to complete it by year-end. It is plausible that a widespread defect requiring significant remediation and potentially affecting safety/warranty exposure would be identified and escalated during operational reviews and diligence efforts connected to a sale process. While analyst speculation alone is not proof, it contributes to the inference when combined with the timing of (i) the October 5 strategic options announcement, (ii) the December 7 manual update adding cracking warnings, and (iii) the January 20 disclosure and immediate quantified charges.
-Defendants’ opposing inference—that the cracking issue was only identified later through a “product quality assessment” and that earlier statements reflected then-known scheduling/permitting issues—may ultimately prove more persuasive on a fuller record, but at the pleading stage the inference that senior executives knew of (or were deliberately reckless regarding) a pervasive defect and its financial impact when making specific performance/guidance statements is at least as compelling.
-3. Reliance.
-The complaint adequately pleads reliance via the fraud-on-the-market presumption (SunPower traded on NASDAQ; public statements; alleged efficient market) and alternatively invokes Affiliated Ute for omissions. At this stage, those allegations suffice.
-4. Loss causation and economic loss.
-The complaint adequately pleads loss causation by alleging a corrective disclosure on January 20, 2022 revealing the cracking issue and associated charges and guidance miss, followed by a statistically significant price drop (16.9%) on heavy volume on January 21, 2022. That is a plausible causal link between the alleged concealed risk (pervasive cracking defect and remediation costs) and the economic loss.
-Conclusion. The motion to dismiss is GRANTED IN PART and DENIED IN PART as to Count I. The claim survives to the extent it is based on specific statements and omissions concerning the commercial segment’s performance/trajectory and the Company being on track to meet FY21 outlook, allegedly rendered misleading by concealment of an existing widespread connector cracking defect and its expected remediation costs. The claim is dismissed to the extent it is predicated solely on generalized puffery and to the extent it relies on the Forms 10-Q risk-factor disclosures as independently actionable misstatements/omissions, for failure to plead contemporaneous knowledge and materialization with PSLRA particularity.</t>
+          <t>At the pleading stage, plaintiffs adequately allege (1) actionable misstatements/omissions, (2) materiality, (3) a strong inference of scienter, and (4) loss causation.
+Actionable statements/omissions. The complaint pleads more than nonactionable puffery. Several challenged statements are concrete and susceptible of being misleading in context—e.g., the 2020 Form 10-K’s assertion that GTF technical issues were “usual” and had been “addressed,” the repeated representations that the GTF was performing “very, very well” with near-perfect dispatch reliability, and the 2023 statements that RTX’s “estimates today contemplate everything that we know about the engine” and that there was “not a surprise here coming.” Given the alleged contemporaneous knowledge of a fleet-wide manufacturing defect requiring extensive removals and multi-billion-dollar costs, plaintiffs plausibly plead that these statements omitted facts necessary to make the affirmative assurances not misleading.
+Risk-factor allegations. Plaintiffs plausibly plead that certain risk disclosures were misleading to the extent they framed as hypothetical the occurrence of manufacturing/safety failures and regulatory consequences that had allegedly already materialized (i.e., known contamination affecting a large installed base and ongoing FAA scrutiny). While cautionary language can be nonactionable, it does not immunize statements that omit that the warned-of risk has already occurred.
+Scienter. The complaint alleges particularized facts supporting a strong inference of scienter at least as compelling as any opposing inference: (i) alleged knowledge by no later than 2020 from the V2500 incident and root-cause work; (ii) the alleged breadth of the suspect production window (2015–2021) and the asserted need for nine process changes through late 2021; (iii) FAA directives and service bulletins addressing similar anomalies; (iv) the importance of the GTF program to RTX’s financial performance; and (v) the juxtaposition of upbeat assurances (including at the June 2023 Paris Air Show) with the July/September 2023 disclosures and admissions. These allegations support at least recklessness, and plausibly intent.
+Loss causation. Plaintiffs plead a plausible causal connection between the alleged concealment and the stock drops following the July 25, 2023 and September 11, 2023 disclosures describing the defect’s existence, scope, operational disruption, and financial impact.
+Accordingly, dismissal under Rule 12(b)(6) and the PSLRA is not warranted on the present record.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability)</t>
+          <t>Count II – Section 20(a) control person liability against Hayes, O’Brien, Mitchill, Calio, and Eddy</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1672,11 +1706,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Legal standard. Section 20(a) imposes liability on a control person who (1) had the power to control or influence the primary violator, and (2) was a culpable participant in the alleged violation (the Ninth Circuit commonly requires at least a primary violation and control; defendants may assert a good-faith defense). A viable primary violation under Section 10(b) is a prerequisite.
-Because the Court sustains Count I in part, the complaint adequately pleads a primary violation.
-Control. The complaint adequately alleges control by Faricy (CEO/President and later Chairman) and Sial (CFO/EVP). It alleges they had authority over the content of SEC filings, press releases, and earnings calls, and that they participated directly in the challenged communications (including signing/certifying Forms 10-Q and speaking on earnings calls).
-Culpable participation/good faith. At the pleading stage, where the complaint plausibly alleges that senior executives made or approved statements about commercial performance and guidance while concealing a pervasive defect and looming remediation charges, it is plausible that they were culpable participants. The good-faith defense is fact-intensive and not resolved on a motion to dismiss.
-Accordingly, the motion to dismiss is DENIED as to the Section 20(a) claim.</t>
+          <t>Because plaintiffs adequately plead a primary violation under Section 10(b)/Rule 10b-5, and further plead that each individual defendant occupied senior control positions with alleged power to influence RTX’s public statements and disclosures (including signing SEC filings for certain defendants and participating in investor communications), the Section 20(a) claim is plausibly stated. At the motion-to-dismiss stage, these allegations sufficiently plead control and culpable participation (or, at minimum, control coupled with the primary violation), and any good-faith defense is not resolved on the pleadings.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1692,16 +1722,31 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>20460</v>
+        <v>63113</v>
       </c>
       <c r="X12" t="n">
-        <v>3094</v>
-      </c>
+        <v>1755</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>casd_3_23-cv-01216</t>
+          <t>dcd-1_23-cv-02055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1714,44 +1759,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>This putative securities-fraud class action is brought by court-appointed Lead Plaintiff Dipak Patel on behalf of a proposed class of all persons/entities (excluding defendants) who purchased or acquired ImmunityBio, Inc. (“ImmunityBio” or the “Company”) securities during the alleged Class Period. The complaint asserts claims under Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and SEC Rule 10b-5.
-Parties. Plaintiff: Dipak Patel, alleged purchaser of ImmunityBio securities at artificially inflated prices during the Class Period. Defendants: (1) ImmunityBio, a Delaware biopharmaceutical company headquartered in San Diego, California, whose common stock trades on NASDAQ under ticker IBRX; and individual defendants (2) Patrick Soon-Shiong (Executive Chairman of the Board; later Global Chief Scientific and Medical Officer), (3) Richard Adcock (CEO and Board member), and (4) David C. Sachs (CFO).
-Alleged fraudulent conduct. The core theory is that defendants misrepresented and/or omitted material facts about the Company’s manufacturing readiness and cGMP compliance for its lead biologic candidate, Anktiva (N-803), and about the seriousness of known manufacturing deficiencies at third-party contract manufacturers (“CMOs”). According to the complaint, ImmunityBio’s business depended heavily on FDA approval of Anktiva, and defendants repeatedly touted “GMP manufacturing capacity at scale,” “ready-to-scale facilities,” and that the multinational manufacturer used for Anktiva had “cGMP-compliant facilities” with “robust process development and validation and quality oversight.” At the same time, defendants allegedly framed cGMP/manufacturing risks as hypothetical.
-Key factual allegations supporting falsity/omissions. The complaint alleges that, throughout the Class Period, the CMO manufacturing Anktiva drug substance—identified as AGC Biologics’ Bothell, Washington facility—was “plagued” by serious, recurring cGMP failures. Allegations include: (i) FDA issued Form 483s after inspections in March 2021 (16 observations) and July 2021 (3 observations); (ii) chronic delays in batch record release/disposition (sometimes months late); (iii) deviation investigations opened late and left open for extended periods; (iv) critical deviations allegedly closed without CAPA; (v) missed stability-testing windows; (vi) running out of reference material; (vii) multiple failed PPQ runs (six attempts to obtain three successful runs). The complaint relies on four confidential witnesses (including a former AGC facility general manager) and an FDA compliance expert (Todd D. Clark) to characterize these issues as serious and likely to prevent approval.
-The complaint further alleges that after FDA notified AGC in November 2022 of an unusually intensive pre-license inspection (two weeks; six inspectors), ImmunityBio leadership (including Adcock and Soon-Shiong) became highly concerned, conducted a mock inspection in January 2023, learned of continuing deficiencies, and could not remediate them before FDA’s February 2023 inspection. The February 2–10, 2023 pre-license inspection allegedly resulted in a “scathing” 15-page Form 483, with an “Official Action Indicated” (OAI) classification, citing systemic problems in deviation management, data integrity, sanitation/contamination controls, SOP adherence (including stability testing outside windows), and quality-unit oversight. The complaint also alleges a separate pre-license inspection at the fill/finish CMO in January 2023 yielded a five-item Form 483 (validation and maintenance deficiencies).
-Corrective disclosure and loss. The complaint alleges the market first learned the truth on May 11, 2023, when ImmunityBio disclosed it had received an FDA Complete Response Letter (“CRL”) dated May 9, 2023, stating FDA could not approve the BLA “in its present form” due to deficiencies relating to pre-license inspections of the Company’s third-party CMOs and additional CMC issues. ImmunityBio’s stock allegedly fell about 55% on May 11, 2023.
-Legal claims asserted. Count I asserts violations of Section 10(b) and Rule 10b-5 (misrepresentations/omissions and scheme) against all defendants. Count II asserts control-person liability under Section 20(a) against the individual defendants.
-Class period and significant dates. The complaint pleads a Class Period of March 10, 2021 through May 10, 2023 (inclusive), although the class-action allegations section contains an apparent inconsistency referencing March 7, 2021. Significant dates include: March 9, 2021 merger closing; March 10, 2021 start of trading and Form 8-K; March 2021 and July 2021 FDA Form 483s at AGC; May 23, 2022 BLA submission; late July 2022 FDA filing/acceptance and PDUFA date of May 23, 2023; January 11–16, 2023 fill-site inspection and Form 483; February 2–10, 2023 AGC pre-license inspection and Form 483/OAI; May 9, 2023 CRL; May 11, 2023 public disclosure and stock drop.</t>
+          <t>Parties: Lead Plaintiffs (purchasers of Danaher securities) sue Danaher Corp. (NYSE: DHR) and three senior executives—CEO/President Rainer M. Blair, CFO Matthew R. McGrew, and Cytiva/bioprocessing executive Emmanuel Ligner—on behalf of a putative class. Class Period: January 27, 2022 through October 23, 2023 (inclusive). Business context: Danaher is a diversified conglomerate whose growth in 2020–2021 was materially boosted by COVID-related diagnostics (Cepheid) and life sciences/bioprocessing products (Cytiva and Pall). By early 2022, the market was focused on whether Danaher’s bioprocessing franchise (about $7.5B by early 2022) could sustain growth as COVID demand normalized.
+Alleged misconduct: Plaintiffs allege Defendants misrepresented and/or omitted material facts about (1) the durability of demand in Danaher’s bioprocessing business, (2) the magnitude and persistence of customer destocking/stockpiling and order declines, (3) the impact of tightening biotech funding on emerging biotech customers, and (4) the reasonableness of Danaher’s guidance and longer-term growth narrative. Plaintiffs contend Defendants repeatedly issued optimistic forecasts for 2022 and 2023 bioprocessing growth and for Danaher’s “base business core sales growth,” while internally knowing that demand was deteriorating due to (i) customers winding down COVID vaccine/therapeutic programs, (ii) large customers receiving long-lead-time deliveries and then stockpiling/repurposing inventory (reducing future orders), and (iii) smaller biotech customers facing funding headwinds and delaying/canceling projects. Plaintiffs also allege Danaher manipulated non-GAAP presentation by changing the definition of “base business core sales growth” (first excluding COVID testing, later excluding all COVID-related sales) to present underlying trends more favorably.
+Key factual allegations: The complaint points to a series of guidance revisions and alleged “truth leaking out” events. Danaher initially guided to roughly flat COVID vaccine/therapeutic bioprocessing revenue in 2022 (~$2B) and high-single to low-double digit bioprocessing growth, then progressively reduced COVID-related expectations and ultimately reduced growth expectations. For 2023, Defendants allegedly maintained high-single digit bioprocessing growth expectations and $500M COVID-related bioprocessing revenue for months, then cut COVID-related expectations to $150M (Jan. 24, 2023) and repeatedly reduced base business and bioprocessing outlooks through April 25, 2023 and July 25, 2023, with further negative disclosure around October 24, 2023 (just after the Class Period end date). Plaintiffs plead scienter through (a) confidential witnesses describing internal forecasting practices and an alleged admission that Blair/IR “made up” better projections, (b) the asserted centrality of bioprocessing to Danaher’s portfolio and investor focus, (c) alleged access to customer inventory/demand data and frequent customer surveys, and (d) insider stock sales by Blair and McGrew during the Class Period.
+Claims asserted: Count I alleges violations of Exchange Act §10(b) and Rule 10b-5 (misstatements/omissions and scheme) against all Defendants. Count II alleges Exchange Act §20(a) control-person liability against Blair and McGrew, predicated on a primary §10(b) violation. Plaintiffs also reference Item 303 of Regulation S-K as a disclosure duty theory supporting omissions, though the pleaded causes of action are §10(b)/Rule 10b-5 and §20(a).</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 (misrepresentations/omissions and scheme liability)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (against all Defendants)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed_in_part</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiff must plausibly allege: (1) a material misrepresentation or omission; (2) scienter (intent to deceive, manipulate, or defraud, or deliberate recklessness); (3) a connection with the purchase or sale of a security; (4) reliance (often via Basic’s fraud-on-the-market presumption in an efficient market, or Affiliated Ute for primarily omission-based claims); (5) economic loss; and (6) loss causation. Under the PSLRA and Rule 9(b), falsity and scienter must be pleaded with particularity, and the complaint must give rise to a “strong inference” of scienter that is cogent and at least as compelling as any opposing inference.
-1. Material misrepresentation/omission. The complaint identifies numerous affirmative statements in SEC filings and press releases touting that ImmunityBio had established “GMP manufacturing capacity at scale,” “ready-to-scale facilities,” and that the multinational manufacturer used for Anktiva had “cGMP-compliant facilities” with “robust” validation and quality oversight. The complaint also challenges repeated risk-factor language describing cGMP/manufacturing failures as things that “could” occur, while allegedly omitting that the relevant CMO had already been cited by FDA (Form 483s in March and July 2021), was experiencing chronic batch/disposition and deviation-management failures, and later received a severe pre-license Form 483/OAI during the pendency of the BLA.
-At the pleading stage, these allegations plausibly support falsity and misleading omission. While generalized statements about “capacity at scale” and “expertise” can be non-actionable puffery, the complaint pleads more than aspirational marketing. It alleges concrete statements about cGMP compliance of the specific third-party manufacturer for Anktiva and repeatedly represented manufacturing readiness in the context of the Company’s only near-term value driver (Anktiva approval). Coupled with allegations of known, persistent cGMP failures at the very facility producing the drug substance for the pending BLA, plaintiff plausibly alleges that at least some statements were misleading by omission.
-The “risk factor” theory is also plausibly pleaded. Risk disclosures that warn a problem “may” occur can be actionable when the risk has already materialized or is known to be imminent. Here, plaintiff alleges FDA had already issued Form 483s, the facility had ongoing systemic deficiencies, and by February 2023 FDA had issued a severe Form 483/OAI in the pre-license inspection—yet the Company continued to characterize approval as merely “unclear” and continued to tout GMP capacity and robust cGMP compliance. Those allegations plausibly plead that the disclosures were misleading in context.
-Materiality is plausibly alleged because (i) ImmunityBio allegedly had no meaningful revenues and depended on Anktiva approval; (ii) cGMP compliance is a prerequisite to biologics approval; and (iii) the alleged corrective disclosure (CRL based on CMO inspection deficiencies) caused a dramatic price decline.
-2. Scienter. The complaint pleads scienter with particularity and supports a strong inference of at least deliberate recklessness. It alleges: (a) the centrality of Anktiva approval to ImmunityBio’s business; (b) multiple FDA Form 483s at AGC during the Class Period; (c) detailed CMO reporting obligations under a quality agreement, including sharing deviations, batch records, and inspection observations; (d) frequent executive-level meetings between Adcock/COO and AGC about delays and deviations; (e) heightened concern and a mock inspection shortly before FDA’s February 2023 inspection; (f) real-time involvement during the FDA inspection, including daily executive calls demanded by Soon-Shiong and Adcock’s travel to the site; and (g) continued public statements after the February 2023 inspection suggesting only uncertainty as to approval and continuing to tout GMP/cGMP strength.
-Taken holistically, these allegations support an inference that defendants knew, or were deliberately reckless in not knowing, that the challenged statements and omissions were misleading. Defendants may ultimately argue benign inferences (e.g., reliance on CMO remediation efforts, belief issues were manageable, or that statements concerned internal NK-cell manufacturing rather than Anktiva’s outsourced drug substance). But at the motion-to-dismiss stage, the pleaded facts about executive involvement, the timing and severity of FDA observations, and continued positive/complacent messaging plausibly yield a strong inference of scienter at least as compelling as competing explanations.
-3. Reliance. The complaint pleads market efficiency (NASDAQ listing, analyst coverage, trading volume, SEC reporting) and invokes Basic’s fraud-on-the-market presumption. That suffices at this stage. To the extent the case is omission-heavy, plaintiff also pleads Affiliated Ute. Defendants’ rebuttal arguments (price impact, lack of efficiency, individualized reliance) are not resolved on the pleadings.
-4. Loss causation and damages. The complaint plausibly alleges loss causation by identifying a corrective disclosure: the May 11, 2023 announcement of the CRL stating FDA could not approve the BLA due to deficiencies relating to pre-license inspections of third-party CMOs and additional CMC issues, followed by an alleged 55% one-day stock drop. That is a plausible causal link between the alleged concealment of manufacturing/cGMP problems and the later revelation/realization of those risks. At pleading stage, plaintiff need not disaggregate all confounding factors with expert precision.
-5. Scheme liability. The complaint also pleads a “plan, scheme, and course of conduct.” To the extent scheme liability is based solely on the same alleged misstatements and omissions, it may rise or fall with the misrepresentation theory; the complaint nevertheless plausibly alleges a course of conduct to maintain an inflated price while raising capital (shelf registrations/prospectus supplements) and while allegedly concealing known cGMP failures.
-Accordingly, the motion to dismiss is denied as to Count I.</t>
+          <t>Pleading standards: The §10(b) claim must satisfy Rule 9(b) and the PSLRA by alleging (i) a materially false or misleading statement or omission, (ii) scienter, (iii) connection with purchase/sale, (iv) reliance, (v) economic loss, and (vi) loss causation. Forward-looking statements are further constrained by the PSLRA safe harbor and the bespeaks-caution doctrine.
+1) Actionable misstatements/omissions (partially sustained): The complaint adequately identifies numerous specific statements, dates, speakers, and contexts—particularly statements about then-current order activity, backlog strength, customer inventory/stockpiling, and asserted visibility from customer discussions/surveys—alleged to be false when made. Statements framed as present-tense factual assertions (e.g., that Defendants did not see significant inventory buildup; that order activity/backlog was “very, very strong”; that customer conversations supported specific revenue expectations) are plausibly actionable at the pleading stage where the complaint alleges contemporaneous contrary facts (destocking/stockpiling, order declines, funding-driven delays/cancellations) and ties those facts to internal monitoring and customer-contact systems. The complaint also pleads a plausible omission theory: having spoken repeatedly and specifically about inventory levels, order cadence, and the basis for guidance, Defendants had a duty not to omit known facts that would render those assurances misleading.
+2) Non-actionable puffery and generalized optimism (dismissed in part): Several challenged statements are high-level corporate optimism (e.g., “strong foundation,” “durable business models,” “positions us well,” “meaningful shareholder value”) that are immaterial puffery. To the extent the complaint challenges such generalized statements untethered to concrete, verifiable facts, they are dismissed.
+3) Forward-looking guidance and long-term growth projections (dismissed in part): Many alleged misstatements are guidance/projections (bioprocessing growth rates; expected COVID-related revenue; base business core growth for 2022/2023; long-term high-single digit growth). These are forward-looking. The complaint pleads in a conclusory manner that cautionary language was not meaningful, but the excerpted materials reflect at least some risk disclosure about COVID uncertainty and variability. At the motion-to-dismiss stage, however, forward-looking statements may still be actionable if plaintiffs plausibly allege actual knowledge of falsity (for safe harbor purposes) or that statements contained embedded false present facts (e.g., misrepresenting current order trends or customer plans).
+Accordingly, the Court dismisses the §10(b) claim to the extent it rests solely on forward-looking projections and generalized long-term growth narratives without adequately pleaded contemporaneous facts showing actual knowledge of falsity. The claim is sustained to the extent it is based on (a) alleged misstatements of present or historical fact about orders, backlog, inventory levels, customer behavior, and the claimed basis/visibility for guidance, and (b) forward-looking statements that plausibly incorporate or depend on alleged false present facts (such as asserted customer-confirmed visibility and lack of meaningful destocking).
+4) Scienter (sustained as to Blair and McGrew; dismissed as to Ligner on this record): The complaint pleads a strong inference of scienter as to Blair and McGrew based on: (i) CW4’s allegation that Blair rejected subsidiary projections and that he and IR “made up” better ones; (ii) repeated, detailed reassurances in response to analyst questions about inventory/ordering dynamics while the complaint alleges those dynamics were already adverse; (iii) the core-operations inference given bioprocessing’s outsized importance and investor focus; and (iv) allegations of significant insider sales by Blair and McGrew during the Class Period. Taken together and viewed holistically, these allegations support at least a cogent and compelling inference of knowing or reckless misconduct sufficient under Tellabs at the pleading stage.
+By contrast, the complaint’s scienter allegations as to Ligner are comparatively thin in the excerpt provided: it identifies his role and participation in investor day statements, but does not plead with comparable particularity his access to contradictory information, specific internal reports, or suspicious trading. Absent more particularized allegations tying Ligner to the alleged fabrication of forecasts or to concrete contemporaneous contrary facts, the strong-inference requirement is not met as to him. The §10(b) claim is therefore dismissed as to Ligner.
+5) Loss causation (sustained): The complaint pleads a series of partial corrective disclosures (Oct. 20, 2022; Jan. 24, 2023; Apr. 25, 2023; Jul. 25, 2023; and post-class Oct. 24, 2023) with alleged statistically significant price drops. At this stage, plaintiffs plausibly allege that these disclosures revealed the risk concealed by the alleged misstatements (destocking, funding headwinds, and demand deterioration) and that the stock declines were causally connected. Whether the disclosures were fully corrective or confounded by other factors is a merits issue not resolved on a motion to dismiss.
+Result: Count I is sustained against Danaher, Blair, and McGrew to the extent based on actionable present-tense misstatements/omissions and forward-looking statements premised on alleged false present facts; dismissed as to immaterial puffery and bare forward-looking optimism; and dismissed as to Defendant Ligner for failure to plead scienter with the required particularity.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Section 20(a) (control person liability)</t>
+          <t>Exchange Act §20(a) control-person liability (against Blair and McGrew)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1761,10 +1800,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Legal standard. To plead control-person liability under Section 20(a), plaintiff must allege (1) a primary violation of the securities laws by the controlled person (here, ImmunityBio and/or the individual defendants as primary violators under Section 10(b)); and (2) that the defendant exercised actual power or control over the primary violator. Many courts also consider culpable participation, though the Ninth Circuit (and others) treat it as an affirmative defense; in any event, allegations supporting scienter often suffice at the pleading stage.
-Primary violation. Because the Section 10(b)/Rule 10b-5 claim survives, the complaint adequately pleads a predicate primary violation.
-Control. The complaint alleges Soon-Shiong was Executive Chairman and Global Chief Scientific and Medical Officer, Adcock was CEO and a Board member, and Sachs was CFO; each signed or authorized SEC filings and allegedly had the ability to influence and control the Company’s public statements. The complaint further alleges hands-on involvement by Soon-Shiong and Adcock in manufacturing/inspection issues central to the alleged fraud. Those allegations plausibly plead control.
-Accordingly, the motion to dismiss is denied as to Count II.</t>
+          <t>Section 20(a) requires a primary violation and control by the defendant, and (in this Circuit) culpable participation is often required. Because the §10(b) claim is sustained in part against Danaher and against Blair and McGrew as primary actors, the predicate primary violation is adequately pleaded. The complaint also plausibly pleads control: Blair and McGrew were CEO and CFO, respectively; they signed or spoke in connection with key disclosures; and they allegedly had the power to influence corporate statements and guidance. Given the sustained scienter allegations as to Blair and McGrew, culpable participation is plausibly alleged at the pleading stage. Accordingly, the §20(a) claim is sustained.</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1780,16 +1816,31 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>34032</v>
+        <v>36731</v>
       </c>
       <c r="X13" t="n">
-        <v>2745</v>
-      </c>
+        <v>2182</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ctd-3_24-cv-01727</t>
+          <t>dde_ 23_cv_1466</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1800,16 +1851,60 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Parties: Lead Plaintiffs are AltShares Event-Driven ETF, AltShares Merger Arbitrage ETF (both advised by Water Island Capital), Kryger Event Fund Ltd., Kryger Enhanced Fund Ltd. (advised by Kryger Capital), and ODS Capital LLC. Defendants include Focus Financial Partners Inc. (issuer), four “Special Committee” directors (LeMieux, Neuhoff, Morganroth, Feliciani), other Board members/officers (Adolf—CEO/Chair; Kodialam—COO/director; Carey and Muhtadie—Stone Point designees; plus officers Shanahan, Chang, McGranahan), and also names CD&amp;R (buyer), Stone Point (20.6% stockholder), and the financial advisors Goldman Sachs and Jefferies (each alleged to have conflicts and to have participated in misleading disclosures).
+Transaction and alleged misconduct: The case challenges Focus’s take-private merger with Clayton, Dubilier &amp; Rice (CD&amp;R) at $53/share (announced Feb. 27, 2023; closed Aug. 31, 2023). Plaintiffs allege defendants engineered and concealed a conflicted, value-depressing sale process that favored a private-equity buyer (CD&amp;R) and insiders (Stone Point and management) at the expense of public stockholders. Core allegations are (i) a process skewed away from potentially higher-paying strategic buyers; (ii) preferential treatment and months of effectively exclusive negotiations with CD&amp;R; (iii) “stiff-arming” of a strategic bidder that allegedly offered $55/share; and (iv) materially false/misleading statements and omissions in the Feb. 27 press release/8-K and the June 12, 2023 definitive proxy (with an allegedly too-late July 6, 2023 supplemental proxy) concerning conflicts, process, and advisor incentives.
+Key facts alleged: Stone Point allegedly drove timing and structure because it sought liquidity and a large accelerated “Tax Receivable Agreement” (TRA) payout (approx. $90 million) triggered by a change of control, and wanted to roll over equity and invest new equity post-merger—preferences aligned with management’s desire to remain in place and receive post-deal equity. Plaintiffs allege Focus largely avoided canvassing strategic acquirors; a strategic competitor (redacted in the pleading, described as “Party I”) allegedly expressed interest in fall 2022 and ultimately made a $55/share proposal, but was denied comparable diligence/exclusivity while CD&amp;R received extensive diligence and exclusivity. Plaintiffs further allege the Special Committee was conflicted by (a) TRA payments, (b) accelerated equity, and (c) a last-minute, self-approved fee increase immediately before approving the merger, resulting in unique payments allegedly ranging from ~$729k to ~$944k per member, while the proxy touted independence. Plaintiffs also allege Goldman Sachs was conflicted by extensive ties to Stone Point and CD&amp;R and by a contemporaneous sale process for Focus subsidiary NKSFB/KSFB that allegedly constrained bidder outreach; Jefferies allegedly received an undisclosed last-minute discretionary fee increase (from $1m to up to $8m) just before issuing its fairness opinion.
+Disclosures challenged: Plaintiffs point to statements touting a “robust process,” “best value reasonably obtainable,” and a Special Committee “composed entirely of independent and disinterested directors,” and allege omissions/misstatements regarding: the Special Committee’s financial/personal ties and compensation changes; Stone Point’s non-agnostic preference and leverage; CD&amp;R’s alleged requirement of a partner and promises of management retention/equity rollover; the existence and handling of the $55 competing proposal; and the extent/impact of Goldman’s KSFB/NKSFB conflict and bidder limitations.
+Claims and class period: (1) Exchange Act §10(b) and Rule 10b-5(a)-(c) scheme claim on behalf of a class of sellers of Focus common stock from Feb. 27, 2023 through Aug. 31, 2023 (the “Class Period”), alleging the market price was artificially depressed/tethered to an underpriced deal due to deceptive conduct and disclosures. (2) Exchange Act §14(a) and Rule 14a-9 claim on behalf of Focus stockholders as of the June 9, 2023 record date entitled to vote, alleging the proxy was materially misleading and an essential link to the merger approval. (3) Exchange Act §20(a) control-person claim against the individual director/officer defendants predicated on the alleged primary violations.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Count I – Section 10(b) and Rule 10b-5(a)-(c) (scheme) against all Defendants</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>dismissed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>The complaint does not plead a plausible §10(b) claim under the PSLRA/Rule 9(b). First, the alleged misstatements/omissions are, in substance, proxy-disclosure and merger-process allegations traditionally addressed under §14(a), and the complaint does not adequately plead reliance and loss causation for a seller class under a fraud-on-the-market theory. The asserted theory that the stock traded at ‘artificially deflated’ prices because the market was ‘tethered’ to an underpriced deal is not supported by particularized facts showing (i) what the stock price would have been absent the alleged fraud, (ii) a corrective disclosure that revealed the truth and caused a price movement, or (iii) a plausible mechanism by which the alleged omissions about conflicts and process would depress (rather than increase) the trading price during a pending cash-out merger. Second, scienter is not pleaded with the required strong inference. The allegations largely describe motive and opportunity (TRA payments, rollover interests, fees) and process criticisms; they do not particularize contemporaneous facts showing knowing or deliberately reckless deception as to each challenged statement by each defendant. Third, to the extent plaintiffs attempt to plead a ‘scheme’ under Rules 10b-5(a) and (c), the alleged conduct is primarily misstatement-based and does not identify deceptive acts independent of the alleged disclosure deficiencies; such repackaging does not state a separate scheme claim. Dismissal is without prejudice to replead, if plaintiffs can allege a coherent market-based reliance and loss-causation theory and particularized scienter.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Count II – Section 14(a) and Rule 14a-9 (proxy misstatements/omissions) against Focus, Special Committee Defendants, Board Defendants, and Officer Defendants</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Plaintiffs plausibly plead material misstatements and omissions in the definitive proxy and related solicitation materials. At the pleading stage, it is reasonable to infer a substantial likelihood that a reasonable stockholder would consider important (a) undisclosed or misleadingly described conflicts of the Special Committee (TRA payments, accelerated equity, and especially the alleged last-minute compensation increase immediately before approving the deal), (b) alleged undisclosed banker conflicts and fee incentives (including the alleged timing and magnitude of Jefferies’ discretionary-fee increase and Goldman’s alleged constraints on bidder outreach due to the KSFB/NKSFB process), and (c) alleged process facts bearing on whether the committee genuinely pursued the ‘best value reasonably obtainable,’ including the handling of an alleged higher-priced proposal and the degree of exclusivity and informational advantage afforded CD&amp;R. The complaint also adequately alleges transaction causation: the proxy was soliciting votes for a merger requiring stockholder approval, making the proxy an ‘essential link’ to the transaction. Negligence suffices for §14(a), and plaintiffs expressly plead negligence for this count. Arguments that some information was later provided in a supplemental proxy raise fact-intensive questions (timing, completeness, and whether the supplementation cured earlier misstatements) not suitable for dismissal on the pleadings.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Count III – Section 20(a) control-person liability against Special Committee Defendants, Board Defendants, and Officer Defendants</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>The §20(a) claim is sustained to the extent it is predicated on a viable primary violation under §14(a), and dismissed to the extent it is predicated on the dismissed §10(b) claim. Plaintiffs plausibly allege control, at least as to senior officers/directors who signed or are alleged to have had power over the proxy solicitation (e.g., CEO/Chair Adolf and GC McGranahan, and directors alleged to have authorized dissemination ‘by order of the Board’). Whether particular individual defendants exercised the requisite control and culpable participation is a defendant-specific inquiry that may be revisited on a fuller record, but at the motion-to-dismiss stage the allegations suffice insofar as they tie the controlling-person defendants to the proxy process and the surviving §14(a) theory.</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -1820,16 +1915,31 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>12035</v>
+        <v>34179</v>
       </c>
       <c r="X14" t="n">
-        <v>4096</v>
-      </c>
+        <v>1885</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-01599</t>
+          <t>dde_21_cv_55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1840,13 +1950,52 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Parties: Lead Plaintiff Kim Kengle (trustee) and named plaintiff Roseanne Lacy sue Walmart Inc. and two senior executives, CEO Douglas C. McMillon and CFO M. Brett Biggs (collectively, “Defendants”), on behalf of purchasers of Walmart common stock. 
+Class definition / period: The putative class consists of persons/entities who purchased Walmart common stock between March 31, 2017 and December 22, 2020 (inclusive) and who held shares on March 24, 2020 and/or December 22, 2020.
+Alleged misconduct and theory: The complaint alleges Walmart violated the Controlled Substances Act (“CSA”) for years as both (i) a retail pharmacy (dispensing opioids and other controlled substances) and (ii) until 2018, a self-distributor (shipping controlled substances to its own pharmacies). Plaintiffs allege Walmart concealed (a) a 2009 DEA Order to Show Cause and a nationwide 2011 DEA Memorandum of Agreement (“2011 MOA”) requiring compliance measures; (b) Walmart’s alleged noncompliance with the MOA and CSA (including lack of an effective suspicious order monitoring system and policies that allegedly pressured pharmacists to fill prescriptions); and (c) “Government Investigations,” consisting of an EDTX DOJ criminal investigation beginning in 2016 (including notice in March/May 2018 that indictment was imminent) and a parallel DOJ civil investigation continuing after a purported August 31, 2018 declination of criminal charges, culminating in the DOJ’s December 22, 2020 civil enforcement complaint.
+Alleged false statements/omissions: Plaintiffs identify several categories of challenged disclosures: (1) repeated “Contingencies/Legal Proceedings” language in Forms 10-K/10-Q stating that where a liability is “reasonably possible and may be material, such matters have been disclosed,” while allegedly omitting the criminal and civil investigations and the 2011 MOA; (2) alleged GAAP/ASC 450 contingent-liability omissions and Item 103 Regulation S-K omissions (failure to disclose material contemplated governmental proceedings); (3) risk-factor disclosures that allegedly described CSA enforcement risks as hypothetical while the investigations and enforcement risk had already materialized; (4) public-relations statements (e.g., October 26, 2017 press release) portraying Walmart as a responsible “steward” with “comprehensive policies and training” to ensure legitimate dispensing; and (5) SOX certifications by McMillon and Biggs allegedly false because filings omitted required disclosures.
+Corrective disclosures / loss causation: Plaintiffs plead two main corrective events: (i) March 25, 2020 ProPublica article disclosing the 2016–2018 criminal investigation, imminent-indictment episode, ongoing civil investigation, and the “secret” 2011 MOA; Walmart stock fell about 5% that day. (ii) December 22, 2020 DOJ filed and publicized a CSA enforcement action seeking civil penalties “could total in billions” and injunctive relief; stock fell about 1.88% over the next two days.
+Claims asserted: (Count I) Section 10(b) and Rule 10b-5 (misstatements/omissions and scheme) against Walmart, McMillon, and Biggs; (Count II) Section 20(a) control-person liability against McMillon and Biggs.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exchange Act §10(b) / Rule 10b-5 (misstatements and omissions) against all Defendants</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>At the pleading stage, the complaint adequately alleges actionable omissions/misstatements, materiality, scienter, and loss causation under the PSLRA.
+(1) Actionable statements/omissions: Plaintiffs do not merely allege a freestanding duty to disclose “wrongdoing.” They tie the alleged omissions to specific disclosure regimes and affirmative statements: (a) repeated “where a liability is reasonably possible and may be material, such matters have been disclosed” language in the Contingencies note plausibly could mislead if Walmart was then facing a known, non-routine DOJ criminal investigation and later a parallel civil investigation of significant magnitude; (b) Item 103 plausibly required disclosure of material governmental proceedings “known to be contemplated,” particularly once prosecutors allegedly communicated intent to indict (March/May 2018) and the civil investigation expanded into a multi-district DOJ working group; (c) ASC 450 plausibly required at least disclosure of a reasonably possible loss contingency once the company allegedly knew of a significant governmental investigation and threatened enforcement; and (d) risk-factor disclosures and “opioid stewardship” statements are plausibly misleading to the extent they framed compliance/enforcement risk as hypothetical or portrayed robust compliance while allegedly concealing then-existing investigations and systemic compliance failures. These are not inactionable puffery across the board; some statements (e.g., “comprehensive policies and training” to ensure legitimate dispensing) are sufficiently concrete to be tested against alleged contrary facts.
+(2) Materiality: The alleged investigations (including an asserted imminent corporate indictment and later a DOJ civil enforcement action seeking potentially billions in penalties) are plausibly material to a reasonable investor, especially given the alleged revenue significance of pharmacy operations and the magnitude of potential CSA penalties.
+(3) Scienter: Plaintiffs plead a strong inference of at least recklessness. They allege (i) the 2011 MOA and internal compliance documents identifying severe financial/reputational risk; (ii) knowledge at senior levels of the DOJ criminal investigation beginning in 2016 and communications in 2018 about imminent indictment and a proposed $1 billion resolution; (iii) CEO involvement in DOJ presentations; and (iv) continued nondisclosure in SEC filings signed and SOX-certified by the Individual Defendants. Taken holistically, these allegations support a cogent inference that Defendants knew, or were reckless in not knowing, that omitting the investigations while making broad assurances about disclosure of reasonably possible material liabilities could mislead.
+(4) Loss causation: Plaintiffs plausibly plead a causal link between partial corrective disclosures (ProPublica article; DOJ filing/press release) and stock drops. At this stage, it is sufficient that the disclosures revealed the existence and seriousness of the investigations and enforcement exposure that had allegedly been concealed.
+(5) Scheme liability: To the extent Count I also pleads a “scheme” theory, it is sustained insofar as it is grounded in the same alleged deceptive course of conduct (concealment of investigations and compliance failures through SEC filings and public statements). The Court does not parse scheme vs. misstatement theories further on this limited record.
+Accordingly, dismissal is denied as to Count I.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Exchange Act §20(a) control-person liability against McMillon and Biggs</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Because the §10(b) claim is adequately pleaded, and the complaint plausibly alleges McMillon and Biggs had power to control Walmart’s public disclosures (senior officer roles, signing SEC filings and SOX certifications, alleged involvement in compliance/risk oversight), the §20(a) claim is also adequately pleaded at this stage. Any good-faith/non-culpable participation defense is fact-bound and not resolved on a motion to dismiss.</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1860,16 +2009,31 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>51297</v>
+        <v>44775</v>
       </c>
       <c r="X15" t="n">
-        <v>4096</v>
-      </c>
+        <v>1581</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dcd-1_23-cv-02055</t>
+          <t>flsd-1_23-cv-23139</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1882,94 +2046,190 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>This putative securities-fraud class action is brought on behalf of purchasers of Danaher Corporation (“Danaher” or the “Company”) securities during the period January 27, 2022 through October 23, 2023 (the “Class Period”). Plaintiffs allege that Danaher and certain senior executives misled investors about the strength and growth outlook of Danaher’s bioprocessing business (principally Cytiva and Pall), particularly as COVID-related demand rolled off and industry-wide destocking and biotech funding constraints reduced orders.
-Parties. Plaintiffs are investors who purchased or acquired Danaher securities during the Class Period. Defendants are: (1) Danaher, a Delaware corporation headquartered in Washington, D.C., with securities traded on the NYSE (ticker DHR); and (2) Individual Defendants Rainer M. Blair (President/CEO and Board member), Matthew R. McGrew (CFO), and Emmanuel Ligner (head of Cytiva and later Group Executive of the Biotechnology segment). The complaint relies in part on four confidential witnesses (CW1–CW4), including internal communications personnel who interacted with senior leadership and finance personnel describing forecasting processes.
-Alleged misconduct / fraudulent conduct. Plaintiffs allege a scheme to portray Danaher’s bioprocessing business as a durable “growth story” and to minimize or deny mounting adverse trends. According to the complaint, as COVID transitioned toward endemic status, demand for COVID-related bioprocessing products fell, while (i) large pharmaceutical customers stockpiled inventory due to long lead times during supply-chain disruptions and then reduced new orders (“destocking”); and (ii) smaller/emerging biotech customers faced tighter capital markets and reduced or delayed projects. Plaintiffs contend Defendants nevertheless repeatedly issued and reaffirmed aggressive guidance and long-term growth narratives for bioprocessing and for Danaher’s “base business core sales” metrics, while allegedly altering non-GAAP definitions to obscure COVID-related declines.
-Key factual allegations supporting the claims.
-- Bioprocessing importance: By early 2022 bioprocessing was alleged to be a ~$7.5B franchise and a key driver of Danaher’s valuation.
-- Guidance and statements: Plaintiffs identify numerous statements in press releases, earnings calls, and investor conferences (including 1/27/2022; 3/8/2022; 4/21/2022; 5/11/2022; 7/21/2022; 9/15/2022; 10/20/2022; 11/30/2022; 1/24/2023; 4/25/2023; 5/10/2023; 7/25/2023) asserting, among other things, that: (a) COVID vaccine/therapeutic bioprocessing demand would persist and/or be roughly flat in 2022; (b) non-COVID bioprocessing would grow low-double digits or mid-teens and offset COVID declines; (c) customer inventory build was not significant (only “pockets”); (d) biotech funding issues were not impacting demand; and (e) bioprocessing would grow high single digits long term.
-- Internal processes / scienter allegations: Plaintiffs allege Defendants had access to detailed monthly forecasts (via OneStream) and close customer contact, and cite CW4’s account of Blair allegedly stating after the Q1 2022 earnings call that he and investor relations “made up” better projections than subsidiary presidents provided. Plaintiffs also allege suspicious insider sales by Blair and McGrew during the Class Period.
-- Partial disclosures and stock drops: Plaintiffs allege the “truth” emerged through a series of downward revisions and admissions about bioprocessing demand and guidance, causing significant stock declines on: 10/20/2022 (nearly 6%); 1/24–1/25/2023 (cumulative ~5.2%); 4/25/2023 (~9%); 7/25/2023 (drop alleged); and 10/24–10/25/2023 (cumulative ~5.6%).
-- Item 303 theory: Plaintiffs allege Danaher’s periodic reports omitted known trends/uncertainties (destocking, funding constraints, COVID roll-off) required to be disclosed under Item 303 of Regulation S-K.
-Legal claims asserted. The complaint asserts: (Count I) Section 10(b) of the Exchange Act and SEC Rule 10b-5 against all Defendants (Danaher and the Individual Defendants); and (Count II) Section 20(a) control-person liability against Blair and McGrew.
-Class period and significant dates. Class Period: January 27, 2022 through October 23, 2023. Key dates include: 1/27/2022 (introduction of “base business core sales” excluding COVID testing but not COVID bioprocessing); 9/15/2022 (investor day; creation of Biotechnology segment); 1/24/2023 (redefinition of base business to exclude all COVID, including vaccines/therapeutics); and the alleged corrective-disclosure dates 10/20/2022, 1/24/2023, 4/25/2023, 7/25/2023, and 10/24/2023 (after the Class Period end date stated as 10/23/2023, but pleaded as immediately following the Class Period).</t>
+          <t>Parties: Twenty individual plaintiffs (primarily U.S. residents in CA, FL, TN, UT, KS, SC; one in Canada) allege they deposited funds into purported forex trading accounts marketed as a high-frequency trading (“HFT”) system. Defendants are (1) CFT Solutions, LLC (“CFT”) (Delaware LLC, principal place of business alleged in Miami-Dade County, Florida); (2) FxWinning Limited (“FxWinning”) (Hong Kong company with alleged operations in Cyprus, Dubai, and Miami-Dade); and individual defendants Renan de Rocha Gomes Bastos (CFT CEO/founder), Arthur Percy (CFT COO), Rafael Brito Cutie (FxWinning CEO/co-owner), Roman Cardenas (FxWinning VP/U.S. operations), and David Merino (FxWinning founder/owner; also owner of Merino Capital Solutions, Inc.).
+Alleged misconduct / key facts: Plaintiffs allege Defendants jointly marketed a forex “platform/software” and “algorithm” (attributed to Merino) promising unusually high returns, security of client funds, segregation of client money, and a contractual right to withdraw funds “at all times.” Marketing allegedly occurred via websites (fxwinning.net/pro), a CFT Telegram channel directed to U.S. investors, monthly Zoom presentations by de Rocha, and in-person promotional events in Miami (Jan. 2022 “Mastermind”), a yacht event, and a Bahamas summit (Dec. 2022). Plaintiffs allege the investment was passive: they signed limited powers of attorney authorizing CFT to trade, paid CFT a 40–50% management fee, and had no control over trading beyond viewing dashboard balances. Plaintiffs further allege Defendants used false indicia of legitimacy (e.g., claims FxWinning was heavily regulated; claims of “Client Money Insurance”; a purported KPMG audit; and a dashboard showing high success rates/returns) and continued to solicit additional deposits.
+According to the complaint, Defendants allowed some withdrawals through December 2022 to “lull” investors, then beginning January–February 2023 delayed and ultimately halted withdrawals entirely, blaming new liquidity-provider-driven KYC/AML requirements. Plaintiffs allege they complied, received May–June 2023 emails stating KYC/AML was “successfully completed” and withdrawals would be processed within 15 working days, and saw website posts promising normalization, yet no plaintiff received any funds. FxWinning then posted a June 20, 2023 notice that services would cease June 22 and withdrawals would be available until June 30, 2023, but Plaintiffs still received nothing. Plaintiffs allege Defendants misappropriated funds for personal benefit (real estate, crypto), while withholding more than $27 million (alleged aggregate account value approx. $27.3M).
+Procedural / arbitration note: The complaint states that certain named plaintiffs agreed to arbitrate claims against CFT, de Rocha, and Percy on multiple counts pursuant to limited power-of-attorney agreements, and they remain plaintiffs in court only against FxWinning, Brito Cutie, Cardenas, and Merino for those counts. The pleading, however, still captions several counts “against all Defendants” and does not clearly segregate which plaintiffs pursue which claims in court versus arbitration.
+Legal claims: (I) Securities Act §§ 5 and 12(a)(1) (unregistered offer/sale) against CFT and FxWinning; (II) Exchange Act §10(b)/Rule 10b-5 against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie; (III) Commodity Exchange Act §§ 6b, 6e, 6o and private right §25 against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie (pleaded in the alternative if the product is not a security); (IV) Florida Securities and Investor Protection Act (FSIPA) §§ 517.301 and 517.211 against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie; (V) breach of contract against FxWinning (based on Terms &amp; Conditions withdrawal right); (VI) breach of fiduciary duty against all Defendants; (VII) fraud in the inducement against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie; (VIII) negligent misrepresentation against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie; (IX) conversion against all Defendants; (X) unjust enrichment against all Defendants; (XI) civil conspiracy against all Defendants.
+Class period: No class allegations or class period are pleaded in the provided complaint text. The relevant timeframe alleged for the scheme spans at least February 2021 (earliest account opening) through June 2023 (cessation notice and continued nonpayment), with withdrawals allegedly halted beginning January/February 2023.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 (misrepresentations/omissions and scheme liability)</t>
+          <t>Count I – Securities Act §§ 5 and 12(a)(1) (unregistered offer/sale) (against CFT and FxWinning)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>At the pleading stage, Plaintiffs plausibly allege an “investment contract” under Howey: (1) investment of money; (2) a common enterprise (alleged pooling and interdependence of investor fortunes with Defendants’ trading program); and (3) expectation of profits derived from the efforts of others (CFT’s purported HFT algorithm and complete control via POA). The complaint also plausibly alleges interstate solicitation (websites, Telegram, Zoom, U.S. events) and the absence of any SEC registration statement. Section 12(a)(1) imposes near-strict liability; scienter is not required. While Defendants may later contest whether the product is a security versus retail forex, the allegations align with cases treating pooled forex trading programs as securities/investment contracts. Dismissal is therefore unwarranted on the face of the complaint.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Count II – Exchange Act § 10(b) and Rule 10b-5 (against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Plaintiffs plead with sufficient particularity materially false statements/omissions about (i) existence/performance of the trading algorithm and returns, (ii) segregation/security/insurance, (iii) ability to withdraw “at all times,” and (iv) purported KYC/AML “completion” and imminent withdrawals, coupled with allegations that withdrawals were halted and funds misappropriated. The complaint identifies the channels (websites, Telegram, Zoom, events) and time window (2021–2023) and alleges reliance and loss. Scienter is plausibly alleged through the alleged Ponzi-like structure (lulling withdrawals then freeze), the alleged fabrication of an audit, and continued reassurances despite nonpayment. Loss causation is plausibly alleged as the inability to withdraw and alleged dissipation of investor funds. Although the pleading is not organized as a traditional PSLRA “statement-by-statement” chart, the factual detail is adequate at this stage to put Defendants on notice and to support a strong inference of fraudulent intent.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Count III – Commodity Exchange Act §§ 6b, 6e, 6o and § 25 (against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie) (pleaded in the alternative)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Pleading in the alternative is permissible. The complaint plausibly alleges a pooled retail forex scheme (off-exchange leveraged/margined forex) and fraudulent solicitation/misrepresentations in connection with those transactions, which can support claims under §§ 6b and 6o and a private right under § 25. While Defendants may later dispute whether actual forex contracts were traded (or whether the product is exclusively a security), the complaint alleges facts sufficient to state a CEA fraud theory if the trier determines the arrangement is properly treated as retail forex/commodity pool activity.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Count IV – Florida Securities and Investor Protection Act (FSIPA) §§ 517.301 and 517.211 (against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Plaintiffs plausibly allege the same investment contract constitutes a “security” under Florida law and allege fraudulent statements and deceptive practices in connection with the offer/sale. The complaint also alleges Florida nexus (CFT principal place of business in Miami-Dade; events and operations in Florida; U.S./Florida-directed marketing). At the motion-to-dismiss stage, these allegations are sufficient to state a claim for civil liability under § 517.211 against the alleged sellers and participating officers/agents.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Count V – Breach of Contract (against FxWinning)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>The complaint identifies a contract (FxWinning Terms &amp; Conditions) and quotes § 3.4 providing a right to withdraw the account balance “at all times” upon request. It alleges performance by Plaintiffs (depositing funds) and breach by FxWinning (refusal to process withdrawals since early 2023), causing damages. Whether FxWinning’s terms contain defenses (e.g., force majeure, compliance holds, or arbitration/forum provisions) is not established on the face of the complaint excerpt and is better addressed on a fuller record.</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Count VI – Breach of Fiduciary Duty (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>dismissed_in_part</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Legal standard. To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must plead: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. The PSLRA and Rule 9(b) require particularity as to each allegedly false statement, why it was false when made, and facts giving rise to a strong inference of scienter.
-1. Material misrepresentation/omission.
-(a) Actionable vs. inactionable statements. A substantial portion of the cited statements are non-actionable corporate optimism/puffery (e.g., “strong foundation,” “durable business models,” “positions us well,” “portfolio is unique”), or generalized statements about end-market attractiveness and DBS culture. Such statements are too vague to be materially misleading as a matter of law.
-However, the complaint also pleads more concrete statements that can be actionable at the pleading stage: specific quantitative guidance and forecasts for bioprocessing COVID revenues (e.g., $2B for 2022; then $1.4–$1.5B; then $1B; then $800M; and $500M for 2023 later reduced to $150M), and specific assertions about order trends, inventory/destocking, and customer demand conditions (e.g., “we don’t see a significant buildup,” “orders/backlog remain very healthy,” “biotech funding crunch not impacting our business,” and explanations that a &gt;20% order decline was merely cadence/lead-time normalization). These are not mere puffery; they are factual representations or mixed statements of present conditions and predictive guidance.
-(b) Falsity / misleadingness. Plaintiffs plausibly allege that several of these concrete statements lacked a reasonable basis when made because Defendants allegedly knew (or recklessly disregarded) that: (i) COVID-related bioprocessing demand was declining faster than represented; (ii) non-COVID demand was also weakening due to customer inventory stockpiles/destocking and emerging-biotech funding constraints; and (iii) order declines reflected demand deterioration, not merely lead-time/cadence effects. The complaint supports this theory with detailed chronology of repeated guidance reductions and with allegations that Defendants had close customer visibility and internal forecasting processes.
-At the same time, the complaint overreaches in two respects. First, it attempts to characterize essentially all forward-looking guidance as “made up” or “untethered” without always tying each challenged statement to contemporaneous contradictory facts. Second, to the extent plaintiffs predicate liability on the mere fact that forecasts were later revised downward, that is insufficient; plaintiffs must plead why the forecasts were misleading when made.
-Accordingly, the Court sustains the 10b-5 claim only as to the subset of statements that are (i) sufficiently specific and (ii) plausibly alleged to have been misleading when made—particularly statements concerning inventory/destocking conditions, order trends, and the basis/visibility for specific bioprocessing revenue guidance. The claim is dismissed as to non-actionable puffery and vague statements of optimism.
-2. Scienter.
-The PSLRA requires a “strong inference” that each defendant acted with intent to deceive or with deliberate recklessness.
-As to Blair and McGrew: Scienter is plausibly pleaded. The complaint alleges (i) bioprocessing was a core business line of high importance; (ii) Defendants repeatedly represented they had close customer visibility and were tracking inventory and orders “daily”; (iii) order declines and customer behavior (destocking, project delays/cancellations) were allegedly known internally; (iv) CW4 alleges Blair admitted he and investor relations “made up” projections after disliking subsidiary forecasts; and (v) Blair and McGrew allegedly sold significant stock during the Class Period. While insider sales alone are not dispositive and Rule 10b5-1 plans may undercut an inference, at the pleading stage the alleged magnitude/timing combined with the CW allegations and the asserted centrality of the information support a cogent inference of at least deliberate recklessness.
-As to Ligner: The complaint pleads fewer particularized facts tying Ligner to specific misleading statements and to contemporaneous contradictory information. Ligner is quoted at the September 15, 2022 investor day reiterating long-term “high single digit” growth expectations, but the complaint’s scienter allegations as to him rely largely on his role, tenure, and later departure. Role-based allegations, without more particularized facts showing what he knew and when, are generally insufficient under the PSLRA. The 10(b) claim is therefore dismissed as to Ligner for failure to plead scienter with the required particularity.
-As to Danaher: Corporate scienter is plausibly alleged based on the pleaded involvement of the CEO/CFO in the challenged statements and filings.
-3. Reliance.
-Plaintiffs plead an efficient market for NYSE-traded Danaher securities and invoke Basic’s fraud-on-the-market presumption. At the pleading stage, this is sufficient.
-4. Loss causation.
-Plaintiffs plead a series of alleged partial corrective disclosures (10/20/2022, 1/24/2023, 4/25/2023, 7/25/2023, and 10/24/2023) followed by statistically significant price drops, and allege the disclosures revealed the concealed demand deterioration and repeated guide-downs in bioprocessing. This adequately pleads loss causation at the motion-to-dismiss stage.
-5. Scheme liability.
-To the extent Count I also asserts a “scheme” under Rule 10b-5(a) and (c), plaintiffs must plead deceptive conduct beyond misstatements/omissions. Here, the alleged “scheme” largely repackages the misstatement theory (guidance, denials of destocking, and narrative framing). The complaint does not plead distinct manipulative or deceptive acts separate from the alleged misrepresentations sufficient to state an independent scheme claim. Any 10b-5(a)/(c) theory is dismissed as duplicative of the misstatement claim.
-Result. The motion to dismiss is granted in part and denied in part. The Section 10(b)/Rule 10b-5 claim survives against Danaher, Blair, and McGrew as to the specific, plausibly misleading statements about bioprocessing demand, inventory/destocking, order trends, and the basis for concrete revenue guidance; it is dismissed as to (i) puffery/vague optimism, (ii) a standalone scheme theory, and (iii) Ligner for failure to plead scienter.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Section 20(a) control-person liability (against Blair and McGrew)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Legal standard. To plead Section 20(a) liability, plaintiffs must allege: (1) a primary violation of the securities laws by the controlled person; and (2) that the defendant exercised actual power or control over the primary violator. Many courts also require culpable participation, though the precise formulation varies by circuit; at the pleading stage, allegations that the control person had the power to control the general affairs of the company and the specific corporate policy resulting in the primary violation are typically sufficient.
-Primary violation. Because the Court sustains the Section 10(b)/Rule 10b-5 claim in part against Danaher, plaintiffs have adequately pleaded a primary violation.
-Control. The complaint alleges Blair was CEO and a Board member and McGrew was CFO, that they signed or caused the issuance of key press releases and SEC filings, and that they spoke on earnings calls and at investor conferences regarding the challenged guidance and demand/inventory conditions. These allegations plausibly establish control over Danaher’s public statements and disclosures.
-Culpable participation. At this stage, the same allegations supporting scienter as to Blair and McGrew (including close involvement, asserted customer visibility, and CW4’s allegation regarding contrived projections) sufficiently plead culpable participation to the extent required.
-Result. The motion to dismiss is denied as to the Section 20(a) claim against Blair and McGrew.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>As pleaded, Plaintiffs allege they “entrusted” funds to Defendants, but do not plead facts establishing a fiduciary relationship for each defendant under Florida law (or other applicable state law), beyond an arm’s-length contractual/investment relationship. The claim is plausibly stated as to CFT (as alleged account manager/trading agent operating under a power of attorney and charging a management fee) and potentially as to individuals who directly acted as investment advisers/agents in managing or controlling client funds. However, as to FxWinning and the individual defendants generally, the complaint relies on conclusory assertions of fiduciary duty without pleading the specific source of the duty (e.g., discretionary authority, special trust relationship, statutory fiduciary status) and how each defendant owed and breached that duty distinct from the fraud/contract theories. The claim is dismissed to the extent it is premised solely on a generalized “holder of funds” theory without a pleaded fiduciary relationship, and sustained only as to defendants for whom the complaint plausibly alleges discretionary management/agency over Plaintiffs’ accounts (most clearly CFT).</t>
+        </is>
+      </c>
       <c r="W16" t="n">
-        <v>36978</v>
+        <v>15788</v>
       </c>
       <c r="X16" t="n">
-        <v>2973</v>
+        <v>3227</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Count VII – Fraud in the Inducement (against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>The complaint pleads the core fraudulent inducement theory with adequate detail: specific representations (high returns from proprietary HFT algorithm; security/segregation/insurance; regulatory status; withdrawal rights), the context and means of communication (websites, Telegram, Zoom, in-person events), intent to induce deposits, reliance, and resulting loss when withdrawals were halted and funds not returned. These allegations satisfy Rule 9(b) at the pleading stage because they identify the substance of the misrepresentations, the approximate time period, and the actors and channels involved.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Count VIII – Negligent Misrepresentation (against CFT, FxWinning, de Rocha, Cardenas, Brito Cutie)</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>To the extent this count is based on the same alleged intentional fraudulent scheme and misappropriation (fake audit, fabricated returns, lulling, and refusal to return funds), it is duplicative of the fraud claims and not plausibly “negligent” as pleaded. Additionally, the complaint does not clearly separate which statements were negligently made versus knowingly false, nor does it plead a non-conclusory basis for a duty of care in supplying information beyond the alleged fraudulent inducement. The claim is dismissed insofar as it merely repackages intentional fraud allegations; it is sustained only to the limited extent Plaintiffs can proceed on alternative pleading that particular misstatements were made without reasonable care (e.g., claims of regulation/insurance/audit) if Plaintiffs later identify the specific speaker and basis for negligence rather than intent.</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Count IX – Conversion (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Conversion requires dominion over specific, identifiable property. Plaintiffs plausibly allege a right to immediate possession of specific funds in their FxWinning accounts and Defendants’ refusal to permit withdrawal. However, as pleaded, the claim is not adequately individualized as to each defendant: it does not allege which defendants exercised dominion over the particular funds (as opposed to participating in the broader scheme), nor does it address the common rule that conversion will not lie for an ordinary debt/contract claim absent an obligation to keep intact or segregate specific funds. The claim is sustained against FxWinning (the alleged account holder/portal obligor that refused withdrawals) and against any defendant plausibly alleged to have personally misappropriated or controlled the specific funds, but dismissed as to other defendants where the complaint pleads only generalized participation without facts showing dominion over identifiable property.</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Count X – Unjust Enrichment (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Unjust enrichment is generally unavailable where an express contract governs the same subject matter. Plaintiffs plead an express contract with FxWinning (Terms &amp; Conditions) addressing deposits and withdrawals; thus, unjust enrichment is dismissed as to FxWinning as duplicative. As to non-contracting defendants (e.g., individuals and potentially CFT if not in privity on the same terms), the complaint plausibly alleges they received a direct benefit (management fees/commissions and alleged withdrawals for personal use) at Plaintiffs’ expense under inequitable circumstances. The claim is therefore sustained as an alternative theory against defendants who allegedly received direct benefits but are not shown on the face of the complaint to be governed by the same express contract with Plaintiffs.</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Count XI – Civil Conspiracy (against all Defendants)</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>The complaint plausibly alleges an agreement/common purpose among CFT, FxWinning, and the individual defendants to solicit investor funds through coordinated marketing and representations, followed by a coordinated withdrawal freeze and continued reassurances, with overt acts identified (joint events, Telegram/Zoom promotions, KYC/AML communications, cessation notice) and resulting damages. Because the underlying tort claims (fraud and related statutory fraud claims) are adequately pleaded, the conspiracy claim is sufficiently supported at this stage.</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dde_ 23_cv_1466</t>
+          <t>ilnd-1-21-cv-04349</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1982,58 +2242,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>This putative securities class action arises out of Focus Financial Partners Inc.’s (“Focus” or the “Company”) take-private merger with Clayton, Dubilier &amp; Rice, LLC (“CD&amp;R”) at $53.00 per share.
-Parties. Lead Plaintiffs are AltShares Event-Driven ETF, AltShares Merger Arbitrage ETF (together advised by Water Island Capital, LLC), Kryger Event Fund Ltd., Kryger Enhanced Fund Ltd. (advised by Kryger Capital LLC), and ODS Capital LLC. Defendants include: (1) Focus; (2) the “Special Committee Defendants,” Focus directors George S. LeMieux (chair), Elizabeth R. Neuhoff, Greg S. Morganroth, and Joseph Feliciani; (3) the “Board Defendants,” CEO/Chair Ruediger “Rudy” Adolf, COO/director Rajini Sundar Kodialam, and Stone Point designees/directors James Carey and Fayez Muhtadie; (4) the “Officer Defendants,” CFO James Shanahan, Head of M&amp;A Leonard Chang, and General Counsel/Corporate Secretary J. Russell McGranahan (along with Adolf and Kodialam); (5) Stone Point Capital LLC (“Stone Point”), Focus’s largest stockholder (~20.6%) with contractual and board influence; (6) CD&amp;R (acquiror); (7) Goldman Sachs &amp; Co. LLC (financial advisor and fairness opinion provider); and (8) Jefferies LLC (second financial advisor and fairness opinion provider). The complaint also names outside counsel (Vinson &amp; Elkins; Potter Anderson) in the factual narrative but does not plead Exchange Act claims against them.
-Alleged misconduct and fraudulent scheme. Plaintiffs allege Defendants orchestrated and concealed a conflicted and value-depressing sale process designed to favor a private equity buyer (CD&amp;R) that would (i) permit Stone Point to roll over equity and invest new capital post-closing, (ii) preserve management’s positions and provide management rollover opportunities, and (iii) trigger lucrative Tax Receivable Agreement (“TRA”) change-of-control payouts for Stone Point and insiders. According to the complaint, Defendants:
-• Tilted the process toward financial sponsors and failed to canvass strategic buyers who could pay more due to synergies.
-• Gave CD&amp;R months of effectively exclusive access to diligence and negotiations, creating an informational advantage.
-• “Stiff-armed” a strategic bidder (“Party I,” unnamed in the public proxy but alleged to have offered $55.00 per share) by delaying engagement, limiting diligence, and refusing exclusivity, while granting CD&amp;R exclusivity at a lower price.
-• Allowed Stone Point—allegedly conflicted by a desire to liquidate and by accelerated TRA economics—to drive timing and counterpart selection, including through contractual “levers” (board nomination rights, compensation committee control, and debt portability/change-of-control provisions).
-• Operated through a “conflicted” Special Committee whose members allegedly received unique merger-related benefits (TRA payments, accelerated equity, and increased special committee fees), had personal/business ties to Adolf and/or CD&amp;R, and nonetheless were touted as independent.
-• Used conflicted financial advisors: Goldman Sachs allegedly had extensive ties to Stone Point and CD&amp;R and allegedly narrowed the bidder universe due to a contemporaneous, competing sale process for Focus subsidiary NKSFB/KSFB; Jefferies allegedly received a last-minute, undisclosed increase to its discretionary fee (from $1 million to up to $8 million) just before issuing its fairness opinion.
-Key factual allegations supporting falsity/materiality. Plaintiffs focus on alleged misstatements and omissions in (i) the February 27, 2023 press release and Form 8-K announcing the merger, and (ii) the definitive proxy statement filed June 12, 2023 (and an allegedly inadequate supplemental proxy filed July 6, 2023). The alleged misstatements/omissions include, among others:
-• Statements that the Special Committee was “independent and disinterested,” had no material interests different from public shareholders, and ran a “robust” process yielding the “best value reasonably obtainable.”
-• Omission of the Special Committee members’ alleged conflicts, including (a) TRA-related payments and accelerated equity and (b) a substantial, self-approved fee increase executed immediately before the committee approved the merger.
-• Omission of personal/business relationships (e.g., LeMieux’s law firm allegedly representing CD&amp;R in immigration matters; friendships/associations with Adolf; other ties).
-• Misleading process narrative allegedly minimizing or omitting early strategic interest and CEO-level contact by the strategic bidder that later offered $55.
-• Misleading descriptions of CD&amp;R proposals by omitting that CD&amp;R allegedly required a partner and offered Stone Point/management “material” rollover benefits.
-• Omission that Goldman Sachs’s KSFB/NKSFB engagement allegedly constrained bidder outreach until after signing, and omission of details showing the constraint.
-• Omission that Jefferies’ discretionary fee was increased eightfold immediately before its fairness opinion.
-Claims asserted. The complaint pleads three Exchange Act causes of action:
-Count I: Section 10(b) and Rule 10b-5(a)-(c) (scheme liability) against “all Defendants,” alleging a deceptive scheme and omissions/misstatements that artificially deflated Focus’s trading price during the class period.
-Count II: Section 14(a) and Rule 14a-9 against Focus, the Special Committee Defendants, the Board Defendants, and the Officer Defendants, alleging the proxy was materially false/misleading and was an essential link to shareholder approval; the complaint expressly pleads negligence for this count.
-Count III: Section 20(a) control-person liability against the Special Committee Defendants, Board Defendants, and Officer Defendants, predicated on primary violations of Sections 10(b) and 14(a).
-Class period and significant dates. For the Section 10(b) class, Plaintiffs define the Class Period as February 27, 2023 (merger announcement) through August 31, 2023 (merger closing and delisting). For the Section 14(a) voting class, Plaintiffs define record-date holders as of June 9, 2023 (Record Date). Key dates include: summer 2022 commencement of sale exploration; November 1, 2022 formation of Special Committee; January 22, 2023 alleged $55 proposal from the strategic bidder; January 30, 2023 exclusivity with CD&amp;R; February 27, 2023 signing/announcement at $53; April 25, 2023 preliminary proxy; June 12, 2023 definitive proxy; July 6, 2023 supplemental proxy; July 14, 2023 shareholder vote; August 31, 2023 closing.</t>
+          <t>Parties. Lead Plaintiffs The Phoenix Insurance Company Ltd. and The Phoenix Pension &amp; Provident Funds, and Consolidated Plaintiff City of Melbourne Firefighters’ Retirement System, sue on behalf of a proposed class of (a) purchasers/acquirers of ATI Physical Therapy, Inc. (“ATI”) securities from February 22, 2021 through October 19, 2021 (the “Class Period”), and (b) FVAC Class A stockholders as of May 24, 2021 eligible to vote at FVAC’s June 15, 2021 special meeting on the FVAC–ATI de‑SPAC merger. Defendants are ATI (formerly SPAC Fortress Value Acquisition Corp. II “FVAC”), ATI executives Labeed Diab (CEO) and Joseph Jordan (CFO), FVAC/ATI director Andrew McKnight, and FVAC directors Pack, Furstein, Cowen, Hood, Policy, Russak‑Aminoach, and Gulati.
+Business and transaction. ATI is a large outpatient physical therapy provider operating ~900 clinics. FVAC, a SPAC, announced a business combination with ATI on February 22, 2021; the merger closed June 17, 2021 and the combined company traded on NYSE as ATIP.
+Alleged misconduct and key facts. The complaint centers on alleged misstatements and omissions about ATI’s ability to recruit and retain physical therapists—critical to clinic capacity, visit volumes, and financial performance. Plaintiffs allege that, while Defendants publicly touted “very high retention,” “low turnover,” “strong retention,” “employer of choice,” and a “competitive compensation model,” ATI in fact suffered severe clinician attrition, allegedly around 40–41% (more than double an asserted ~20% industry average), beginning in late 2020 and continuing through the Class Period. Plaintiffs rely heavily on confidential former employee accounts (talent acquisition, clinic management, and finance personnel) describing weekly/monthly internal attrition reporting, executive discussion of attrition, understaffing, offer rejections due to low pay, and a toxic culture. Plaintiffs also allege Defendants’ projections and guidance (e.g., 2021 revenue $731M and Adjusted EBITDA $119M; 90+ de novo clinic openings) were misleading because attrition made them unattainable; and that goodwill and intangible asset values were overstated, later resulting in large impairment charges.
+Corrective disclosures and loss causation. Plaintiffs plead two principal corrective events. (1) July 26, 2021: ATI cut 2021 revenue guidance to $640–$670M and Adjusted EBITDA to $60–$70M, reduced new clinic openings to 55–65, and attributed the cuts to accelerated therapist attrition and wage inflation; ATI also announced the CHRO’s departure. The stock fell 43.41% that day and continued falling the next day. (2) October 19, 2021: ATI again reduced guidance to $620–$630M revenue and $40–$44M Adjusted EBITDA, citing softened visit volumes; the stock fell 21.64% on October 20. Plaintiffs also cite August 2021 CEO termination and August 16, 2021 impairment charges ($33.7M trade name; $433.2M goodwill), and a post‑Class Period SEC document request disclosed in November 2021.
+Claims. Plaintiffs assert (i) Exchange Act §10(b) and Rule 10b‑5 (fraud) and §20(a) control‑person liability based on alleged misstatements/omissions in investor communications and SEC filings during the Class Period; and (ii) Exchange Act §14(a) and Rule 14a‑9 (negligence-based proxy claim) and §20(a) control‑person liability based on alleged misstatements/omissions in proxy solicitations seeking FVAC stockholder approval of the merger and related redemption/vote decisions. The proxy claim targets statements about retention/compensation, risk disclosures framed as hypothetical, projections, and goodwill/intangibles in the proxy materials and supplements prior to the June 15, 2021 vote.
+Class period. February 22, 2021 through October 19, 2021 (inclusive) for the §10(b) class; and FVAC holders as of May 24, 2021 eligible to vote June 15, 2021 for the §14(a) proxy class.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5(a)-(c) (scheme liability)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (Count One) (against ATI and ATI Individual Defendants)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>sustained</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Legal standard. To state a claim under Section 10(b) and Rule 10b-5, plaintiffs must plead (1) a material misrepresentation or omission (or a deceptive act for scheme liability), (2) scienter, (3) a connection with the purchase or sale of a security, (4) reliance, (5) economic loss, and (6) loss causation. The PSLRA and Rule 9(b) require particularity as to falsity and a “strong inference” of scienter. See 15 U.S.C. § 78u-4(b)(1)-(2); Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007). Where a theory is that the market price was distorted, plaintiffs must plausibly plead loss causation—i.e., that the revelation of the truth, or a materialization of the concealed risk, caused a price decline. Dura Pharm., Inc. v. Broudo, 544 U.S. 336 (2005).
-Application.
-1) Material misstatement/omission. The complaint identifies numerous alleged omissions and misleading statements about conflicts, process, and banker fees in the merger announcement and proxy materials. Many of these allegations plausibly concern information a reasonable stockholder would consider important in evaluating the merger and the proxy solicitation (e.g., undisclosed conflicts, banker incentives, and process details). At the pleading stage, Plaintiffs adequately allege that at least some challenged statements—particularly categorical assertions of “independence and disinterestedness” and a “robust process” yielding the “best value reasonably obtainable”—could be misleading if the omitted conflict and process facts are true. This element is not the principal defect.
-2) Scienter. The complaint pleads scienter largely by inference from (i) the importance of the transaction, (ii) defendants’ positions, and (iii) alleged personal financial incentives (TRA payments, retention/rollover interests, fees). Those allegations may support motive and opportunity for some individuals, but the PSLRA requires a strong inference that each defendant acted with intent to deceive or severe recklessness. As to Focus itself, scienter must be pleaded via particularized facts showing that an agent whose scienter is imputable to the corporation acted with the requisite state of mind.
-Even assuming arguendo that scienter is adequately pleaded as to certain insiders, the claim still fails on loss causation (below), which is independently dispositive.
-3) Reliance. Plaintiffs invoke Affiliated Ute and fraud-on-the-market. However, this case concerns a cash-out merger where the core alleged harm is that stockholders were cashed out at an unfairly low price. That theory is typically addressed through Section 14(a) (proxy causation) or state fiduciary duty claims, not a market-reliance theory that the trading price was “artificially deflated” absent a corrective disclosure. Plaintiffs’ Section 10(b) class is defined as sellers from announcement through closing, including those who tendered/exchanged into the merger. Reliance is not clearly pleaded for the tendering stockholders under a market-price theory because their price was contractually fixed by the deal and their decision turns on the vote/solicitation.
-4) Loss causation. The complaint alleges the stock traded “tethered” to the $53 deal price and would have traded higher had the market known the “truth” about the process and potential higher bids. But it does not plead a plausible corrective disclosure and resulting price decline attributable to revelation of the alleged fraud. To the contrary, the alleged misstatements are said to have kept the price artificially low relative to a hypothetical higher deal price; yet there is no pleaded event during the class period that revealed the truth and caused a loss-bearing price drop. Where the alleged inflation/deflation is tied to a merger price, plaintiffs must still allege that the truth became known and caused a market loss, or that the concealed risk materialized in a way that caused economic loss in the market. See Dura, 544 U.S. at 342-46.
-Here, the merger closed at the deal price. Plaintiffs’ theory is essentially “lost merger consideration” (i.e., they should have received $55 or more). That is not a paradigmatic Section 10(b) loss causation theory absent a pleaded corrective disclosure and a market loss. The complaint’s own narrative emphasizes that the challenged information was disclosed (at least in part) in a July 6, 2023 supplemental proxy, but it does not plead that this disclosure caused a stock-price decline (or any other market-based loss) as required under Dura. Nor does it plead that the merger failed or that a corrective disclosure caused the price to fall from an inflated level; rather, the asserted harm is that the price stayed near $53.
-Because Plaintiffs do not plausibly plead loss causation for a 10b-5 market-manipulation/deflation theory, Count I is dismissed.
-5) Scheme liability. Plaintiffs style the claim under Rule 10b-5(a) and (c), but scheme liability cannot be used to evade the misstatement framework where the gravamen is misleading disclosures. In any event, scheme liability still requires scienter and loss causation, which are not adequately pleaded.
-Ruling. The motion to dismiss is granted as to Count I.</t>
+          <t>Accepting the pleaded facts as true and applying the PSLRA and Rule 9(b), the complaint adequately alleges (1) actionable misstatements/omissions, (2) materiality, (3) scienter, (4) reliance, and (5) loss causation.
+Misstatements/omissions and materiality: Plaintiffs identify specific statements in investor presentations and SEC/proxy solicitation materials touting “very high retention,” “low turnover,” “strong retention,” and “employer of choice,” and statements implying ATI could match staffing to demand and execute 90+ clinic openings, alongside projections/guidance. These are plausibly more than inactionable puffery in context because they were used to convey a concrete competitive advantage in a labor‑constrained business and were tied to capacity, growth, and financial performance. Plaintiffs also plead omissions of an adverse trend (severe attrition) that allegedly was known and already impacting operations, rendering the affirmative retention and staffing representations misleading.
+Scienter: The complaint pleads a strong inference that Diab and Jordan at least recklessly disregarded the truth, based on alleged internal weekly and monthly attrition reporting, executive‑level decks containing attrition trend lines, and meetings where attrition was discussed, together with the alleged magnitude and operational centrality of the attrition problem and the abrupt guidance cut soon after the de‑SPAC. While defendants may offer competing inferences (e.g., evolving post‑COVID labor dynamics), at the pleading stage the inference of knowing or reckless misconduct is at least as compelling.
+Forward-looking statements/safe harbor: Plaintiffs plausibly allege the projections and guidance were misleading because they omitted then‑existing adverse facts (attrition and staffing shortfalls) undermining the stated bases for the projections. To the extent statements are forward‑looking, the complaint plausibly alleges they were made without meaningful cautionary language tailored to the known attrition trend and/or with actual knowledge of contrary facts.
+Loss causation: Plaintiffs plead a plausible causal link between the alleged concealment (severity of attrition and its financial impact) and the stock drops following July 26 and October 19 disclosures expressly attributing guidance reductions and visit-volume issues to staffing/attrition dynamics.
+Accordingly, dismissal is not warranted at this stage.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Section 14(a) of the Exchange Act and Rule 14a-9 (proxy misstatements/omissions)</t>
+          <t>Exchange Act §20(a) control-person liability (Count Two) (against ATI Individual Defendants, based on §10(b) violations)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2043,22 +2282,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Legal standard. Section 14(a) and Rule 14a-9 prohibit materially false or misleading statements or omissions in proxy solicitations. To plead a private damages claim, plaintiffs must plausibly allege (1) a proxy statement contained a material misrepresentation or omission, (2) causation—often framed as transaction causation/“essential link” between the proxy solicitation and the transaction approved, and (3) negligence (scienter is not required for a Section 14(a) claim in this Circuit absent special circumstances). See Mills v. Elec. Auto-Lite Co., 396 U.S. 375 (1970); Va. Bankshares, Inc. v. Sandberg, 501 U.S. 1083 (1991). Under the PSLRA, forward-looking statements may be protected by safe harbor if accompanied by meaningful cautionary language and not made with actual knowledge of falsity.
-Application.
-1) Material misstatements/omissions. Plaintiffs plead with substantial specificity a set of alleged omissions and misleading statements in the definitive proxy (June 12, 2023) and related disclosures. At the pleading stage, several categories are plausibly material under the “total mix” standard:
-• Special Committee independence and conflicts. The proxy allegedly made repeated, categorical assertions that the Special Committee consisted solely of “independent and disinterested” directors with no material interests different from public stockholders. Plaintiffs allege undisclosed (or inadequately disclosed) merger-contingent benefits to committee members (TRA-related payments, accelerated equity, and—critically—an allegedly self-approved, last-minute fee increase executed immediately before approving the merger). Information about banker and director conflicts is frequently material in merger-vote contexts because it bears on the reliability of the process and the recommendation.
-• Banker conflicts and incentives. Plaintiffs allege the proxy omitted that Jefferies’ discretionary fee was increased eightfold on the eve of its fairness opinion and that Goldman Sachs’ parallel KSFB/NKSFB engagement constrained bidder outreach. At the pleading stage, those allegations plausibly describe conflicts/incentives a reasonable stockholder would consider important in weighing the fairness opinions and the board’s process narrative.
-• Process narrative and competing bidder treatment. Plaintiffs allege the proxy’s “best value reasonably obtainable” and “robust process” narrative was misleading because it omitted facts showing strategic-buyer interest, delayed engagement with a strategic bidder, and preferential treatment of CD&amp;R (including exclusivity and diligence disparities). While some statements about process can be non-actionable opinion or corporate optimism, the complaint pleads specific omitted facts that, if true, could render the process description misleading.
-Defendants may ultimately contest materiality on a developed record, but at this stage Plaintiffs have plausibly alleged materially misleading omissions.
-2) Causation/essential link. Plaintiffs allege the proxy was used to solicit stockholder approval, that the vote occurred July 14, 2023, and that the merger closed August 31, 2023. Under Mills, where stockholder authorization is required by law and the proxy solicitation is an essential link in accomplishing the transaction, transaction causation is plausibly alleged. Plaintiffs plead that absent the misleading proxy, stockholders could have voted differently or sought appraisal/other remedies, and that the vote was required for the merger. That suffices at the pleading stage.
-3) Negligence. Plaintiffs expressly plead Count II as negligence and allege defendants prepared, reviewed, signed, and disseminated the proxy and had access to the omitted information. Those allegations plausibly support a failure to exercise reasonable care in ensuring the proxy was not misleading.
-4) Supplemental proxy timing. Defendants argue (and will likely argue on the motion) that later disclosures cured earlier omissions. The complaint plausibly alleges the July 6, 2023 supplemental proxy was issued only six business days before the vote and did not fully cure the alleged misstatements (including allegedly omitting the fee increase and personal/business ties). Whether any supplementation cured material omissions is fact-intensive; at the pleading stage, Plaintiffs plausibly allege the corrective disclosure was incomplete and too late to render the solicitation fully informed.
-Ruling. The motion to dismiss is denied as to Count II.</t>
+          <t>Because the §10(b) claim is adequately pleaded, and the complaint plausibly alleges control by the individual defendants through their executive/director roles and alleged authority over SEC filings and investor communications, the §20(a) claim survives. Any good‑faith/non‑culpable participation defense is fact‑intensive and not resolved on the pleadings.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability)</t>
+          <t>Exchange Act §14(a) and Rule 14a-9 (Count Three) (against all Defendants) (proxy/negligence claim)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2068,17 +2297,26 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Legal standard. Section 20(a) imposes joint and several liability on controlling persons for a controlled person’s primary Exchange Act violation, unless the controlling person acted in good faith and did not directly or indirectly induce the violation. Plaintiffs must plead (1) a primary violation, (2) control of the primary violator, and (3) (in many circuits) culpable participation, though the precise pleading requirement varies.
-Application.
-Primary violation. As ruled above, Plaintiffs have stated a primary claim under Section 14(a) but have not stated a primary claim under Section 10(b).
-Control. The complaint alleges the individual director and officer defendants had power to control Focus’s proxy disclosures and the merger process, including that the proxy was issued by order of the board and signed by Adolf and McGranahan. At the pleading stage, those allegations plausibly plead control for Section 20(a) purposes as to the proxy-related primary violation.
-Scope. Because Count I (Section 10(b)) is dismissed, Section 20(a) cannot proceed to the extent it is predicated on a 10b-5 primary violation. However, it may proceed to the extent it is predicated on the surviving Section 14(a) claim.
-Ruling. The motion to dismiss is granted as to Count III insofar as it is based on an alleged Section 10(b)/Rule 10b-5 primary violation, and denied insofar as it is based on the alleged Section 14(a)/Rule 14a-9 primary violation.</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>The complaint plausibly alleges material misstatements/omissions in proxy solicitations concerning clinician retention/compensation and risk disclosures framed as hypothetical despite allegedly existing attrition and related cost impacts. Those allegations, if proven, could be material to FVAC stockholders deciding how to vote and whether to redeem at $10.00 per share, and the proxy solicitation is plausibly an “essential link” to completion of the merger.
+However, the §14(a) claim is insufficient to the extent it is premised on (i) generalized corporate optimism/puffery not tied to verifiable facts, and (ii) accounting-valuation theories regarding goodwill and intangible asset carrying values absent particularized facts showing that, as of the proxy dates, defendants lacked a reasonable basis for the reported amounts or that GAAP required earlier impairment recognition. The later-announced impairments, without more particularized contemporaneous facts about impairment testing inputs, triggering events, or known valuation errors at the time, do not by themselves plausibly establish a materially false proxy statement.
+Thus, the §14(a) claim is sustained as to the alleged retention/attrition and misleading risk/projection disclosures tied to staffing realities, but dismissed as to the standalone goodwill/intangibles overvaluation theory as pleaded.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Exchange Act §20(a) control-person liability (Count Four) (against ATI Individual Defendants and FVAC Defendants, based on §14(a) violations)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>The §20(a) proxy-control claim survives to the same extent as the underlying §14(a) claim. Plaintiffs plausibly allege the individual defendants’ control over the proxy solicitations through their roles as FVAC directors/ATI executives and their alleged participation in approving and disseminating the proxy materials. But because the §14(a) claim is dismissed insofar as it rests on inadequately pleaded goodwill/intangibles impairment theories and non-actionable puffery, the derivative §20(a) claim is dismissed to that same extent.</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -2086,16 +2324,31 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>34426</v>
+        <v>30685</v>
       </c>
       <c r="X17" t="n">
-        <v>3932</v>
-      </c>
+        <v>2084</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dde_21_cv_55</t>
+          <t>mad-1-21-cv-10933</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2108,16 +2361,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>This putative securities-fraud class action is brought under Sections 10(b) and 20(a) of the Exchange Act and Rule 10b-5 on behalf of purchasers of Walmart Inc. (“Walmart”) common stock during March 31, 2017 through December 22, 2020 (the “Class Period”), who also held shares on March 24, 2020 and/or December 22, 2020. The named plaintiffs are Kim Kengle (as trustee of the Kim K. Kengle 2000 Trust) and Roseanne Lacy (collectively, “Investors” or “Plaintiffs”). Defendants are Walmart, and two senior executives: CEO Douglas C. McMillon and CFO M. Brett Biggs (the “Individual Defendants”).
-The complaint alleges that for years Walmart violated the Controlled Substances Act (“CSA”) as both (i) a dispenser through nearly 5,000 retail pharmacies and (ii) a distributor (until 2018) supplying controlled substances to its own pharmacies, and that it concealed from investors (a) a nationwide 2011 Memorandum of Agreement with the DEA (the “2011 MOA”) resolving a 2009 DEA enforcement action (the “2009 OTSC”), (b) Walmart’s noncompliance with the MOA and CSA, and (c) intensifying DOJ criminal and civil investigations into those violations (together, the “Government Investigations”). Plaintiffs contend Walmart’s internal documents (e.g., 2013–2015 compliance/risk assessment materials) acknowledged a lack of adequate suspicious order monitoring and warned of “severe” financial and reputational harm. They further allege that in March/May 2018 the U.S. Attorney’s Office for the Eastern District of Texas advised Walmart that an indictment was imminent and sought a $1 billion civil resolution; DOJ later declined to indict (August 31, 2018) but continued a broad civil investigation culminating in a DOJ civil enforcement complaint filed December 22, 2020.
-According to Plaintiffs, throughout the Class Period Walmart’s SEC filings and public statements were materially false and misleading because they: (1) stated, in “Contingencies/Legal Proceedings” footnotes, that where a liability was “reasonably possible and may be material,” it had been disclosed—while allegedly omitting the Government Investigations and the 2011 MOA; (2) failed to disclose loss contingencies and material legal proceedings as required by GAAP (ASC 450) and Regulation S-K Item 103; (3) used boilerplate “risk factors” that framed regulatory and enforcement risks as hypothetical even though, Plaintiffs allege, DOJ investigations and severe CSA exposure were already underway; (4) issued allegedly misleading “opioid stewardship” PR statements touting “comprehensive policies and training” and patient-safety priorities while, Plaintiffs allege, internal practices prioritized speed and sales, impeded pharmacists’ ability to refuse illegitimate prescriptions, and lacked effective suspicious order monitoring; and (5) included allegedly false Sarbanes-Oxley (SOX) certifications by McMillon and Biggs attesting to the accuracy of filings and adequacy of controls despite the alleged nondisclosures.
-Plaintiffs plead two corrective disclosures and related stock drops: (i) March 25, 2020, when ProPublica published an exposé disclosing the DOJ criminal investigation since 2016, the near-indictment in 2018, the ongoing civil investigation, the 2011 MOA, and DEA admonition letters; Walmart stock allegedly fell about 5% that day. (ii) December 22, 2020, when DOJ announced and filed a civil CSA enforcement action seeking potentially “billions” in penalties and injunctive relief; Walmart stock allegedly fell about 1.88% over the next two trading days.
-The legal claims asserted are: Count I—Section 10(b)/Rule 10b-5 against all Defendants; Count II—Section 20(a) control-person liability against McMillon and Biggs. Significant dates include: March 31, 2017 (start of Class Period; filing of FY2017 10-K for year ended Jan. 31, 2017); Dec. 7, 2016 (alleged start of DOJ criminal investigation after DEA raid, pleaded as background); Nov. 2017 (alleged start of parallel DOJ civil investigation); March/May 2018 (near-indictment and settlement demand); Aug. 31, 2018 (DOJ declination of indictment); March 25, 2020 (ProPublica disclosure); Dec. 22, 2020 (DOJ civil enforcement action; end of Class Period).</t>
+          <t>Parties: Lead Plaintiff Julian Quinones brings a putative class action on behalf of purchasers of Frequency Therapeutics, Inc. (“Frequency”) common stock (Nasdaq: FREQ) during the alleged Class Period. Defendants are Frequency; its CEO/President and director David Lucchino; and its Chief Development Officer (“CDO”) and Phase 2a “Study Director” Robert LeBel.
+Business and product: Frequency is a development-stage biotech whose core business depended on FX-322, an investigational intratympanic drug candidate for sensorineural hearing loss (“SNHL”). Phase 2a was intended to test efficacy (including word recognition and words-in-noise endpoints) and to clarify endpoints/patient population for later-stage development.
+Class period and alleged corrective disclosure: The Class Period is alleged to run from October 29, 2020 through March 23, 2021. On March 23, 2021, Frequency issued a press release announcing topline day-90 Phase 2a results showing four weekly injections did not improve hearing measures versus placebo and disclosing an “unexpected” apparent benefit in the placebo group “potentially suggesting bias due to trial design,” with “no discernible” benefit over placebo. The stock allegedly fell 78% that day (from $36.29 to $7.99).
+Alleged misconduct (core theory): Plaintiff alleges Defendants made materially false and misleading statements and omissions about Phase 2a’s enrollment/patient population and the reliability/utility of Phase 2a data, while knowing (or recklessly disregarding) that Phase 2a was compromised by self-selection/volunteer bias. The complaint alleges that Phase 2a had undisclosed word-recognition-score entry criteria (a threshold “deficit” range) meant to avoid patient gaming, but that the threshold and other criteria were disseminated online (e.g., tinnitus message boards), enabling participants to “fake” word recognition testing to qualify. Plaintiff alleges a confidential witness (CW1), Frequency’s Senior Manager of Clinical Operations and Phase 2a Trial Manager (Jan. 2018–Sept. 2021), confirms that multiple patients qualified despite not meeting inclusion criteria, that Frequency personnel identified online posts sharing criteria/materials, and that investigators raised concerns to LeBel about discrepancies between screening responses and later examinations.
+Challenged statements: Plaintiff points to statements in (i) October 29, 2020 press release and investor deck (Form 8-K) representing Phase 2a enrollment completed and that “all subjects have meaningful word recognition deficits”; (ii) November 16, 2020 earnings release/3Q 10-Q statements that enrollment was completed and Phase 2a could evaluate efficacy and support an FDA end-of-Phase-2 meeting; (iii) a 3Q 10-Q risk disclosure warning that trial failure “may” result from, among other things, patient misrepresentations/enrollment criteria (allegedly misleading because the risk had already materialized); (iv) January 11, 2021 updated investor deck again stating all subjects had meaningful word recognition deficits and entrance criteria required such deficits; and (v) January 19, 2021 remarks by LeBel stating every subject had to have a word-recognition deficit within an undisclosed range to minimize bias.
+Scienter allegations: Plaintiff pleads scienter based on (a) CW1’s account of internal awareness of bias and investigator complaints; (b) the importance of Phase 2a/FX-322 to Frequency’s “core operations”; and (c) Lucchino’s alleged unusual and increased stock sales during the Class Period, yielding over $9 million.
+Claims asserted: (1) Section 10(b) and Rule 10b-5 against all Defendants (misstatements/omissions and scheme allegations); and (2) Section 20(a) control-person liability against Lucchino and LeBel predicated on the Section 10(b) violation.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5 (Exchange Act) (Count I)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (against all Defendants)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2127,24 +2382,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private securities-fraud claim under Section 10(b) and Rule 10b-5, Plaintiffs must allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007). Under the PSLRA and Rule 9(b), falsity and scienter must be pleaded with particularity; scienter must support a “strong inference” that is “cogent and at least as compelling as any opposing inference.”
-1. Material misrepresentation or omission. Plaintiffs adequately plead actionable omissions and half-truths.
-(a) “Legal Proceedings/Contingencies” statements and GAAP/ASC 450 theory. The complaint identifies repeated statements in Walmart’s Forms 10-K and 10-Q to the effect that “where a liability is reasonably possible and may be material, such matters have been disclosed,” coupled with detailed disclosure of other matters (e.g., Opioid MDL; other subpoenas) but not the Government Investigations. At the pleading stage, these allegations plausibly state a misleading half-truth: once Walmart represented that it had disclosed reasonably possible material liabilities, and selectively described certain investigations and proceedings, the omission of a major DOJ criminal investigation (and later a broad DOJ civil investigation) plausibly rendered the disclosures misleading. Whether ASC 450 or Item 103 ultimately required disclosure is not dispositive at this stage; a duty to disclose may arise from making a statement that is misleading absent the omitted information.
-The complaint pleads particularized facts supporting materiality: the alleged near-indictment, the scale of potential penalties (billions), and the market reaction to later disclosures. These are not merely “risk of litigation” allegations; Plaintiffs allege an existing, long-running DOJ criminal investigation beginning in 2016, expanded warrants/subpoenas, and an imminent indictment communicated in 2018. Such information is plausibly material to a reasonable investor.
-(b) Risk-factor disclosures framed as hypothetical. Plaintiffs plausibly allege that certain risk disclosures describing regulatory enforcement and sanctions as contingent/hypothetical were misleading because, as pleaded, Walmart was already under active DOJ investigation and had been told of an imminent indictment. At the motion-to-dismiss stage, allegations that risk factors warned of enforcement actions as possibilities while omitting that enforcement actions were already being pursued can state a claim.
-(c) “Opioid stewardship” statements. Some statements appear to be non-actionable corporate puffery (e.g., generalized commitments to “be part of the solution”). However, the complaint identifies at least one more concrete assertion—e.g., that Walmart had “comprehensive policies and training” supporting pharmacists in filling prescriptions only for legitimate medical purposes. Given the detailed allegations (including the DOJ complaint incorporated by reference) that Walmart’s systems and policies impeded red-flag resolution and refusal-to-fill practices, Plaintiffs plausibly plead falsity as to these more specific representations.
-(d) SOX certifications. SOX certifications are not independently actionable absent an underlying materially false or misleading filing, but they can support falsity/scienter allegations. Here, because Plaintiffs plausibly plead that the underlying filings were misleading, the certifications may be considered as part of the overall alleged scheme.
-2. Scienter. Plaintiffs plead a strong inference of at least recklessness, and plausibly of knowledge, as to Walmart and the Individual Defendants.
-The complaint alleges: (i) the DOJ criminal investigation began in 2016 following a DEA raid; (ii) in March/May 2018 prosecutors advised Walmart an indictment was imminent and demanded $1 billion civilly; (iii) Walmart’s senior leadership (including McMillon) was consulted on DOJ presentations; (iv) internal compliance/risk documents (2013–2015) described the absence of adequate suspicious order monitoring and warned of “severe” financial/reputational harm; (v) both McMillon and Biggs were members of Walmart’s Ethics, Compliance and Risk Committee; and (vi) Walmart made selective disclosures about other investigations/subpoenas while not specifically disclosing the opioid-related Government Investigations.
-At the pleading stage, these allegations support a cogent inference that Defendants knew, or were reckless in not knowing, that omitting the Government Investigations while affirmatively representing that reasonably possible material liabilities had been disclosed created a misleading picture. The competing non-fraud inference—that Walmart believed disclosure was not required because investigations were preliminary or non-material—is not more compelling on these pleaded facts, particularly given the alleged near-indictment, the scale of exposure, and the asserted internal recognition of severe risk.
-3. Reliance. Plaintiffs plead reliance under the fraud-on-the-market presumption (Walmart stock traded on the NYSE; alleged analyst coverage; alleged price reaction to disclosures). At this stage, that suffices.
-4. Loss causation and economic loss. Plaintiffs plead two alleged corrective disclosures (ProPublica on March 25, 2020; DOJ enforcement action on December 22, 2020) and corresponding price declines. While Defendants may later contest whether these were “corrective” as opposed to merely reporting previously known risks or reflecting confounding market forces, the complaint plausibly alleges that the disclosures revealed previously concealed facts about the existence and seriousness of the Government Investigations and the scale of CSA exposure, and that the stock price fell in response. That is sufficient at the pleading stage.
-Accordingly, the motion to dismiss is denied as to Count I.</t>
+          <t>Accepting the pleaded facts as true and drawing reasonable inferences in Plaintiff’s favor, the complaint adequately pleads (i) actionable misstatements/omissions, (ii) materiality, (iii) a strong inference of scienter, and (iv) loss causation at the pleading stage under the PSLRA.
+Actionable statements/omissions and materiality: Plaintiff identifies specific, dated public statements (Oct. 29, 2020; Nov. 16, 2020; Jan. 11, 2021; Jan. 19, 2021) repeatedly representing that Phase 2a subjects had “meaningful word recognition deficits,” that entrance criteria required such deficits, and that Phase 2a data would meaningfully inform efficacy and regulatory strategy. The complaint plausibly alleges these statements were misleading because Defendants allegedly knew that Phase 2a’s screening/entry process had been compromised by patient gaming and dissemination of criteria online, resulting in enrollment of participants who did not truly meet the intended word-recognition-deficit population and thereby undermining the interpretability of the endpoints. At this stage, statements about the integrity of the enrolled population and the expected utility of Phase 2a data are not mere puffery; they go to the core reliability of the trial and the company’s principal value driver.
+Risk-factor theory: The 3Q 10-Q’s warning that trial failure “may” result from patient misrepresentations and enrollment issues is plausibly misleading if, as alleged, Defendants already knew those issues had occurred in Phase 2a. A risk disclosure can be actionable when it speaks in hypothetical terms about a risk that has already materialized.
+Scienter: The complaint pleads a strong inference of scienter through multiple, mutually reinforcing allegations: (1) CW1’s detailed position, responsibilities, and basis of knowledge as Phase 2a Trial Manager; (2) allegations that investigators raised specific discrepancies to LeBel; (3) allegations that Frequency personnel identified online dissemination of criteria and that, given the centrality of Phase 2a/FX-322 to the company, it is plausible senior leadership would be aware; and (4) Lucchino’s alleged unusual, increased stock sales during the Class Period, which the complaint ties temporally to trial completion and before the March 23, 2021 disclosure. While Defendants may later contest CW reliability, trading-plan context, or alternative inferences, the pleaded facts support at least recklessness as to whether the public statements created a misleading impression about the validity of the Phase 2a population and data.
+Loss causation: Plaintiff plausibly alleges a corrective disclosure on March 23, 2021 that revealed Phase 2a’s failure and “potentially” bias due to trial design, followed by an immediate 78% price decline. Analyst and media commentary cited in the complaint plausibly links the drop to the market learning that bias undermined the trial’s interpretability and efficacy comparison. This suffices at the motion-to-dismiss stage.
+Scheme liability: To the extent Count I is also framed as a “scheme,” it is sustained insofar as it is based on the same alleged deceptive course of conduct tied to the challenged statements and omissions and not solely on conclusory labels.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Section 20(a) Control-Person Liability (Exchange Act) (Count II)</t>
+          <t>Exchange Act §20(a) (control-person liability against Lucchino and LeBel)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2154,11 +2402,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Legal standard. To state a claim under Section 20(a), Plaintiffs must plead: (1) a primary violation of the securities laws by the controlled person; and (2) that the defendant exercised actual power or control over the controlled person. Many courts also require culpable participation, though the precise formulation varies by circuit; at the pleading stage, allegations of control coupled with the primary violation generally suffice.
-1. Primary violation. Because the Section 10(b)/Rule 10b-5 claim survives, Plaintiffs have adequately pleaded a primary violation by Walmart.
-2. Control. Plaintiffs plausibly plead that McMillon (CEO) and Biggs (CFO) had control over Walmart’s public statements and SEC filings: both signed the relevant Forms 10-K and 10-Q and SOX certifications; both allegedly participated in senior management and the Ethics, Compliance and Risk Committee; and the complaint alleges involvement in disclosure controls and oversight of compliance risks.
-At this stage, these allegations are sufficient to plead control-person liability. Any “good faith” defense or challenges to culpable participation are fact-intensive and not resolved on a motion to dismiss.
-Accordingly, the motion to dismiss is denied as to Count II.</t>
+          <t>Because the §10(b) claim is adequately pleaded, and the complaint plausibly alleges that Lucchino (CEO/President/director) and LeBel (CDO/Study Director) had the power to control Frequency’s public statements and the specific conduct at issue, the §20(a) claim is sufficiently pleaded at this stage. The complaint alleges their authority over SEC filings, investor presentations, and trial-related communications, and alleges culpable participation/knowledge through CW1’s account and their roles in Phase 2a design/oversight. Any good-faith or non-culpable-participation defenses are fact-bound and not resolved on the pleadings.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -2174,16 +2418,31 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>45022</v>
+        <v>16435</v>
       </c>
       <c r="X18" t="n">
-        <v>2550</v>
-      </c>
+        <v>1739</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>flsd-1_23-cv-23139</t>
+          <t>mied-4-23-cv-13132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2194,19 +2453,85 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Parties: Lead Plaintiff City of Hollywood Police Officers’ Retirement System and named plaintiff Plymouth County Retirement Association sue on behalf of a putative class of all persons/entities that purchased or otherwise acquired GM common stock or exchange-traded call options, or sold exchange-traded put options, during February 24, 2021 through November 8, 2023 (the “Class Period”). Defendants are General Motors Company (“GM”); Cruise LLC (“Cruise”), GM’s majority-owned autonomous vehicle segment; and individual executives Mary T. Barra (GM CEO/Chair; also Chair of Cruise’s Board), Paul A. Jacobson (GM CFO), Kyle Vogt (Cruise founder; President/CTO; CEO from Dec. 2021), Daniel Ammann (Cruise CEO through Dec. 2021), Doug L. Parks (GM EVP Product Development), and Wayne G. West (Cruise COO).
+Alleged misconduct and key facts: Plaintiffs allege a multi-year scheme to mislead investors about (1) the capability and safety of Cruise’s autonomous vehicle (“AV”) technology and (2) Cruise’s conduct and disclosures following an October 2, 2023 pedestrian crash in San Francisco. According to the complaint, Defendants repeatedly represented that Cruise’s AVs were “fully driverless,” “fully autonomous,” and “Level 4” (including claims that humans were “out of the loop,” that the system could drive “100% of the time” without human input, and that it was “safer than a human driver”), and that Cruise had exited the “R&amp;D phase” and entered “early commercialization,” implying technical maturity and readiness to scale a revenue-generating robotaxi business.
+Plaintiffs allege the “undisclosed truth” was that Cruise’s system was not Level 4 and was materially dependent on remote assistance and frequent human intervention (allegedly every 2.5–5 miles), suffered persistent safety and reliability failures (hard braking, inability to handle unprotected turns, stopping/stranding in traffic, failure to recognize children and other hazards), and maintained unresolved internal safety tickets/risk assessments. The complaint relies on numerous confidential witnesses (former Cruise/GM employees), DMV complaint records, and post-Class Period reporting.
+October 2 crash and alleged cover-up: Plaintiffs allege that on October 2, 2023 a Cruise AV struck a pedestrian who had been hit by a human-driven vehicle, initially stopped, then attempted a pullover maneuver while the pedestrian was under the vehicle and dragged the pedestrian ~20 feet. Plaintiffs allege senior Cruise leadership (including Vogt and West) learned these facts within hours, but Cruise disseminated incomplete video and “on background” talking points implying the AV came to a complete/immediate stop and was “kept in place,” omitting the dragging. Plaintiffs further allege Cruise misled regulators by failing to affirmatively disclose the dragging and by showing/pausing video in a way that omitted the pullover/dragging; later regulatory actions (DMV suspension; CPUC show-cause ruling) and Cruise’s post-Class Period Quinn Emanuel report are pled as corroboration.
+Corrective disclosures and loss causation: Plaintiffs plead partial corrective disclosures on (1) October 24, 2023 (DMV suspends Cruise driverless permits; Cruise admits dragging; stock drop ~2.3%); (2) October 26–27, 2023 (NHTSA letter re hard-braking collisions; Cruise pauses operations nationwide; stock drop ~4.7%); and (3) November 8, 2023 (fleet-wide recall addressing post-collision pullover behavior; stock drop ~3%). Plaintiffs allege these disclosures revealed falsity and materialized concealed risks, causing economic loss.
+Claims: (Count I) Section 10(b) and Rule 10b-5(b) (misstatements/omissions) against GM, Cruise, and all individual defendants; (Count II) Section 10(b) and Rule 10b-5(a)/(c) (scheme liability) against the same defendants; (Count III) Section 20(a) control-person liability against Barra, Jacobson, and Parks as control persons of GM; and (Count IV) Section 20(a) control-person liability against the individual defendants as control persons of Cruise. The alleged misstatements include extensive quotations from earnings calls, investor days, SEC filings (10-K/10-Q), sustainability reports, earnings decks, and public statements touting Level 4/fully driverless capability and superior safety, plus alleged deceptive conduct surrounding the October 2 crash media/regulator communications.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Count I – Exchange Act §10(b) and Rule 10b-5(b) (material misstatements/omissions) against GM, Cruise, Barra, Jacobson, Vogt, Ammann, Parks, West</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pleading standard: At the motion-to-dismiss stage, Plaintiffs must plausibly plead (i) a material misrepresentation or omission, (ii) scienter, (iii) connection with the purchase/sale of securities, (iv) reliance, (v) economic loss, and (vi) loss causation, and must satisfy PSLRA particularity for falsity and scienter.
+(1) Actionable statements and falsity: The complaint pleads numerous specific statements—attributed to identified speakers, with dates and contexts—asserting Cruise had “fully driverless,” “fully autonomous,” and “Level 4” capability, had taken humans “out of the loop,” required “zero incremental work” to get to revenue, had exited the “R&amp;D phase,” and was “safer than a human driver.” These are not pled as mere corporate optimism; they are framed as concrete representations about the nature of the technology (Level 4 meaning “100% of the time” without human input) and the safety/performance benchmark. Plaintiffs plead contemporaneous contrary facts: reliance on remote assistance every 2.5–5 miles; frequent retrievals; persistent “high” and “extreme” safety risks in internal registers; repeated hard-braking and navigation failures; and specific examples from CWs and DMV complaints. At this stage, these allegations plausibly support falsity/misleadingness, including by omission (failure to disclose the degree of remote human intervention and systemic safety deficiencies) where Defendants allegedly spoke affirmatively and specifically about full autonomy and superior safety.
+(2) Materiality: The alleged misstatements concern Cruise’s core product and a major driver of GM valuation and strategy (robotaxi commercialization, first-mover advantage, and projected tens of billions in revenue). The complaint plausibly pleads a reasonable investor would view the true extent of human intervention, safety defects, and regulatory vulnerability as significantly altering the total mix.
+(3) Scienter: Plaintiffs plead a strong inference of at least deliberate recklessness, and as to certain post-crash statements, actual knowledge. The complaint alleges (a) Cruise’s autonomy/safety was core to GM/Cruise; (b) extensive internal tracking systems (risk register, SRAs, tickets, incident reporting); (c) access and reporting lines to senior leadership and boards; (d) widespread internal awareness of chronic failures; and (e) post-crash conduct and the Quinn Report’s findings that senior leadership discussed the dragging and nevertheless continued to disseminate incomplete video/talking points and failed to affirmatively disclose to regulators. Taken together, and considering competing inferences, the pleaded facts support a cogent inference that at least some defendants knew, or were reckless in not knowing, that repeated “Level 4/fully driverless/safer than human” representations were misleading.
+(4) Reliance: Plaintiffs plead Basic market efficiency and, alternatively, Affiliated Ute for omissions. At this stage, reliance is adequately pled.
+(5) Loss causation: Plaintiffs plead three alleged corrective disclosures tied to the concealed safety/capability and regulatory-risk issues (DMV suspension and admission of dragging; NHTSA investigation and nationwide pause; fleet-wide recall), each followed by alleged statistically significant price declines. That suffices to plausibly plead loss causation.
+(6) PSLRA particularity: The complaint quotes the challenged statements, identifies speakers, timing, and why misleading, and pleads scienter with supporting facts. Accordingly, Count I is sustained.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Count II – Exchange Act §10(b) and Rule 10b-5(a)/(c) (scheme liability) against GM, Cruise, Barra, Jacobson, Vogt, Ammann, Parks, West</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>dismissed_in_part</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Legal framework: Rule 10b-5(a)/(c) requires deceptive conduct beyond mere misstatements/omissions actionable under Rule 10b-5(b), and plaintiffs must plead with particularity a scheme, scienter, reliance, and loss causation. Under Lorenzo and related precedent, dissemination of false or misleading statements with scienter can constitute scheme liability, but courts still police duplicative “scheme” claims that simply repackage (b) misstatement allegations without identifying distinct deceptive acts.
+Sustained as to the October 2 crash-related deceptive conduct: Plaintiffs plead particularized deceptive acts separate from ordinary issuer communications: (i) dissemination to media of an incomplete crash video cut before the pullover/dragging; (ii) continued provision of “on background” bullet points stating the AV came to a “complete stop” and was “kept in place” after senior leadership allegedly knew of the dragging; and (iii) alleged conduct in regulator interactions (pausing video at impact, failing to affirmatively disclose the dragging, and leaving regulators with an incomplete understanding), later cited by DMV/CPUC actions and the Quinn Report. These are pled as affirmative deceptive practices intended to shape public and regulatory narratives, plausibly connected to maintaining market perceptions and thus to investor reliance via market price.
+Dismissed to the extent premised solely on the same alleged public misstatements about Level 4 capability and safety: To the extent Count II is based only on Defendants’ repeated “fully driverless/Level 4/safer than human” statements in earnings calls, SEC filings, and investor presentations, the complaint does not identify additional deceptive conduct distinct from the misstatement theory in Count I. As pled, that portion is duplicative of Rule 10b-5(b) and does not independently satisfy the requirement of a scheme based on conduct beyond misrepresentations.
+Accordingly, Count II is sustained as to the crash cover-up/regulatory-media deception theory and dismissed in part insofar as it merely restates the misstatement/omission theory regarding Cruise’s general autonomy and safety capabilities.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Count III – Exchange Act §20(a) (control-person liability) against Barra, Jacobson, Parks as control persons of GM</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Section 20(a) requires (i) a primary violation by the controlled person and (ii) control by the defendant; culpable participation is not uniformly required, but Plaintiffs here also plead knowledge/recklessness and lack of good faith. Because the §10(b) claim against GM is sustained, the primary violation element is met at this stage. The complaint plausibly pleads control: Barra (CEO/Chair), Jacobson (CFO, SOX certifications), and Parks (EVP) had authority over GM’s public statements and filings, participated in key communications, and signed/certified SEC reports. The allegations of their involvement in touting Cruise’s Level 4 capability and safety, and the asserted access to information about Cruise through board roles and reporting structures, plausibly support control-person liability at the pleading stage. Any good-faith defense is fact-intensive and not resolved on a motion to dismiss.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Count IV – Exchange Act §20(a) (control-person liability) against Barra, Jacobson, Vogt, Ammann, Parks, West as control persons of Cruise</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>For the same reasons, Plaintiffs adequately plead a primary violation by Cruise (Count I sustained) and plausible control by the individual defendants. Vogt (CEO/CTO), West (COO), and Ammann (former CEO) are pled as senior executives with authority over Cruise operations and communications; Vogt is specifically alleged to have required sign-off on media statements/video after the crash. Barra and Jacobson are pled as GM executives with governance roles over Cruise (including board involvement) and GM’s majority ownership/control; Parks is pled as a senior GM executive who publicly spoke about Cruise’s Level 4 launch. At this stage, these allegations plausibly establish control and defeat dismissal; the good-faith defense is not resolved on the pleadings.</t>
+        </is>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -2214,16 +2539,31 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>16035</v>
+        <v>64446</v>
       </c>
       <c r="X19" t="n">
-        <v>4096</v>
-      </c>
+        <v>2725</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ilnd-1_20_cv_05593</t>
+          <t>nysd_20_cv_04494</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2236,18 +2576,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>This is a Securities Act class action arising from GoHealth, Inc.’s July 2020 initial public offering. Lead Plaintiffs Sudhakara R. Murikinati, Jerry Nixon, Benjamin Sandmann, and Jeff S. Turnipseed allege they purchased GoHealth Class A common stock in and/or traceable to the IPO registration statement and were damaged.
-Defendants fall into several groups. The issuer is GoHealth, Inc. (Delaware; headquartered in Chicago). Individual Defendants are GoHealth’s senior executives/directors who signed the registration statement: (1) Clinton P. Jones (co-founder, CEO, Co-Chair), (2) Brandon M. Cruz (co-founder, Chief Strategy Officer/Special Advisor, Co-Chair), and (3) Travis J. Matthiesen (CFO). Plaintiffs also sue alleged control persons: NVX Holdings, Inc. (an entity controlled by Jones and Cruz housing founder ownership) and Centerbridge-related entities (Centerbridge Partners, L.P. and affiliated holding vehicles and general partners), which acquired control of the operating business in September 2019. Underwriter Defendants are Goldman Sachs &amp; Co. LLC, BofA Securities, Inc., and Morgan Stanley &amp; Co. LLC.
-The complaint alleges GoHealth operates a technology-enabled health insurance marketplace with a major focus on Medicare Advantage sales. GoHealth’s revenue model depends on carrier commissions and recurring commissions tied to customer “persistency,” with “churn” (disenrollment/switching) reducing lifetime value. A key metric touted in the IPO materials was “LTV/CAC,” a ratio of estimated lifetime commissions per approved submission divided by consumer acquisition cost.
-The core alleged misconduct is that the IPO registration statement and prospectus contained materially false and misleading statements and omissions because they failed to disclose that, at the time of the IPO, GoHealth was (i) experiencing heightened churn / impaired persistency and (ii) had reached the limits of growth achievable under its then-existing, highly concentrated Medicare carrier model (dominated by Humana and Anthem), requiring a near-term disruptive strategic shift. Plaintiffs allege GoHealth had planned for 2020 to be an “investment year” involving rapid expansion to new Medicare carriers and increased emphasis on Special Needs Plans (SNPs), which would (and did) create near-term adverse effects: lower initial commission rates from new carriers; reduced marketing subsidies; increased marketing and agent-training costs; less reliable LTV assumptions due to limited data; increased churn/lower effectuation (especially for SNPs); and a shift toward non-commissionable “other” revenue, all pressuring LTV and LTV/CAC.
-Plaintiffs point to post-IPO disclosures as revealing these allegedly omitted facts: (1) August 19, 2020 2Q20 earnings release/call (quarter ended June 30, 2020—two weeks before IPO) describing new carrier additions, lower initial LTV/commission rates, SNP mix creating near-term LTV drag, and retention/churn issues (including low 90-day retention in new markets and higher SNP disenrollment); (2) November 11, 2020 3Q20 results showing losses and a revenue mix shift with higher “other” revenue and elevated marketing spend; and (3) December 2, 2020 conference remarks by Jones and CFO Matthiesen explicitly describing 2020 as an anticipated “investment year” with new carriers, lower commission levels, LTV compression, and upside expected in 2021 after achieving top-tier contracts.
-The offering and class definition: the IPO was priced July 14, 2020 at $21.00 per share; GoHealth sold approximately 44.5 million shares (completed July 17, 2020) generating over $913 million gross proceeds. The proposed class is all persons who purchased GoHealth Class A common stock pursuant and/or traceable to the IPO registration statement. Plaintiffs allege the stock declined from $21.00 to $13.32 by suit filing and to an intraperiod low around $10.05 on December 1, 2020.
-Legal claims asserted are limited to strict-liability/negligence-based Securities Act claims: Count I under Section 11 against GoHealth, the Individual Defendants, and the Underwriter Defendants; and Count II under Section 15 against GoHealth, the Individual Defendants, NVX Holdings, and Centerbridge as control persons. The complaint also pleads that omissions violated Items 303 and 105 of Regulation S-K and SAB 104 (MD&amp;A and risk-factor disclosure duties), as part of the Section 11 theory.</t>
+          <t>This putative securities-fraud class action is brought by Lead Plaintiffs Handelsbanken Fonder AB, the Public Employees’ Retirement System of Mississippi, the State of Rhode Island (Employees’ Retirement System), and the Louisiana Sheriffs’ Pension &amp; Relief Fund (collectively, “Lead Plaintiffs”) on behalf of purchasers of Wells Fargo &amp; Co. (“Wells Fargo” or the “Bank”) common stock during the alleged class period February 2, 2018 through March 12, 2020, inclusive. Defendants are Wells Fargo and certain senior executives/directors: Timothy J. Sloan (CEO/President until March 2019), John R. Shrewsberry (CFO), C. Allen Parker (General Counsel; interim CEO March–Oct. 2019), and Elizabeth “Betsy” Duke (Board Chair). The complaint also discusses Charles Scharf (CEO from Oct. 2019) as an “Insider Defendant,” but Count I is pleaded only against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry.
+The alleged misconduct centers on Wells Fargo’s public statements about its compliance with, and progress under, multiple 2018 regulatory consent orders imposed by the Federal Reserve, the OCC, and the CFPB (the “2018 Consent Orders”), including the Federal Reserve’s unprecedented “asset cap” limiting growth until Wells Fargo satisfied a staged remediation process. The complaint alleges that these consent orders required Wells Fargo to (Stage 1) submit written remediation plans acceptable to regulators, (Stage 2) implement approved plans, and (Stage 3) obtain independent third-party validation. Plaintiffs allege that, throughout the class period, Wells Fargo repeatedly failed Stage 1: regulators issued multiple written rejection letters and stern feedback finding the Bank’s Stage 1 submissions “materially incomplete,” lacking “substance and detail,” containing “pervasive inaccuracies” and “illogical timeframes,” and amounting to a “plan for a plan.” Plaintiffs further allege that Wells Fargo’s board and senior leadership received these rejections and rebukes in real time, requested multiple deadline extensions, and privately acknowledged the deficiencies, while publicly telling investors that the Bank had compliant “plans in place,” was “executing” or “implementing” those plans, and was on track to have the asset cap lifted within stated timeframes.
+Key alleged facts supporting falsity and scienter include: (i) Federal Reserve rejection letters (May 7, 2018; March 11, 2019) addressed to Sloan and Duke; (ii) OCC rejection letters (July 24, 2018; Nov. 21, 2018) and later OCC communications criticizing missed deadlines and “poor-quality action plans”; (iii) CFPB communications correcting any implication that plans had been approved; (iv) internal board emails acknowledging the Bank “totally biffed it” and that investors would find rejection “completely unacceptable”; (v) alleged efforts by Sloan and Duke to “tone down” proxy disclosures in March 2019 to avoid revealing “a substantial amount of work remaining” and that the Bank was “not close” to lifting the asset cap; and (vi) later congressional investigations and House Financial Services Committee reports (March 2020) concluding Wells Fargo made “inaccurate,” “incomplete,” and “misleading” public statements unsupported by “facts on the ground,” including testimony that Sloan’s March 12, 2019 congressional statements were inaccurate.
+The complaint pleads that the market was highly focused on the consent orders and asset cap; that the alleged misstatements artificially inflated Wells Fargo’s stock price; and that partial corrective disclosures and risk materializations in 2019–2020 (including extending the asset-cap timeline, withdrawing guidance, and congressional reports/hearings) caused stock-price declines and investor losses (alleged $54 billion in market capitalization decline). The asserted legal claims are: (Count I) violations of Exchange Act §10(b) and Rule 10b-5 against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry; and (Count II) control-person liability under Exchange Act §20(a) against the “Insider Defendants.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Section 11 of the Securities Act (15 U.S.C. § 77k)</t>
+          <t>Exchange Act §10(b) and Rule 10b-5 (against Wells Fargo, Sloan, Parker, Duke, Shrewsberry)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2257,36 +2594,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1. Legal standard. Section 11 imposes liability where a registration statement, at the time it became effective, contained (1) an untrue statement of a material fact, (2) omitted a material fact required to be stated therein, or (3) omitted a material fact necessary to make the statements therein not misleading. Materiality is assessed under the substantial-likelihood standard (a reasonable investor would view the information as significantly altering the total mix). Plaintiffs need not plead scienter, reliance, or loss causation, though they must plead a plausible material misstatement/omission and traceability to the offering. Under Rule 12(b)(6) and the plausibility standard, the Court accepts well-pleaded facts as true and draws reasonable inferences in plaintiffs’ favor. To the extent the complaint sounds in fraud, Rule 9(b) may apply, but plaintiffs expressly disclaim fraud and plead negligence/strict liability; at this stage the Court evaluates whether the allegations plausibly identify actionable misstatements/omissions.
-2. Actionable omission theory plausibly pleaded. Plaintiffs’ theory is not merely that GoHealth later pursued a growth strategy that turned out poorly; it is that, before and at the IPO, management had already planned and begun executing a material strategic shift—an “investment year” involving rapid carrier expansion and increased SNP mix—that carried known, near-term adverse consequences for GoHealth’s key profitability metric (LTV/LTV-CAC), commission rates, marketing costs, and churn/persistency. The complaint pleads with specificity that: (a) GoHealth’s Medicare business was heavily concentrated in Humana and Anthem (74% of total revenue in 1Q20; ~85% of Medicare segment revenue), (b) GoHealth had effectively “maximized” growth under that concentrated model, and (c) adding new carriers would predictably come with lower initial commission rates, less marketing support, integration/training costs, less reliable LTV estimation, and increased churn—factors that directly affect revenue recognition and the commissions receivable asset given GoHealth’s cohort-based LTV accounting.
-These allegations plausibly describe “known trends or uncertainties” and “most significant” offering risks that, if known, would be important to a reasonable investor in evaluating GoHealth’s touted unit economics and growth narrative. The complaint also identifies specific statements in the registration statement that could be rendered misleading by the alleged omissions, including repeated representations that scaling and carrier expansion would “improve” LTV/CAC drivers, that carrier supplementation of marketing/technology investments would support economics, and that GoHealth could “rapidly scale while improving” unit economics. At the pleading stage, plaintiffs plausibly allege that omitting the planned near-term LTV compression, increased churn risk, and materially higher marketing spend associated with the strategic pivot could make these affirmative statements misleading.
-3. Item 303 / Item 105 / SAB 104 theories support Section 11. Plaintiffs also plead that the omitted information was required to be disclosed under Item 303 (known trends/uncertainties reasonably likely to have material effects), Item 105 (most significant risk factors), and SAB 104 (MD&amp;A discussion of revenue drivers and changing trends/customer/channel mix). In this Circuit and others, an Item 303 omission can be actionable under Section 11 where the omitted trend/uncertainty is material and required to be disclosed. The complaint plausibly alleges that (i) management knew of the strategic shift and its near-term economic consequences, (ii) the shift was underway by 2Q20 (ended June 30, 2020) and thus known at effectiveness (July 14, 2020), and (iii) the consequences were reasonably likely to materially affect operating results and key metrics. Similarly, plaintiffs plausibly allege that generic risk disclosures warning that commission rates “may” change or that carrier relationships “could” be harmed were inadequate if the company was already experiencing and planning a near-term period of lower commissions/LTV and higher churn/marketing spend as part of its strategy.
-4. Materiality is plausible. The alleged omissions concern GoHealth’s most important segment (Medicare), its most emphasized metric (LTV/CAC), revenue mix (commissionable vs. non-commissionable), and churn/persistency—all central to valuation. The complaint further alleges a rapid post-IPO stock decline following disclosures about lower LTVs, higher churn, and higher marketing spend. While price movement is not required for Section 11, it supports plausibility of materiality.
-5. Defendants’ principal counterarguments are better suited for later stages. Defendants may argue that the registration statement disclosed carrier concentration, that it discussed plans to expand carrier footprint/geography, and that risk factors warned of commission variability and LTV estimation uncertainty. On a motion to dismiss, however, the Court must assess whether plaintiffs plausibly allege that disclosures were materially incomplete or misleading because they failed to convey that (a) management had already planned 2020 as an “investment year,” (b) near-term LTV compression and lower commission rates were expected as a consequence, and (c) churn/persistency pressures (including low retention in new markets and higher SNP disenrollment) were already being observed. The complaint’s detailed post-IPO quotations attributed to Jones and Matthiesen—describing the investment-year plan as anticipated and modeled—support an inference that these were known at the IPO.
-6. Underwriter and individual-defendant liability. Section 11 provides a cause of action against the issuer, signatories, directors/officers, and underwriters. Plaintiffs adequately plead that the Individual Defendants signed the registration statement and that the Underwriter Defendants acted as underwriters. Whether the underwriters can establish a due-diligence defense is an affirmative defense not resolved on the pleadings.
-Accordingly, the motion to dismiss is denied as to the Section 11 claim.</t>
+          <t>At the pleading stage, Plaintiffs adequately allege (1) materially misleading statements/omissions, (2) scienter, (3) connection with the purchase/sale of securities, (4) reliance (fraud-on-the-market), (5) economic loss, and (6) loss causation.
+Material misstatements/omissions: The complaint pleads numerous specific statements (earnings calls, investor conferences, media appearances, and congressional testimony) asserting or strongly implying that Wells Fargo had compliant plans approved and was “executing”/“implementing” them, and that there was “nothing new to report” in regulator dialogue, while omitting that regulators had formally rejected Stage 1 plans and criticized them as incomplete and inaccurate. Given the centrality of the 2018 Consent Orders and asset cap to Wells Fargo’s operations and earnings, and the alleged contemporaneous investor focus, the alleged non-disclosure of repeated Stage 1 rejections and the Bank’s inability to progress to implementation plausibly concerns information a reasonable investor would view as significantly altering the total mix.
+Scienter: Plaintiffs plead a strong inference of at least deliberate recklessness, if not intent, supported by (i) multiple written rejection letters addressed to senior leadership (including Sloan and Duke), (ii) repeated extension requests acknowledging inability to submit acceptable plans, (iii) internal acknowledgments by directors and alleged regulator warnings of further enforcement, and (iv) alleged affirmative concealment in proxy drafting (“tone down” disclosures) and Sloan’s alleged private apology to the Federal Reserve for mischaracterizations without public correction. These allegations, taken collectively, support a cogent and compelling inference that the speakers knew (or were severely reckless in not knowing) that statements implying Stage 1 approval and Stage 2 execution were misleading.
+Loss causation: Plaintiffs plead a plausible corrective-disclosure/risk-materialization theory tied to stock drops when the market learned, in stages, that the asset cap would persist longer than represented, that guidance on lifting it was withdrawn, that substantial work remained, and later through House reports/hearings detailing the lack of approved plans and misleading prior statements. At this stage, Plaintiffs need not disaggregate all confounding factors with precision; they plausibly link the alleged truth-revelations about regulatory noncompliance/progress to price declines.
+Safe harbor/opinion defenses: Many challenged statements are pleaded as representations of present fact (e.g., that plans were in place and being executed; that there was nothing new in regulator dialogue) rather than protected forward-looking projections. To the extent some statements include timing expectations, Plaintiffs plausibly allege they lacked a reasonable basis given known Stage 1 rejections and extension requests.
+Accordingly, dismissal under Rules 12(b)(6) and the PSLRA is not warranted on the present record.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Section 15 of the Securities Act (15 U.S.C. § 77o) (control person liability)</t>
+          <t>Exchange Act §20(a) control-person liability (against Insider Defendants)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed_in_part</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1. Legal standard. Section 15 imposes joint and several liability on any person who controls a primary violator of Section 11, unless the control person had no knowledge of or reasonable ground to believe in the existence of the facts by reason of which the liability of the controlled person is alleged to exist. At the pleading stage, plaintiffs must plausibly allege (1) a primary violation (here, Section 11) and (2) control.
-2. Primary violation adequately alleged. Because the Section 11 claim survives, the first element is satisfied.
-3. Control adequately alleged as to each Section 15 defendant group.
-(a) Individual Defendants. The complaint alleges Jones and Cruz were co-founders, Co-Chairs, and senior executives, and Matthiesen was CFO; all signed the registration statement. These allegations plausibly support power to direct or influence GoHealth’s management and the contents of the offering materials.
-(b) GoHealth as control person of its officers/employees. Plaintiffs plead GoHealth controlled and directed its senior managers, directors, employees, and agents, including the Individual Defendants, in connection with the registration statement. At the pleading stage, issuer control over its officers for Section 15 purposes is plausibly alleged.
-(c) NVX Holdings and Centerbridge. Plaintiffs plead that GoHealth was a Nasdaq “controlled company” post-IPO, and that NVX Holdings and Centerbridge collectively held majority voting power and exercised significant influence over board composition and corporate decisions. The registration statement itself is quoted as acknowledging that the Founders and Centerbridge would control approximately 70.8% of voting power and would exercise significant influence over management and major transactions. These allegations plausibly plead control.
-4. Knowledge / good-faith defense not resolved now. Any contention that particular control persons lacked knowledge or acted in good faith is fact-intensive and generally not resolved at the motion-to-dismiss stage.
-Accordingly, the motion to dismiss is denied as to the Section 15 claim.</t>
+          <t>Section 20(a) requires a properly pleaded primary violation and plausible control by the defendant, and in this Circuit typically requires culpable participation. Because the §10(b) claim is sustained, the predicate primary violation is adequately alleged.
+However, Count II is pleaded against the “Insider Defendants” as a group, and the complaint’s Count I (primary violation) is asserted only against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry—not against Scharf. To the extent Count II seeks to impose §20(a) liability on individuals not named as primary violators in Count I (notably Scharf), the claim is not adequately tethered to a pleaded primary violation attributable to those persons during the relevant period and is dismissed as to them.
+As to Sloan, Parker, Duke, and Shrewsberry, the complaint plausibly alleges control (senior officer/director roles; authority over public statements and regulatory compliance reporting) and culpable participation (alleged knowledge of rejection letters and regulator feedback; repeated public assurances; alleged involvement in disclosure editing). The §20(a) claim is therefore sustained as to those defendants.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2302,16 +2632,31 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>25523</v>
+        <v>50583</v>
       </c>
       <c r="X20" t="n">
-        <v>2701</v>
-      </c>
+        <v>1791</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nysd_1_21-cv-11222</t>
+          <t>nysd_22-cv-07111</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2324,19 +2669,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Plaintiff DarkPulse, Inc. (“DarkPulse”) is a Delaware corporation with its principal place of business in New York. DarkPulse alleges it is a microcap public company whose stock trades on the OTC market. Defendants are (1) FirstFire Global Opportunities Fund, LLC / FirstFire (an LLC with principal place of business in New York) and (2) Eli Fireman (alleged managing member/controller of FirstFire and related entities). The complaint alleges FirstFire is a “death spiral/toxic” convertible-note lender that is, in substance, an unregistered securities dealer that repeatedly enters into convertible promissory note financings with microcap issuers, converts debt into newly issued issuer shares at a discount (or at a default-reset price), and immediately sells (“dumps”) those shares into the public market for profit.
-The alleged misconduct centers on two convertible note transactions between DarkPulse and FirstFire (collectively, the “DarkPulse Transactions”), and the subsequent conversions and sales of the resulting shares (the “Performance Transactions”).
-1) September 2018 Note/SPA: FirstFire allegedly paid $225,000 and received a note with a face amount of $247,500 plus 8% interest, nine-month maturity, and a conversion right beginning 180 days after purchase at a 30% discount to market (and allegedly using a “20-day low” mechanism that made the effective discount larger). DarkPulse alleges FirstFire began converting on June 7, 2019, and over time executed 18 conversions through February 18, 2021, exchanging $247,500 of debt for 879,400,000 shares. DarkPulse estimates the open-market value of the shares acquired via these conversions at approximately $10.7 million. DarkPulse alleges trading volume increased after conversions, supporting an inference that FirstFire immediately sold the shares into the market.
-2) April 2021 Note/SPA: FirstFire allegedly paid $750,000 for a note with a face amount of $825,000 plus 10% interest, nine-month maturity, a fixed conversion price of $0.015/share that allegedly reset to $0.005/share upon default, and a requirement that DarkPulse issue 60,000,000 “commitment shares” at inception. DarkPulse alleges that on April 26, 2021 the stock traded at about $0.019/share, making the commitment shares worth about $1.14 million. DarkPulse contends this up-front equity consideration, together with the note terms, rendered the loan criminally usurious under New York law. The six-month restriction on the shares allegedly expired October 26, 2021. On November 4, 2021, Fireman allegedly procured DarkPulse’s CEO’s signature on a one-page amendment that, without adequate disclosure, changed the choice-of-law provision from New York to Delaware and was dated October 14, 2021 (the date of the New York Court of Appeals decision in Adar Bays). On November 15, 2021, FirstFire submitted a conversion notice for the full debt plus interest ($886,875) using the $0.005 default price; on November 17, 2021, the transfer agent issued 177,375,000 freely trading shares while the stock allegedly traded at $0.1334/share (estimated value about $23.7 million). DarkPulse disputes it was in default and alleges FirstFire sued in Delaware Chancery to validate the default pricing and seek further penalties.
-The complaint’s core theory is not a traditional investor-fraud theory on behalf of purchasers of DarkPulse stock. Rather, DarkPulse (the issuer/borrower) alleges: (a) FirstFire’s business model constitutes “dealer” activity requiring registration under Exchange Act § 15(a); (b) because FirstFire was unregistered, the notes/SPAs are voidable under Exchange Act § 29(b) as contracts “made” and/or “performed” in violation of the Act; (c) Fireman is liable as a control person under Exchange Act § 20(a); (d) the note terms are criminally usurious under New York law and therefore constitute “unlawful debt” for purposes of civil RICO, and Defendants collected unlawful debt by taking repayment in stock at discounted/reset prices and via commitment shares; and (e) equitable/quasi-contract remedies (unjust enrichment and constructive trust) should require return of shares/profits.
-Key dates alleged include: September 20, 2018 (first note transaction); June 7, 2019 through February 18, 2021 (18 conversions under the first note); April 26, 2021 (second note and issuance of 60,000,000 commitment shares); October 14, 2021 (Adar Bays decision and date on the later amendment); October 26, 2021 (restriction expiration); November 4, 2021 (meeting/amendment signed); November 15, 2021 (conversion notice); November 17, 2021 (transfer agent issues 177,375,000 shares).
-The causes of action pleaded are: (Count I) rescission/voiding under Exchange Act § 29(b) based on § 15(a) violation at contract formation (“made” in violation); (Count II) rescission/voiding under § 29(b) based on § 15(a) violation in performance (conversions/sales); (Count III) Exchange Act § 20(a) control-person liability against Fireman predicated on Counts I–II; (Count IV) civil RICO, 18 U.S.C. § 1962(c), based on collection of “unlawful debt” (New York criminal usury); (Count V) unjust enrichment; and (Count VI) constructive trust. The complaint also seeks declaratory relief and rescissionary remedies, including return/cancellation of shares and disgorgement-like relief.
-Although the user describes the matter as a “securities class action,” the complaint text provided pleads issuer-side claims by DarkPulse and does not plead a purchaser class, a class period, reliance, or market-fraud elements typical of Section 10(b) claims. The operative “period” described is the timeframe of the two financings and subsequent conversions (September 2018 through at least November 2021).</t>
+          <t>Parties: Lead Plaintiffs RTD Bros LLC, Todd Benn, Tom Benn, and Tomasz Rzedzian, plus additional plaintiff Preston Million, sue on behalf of (i) purchasers/acquirers of Lottery.com, Inc. (“Lottery” or “LTRY”) securities during November 19, 2020 through July 29, 2022, and (ii) TDAC stockholders who held TDAC common stock as of October 28, 2021 and were eligible to vote at TDAC’s special meeting on the SPAC business combination. Defendants include Lottery (f/k/a Trident Acquisitions Corp. (“TDAC”)), Lottery officers/directors Lawrence Anthony “Tony” DiMatteo III (CEO/Chair), Ryan Dickinson (President/Treasurer/Acting CFO then CFO), Matthew Clemenson (CCO then CRO), and Kathryn Lever (COO/CLO), and TDAC officers/directors Marat Rosenberg, Vadim Komissarov, Thomas Gallagher, Gennadii Butkevych, and Ilya Ponomarev.
+Business and transaction: TDAC was a SPAC formed to acquire an energy/oil business in Eastern Europe. After repeated deadline extensions and substantial redemptions, TDAC’s trust allegedly dwindled from over $205 million to under $70 million. Plaintiffs allege TDAC’s management faced SPAC-structure pressure and incentives to consummate any deal and thus “rushed” into a merger with Lottery (a non-energy, online lottery-ticket and lottery-data business). The business combination closed October 29, 2021; the combined company traded as “LTRY” beginning November 1, 2021.
+Alleged misconduct and key facts: Plaintiffs allege Defendants made materially false and misleading statements and omissions concerning (1) regulatory compliance in a highly regulated lottery/gaming business, (2) revenue and cash, including recognition of large “LotteryLink Credits”/affiliate marketing credits sales, and (3) adequacy of internal controls over financial reporting. The Proxy/Prospectus (Form 424B3 dated Oct. 18, 2021) soliciting votes for the business combination allegedly touted Lottery’s scale, growth, and projected 2021 revenue (~$71 million), and framed regulatory risks as prospective rather than disclosing existing noncompliance. Post-combination disclosures allegedly continued to tout strong revenue growth, including a reported $32.25 million quarter ended Sept. 30, 2021 driven largely by a $30 million sale of affiliate marketing credits, and later 2021 revenue of $68.5 million “driven” by $47.1 million of LotteryLink Credits. Plaintiffs allege these revenues and cash were materially overstated and that internal controls were inadequate.
+Corrective disclosures and alleged loss causation: Starting July 6, 2022, Lottery disclosed an outside-counsel investigation finding internal accounting control issues and “instances of non-compliance with state and federal laws concerning the state in which tickets are procured as well as order fulfillment,” and disclosed termination of CFO Dickinson. On July 15, 2022, Lottery disclosed a preliminary conclusion it overstated unrestricted cash by about $30 million and “relatedly” improperly recognized revenue in the same amount, and disclosed CRO Clemenson’s resignation. On July 22, 2022, the auditor advised prior 2021 and Q1 2022 financial statements should not be relied upon and disclosed an undisclosed line of credit; CEO DiMatteo resigned. On July 29, 2022, Lottery disclosed going-concern doubt, inability to fund payroll, and furloughs. Plaintiffs allege stock declines followed these disclosures.
+Claims and class period: The complaint asserts (1) Exchange Act §10(b) and Rule 10b-5 against all defendants for alleged misstatements/omissions and scheme conduct during the Class Period (Nov. 19, 2020–July 29, 2022); (2) Exchange Act §20(a) control-person liability for the §10(b) claim against individual defendants; (3) Exchange Act §14(a) and Rule 14a-9 against all defendants based on allegedly misleading proxy solicitation for the October 28, 2021 vote; and (4) Exchange Act §20(a) control-person liability predicated on the §14(a) claim against individual defendants. Plaintiffs plead reliance via fraud-on-the-market (and alternatively Affiliated Ute) and seek damages for purchasers and for TDAC voters allegedly deprived of an informed redemption/vote (claiming they would have redeemed for $10.94 per share).</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Count I — Exchange Act § 29(b) rescission/voiding based on Exchange Act § 15(a) (contract “made” in violation by unregistered dealer)</t>
+          <t>Section 10(b) and Rule 10b-5 (against all Defendants)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2346,15 +2688,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Legal standard. Section 29(b) provides a private right to seek rescission of a contract made in violation of the Exchange Act or whose performance involves such a violation. To plead a § 29(b) claim, a plaintiff must plausibly allege: (1) the existence of a contract; (2) that the contract involves a prohibited transaction or was made in violation of the Exchange Act or rules; (3) that the plaintiff is in contractual privity (or otherwise has standing under the governing circuit’s approach); and (4) that the plaintiff seeks rescission (and can tender/restore consideration as equity requires). When the alleged predicate violation is § 15(a), plaintiff must plausibly allege the defendant was a “dealer” (as opposed to a mere “trader” or investor) and used interstate commerce to effect transactions in securities without registration.
-Application. The complaint pleads two written note/SPA contracts between DarkPulse and FirstFire. It plausibly alleges the notes are “securities” and the transactions are “transactions in securities.” It further pleads that FirstFire (i) repeatedly engages in a regular business of acquiring convertible notes from numerous microcap issuers, (ii) routinely converts into newly issued shares at discounts/reset prices, and (iii) sells those shares into the public market for its own account, generating profits from the spread/markup. Those allegations plausibly support “dealer” status under the Exchange Act’s functional test (regularity of participation, holding itself out, and profiting from trading spreads rather than long-term investment intent). The complaint also pleads interstate commerce use (website, wires, email/telephone) and that FirstFire was not registered.
-At the pleading stage, Defendants’ likely counterarguments (e.g., that FirstFire is merely a private fund/investor; that issuer-side counterparties are not within the protected class; that § 15(a) is enforceable only by the SEC; or that § 29(b) relief is unavailable) do not defeat plausibility. Courts have recognized § 29(b) rescission claims predicated on § 15(a) failures where the plaintiff alleges dealer-like activity and privity. The complaint also pleads rescissionary relief consistent with § 29(b).
-Accordingly, the motion to dismiss is denied as to Count I.</t>
+          <t>Accepting the pleaded facts as true and applying the PSLRA and Rule 9(b), the complaint adequately pleads (i) actionable misstatements/omissions, (ii) materiality, (iii) a strong inference of scienter at least as to the Lottery-side executives, and (iv) loss causation.
+Misstatements/omissions: Plaintiffs identify specific statements in SEC filings and press releases concerning (a) regulatory compliance/working closely with regulators, (b) reported revenues and revenue drivers (including the $30 million affiliate marketing credits/LotteryLink Credits transactions), (c) cash balances, and (d) internal controls/SOX certifications. The July 2022 disclosures plausibly support that earlier statements were misleading because the Company later disclosed noncompliance with procurement/fulfillment laws and that it overstated cash by ~$30 million and improperly recognized revenue in the same amount, and its auditor advised prior financials should not be relied upon. At the pleading stage, these allegations are sufficiently particularized and plausibly material.
+Scienter: The complaint pleads that the alleged $30 million overstatement constituted a very large portion of reported cash and revenue and was tied to a single dominant customer relationship, supporting a strong inference that senior officers responsible for finance/revenue either knew of, or were deliberately reckless in not knowing of, the improper recognition and cash overstatement. The termination/resignations of the CFO, CRO, and CEO in close temporal proximity to the investigation and nonreliance disclosures further support scienter. While motive alone is insufficient, the pleaded magnitude, centrality to reported results, and subsequent admissions/nonreliance collectively support a strong inference at this stage.
+Loss causation: Plaintiffs plead a plausible causal connection between alleged corrective disclosures (July 6, July 15, July 22, and July 29, 2022) and price declines. That is sufficient at the motion-to-dismiss stage.
+To the extent Plaintiffs premise §10(b) liability on the Proxy’s forward-looking projections, Defendants may later argue safe harbor/bespeaks caution and immaterial puffery. But the core alleged falsity here is not merely optimistic projections; it is alleged improper recognition of revenue/cash and undisclosed compliance failures, which are not protected by the safe harbor when pleaded as false statements of present or historical fact or when made with actual knowledge of falsity. Accordingly, dismissal is not warranted on the pleadings.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Count II — Exchange Act § 29(b) rescission/voiding based on Exchange Act § 15(a) (contract “performed” in violation by unregistered dealer through conversions/sales)</t>
+          <t>Section 20(a) control-person liability (predicated on Section 10(b)) (against Individual Defendants)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2364,96 +2707,73 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Legal standard. Section 29(b) also reaches contracts whose performance “involves” a violation of the Exchange Act or the continuance of a violative practice. The plaintiff must plausibly allege that performance of the specific contract required or necessarily involved the unlawful conduct, not merely that unlawful conduct occurred in parallel.
-Application. The complaint alleges that performance of the notes necessarily involved FirstFire’s exercise of conversion rights (debt-for-equity exchanges) and subsequent sales of the conversion shares into the market, and that each conversion/sale constituted securities transactions effected by an unregistered dealer using interstate commerce. The complaint provides detailed conversion dates, amounts of debt converted, and shares issued, and alleges immediate market dumping consistent with the business model. These factual allegations plausibly plead that the contracts’ performance involved the alleged § 15(a) violation.
-Defendants may argue that conversion and resale were optional, not required, and thus performance did not “involve” a violation. At the pleading stage, however, the complaint plausibly alleges the conversion-and-resale mechanism is the economic heart of the contracts and the means by which FirstFire conducted its regular dealer-like business, making the alleged § 15(a) violation sufficiently tied to performance to support § 29(b) relief.
-Accordingly, the motion to dismiss is denied as to Count II.</t>
+          <t>Because the §10(b) claim is adequately pleaded, the complaint also plausibly alleges control-person liability under §20(a) as to the identified officers/directors who allegedly had power to control the Company’s public statements and reporting. The complaint pleads their positions, involvement in signing filings, and authority over dissemination of statements. At this stage, those allegations suffice to plead control, and Defendants’ good-faith/non-culpable participation defenses are fact-bound and not resolved on a motion to dismiss.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Count III — Exchange Act § 20(a) control-person liability (Fireman)</t>
+          <t>Section 14(a) and Rule 14a-9 (proxy misstatements/omissions) (against all Defendants)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>sustained</t>
+          <t>dismissed_in_part</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Legal standard. To plead § 20(a) liability, a plaintiff must allege (1) a primary violation of the Exchange Act by the controlled person/entity; (2) control by the defendant over the primary violator; and (3) culpable participation (in circuits requiring it) or at least facts supporting that the control person had the power to direct the management and policies of the primary violator and was a meaningful participant in the alleged misconduct. A control person may avoid liability by pleading/proving good faith and lack of inducement, but that is generally not resolved on a motion to dismiss unless the complaint itself establishes the defense.
-Application. Because Counts I and II (primary violations via § 29(b) predicated on § 15(a)) survive, the complaint adequately pleads a primary violation for § 20(a) purposes. The complaint alleges Fireman was the managing member/controller of FirstFire and related entities; personally negotiated terms; signed the contracts; directed conversions/sales; and procured the alleged choice-of-law amendment timed to Adar Bays. These allegations plausibly plead control and participation.
-Accordingly, the motion to dismiss is denied as to Count III.</t>
+          <t>The §14(a) claim is sustained to the extent it is based on alleged misstatements/omissions of existing facts in the Proxy that were material to the October 28, 2021 vote—particularly alleged omissions that Lottery was already experiencing regulatory noncompliance and that reported/prospective revenue and internal-control representations were misleading in light of improper revenue recognition and inadequate controls.
+However, the claim is dismissed to the extent it rests solely on generalized risk-factor language, optimistic characterizations, or forward-looking projections without adequately pleading that the Proxy’s forward-looking statements were false when made and that the alleged omissions rendered the specific proxy statements misleading as opposed to describing contingent future risks. The complaint pleads later admissions of noncompliance and improper revenue recognition, which plausibly supports falsity as to some proxy statements, but portions of the proxy excerpts quoted are framed as cautionary/contingent regulatory risk disclosures; standing alone, such warnings are not actionable absent well-pleaded facts showing they were misleading because the warned-of risk had already materialized and was known but concealed. Plaintiffs plead that proposition generally; to the extent particular proxy statements are purely cautionary and not rendered misleading by a pleaded contemporaneous contrary fact, they are not actionable.
+Causation: Plaintiffs adequately plead transaction causation (the proxy solicitation allegedly caused shareholders to vote/forgo redemption) at this stage. Any further disputes about economic loss attributable to the proxy (as distinct from post-merger market losses) are more appropriately addressed on a fuller record.</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Count IV — Civil RICO, 18 U.S.C. § 1962(c) (conducting an enterprise through collection of unlawful debt)</t>
+          <t>Section 20(a) control-person liability (predicated on Section 14(a)) (against Individual Defendants)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>dismissed</t>
+          <t>dismissed_in_part</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Legal standard. A civil RICO claim under § 1962(c) requires allegations of (1) conduct (2) of an enterprise (3) through a pattern of racketeering activity or collection of unlawful debt, plus (4) injury to business or property (5) by reason of the RICO violation (proximate causation). Where the theory is “collection of unlawful debt,” plaintiff must plausibly allege a debt (a) incurred in connection with the business of lending money at a usurious rate, (b) which is unenforceable under state or federal usury laws, and (c) which was incurred at an interest rate at least twice the enforceable rate. The complaint must also satisfy Rule 8 plausibility; and to the extent it relies on fraudulent concealment (e.g., the amendment), Rule 9(b) may apply to those particular averments.
-Application. The complaint’s RICO theory depends on treating the conversion discount, OID, and commitment shares as “interest” under New York criminal usury law, and then asserting the resulting APR exceeded twice the legal rate. Even assuming New York usury principles apply and that certain equity-linked consideration can be treated as interest (as discussed in Adar Bays), the complaint does not plausibly plead the key RICO “unlawful debt” predicates with the precision necessary to show the debt was unenforceable for criminal usury and incurred at twice the enforceable rate.
-First, the complaint’s APR calculations are conclusory and appear to add disparate components (stated interest, OID, conversion discount, and commitment-share value) without pleading nonconclusory facts showing how each component qualifies as “interest” for criminal usury purposes on these specific instruments, and without pleading the necessary valuation methodology at the time of contracting (including volatility/contingency and whether the conversion feature’s value is sufficiently ascertainable at inception). Adar Bays recognizes that a conversion option’s value may be considered, but it does not eliminate the requirement to plead a plausible valuation and to address contingencies.
-Second, the complaint pleads that the April 2021 note had a fixed conversion price ($0.015) that would reset to $0.005 only upon default, and it alleges a dispute over whether a default occurred. For RICO “unlawful debt,” the debt must be unenforceable under usury law as incurred; where the usury theory depends materially on a contingent default reset and disputed default, the complaint must plead facts making it plausible that the usurious rate was charged/taken/received as interest within the meaning of NY Penal Law § 190.40, not merely that the lender later asserted a default price.
-Third, the complaint’s “enterprise” allegations are also deficient. It alleges “FirstFire Lending Enterprise” essentially as FirstFire plus Fireman, but does not plausibly plead an enterprise distinct from the person (where required) or facts showing an association-in-fact enterprise with a structure and existence beyond the alleged predicate acts. The pleadings largely collapse the enterprise into the defendant entity and its principal.
-Fourth, causation and injury are pleaded in broad strokes (dilution, price depression, inability to raise funds) without nonconclusory allegations tying those damages to the RICO violation (collection of unlawful debt) as opposed to ordinary consequences of dilutive financing and market trading.
-For these reasons, Count IV is dismissed. Dismissal is without prejudice to replead if plaintiff can allege a plausible usury/unlawful-debt theory with adequate valuation facts and enterprise/cause allegations.</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Count V — Unjust enrichment (state law)</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>dismissed_in_part</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Legal standard. Under New York law (as most plausibly implicated by the pleadings), unjust enrichment requires (1) defendant was enriched, (2) at plaintiff’s expense, and (3) equity and good conscience require restitution. However, unjust enrichment is generally unavailable where the parties’ relationship is governed by a valid, enforceable contract covering the subject matter. It may be pleaded in the alternative at the motion-to-dismiss stage where contract validity is genuinely in dispute.
-Application. The complaint alleges FirstFire was enriched by receiving and selling large quantities of DarkPulse shares obtained via the notes’ conversion mechanisms and commitment shares. It also alleges the contracts are void/voidable under Exchange Act § 29(b) due to § 15(a) violations. Because the Court sustains the § 29(b) rescission claims, the complaint plausibly places contract enforceability/voidability at issue such that quasi-contract may be pleaded in the alternative at this stage.
-But the complaint’s unjust enrichment count is impermissibly overbroad to the extent it seeks to recover benefits that are expressly governed by the parties’ written agreements and to the extent it duplicates the rescissionary remedy sought under § 29(b) without identifying any enrichment independent of the contractual exchange. Equity-based restitution may be available as an incident of rescission, but an independent unjust enrichment claim is not sustained insofar as it is merely a repackaging of contract remedies while simultaneously relying on the contracts’ terms.
-Accordingly, the motion is granted in part and denied in part: the unjust enrichment claim is dismissed to the extent it is predicated on enforcing or re-allocating contractual consideration under valid contracts, but it is sustained as an alternative restitutionary theory contingent on plaintiff prevailing on its contract-voiding/rescission theory under § 29(b).</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Count VI — Constructive trust (state law equitable remedy)</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>dismissed</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>Legal standard. A constructive trust is an equitable remedy, not an independent cause of action in many jurisdictions, and under New York law typically requires allegations of (1) a confidential or fiduciary relationship, (2) a promise, (3) a transfer in reliance on the promise, and (4) unjust enrichment. Courts may relax these elements, but the remedy is generally reserved for situations involving a special relationship and wrongful retention of specific property.
-Application. The complaint does not plausibly allege a confidential or fiduciary relationship between a microcap issuer and an arm’s-length lender/counterparty in a negotiated financing. The alleged conduct (predatory terms, unregistered dealer status, and disputed amendment) may support statutory rescission and restitution, but it does not convert the relationship into the type that supports a constructive trust. In addition, the complaint seeks a constructive trust over broadly defined categories of shares/proceeds without adequately tracing specific identifiable property currently held by defendants (as opposed to proceeds already sold into the market).
-Because constructive trust is not plausibly pleaded as a standalone claim on these facts, Count VI is dismissed. Plaintiff may pursue equitable restitutionary relief through § 29(b) rescission and, to the extent sustained, alternative unjust enrichment.</t>
-        </is>
-      </c>
+          <t>Because the §14(a) claim is sustained only in part, the §20(a) claim predicated on §14(a) is likewise sustained only to the same extent. The complaint plausibly alleges control over the Proxy’s contents by the TDAC directors/officers who signed the Proxy and Lottery executives alleged to have furnished information for inclusion. But to the extent the underlying §14(a) theory is dismissed (i.e., based solely on non-actionable projections/puffery/cautionary risk language not rendered misleading by pleaded contrary facts), the derivative §20(a) claim is dismissed in parallel.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>10905</v>
+        <v>27222</v>
       </c>
       <c r="X21" t="n">
-        <v>4009</v>
-      </c>
+        <v>2218</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nysd_20_cv_04494</t>
+          <t>nysd_22_cv_10292</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2466,19 +2786,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>This putative securities-fraud class action is brought by four institutional lead plaintiffs—Handelsbanken Fonder AB, the Public Employees’ Retirement System of Mississippi, the State of Rhode Island (Employees’ Retirement System), and the Louisiana Sheriffs’ Pension &amp; Relief Fund—on behalf of purchasers of Wells Fargo &amp; Co. (“Wells Fargo” or the “Bank”) common stock during the alleged class period.
-Defendants are Wells Fargo and certain senior executives/directors (the “Insider Defendants”), principally: Timothy J. Sloan (CEO/President through March 2019; also director), John R. Shrewsberry (CFO), C. Allen Parker (General Counsel; interim CEO March–Oct. 2019), and Elizabeth “Betsy” Duke (Board Chair; director; regulator liaison). The complaint also describes Charles Scharf (CEO from Oct. 2019) but Count I is pleaded against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry.
-The alleged fraud centers on Wells Fargo’s public statements about its compliance with, and progress under, a set of punitive regulatory consent orders imposed in 2018 by the Federal Reserve, the OCC, and the CFPB (collectively, the “2018 Consent Orders”). The Federal Reserve’s 2018 consent order imposed an unprecedented “asset cap” restricting Wells Fargo’s balance-sheet growth until the Bank completed a three-stage remediation process: (1) submission and regulator approval of acceptable written plans (“Stage 1”); (2) implementation/execution of approved plans (“Stage 2”); and (3) independent third-party validation (“Stage 3”). The OCC/CFPB orders similarly required acceptable Stage 1 plans, then execution and validation.
-Plaintiffs allege that throughout the class period defendants repeatedly represented to investors that Wells Fargo had “plans in place,” was “executing” or “implementing” those plans, was “in compliance,” and was on track to have the asset cap lifted within stated timeframes. According to the complaint, these statements were materially false and misleading because, internally and in regulator communications, Wells Fargo had not cleared Stage 1: the Regulators repeatedly rejected Wells Fargo’s Stage 1 submissions as “materially incomplete,” lacking “substance and detail,” containing “pervasive inaccuracies,” and reflecting “illogical timeframes”—in the Regulators’ view sometimes amounting to a “plan for a plan.” Plaintiffs allege defendants received a “steady stream” of rejection letters, meeting feedback, and rebukes, including warnings of possible additional enforcement action.
-Key factual allegations supporting falsity and scienter include: (i) specific rejection letters, including the Federal Reserve’s May 7, 2018 rejection of the April 3, 2018 Stage 1 submission as “materially incomplete,” and the Federal Reserve’s March 11, 2019 rejection of a revised Stage 1 plan as still “materially incomplete,” with “pervasive inaccuracies” and a warning that a third failure could prompt “additional actions”; (ii) the OCC’s July 24, 2018 rejection for lack of “substance and detail,” and a November 21, 2018 rejection of a remediation plan as “not adequately supported”; (iii) internal board emails acknowledging the submission “totally biffed it” and that investors would find the failure “completely unacceptable”; (iv) repeated extension requests to regulators for Stage 1 submissions; (v) allegations that Sloan and Duke “toned down” draft proxy disclosures in March 2019 to avoid revealing that the Bank was “not close to lifting of the asset cap,” including removing language that a “substantial amount of work” remained; (vi) allegations that Sloan gave “inaccurate and misleading” testimony to Congress on March 12, 2019 about compliance and later privately apologized to the Federal Reserve; and (vii) subsequent public admissions by new management (including Scharf) that substantial work remained.
-The complaint pleads market focus and materiality by emphasizing the centrality of the asset cap to Wells Fargo’s earnings and valuation, and cites analyst reports and market reactions. It alleges a series of partial corrective disclosures and risk materializations from January 2019 through March 2020, including: (1) January 15, 2019 earnings call extending expected duration of the asset cap through end of 2019; (2) April 12, 2019 statements withdrawing guidance and acknowledging “substantial” work remained; (3) January 14, 2020 earnings call admissions by Scharf that the Bank had “a great deal” of work left and had not addressed shortcomings; and (4) March 2020 House Financial Services Committee reports and hearings, board resignations, and related disclosures, after which the stock declined sharply. Plaintiffs allege more than $54 billion in market capitalization was lost as the truth emerged.
-Legal claims asserted are: (Count I) violations of Exchange Act §10(b) and Rule 10b-5 against Wells Fargo, Sloan, Parker, Duke, and Shrewsberry; and (Count II) control-person liability under Exchange Act §20(a) against the Insider Defendants.
-The alleged class period is February 2, 2018 through March 12, 2020, inclusive. Significant dates include: February 2, 2018 (Federal Reserve consent order and asset cap announced); April 3, 2018 (initial Stage 1 plan due to Federal Reserve); May 7, 2018 (Federal Reserve rejection letter); July 24, 2018 (OCC rejection letter); November 21, 2018 (OCC rejection letter); March 11–12, 2019 (Federal Reserve rejection letter and Sloan congressional testimony); March 28, 2019 (Sloan resignation announced); April 12, 2019 (Parker statements withdrawing timing guidance); October 2019 (Scharf becomes CEO); January 14, 2020 (earnings call admissions); March 4–12, 2020 (House reports/hearings and market declines).</t>
+          <t>Parties: Lead Plaintiff Steven Christiansen brings a putative Exchange Act class action on behalf of purchasers of Spectrum Pharmaceuticals, Inc. (“Spectrum”) common stock. Defendants are Spectrum and three senior executives: Thomas J. Riga (President/CEO, and interim principal financial officer for part of the period), Francois J. Lebel (EVP/CMO), and Nora E. Brennan (EVP/CFO; former director/audit chair).
+Class period: March 17, 2022 through September 22, 2022, inclusive.
+Core allegations and key facts: The case concerns Spectrum’s NDA seeking FDA accelerated approval (“AA”) for poziotinib (“pozi”) to treat previously treated NSCLC with HER2 exon 20 insertion mutations. Plaintiff alleges Defendants misled investors about (i) dose optimization (whether Spectrum had adequate data to support the proposed dosing regimens), (ii) FDA alignment on the design/dose of the required Phase 3 confirmatory trial (the “PINNACLE” study), and (iii) the status of PINNACLE enrollment.
+Plaintiff pleads that, before and throughout the class period, the FDA repeatedly communicated to Spectrum (principally through Riga/Lebel) that Spectrum’s dosing data were inadequate; that additional data and studies were needed to determine an optimal dose; that efficacy was marginal and toxicity high; that the confirmatory trial should be substantially enrolled at the time of AA; and that FDA did not reach agreement on Spectrum’s plan to run PINNACLE at an “incongruent” dose (8 mg BID) while seeking AA for 16 mg QD. Despite this, Plaintiff alleges Defendants made public statements suggesting Spectrum had “learned to optimize” dosing, that it was “aligned” with FDA on the confirmatory trial design, and that PINNACLE was underway and enrolling (e.g., “patients are being randomized”), when in fact (per the later FDA briefing document and ODAC meeting) PINNACLE had enrolled zero patients as of September 2022 and FDA had warned Spectrum it proceeded “at its own risk.”
+Alleged misstatements/omissions highlighted include: (1) March 17, 2022 call: Riga stated Spectrum had learned to “optimize” tolerability with BID dosing; (2) May 12, 2022 press release/call: statements that PINNACLE had been initiated and “patients are being randomized,” and Riga’s statement Spectrum was “obviously aligned with FDA” on the 8 mg BID confirmatory study; (3) August 11, 2022 press release/call: repeated “patients are being randomized” language and Lebel’s responses implying active enrollment progress while declining to provide numbers; (4) Form 10-Q risk disclosures characterizing enrollment delays as hypothetical (“may be delayed”) despite alleged known, existing failure to enroll and FDA concerns; and (5) June 16, 2022 conference remarks that Spectrum was on the “cusp” of approval.
+Motive/financing allegations: Plaintiff alleges Spectrum faced a cash runway issue and used an at-the-market (“ATM”) facility to sell millions of shares during the class period, raising cash while the stock price was allegedly inflated by the challenged statements. Plaintiff also pleads small insider sales by Lebel and Brennan.
+Corrective disclosures and loss causation: Plaintiff alleges the truth emerged beginning September 20, 2022 when FDA released the ODAC briefing document disclosing longstanding FDA concerns about dose optimization, efficacy/safety, lack of agreement on the confirmatory trial dose, and that PINNACLE had enrolled no patients. Spectrum’s stock fell about 37% on September 20. On September 22, 2022 ODAC held a public meeting; FDA officials stated no formal agreement existed on 8 mg BID and that proceeding was at Spectrum’s risk; Lebel acknowledged no patients enrolled; ODAC voted 9–4 that benefits did not outweigh risks. When trading resumed September 23, the stock fell an additional ~31%. (A later November 25, 2022 CRL is pleaded as confirmatory background, though outside the class period.)
+Legal claims: (Count I) Section 10(b) and Rule 10b-5 against all Defendants based on alleged material misstatements/omissions and deceptive scheme; (Count II) Section 20(a) control-person liability against the individual Defendants predicated on the primary violation.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (against Wells Fargo, Sloan, Parker, Duke, Shrewsberry)</t>
+          <t>Count I — Section 10(b) and Rule 10b-5 (against Spectrum, Riga, Lebel, Brennan)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2488,21 +2808,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under §10(b) and Rule 10b-5, plaintiffs must plausibly allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA and Rule 9(b), falsity must be pleaded with particularity, and scienter must be pleaded with facts giving rise to a strong inference that is cogent and at least as compelling as any opposing inference.
-1. Material misrepresentation/omission. The complaint identifies numerous specific statements by named speakers (Sloan, Shrewsberry, Parker, Duke) in earnings calls, investor conferences, media interviews, and congressional testimony, and alleges why each was false or misleading when made. The core theory is not mere “regulatory risk” or generalized optimism; it is that defendants affirmatively represented (or implied) that Wells Fargo had regulator-approved plans and was executing/implementing them—i.e., that the Bank had progressed beyond Stage 1—while contemporaneous regulator communications repeatedly rejected Stage 1 submissions as incomplete and unacceptable.
-At the pleading stage, plaintiffs adequately allege falsity in two ways: (a) by pleading the content and timing of specific rejection letters and regulator feedback (e.g., May 7, 2018 and March 11, 2019 Federal Reserve rejections; July 24, 2018 and November 21, 2018 OCC rejections) that directly contradict public assertions of being in “execution/implementation” or having “plans in place”; and (b) by alleging internal admissions (board emails and regulator-relations communications) acknowledging the submissions were deficient and not approved. These allegations plausibly support that statements about being “in compliance,” “executing,” “implementing,” or that investors knew “everything material,” were misleading because they omitted the critical fact that Stage 1 approval had not been obtained and that regulators had rejected the submissions.
-Materiality is plausibly alleged. The asset cap and consent-order compliance were repeatedly described as central to Wells Fargo’s financial performance and growth; analysts and investors asked directly about timing and progress; and the complaint pleads that disclosure of rejections and lack of Stage 1 approval would significantly alter the total mix of information. At this stage, the Court cannot hold as a matter of law that the alleged misstatements were immaterial puffery. Many challenged statements are concrete representations about regulatory status (approval, compliance, execution stage) and timing, not vague corporate optimism.
-To the extent some statements are forward-looking (e.g., projected timing for lifting the asset cap), plaintiffs plausibly plead they were misleading because defendants allegedly lacked a reasonable basis given repeated Stage 1 rejections and extension requests, and the complaint pleads facts supporting actual knowledge of contrary information. The PSLRA safe harbor does not warrant dismissal on this record because plaintiffs allege both (i) contemporaneous facts undermining the projections and (ii) knowing misstatements, which, if proven, would defeat safe-harbor protection.
-2. Scienter. Plaintiffs plead a strong inference of scienter as to the individual defendants named in Count I. The complaint alleges that key rejection letters were addressed to Sloan and Duke; that senior executives and the Board were repeatedly briefed; that Duke served as chair and regulator point of contact; and that Shrewsberry and Parker were involved in regulator interactions and public communications. The allegations include: repeated written rejections; explicit warnings of further enforcement action; internal board emails acknowledging failure; repeated extension requests; and alleged active concealment (editing proxy disclosures to remove “substantial” work remaining). Sloan’s alleged private apology to the Federal Reserve for mischaracterizations further supports an inference of consciousness of wrongdoing.
-Considering these allegations holistically, the inference that defendants knowingly or recklessly misled investors about the Bank’s stage of compliance and regulator approval is at least as compelling as innocent explanations (e.g., misunderstanding of regulatory “stages” or mere corporate optimism). At the pleading stage, the PSLRA’s “strong inference” requirement is satisfied.
-3. Reliance. Plaintiffs invoke the fraud-on-the-market presumption (Basic) and also plead omissions (Affiliated Ute). Wells Fargo stock traded on the NYSE in an alleged efficient market with analyst coverage and prompt price reaction. At the motion-to-dismiss stage, these allegations suffice to plead reliance.
-4. Loss causation and economic loss. Plaintiffs plead a series of alleged corrective disclosures and/or materializations of the concealed risk, with associated stock-price declines, including January 15, 2019 (asset-cap extension), April 12, 2019 (withdrawal of timing guidance and acknowledgment of substantial work), January 14, 2020 (admissions of significant remaining work and underperformance), and March 2020 (House reports, hearings, resignations, and related revelations). While defendants may later contest whether broader market forces contributed to the declines—particularly in March 2020—loss causation is a fact-intensive inquiry, and the complaint plausibly alleges that the disclosures revealed the truth about the lack of Stage 1 approval and the extent of noncompliance, thereby removing inflation. At this stage, plaintiffs need not disaggregate losses with precision.
-Accordingly, the motion to dismiss is denied as to Count I.</t>
+          <t>At the pleading stage, the complaint plausibly alleges actionable misstatements/omissions, scienter, and loss causation under the PSLRA.
+Material misstatements/omissions: The complaint identifies specific, dated statements in press releases, earnings calls, and conferences asserting (a) dose optimization had been achieved/learned, (b) FDA “alignment” on the confirmatory trial design/dose, and (c) that PINNACLE had been initiated and that “patients are being randomized.” Those are concrete assertions of present fact (or mixed present-fact/near-term status) rather than inactionable puffery. The alleged contrary facts—repeated FDA communications that dose optimization data were inadequate, lack of agreement on the 8 mg BID regimen, FDA warnings that proceeding was “at [Spectrum’s] risk,” and zero patient enrollment—are plausibly material to investors because they bear directly on the likelihood and timing of AA and the viability of the confirmatory trial the FDA had emphasized must be substantially enrolled.
+PSLRA falsity: Plaintiff pleads a coherent theory of falsity supported by later public FDA materials (ODAC briefing document and meeting transcript) describing what FDA had communicated during development and confirming, as of September 2022, no PINNACLE enrollment. Those allegations are sufficiently particular to support an inference that statements implying enrollment (“patients are being randomized”) and FDA alignment were false when made.
+Scienter: The complaint pleads a strong inference that Riga and Lebel, as the executives directly interacting with FDA on the NDA/confirmatory trial, knew (or were deliberately reckless in not knowing) that FDA had not agreed to the 8 mg BID design and that enrollment had not begun. The FDA communications are alleged to have occurred in multiple meetings (including before and during the class period), making it plausible the speakers were aware of the contrary facts when making categorical public assurances. The alleged ATM financings during the class period and the company’s cash needs provide some additional motive context (though motive is not required). As to corporate scienter, the pleaded knowledge of senior officers who made/approved the statements is sufficient at this stage.
+Loss causation: Plaintiff pleads a plausible causal link between the alleged fraud and the stock drops on September 20 and September 23, 2022, tied to the FDA briefing document and ODAC proceedings revealing the specific concealed risks (dose optimization inadequacy, lack of FDA agreement, and zero enrollment). The magnitude and timing of the declines, as pleaded, support a plausible inference of corrective disclosure.
+Accordingly, dismissal is denied as to the Section 10(b)/Rule 10b-5 claim.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability) (against Insider Defendants)</t>
+          <t>Count II — Section 20(a) control-person liability (against Riga, Lebel, Brennan)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2512,11 +2828,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Legal standard. To state a §20(a) claim, plaintiffs must plausibly allege: (1) a primary violation of the securities laws by the controlled person; and (2) that the defendant exercised actual power or control over the primary violator. Many courts also require culpable participation, though the precise formulation varies by circuit; at the pleading stage, allegations of control coupled with particularized allegations tying the defendant to the challenged statements typically suffice.
-1. Primary violation. Because the §10(b) claim survives, plaintiffs have adequately pleaded a predicate primary violation by Wells Fargo.
-2. Control. The complaint alleges that Sloan (CEO/director), Shrewsberry (CFO), Parker (GC/interim CEO/director), and Duke (Board Chair/director/regulator liaison) had authority over Wells Fargo’s public statements and disclosures and were involved in communications with regulators and oversight of consent-order compliance. These allegations plausibly plead control over the company and over the alleged misstatements.
-3. Culpable participation / scienter-related allegations. Even assuming culpable participation is required, the complaint pleads facts supporting it: receipt of rejection letters, repeated regulator rebukes, internal acknowledgments, extension requests, and alleged intentional “toning down” of proxy disclosures. Those allegations plausibly support that the Insider Defendants were not merely passive officers/directors but were involved in, or at least recklessly disregarded, the dissemination of misleading statements.
-Accordingly, the motion to dismiss is denied as to Count II.</t>
+          <t>Because the complaint adequately pleads a primary violation under Section 10(b) and plausibly alleges that the individual defendants, by virtue of their senior executive and/or board roles and authority over Spectrum’s public statements and SEC filings, had the power to control the company’s disclosures, the Section 20(a) claim is adequately pleaded at this stage. Any arguments about lack of culpable participation or good faith present fact issues not suitable for resolution on the pleadings on this record. The motion to dismiss Count II is therefore denied.</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -2532,16 +2844,31 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>50830</v>
+        <v>23751</v>
       </c>
       <c r="X22" t="n">
-        <v>2833</v>
-      </c>
+        <v>1697</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nysd_22_cv_10292</t>
+          <t>nysd_23_cv_9476</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2554,23 +2881,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lead Plaintiff Steven Christiansen brings this putative securities-fraud class action on behalf of all purchasers of Spectrum Pharmaceuticals, Inc. (“Spectrum”) common stock during March 17, 2022 through September 22, 2022, inclusive (the “Class Period”). Defendants are (1) Spectrum; (2) Thomas J. Riga, Spectrum’s President/CEO and director; (3) Francois J. Lebel, EVP and Chief Medical Officer; and (4) Nora E. Brennan, EVP and CFO (and former director).
-The complaint centers on Spectrum’s efforts to obtain FDA Accelerated Approval (“AA”) for poziotinib (“pozi”), a tyrosine kinase inhibitor for previously treated non-small cell lung cancer with HER2 exon 20 insertion mutations. Spectrum sought AA for a 16 mg once-daily (“16 mg QD”) dose based primarily on Phase 2 “Cohort 2” data, while proposing to run a required postmarketing confirmatory Phase 3 trial (the “PINNACLE Study”) at a different regimen, 8 mg twice daily (“8 mg BID”). The complaint alleges that, before and throughout the Class Period, the FDA repeatedly told Spectrum (including Riga and/or Lebel) that Spectrum’s dose-optimization data were inadequate; that additional data/studies were needed to justify the 16 mg QD AA dose and to support the 8 mg BID confirmatory-trial regimen; that the efficacy was marginal and not superior to available therapies; that toxicity was high; and that proceeding with an incongruent confirmatory-trial dose was “at [Spectrum’s] own risk.”
-Against that backdrop, Plaintiff alleges Defendants made materially false and misleading statements and omissions to investors about (i) dose optimization and FDA alignment, and (ii) the status of PINNACLE enrollment, while Spectrum—allegedly cash-constrained—sold substantial amounts of stock through an at-the-market (“ATM”) program and certain insiders sold small amounts.
-Key alleged misstatements/omissions include:
-- March 17, 2022 earnings call: Riga stated Spectrum had “learned to optimize” tolerability/adverse events with BID dosing, creating the impression dosing was optimized, when (per the complaint) the FDA had repeatedly said the dosing data were inadequate.
-- May 12, 2022 press release and earnings call: Defendants described PINNACLE as initiated and represented “Patients are being randomized” to 8 mg BID vs docetaxel, and Riga stated Spectrum was “obviously aligned with FDA” on the confirmatory study dosing/design. Plaintiff alleges these statements were false because, as of May 12, 2022, no patients had enrolled, and the FDA had not agreed to the 8 mg BID design and warned Spectrum it was proceeding at its own risk.
-- May 12, 2022 and August 12, 2022 Forms 10-Q: Defendants included generic risk disclosures that trials “may be delayed,” but (per the complaint) failed to disclose that the risk had already materialized: PINNACLE had enrolled no patients and FDA had expressed concern about delayed enrollment; and failed to disclose known uncertainties under Item 303 (dose optimization deficiencies, lack of FDA agreement on confirmatory-trial design, and the absence of enrollment).
-- June 16, 2022 investor conference: Riga stated Spectrum was on “the cusp” of FDA approvals, allegedly misleading given the FDA’s communicated concerns and PINNACLE’s non-enrollment.
-- August 11, 2022 press release and earnings call: Defendants again stated “Patients are being randomized” and described the confirmatory study as “underway.” When asked about enrollment, Lebel declined to provide numbers and spoke as though active enrollment efforts were progressing; Plaintiff alleges this was misleading because no patients had enrolled and FDA concerns persisted.
-The alleged corrective disclosures occurred in two steps. First, on September 20, 2022, the FDA released its ODAC briefing document ahead of a September 22, 2022 ODAC meeting. The briefing materials disclosed (as characterized in the complaint) that FDA had long-standing, reiterated concerns about dose optimization, efficacy, and toxicity; that FDA had not reached agreement on the 8 mg BID confirmatory-trial dose; and that PINNACLE had not enrolled any patients. Spectrum’s stock allegedly fell from $1.06 (Sept. 19) to $0.66 (Sept. 20) (about -37%). Second, at the September 22, 2022 ODAC meeting (in which Lebel participated), FDA officials publicly stated there was no formal agreement on 8 mg BID and that proceeding was at Spectrum’s risk; Lebel acknowledged no patients were enrolled; and ODAC voted 9–4 that benefits did not outweigh risks. When trading resumed September 23, 2022, the stock fell from $0.63 (Sept. 21) to $0.43 (Sept. 23) (about -31%).
-The complaint also alleges motive and opportunity, emphasizing Spectrum’s precarious cash position and ATM sales during the Class Period (alleged proceeds of roughly $9.4 million from at least 10.7 million shares sold during the Class Period; additional ATM sales may have occurred after the Class Period). It alleges small insider sales by Lebel (15,335 shares total; about $14,000) and Brennan (3,569 shares; about $2,819).
-Legal claims asserted are: (Count I) Section 10(b) of the Exchange Act and Rule 10b-5 against all Defendants; and (Count II) Section 20(a) control-person liability against the Individual Defendants. Significant dates include: NDA submission completed Nov. 24, 2021; FDA accepted NDA Feb. 11, 2022 with PDUFA date Nov. 24, 2022; alleged misstatements on March 17, 2022, May 12, 2022, June 16, 2022, and August 11–12, 2022; FDA briefing document Sept. 20, 2022; ODAC meeting Sept. 22, 2022; stock drop on Sept. 20 and Sept. 23, 2022; CRL issued Nov. 25, 2022; Lebel resigned effective Dec. 31, 2022.</t>
+          <t>Parties: Lead Plaintiff Genesee County Employees’ Retirement System alleges federal securities fraud on behalf of a putative class of purchasers of DocGo Inc. (“DocGo”) common stock. Defendants are DocGo and three senior executives/directors: (1) Stan Vashovsky (co-founder; CEO until Jan. 2023; Board Chair), (2) Anthony Capone (President through 2022; CEO Jan. 2023–Sept. 2023), and (3) Andre Oberholzer (CFO through Jan. 2023; thereafter Treasurer/EVP).
+Class period and market: The complaint pleads a class of all persons who purchased or acquired DocGo common stock during the “Class Period,” which—based on the pleaded statements and disclosures—runs at least from September 13–14, 2022 (investor conferences where Capone touted an AI graduate degree) through September 15, 2023 (Capone resignation disclosed), with corrective disclosures occurring September 10, 2023 and September 14–15, 2023. DocGo stock traded on NASDAQ (DCGO), and plaintiff invokes the fraud-on-the-market presumption.
+Alleged misconduct / theory: Plaintiff alleges defendants artificially inflated DocGo’s stock price through materially false and misleading statements and omissions about (i) management integrity and Capone’s educational credentials in AI, and (ii) DocGo’s growth prospects tied to government contracting and payer-vertical expansion—particularly migrant-related contracts.
+Key alleged misstatements and omissions:
+1) Capone’s credentials and DocGo’s “proprietary AI” differentiator: Throughout the class period (and earlier), Capone and DocGo allegedly represented that Capone held an M.S. / graduate degree in computer science / artificial intelligence (computational learning theory) from Clarkson University and an undergraduate degree from SUNY Potsdam, and that his AI training underpinned DocGo’s “secret sauce” proprietary AI platform used for routing/dispatch/predictive analytics. Plaintiff alleges these credentials were fabricated: Clarkson had no record of Capone’s enrollment or degree; Capone later admitted he had no master’s degree; and his undergraduate claims were also questioned.
+2) CBP contract value and likelihood: In an August 9, 2023 investor presentation, Capone stated DocGo was positioned to win a five-year CBP border medical services contract “worth over $4 billion” (nearly $1B/year), implying the controversial $432M NYC HPD migrant contract gave DocGo credibility to win. Plaintiff alleges the CBP opportunity was worth no more than ~$2B and DocGo ultimately won none of it.
+3) Medicaid/payer-vertical sign-ups through UnitedHealthcare: At the same August 9, 2023 presentation, Capone stated DocGo had already signed up “over 3,000” asylum seekers for New York State Medicaid through UnitedHealthcare and could monetize them via attributed primary care and per-member-per-month reimbursement. Plaintiff alleges DocGo enrolled no migrants, had no New York contract with UnitedHealthcare, and lacked the represented ability to execute that payer-vertical strategy.
+Corrective disclosures and alleged loss causation: Plaintiff pleads partial corrective disclosures through Times Union reporting on September 10, 2023 (CBP contract value far below $4B; Medicaid sign-up claims false; UnitedHealthcare relationship absent), followed by September 14, 2023 reporting that Clarkson had no record of Capone’s graduate degree and Capone’s admission that he did not have a master’s degree, and a September 15, 2023 Form 8-K announcing Capone’s resignation. Plaintiff alleges DocGo’s stock fell about 10.76% after the September 10 article and more than 25% after the September 14–15 revelations, with an overall decline exceeding 56% from the alleged class-period high.
+Claims asserted: (Count I) Section 10(b) and Rule 10b-5 against all defendants, including misrepresentation and scheme allegations; and (Count II) Section 20(a) control-person liability against the Individual Defendants predicated on the Section 10(b) violation.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5 (against Spectrum, Riga, Lebel, Brennan)</t>
+          <t>Count I — Exchange Act §10(b) and Rule 10b-5 (against DocGo, Vashovsky, Capone, Oberholzer)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2580,25 +2904,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, Plaintiff must allege (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. See Dura Pharm., Inc. v. Broudo, 544 U.S. 336 (2005). Under the PSLRA and Rule 9(b), Plaintiff must plead falsity with particularity and must “state with particularity facts giving rise to a strong inference” of scienter. 15 U.S.C. § 78u-4(b)(1)–(2). At the motion-to-dismiss stage, the Court accepts well-pleaded factual allegations as true and considers whether the inference of scienter is at least as compelling as any opposing inference. Tellabs, Inc. v. Makor Issues &amp; Rights, Ltd., 551 U.S. 308 (2007).
-1) Material misrepresentation/omission. The complaint pleads multiple specific, time-stamped, speaker-identified statements in press releases, earnings calls, and SEC filings. Two categories are central: (a) statements conveying that Spectrum had “learned to optimize” dosing and was aligned with FDA on confirmatory-trial dosing/design; and (b) statements that “patients are being randomized” into PINNACLE and that the confirmatory study was underway/in progress.
-Falsity is plausibly pleaded. Plaintiff alleges that, contrary to “patients are being randomized” and similar language on May 12 and August 11, 2022, PINNACLE had enrolled zero patients through at least September 2022, and that this fact was later confirmed publicly at ODAC and in FDA materials. At the pleading stage, alleging “no patients enrolled” directly contradicts “patients are being randomized” and is not mere dispute over optimism or interpretation.
-Similarly, Plaintiff plausibly pleads that Riga’s “obviously aligned with FDA” statement and related dose-optimization representations were misleading because the FDA had repeatedly communicated the opposite—no formal agreement on 8 mg BID, inadequate dose-optimization data, and warnings that proceeding was at Spectrum’s own risk. The complaint supports this with detailed allegations about FDA meetings (including dates and described content) and later-confirming public statements in FDA briefing materials and ODAC transcripts. Those allegations are sufficient at this stage to plead that Defendants’ statements created a materially misleading impression of regulatory alignment and readiness.
-Materiality is plausibly pleaded. Whether PINNACLE had enrolled any patients, and whether FDA agreement existed on the confirmatory-trial dose/design, are the kind of facts a reasonable investor would consider important in valuing a small biopharma company whose valuation depended heavily on an AA decision and the feasibility/timeliness of the required confirmatory trial. The complaint also alleges analyst reports were influenced by the challenged statements, supporting materiality.
-To the extent Defendants argue statements were puffery or non-actionable opinion, the Court disagrees at this stage as to the core allegations. “Patients are being randomized” is a concrete, present-tense statement of operational fact. Likewise, “aligned with FDA” in the context of a specific confirmatory-trial design and dose is not generic corporate optimism; it conveys a specific state of regulatory concurrence.
-2) Scienter. The complaint adequately pleads a strong inference of scienter as to Riga and Lebel, and, at this stage, as to Brennan for the statements/omissions tied to filings she signed and the August 2022 communications.
-As to Riga and Lebel: the subject matter—FDA interactions and the status of the pivotal confirmatory trial for the Company’s lead program—goes to Spectrum’s core operations. The complaint alleges multiple FDA meetings (pre- and during the Class Period) where FDA concerns were communicated directly to Riga and/or Lebel, including that FDA did not agree to the 8 mg BID regimen and that PINNACLE enrollment was delayed. If those meetings occurred as alleged, Riga’s and Lebel’s later public statements suggesting alignment and active randomization support at least a strong inference of conscious misbehavior or recklessness.
-Motive allegations (cash constraints, going-concern issues, and ATM equity sales during the Class Period) further support scienter, particularly as to Spectrum and Riga (who allegedly authorized ATM placements). While generalized motives to raise capital are not alone sufficient, here they are coupled with particularized allegations of contradictory internal information from the FDA and specific misstatements about enrollment.
-As to Brennan: her role begins mid-Class Period (appointed May 2022, effective May 25). The complaint alleges she signed the Q2 2022 10-Q and participated in the August 11, 2022 call and disclosures. The scienter case against her is comparatively weaker than against Riga and Lebel, but at the pleading stage Plaintiff has alleged that the “patients are being randomized” language was repeated in August 2022 disclosures when, allegedly, no patients had enrolled, and that FDA concerns and the non-enrollment were known within senior management. Given her CFO role, signature on filings, and alleged participation in the communications, Plaintiff plausibly pleads at least reckless disregard.
-3) Reliance. Plaintiff pleads reliance via the fraud-on-the-market presumption (Basic Inc. v. Levinson) based on NASDAQ trading, analyst coverage, and market efficiency allegations. At the pleading stage, those allegations suffice.
-4) Loss causation and economic loss. Plaintiff pleads two corrective-disclosure events: the September 20, 2022 FDA briefing document and the September 22, 2022 ODAC meeting/September 23 market reaction. The complaint alleges the disclosures revealed the truth about dose-optimization deficiencies, lack of FDA agreement, and zero enrollment, and ties those revelations to significant stock drops. That is sufficient under Dura and subsequent circuit authority to plead loss causation.
-5) Corporate liability. Because the complaint plausibly alleges actionable misstatements by senior officers within the scope of their duties, it adequately pleads Spectrum’s primary liability.
-Accordingly, the motion to dismiss is denied as to the Section 10(b)/Rule 10b-5 claim.</t>
+          <t>Taking the pleaded facts as true and applying the PSLRA/Rule 9(b) pleading standards, the complaint adequately alleges (1) actionable misstatements, (2) materiality, (3) a strong inference of scienter at least as to Capone and plausibly as to the Company, (4) reliance via an efficient-market theory, and (5) loss causation tied to alleged corrective disclosures.
+(1) Misstatement/omission with particularity: The complaint quotes numerous specific statements (dates, venues, and SEC filings) attributing to Capone an M.S./graduate AI degree from Clarkson and repeatedly linking that credential to DocGo’s claimed AI “backbone.” It also pleads a specific August 9, 2023 statement valuing a CBP contract at “over $4 billion” and a specific statement that DocGo had signed up “over 3,000” migrants for NY Medicaid through UnitedHealthcare. These are concrete, verifiable assertions of present/past fact, not mere puffery.
+(2) Materiality: At the pleading stage, it is plausible that a CEO’s fabricated AI graduate credentials were material where the company marketed itself as a technology/AI-driven healthcare logistics platform and analysts described the AI platform as the company’s “secret sauce.” Likewise, statements about a multi-year multi-billion-dollar federal contracting opportunity and thousands of Medicaid enrollments supporting a recurring-revenue payer strategy plausibly would significantly alter the total mix of information for investors.
+(3) Scienter: The allegations support a strong inference that Capone knew his own educational history and thus acted with at least deliberate recklessness (indeed, knowledge) in repeatedly touting a non-existent graduate degree and in allowing third-party introductions to stand uncorrected. The Medicaid-enrollment allegations also plausibly support knowledge or recklessness because they concern claimed operational achievements (3,000 enrollments) and a purported contractual relationship (UnitedHealthcare in New York) that would be within the CEO’s purview. For the CBP contract valuation, pleading that CBP sources placed the contract under $2B and that DocGo won none, coupled with Capone’s precise “over $4B” representation, supports at least recklessness as to the truth of the stated valuation.
+As to DocGo, the complaint plausibly pleads corporate scienter through the CEO’s and senior officers’ alleged knowing misstatements made in core communications to investors and in SEC filings.
+(4) Reliance: Because the complaint alleges NASDAQ trading, analyst coverage, SEC reporting, and price reaction to news, it adequately pleads market efficiency for Basic fraud-on-the-market reliance at this stage.
+(5) Loss causation: The complaint pleads that the September 10, 2023 article corrected the CBP valuation and Medicaid-enrollment narrative and was followed by a stock drop; and that the September 14–15, 2023 reporting and 8-K resignation disclosure revealed the falsity of Capone’s credential claims and precipitated a further sharp decline. That is sufficient at the motion-to-dismiss stage to allege a causal connection between revelation of the alleged fraud and the economic loss.
+Accordingly, the §10(b)/Rule 10b-5 claim is plausibly stated and is sustained.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability) (against Riga, Lebel, Brennan)</t>
+          <t>Count II — Exchange Act §20(a) control-person liability (against Vashovsky, Capone, Oberholzer)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2608,11 +2926,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Legal standard. To state a Section 20(a) claim, Plaintiff must plead (1) a primary violation of the securities laws by the controlled person; (2) control of the primary violator by the defendant; and (3) (in many circuits) culpable participation, though the precise requirement varies by circuit. At the pleading stage, allegations that the individual defendants had power to control the company’s public statements and participated in the challenged disclosures generally suffice.
-Primary violation. Because the Court sustains the Section 10(b)/Rule 10b-5 claim against Spectrum, the first element is satisfied.
-Control. The complaint alleges Riga was CEO and a director, Lebel was EVP/CMO and the key executive interfacing with FDA on pozi, and Brennan was CFO and an executive officer who signed SEC filings. It further alleges they had the power and authority to control the content of SEC filings, press releases, and investor communications, and that they in fact participated in the challenged statements.
-Culpable participation. To the extent required, the complaint’s scienter allegations—particularly the alleged knowledge of FDA feedback and the alleged misstatements about enrollment and FDA alignment—support an inference of culpable participation at the pleading stage.
-Accordingly, the motion to dismiss is denied as to the Section 20(a) claim.</t>
+          <t>Section 20(a) requires (1) a primary violation and (2) control of the primary violator, with culpable participation addressed under the governing circuit’s standard. Because the complaint adequately pleads a primary §10(b) violation, it plausibly alleges control by each Individual Defendant based on their senior executive roles, authority over corporate communications, and involvement in and/or signing of SEC filings and investor-facing statements. At the pleading stage, these allegations suffice to state control-person claims contingent on proof of the primary violation. The §20(a) claim is therefore sustained.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2628,16 +2942,31 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>23998</v>
+        <v>15843</v>
       </c>
       <c r="X23" t="n">
-        <v>3049</v>
-      </c>
+        <v>1791</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nysd_23_cv_9476</t>
+          <t>nysd_24_cv_310</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2650,21 +2979,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Lead Plaintiff Genesee County Employees’ Retirement System brings this putative securities-fraud class action on behalf of all persons who purchased or otherwise acquired DocGo Inc. (“DocGo”) common stock during the alleged Class Period, asserting claims under Sections 10(b) and 20(a) of the Securities Exchange Act of 1934 and Rule 10b-5.
-Parties. DocGo (NASDAQ: DCGO) is a Delaware corporation headquartered in New York, providing medical transportation and mobile health services. The individual defendants are: (1) Stan Vashovsky, DocGo co-founder, CEO until January 2023, and Board Chairman; (2) Anthony Capone, former President and later CEO (January 2023 through September 2023); and (3) Andre Oberholzer, CFO through January 2023 and thereafter Treasurer/EVP.
-Alleged fraudulent conduct. The complaint alleges defendants engaged in a scheme to inflate DocGo’s stock price by repeatedly making false and misleading statements (and omissions) about (a) Capone’s educational credentials and role as the architect of DocGo’s proprietary AI platform, and (b) DocGo’s government-contract prospects and related revenue opportunities—particularly a purported multi-billion-dollar U.S. Customs and Border Protection (“CBP”) contract and purported enrollment of migrants into New York State Medicaid through UnitedHealthcare.
-Key factual allegations supporting falsity.
-1) Capone’s credentials / AI narrative. DocGo marketed itself as a technology company whose “proprietary AI platform” was a key differentiator. Capone and the Company allegedly tied that differentiation to Capone’s supposed graduate education in “computational learning theory” (a subset of AI) and represented in multiple venues and SEC filings that Capone held an M.S. in Computer Science from Clarkson University and an undergraduate degree from SUNY Potsdam. The complaint alleges these statements were false because Capone never earned any master’s degree and never enrolled in a graduate program at Clarkson; it further alleges he did not have the represented undergraduate credentials. The alleged misstatements appeared in, among other places, (i) DocGo proxy statements (April 29, 2022 and April 26, 2023), (ii) a Form 8-K announcing Capone’s CEO appointment (November 7, 2022, signed by Oberholzer), (iii) DocGo website biographies, and (iv) repeated investor-conference remarks by Capone (e.g., September 13–14, 2022; January 12, 2023; March 7 and March 15, 2023; August 9, 2023).
-2) Migrant-services contract and CBP contract value. As COVID-related demand waned, DocGo sought larger non-COVID government contracts. In May 2023, DocGo obtained a controversial $432 million no-bid contract with NYC’s Department of Housing Preservation and Development (“HPD”) to provide services to migrants. The complaint alleges that after negative publicity and scrutiny regarding DocGo’s performance under the HPD contract, Capone attempted to reassure investors by claiming DocGo was positioned to win a CBP border-services RFP that he described as a five-year contract “worth over $4 billion” (nearly $1 billion per year). The complaint alleges this was false because the contract was worth no more than approximately $2 billion and DocGo ultimately won no portion of it.
-3) Medicaid enrollment / UnitedHealthcare relationship. At the August 9, 2023 Canaccord conference, Capone allegedly stated DocGo had already signed up “over 3,000” asylum seekers onto New York State Medicaid through UnitedHealthcare and that this would allow DocGo to become their attributed primary care provider and generate recurring payer-vertical revenue. The complaint alleges these statements were false because DocGo did not enroll anyone in Medicaid programs and did not have a contract with UnitedHealthcare in New York.
-Corrective disclosures and loss causation. The alleged truth began to emerge in September 2023 through Times Union reporting: on September 10, 2023, the Times Union reported Capone’s CBP contract valuation was inflated and his Medicaid/UnitedHealthcare statements were inaccurate; DocGo’s stock allegedly fell about 10.76% (from $7.06 on September 8 to a low of $6.30 on September 11). On September 14, 2023, the Times Union reported Clarkson had no record of Capone’s graduate degree and Capone admitted he had no master’s degree. On September 15, 2023, DocGo filed an 8-K announcing Capone’s immediate resignation; the stock allegedly fell further (more than 25% to a low of $4.88 on September 18). The complaint alleges the stock declined more than 56% from a Class Period high of $11.41 on October 11, 2022 to $4.88 on September 18, 2023.
-Claims asserted. Count I asserts violations of Section 10(b) and Rule 10b-5 against DocGo and all individual defendants based on alleged material misrepresentations/omissions and a fraudulent scheme. Count II asserts control-person liability under Section 20(a) against the individual defendants (and, as pleaded, “all defendants”).
-Class period and significant dates. The complaint does not expressly state a single defined start date in the excerpt provided, but it alleges misstatements throughout at least September 13, 2022 through September 15, 2023, and it references a Class Period high on October 11, 2022 and corrective disclosures beginning September 10, 2023. Significant dates include: May 2023 (HPD contract awarded/effective); August 9, 2023 (Canaccord conference statements about CBP value and Medicaid sign-ups); September 10 and 14, 2023 (Times Union articles); September 15, 2023 (DocGo 8-K and Capone resignation); September 18, 2023 (stock low).</t>
+          <t>Parties: Lead Plaintiff is the Retirement Plan for Chicago Transit Authority Employees, asserting Exchange Act claims on behalf of purchasers of Mobileye Global Inc. (“Mobileye”) Class A common stock. Additional named plaintiff Oklahoma Firefighters Pension and Retirement System asserts Securities Act claims on behalf of purchasers in Mobileye’s June 2023 secondary offering. Defendants are Mobileye and senior executives Amnon Shashua (CEO), Anat Heller (CFO through June 26, 2023), Moran Shemesh Rojansky (interim then CFO beginning June 26, 2023; CFO from Sept. 11, 2023), and Daniel Galves (Chief Communications Officer). For Securities Act counts, defendants are Mobileye, Shashua, and Heller.
+Class period(s): (1) Exchange Act class: January 26, 2023 through August 1, 2024, inclusive. (2) Securities Act class: purchasers/acquirers of Mobileye Class A common stock in the secondary public offering announced June 5, 2023 and completed about June 12, 2023.
+Alleged misconduct and key facts: The complaint alleges a multi-year “channel stuffing” scheme centered on Mobileye’s flagship EyeQ ADAS chip (about 90% of revenue). Plaintiffs allege that, contrary to public assurances that shipments “depend upon market conditions,” that Mobileye monitored customer inventory and balanced shipments with demand, and that customers had ample “capacity,” Mobileye imposed annual minimum-quantity commitments on key Tier 1 customers (allegedly including the top three customers generating ~70% of revenue), making it “impossible” for those customers to adjust purchases to demand. Plaintiffs allege Mobileye shipped millions of EyeQ units beyond true end-market demand (allegedly 4–5 million excess in 2021–2022 and 2–3 million excess in 2023), recognized hundreds of millions in revenue, met guidance/consensus, and thereby inflated reported growth and market-share claims (~70%). The complaint relies on industry supply-chain practices (EDI forecasts/orders), alleged admissions on January 25, 2024 about annual commitments and inability to adjust quantities, analyst reactions, and two confidential witnesses: an Aptiv former employee (FE1) describing inability to cancel and year-end forced deliveries, and a former Mobileye VP (FE2) describing excess inventory “across the board,” escalation to senior management, and that the decision “went up to Amnon.”
+Corrective disclosures and loss causation: On January 4, 2024, Mobileye disclosed it had become aware of 6–7 million units of excess EyeQ inventory at customers and guided Q1 2024 revenue down ~50% and FY2024 revenue down materially; the stock fell ~24.5%. On August 1, 2024, Mobileye cut FY2024 guidance again and reduced expected EyeQ volumes, acknowledging limited visibility and possible residual inventory issues (especially China); the stock fell ~22.5%. Plaintiffs allege these disclosures revealed the truth about shipment/demand mismatch and management’s prior assurances.
+Legal claims: Exchange Act claims include (i) Section 10(b) and Rule 10b-5(b) (misstatements/omissions) against Mobileye and the executive defendants; (ii) Section 10(b) and Rule 10b-5(a) and (c) (scheme liability) against all defendants; and (iii) Section 20(a) control-person liability against the executive defendants. Securities Act claims include (iv) Section 11 against Mobileye, Shashua, and Heller based on alleged misstatements/omissions in the June 2023 offering documents (including incorporated 10-K/10-Q) about customer contracts/commitments, shipment dependence on “market conditions,” and failure to disclose known trends/risks under Items 303 and 105; and (v) Section 15 control-person liability against Shashua and Heller.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Section 10(b) and Rule 10b-5</t>
+          <t>Exchange Act §10(b) and Rule 10b-5(b) (misstatements/omissions) against Mobileye and Executive Defendants</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2674,23 +2998,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under Section 10(b) and Rule 10b-5, plaintiffs must allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance (often via the fraud-on-the-market presumption); (5) economic loss; and (6) loss causation. The PSLRA and Rule 9(b) require the complaint to plead falsity with particularity and to plead facts giving rise to a strong inference of scienter that is cogent and at least as compelling as any opposing inference.
-1) Material misrepresentation/omission (PSLRA/Rule 9(b)). The complaint pleads with particularity numerous statements, identifies the speaker, the forum/date, and explains why each statement was false. The alleged misstatements fall into two principal categories.
-First, Capone’s educational credentials and related AI/technology narrative: the complaint alleges DocGo and the individual defendants repeatedly represented in SEC filings (proxy statements and a Form 8-K) and investor presentations that Capone held an M.S. from Clarkson and a graduate background in computational learning theory/AI, and that this background underpinned DocGo’s proprietary AI “technology backbone.” The complaint further pleads the falsity by alleging Clarkson had no record of Capone’s enrollment or degree and that Capone admitted he had no master’s degree. At the pleading stage, those allegations are sufficiently particular and plausibly establish falsity.
-Second, the CBP contract value and Medicaid/UnitedHealthcare statements: the complaint identifies the August 9, 2023 statements that the CBP RFP was “worth over $4 billion” and that DocGo had signed up “over 3,000” migrants for NY Medicaid through UnitedHealthcare. It pleads falsity by alleging CBP sources valued the contract under $2 billion and that DocGo later admitted it did not enroll anyone in Medicaid and lacked a NY contract with UnitedHealthcare. These allegations are also pleaded with sufficient specificity.
-Materiality. The alleged misstatements are plausibly material. Executive integrity and qualifications can be material where, as alleged here, the company affirmatively markets itself as a technology/AI-driven enterprise and repeatedly ties its claimed differentiating technology to the CEO’s purported specialized AI education. Likewise, the size and likelihood of a potential multi-year, multi-billion-dollar government contract and claimed conversion of municipal migrant work into recurring payer-vertical revenue are the type of information a reasonable investor would consider important in valuing a company of DocGo’s reported revenue scale.
-2) Scienter (PSLRA strong inference). The complaint adequately pleads a strong inference of scienter as to Capone. The alleged misstatements about his own degrees are not matters of mistake or complex accounting; they concern facts uniquely within his personal knowledge. The complaint alleges he repeated the degree claims across multiple investor events and allowed third-party introductions to stand uncorrected, supporting an inference of knowing falsity or, at minimum, deliberate recklessness.
-As to DocGo, the complaint plausibly pleads corporate scienter through allegations that the Company, via SEC filings and official biographies, repeatedly represented Capone’s credentials and used them to promote the Company’s technology differentiation; at the pleading stage, it is plausible that senior management responsible for those statements either knew the truth or was deliberately reckless in not knowing, particularly given the centrality of the representations to the Company’s messaging.
-As to Vashovsky and Oberholzer, the scienter showing is closer but sufficient at this stage. The complaint alleges they oversaw and made misstatements in formal SEC filings concerning Capone’s credentials and appointment, and that they were senior executives/directors with access to information and responsibility for public statements. While “must have known” allegations are not enough standing alone, the complaint pleads more than negligence by alleging repeated inclusion of specific degree claims in SEC filings and the Company’s public messaging about AI differentiation. At the motion-to-dismiss stage, the inference that senior officers at least recklessly disregarded the truth about the CEO’s touted credentials is at least as compelling as the competing inference of mere oversight, particularly given the repeated nature of the representations and their prominence.
-With respect to the CBP contract value and Medicaid enrollment statements, scienter is also plausibly pleaded as to Capone because the complaint alleges he had access to pipeline contract information and operational facts about whether DocGo enrolled anyone into Medicaid or had the asserted UnitedHealthcare relationship. The later walk-back attributed to a DocGo spokesperson supports an inference that the Company knew the statements were inaccurate.
-3) Reliance. The complaint pleads an efficient market for DocGo stock traded on NASDAQ and invokes Basic’s fraud-on-the-market presumption. At this stage, that is sufficient. To the extent plaintiffs also invoke Affiliated Ute, the complaint primarily alleges affirmative misstatements; reliance is adequately supported via fraud-on-the-market.
-4) Loss causation and economic loss. The complaint pleads corrective disclosures on September 10 and September 14–15, 2023, followed by statistically significant price declines, and alleges those disclosures revealed the falsity of the CBP valuation, Medicaid enrollment claims, and Capone’s credentials. That suffices to plead loss causation under Dura at the motion-to-dismiss stage.
-Accordingly, the motion to dismiss is denied as to Count I.</t>
+          <t>Pleading sufficiency is assessed under Rule 12(b)(6), Rule 9(b), and the PSLRA. The complaint identifies numerous specific statements in SEC filings, earnings calls, and conferences concerning (i) the nature and extent of minimum-quantity commitments, (ii) that shipments depended on “market conditions,” (iii) inventory monitoring/visibility and stabilization, and (iv) the drivers of revenue/volume growth and market share. It pleads why those statements were misleading: Mobileye allegedly imposed annual minimum commitments on key Tier 1 customers and forced year-end deliveries, causing shipments materially to exceed end demand and inflating revenue/growth. Materiality is plausibly alleged because EyeQ drives ~90% of revenue and the alleged excess inventory (6–7 million units) and resulting guidance collapse were market-moving.
+Scienter: The complaint pleads a strong inference via (a) alleged later admissions (Jan. 25, 2024) that annual commitments made it “impossible” for customers to adjust quantities; (b) core-operations allegations given EyeQ’s dominance in revenue; (c) confidential-witness allegations tying inventory-push decisions to senior leadership (including that the decision “went up to” the CEO and that the CFO attended meetings where abnormalities were discussed); and (d) the alleged ability to know inventory/demand through routine EDI forecasts and customer communications, coupled with repeated public statements about monitoring and balancing. At the pleading stage, these allegations support at least severe recklessness.
+Reliance and loss causation are plausibly alleged through market efficiency allegations and two stock drops tied to disclosures about excess inventory and reduced EyeQ volumes/guidance. Accordingly, dismissal is not warranted at this stage.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Section 20(a) control person liability</t>
+          <t>Exchange Act §10(b) and Rule 10b-5(a) and (c) (scheme liability) against Mobileye and Executive Defendants</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2700,36 +3015,84 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Legal standard. To state a claim under Section 20(a), a plaintiff must plead: (1) a primary violation of the securities laws by the controlled person; (2) control of the primary violator by the defendant; and (3) the defendant’s culpable participation (in circuits requiring it) or, at minimum, plausible control coupled with the primary violation (with good-faith as an affirmative defense).
-Primary violation. Because the Section 10(b)/Rule 10b-5 claim is adequately pleaded, the complaint satisfies the primary-violation element.
-Control. The complaint plausibly alleges control by the individual defendants based on their senior roles: Vashovsky as CEO (until January 2023) and Board Chairman; Capone as President and then CEO; and Oberholzer as CFO and later Treasurer/EVP. It further alleges they had authority over DocGo’s public statements, SEC filings, and investor communications. These allegations are sufficient at the pleading stage to establish control.
-Culpable participation / good faith. To the extent culpable participation must be pleaded, the complaint’s allegations supporting scienter for the primary violation—particularly the repeated dissemination of false biographical and contract-related statements by senior officers—plausibly support culpable participation at this stage. Any argument that a defendant acted in good faith presents a fact-intensive defense not suitable for resolution on the pleadings.
-Accordingly, the motion to dismiss is denied as to Count II.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+          <t>The complaint pleads more than misstatements; it alleges deceptive conduct: imposing annual minimum commitments that prevented customers from adjusting to demand, shipping unrequested/forced year-end volumes, and recognizing revenue allegedly untethered from end demand, thereby creating an artificial appearance of demand and sustainable growth. It also alleges dissemination of misleading explanations and assurances to conceal the effects and to maintain inflation. At the pleading stage, those allegations plausibly constitute a deceptive course of business in connection with the purchase/sale of securities, with scienter supported by the same facts as the 10b-5(b) claim. The alleged corrective disclosures and price declines plausibly connect the scheme to investor losses.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Exchange Act §20(a) control-person liability against Executive Defendants</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Because the complaint plausibly pleads a primary violation under §10(b)/Rule 10b-5 and alleges that each executive defendant occupied a control position and participated in the company’s public communications (and, for certain filings, signed or was responsible for them), the control-person claim is adequately pleaded at this stage. Any good-faith defense is fact-intensive and not resolved on a motion to dismiss on these allegations.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Securities Act §11 (June 2023 secondary offering) against Mobileye, Shashua, and Heller</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Section 11 requires plausible allegations that the registration statement/prospectus contained an untrue statement of material fact or omitted a material fact required to be stated or necessary to make statements not misleading. The offering documents (including incorporated 10-K/10-Q) allegedly represented that Mobileye generally lacked minimum-quantity contracts, that volumes supplied depended on “market conditions,” and framed customer order increases as inventory building due to shortages—while omitting that key customers were allegedly bound by annual minimum commitments and that Mobileye had already shipped millions of EyeQ units beyond true demand. Those alleged omissions plausibly bear on the sustainability and quality of revenues for a company whose revenues are overwhelmingly EyeQ-driven, and thus are plausibly material to offering investors.
+The complaint also plausibly pleads Item 303/105 omission theories: known trends/uncertainties and risk factors regarding excess channel inventory and the reasonably likely impact on future revenues, given alleged internal visibility into customer inventory/demand and the asserted magnitude of excess units. At the pleading stage, these allegations suffice. Loss and traceability are plausibly alleged by a purchase in the offering at the offering price and subsequent decline after disclosures.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Securities Act §15 control-person liability against Shashua and Heller</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>sustained</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Because the §11 claim is adequately pleaded and the complaint alleges Shashua and Heller controlled Mobileye’s offering-related disclosures (including signing the registration statement and serving as CEO/CFO), the §15 claim is plausibly stated. Any defense based on lack of control or lack of culpable participation (to the extent required) is not resolved on the pleadings given the alleged roles and signatures.</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>16090</v>
+        <v>43700</v>
       </c>
       <c r="X24" t="n">
-        <v>2785</v>
-      </c>
+        <v>1987</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nysd_24_cv_310</t>
+          <t>txnd-4_24-cv-00673</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2742,19 +3105,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>This putative securities class action is brought under (1) the Securities Exchange Act of 1934 by Lead Plaintiff The Retirement Plan for Chicago Transit Authority Employees (“Chicago Transit”) on behalf of purchasers of Mobileye Global Inc. (“Mobileye”) Class A common stock during the alleged Class Period, and (2) the Securities Act of 1933 by additional named plaintiff Oklahoma Firefighters Pension and Retirement System (“Oklahoma Firefighters”) on behalf of purchasers in Mobileye’s June 2023 secondary public offering.
-Parties. Mobileye is a Delaware corporation headquartered in Jerusalem, Israel, whose Class A common stock trades on NASDAQ under ticker “MBLY.” The individual defendants are senior executives: Amnon Shashua (co-founder, CEO, President, Director), Anat Heller (CFO until June 26, 2023), Moran Shemesh Rojansky (interim CFO June 26, 2023; CFO since Sept. 11, 2023), and Daniel Galves (Chief Communications Officer). For the Securities Act claims, the “Securities Act Defendants” are Mobileye, Shashua, and Heller.
-Alleged misconduct / fraud theory. The complaint alleges that Mobileye’s reported “record” EyeQ chip volumes and revenue growth during 2022–2023 were not driven by true end-market demand for ADAS chips, but by a multi-year “channel stuffing” scheme. The alleged scheme is that Mobileye used its market dominance in ADAS to impose annual minimum-quantity purchasing commitments on key Tier 1 automotive suppliers (e.g., ZF, Valeo, Aptiv, Magna), making it “impossible” for them to adjust purchases to declining demand. If Tier 1s did not order enough to satisfy the annual minimums, Mobileye allegedly shipped the remaining units late in the year regardless of need or customer objection. Plaintiffs allege Mobileye thereby shipped and recognized revenue on millions of EyeQ chips above true demand: approximately 4–5 million excess units in 2021–2022 and another 2–3 million excess units in 2023. Plaintiffs contend this inflated revenue by “hundreds of millions” and allowed Mobileye to meet or narrowly beat guidance and analyst consensus throughout 2023, while cannibalizing future demand.
-Key factual allegations supporting falsity and scienter. The complaint pleads (i) industry-standard supply-chain practices (EDI, forecasts, inventory reporting) that allegedly gave Mobileye continuous visibility into Tier 1 inventory and end-demand; (ii) confidential-witness allegations from a former Aptiv employee (FE1) describing non-cancellable minimum commitments, forced year-end deliveries, and Mobileye’s refusal to adjust volumes despite declining OEM demand; and (iii) confidential-witness allegations from a former Mobileye VP of ADAS Business Development (FE2) claiming excess inventory existed “across the board” by end-2022, that the decision to push inventory “went up to Amnon” (Shashua), and that the CFO attended meetings where such issues would be discussed.
-Alleged false statements. Plaintiffs challenge numerous statements in SEC filings, earnings calls, and conferences that allegedly conveyed (a) that Mobileye’s shipments depended on “market conditions,” (b) that Mobileye generally did not require customers to purchase minimum quantities (or that minimums were limited and a recent response to shortages), (c) that Mobileye was monitoring inventory and balancing shipments quarter-to-quarter, (d) that inventory issues were limited/stabilized and not affecting EyeQ, and (e) that Mobileye had ~70% ADAS market share. Plaintiffs also allege Mobileye’s January 2024 messaging falsely attributed excess inventory to Tier 1 “decisions” to build inventory.
-Corrective disclosures / loss causation. Plaintiffs allege two principal corrective events: (1) January 4, 2024: Mobileye disclosed it had become aware of “6–7 million units” of excess EyeQ inventory at customers and guided to a ~50% revenue decline in Q1 2024 and lower FY2024 revenue; MBLY fell 24.5% to $29.97. (2) August 1, 2024: Mobileye again reduced FY2024 revenue guidance to $1.6–$1.68 billion and reduced EyeQ unit guidance, citing continued weakness and incomplete visibility (including China “residual” inventory); MBLY fell 22.5% to $16.28. Plaintiffs allege an overall ~70% collapse from the class-period high.
-Class period and significant dates. The Exchange Act class period is alleged as January 26, 2023 through August 1, 2024, inclusive. Key dates include: October 2022 IPO/spin-off from Intel; January 26, 2023 earnings release and 2023 guidance; March 9, 2023 Form 10-K; April 27, July 27, and October 26, 2023 earnings calls; June 5–12, 2023 secondary offering (S-1 filed June 5; effective June 7; prospectus June 8; offering completed June 12); January 4, 2024 disclosure; January 25, 2024 earnings call (admitting annual commitments made it “impossible” for customers to adjust); April 25, 2024 earnings call; August 1, 2024 second guidance cut.
-Legal claims asserted. The complaint asserts: (Count I) Exchange Act §10(b) and Rule 10b-5(b) (misstatements/omissions) against Mobileye and the executive defendants; (Count II) Exchange Act §10(b) and Rule 10b-5(a) and (c) (scheme liability) against Mobileye and the executive defendants; (Count III) Exchange Act §20(a) control-person liability against the executive defendants; (Count IV) Securities Act §11 against Mobileye, Shashua, and Heller for alleged misstatements/omissions in the June 2023 offering documents; and (Count V) Securities Act §15 control-person liability against Shashua and Heller.</t>
+          <t>Parties: Court-appointed co-lead plaintiffs Dominik Dumancic and Luis Vicente Davidoff Cracasso, and additional named plaintiff Richard Wilkinson, sue American Airlines Group Inc. ("American" or "AAL") and three senior executives: CEO/President Robert D. Isom, Jr., CFO Devon E. May, and EVP/Chief Commercial Officer Vasu S. Raja (collectively, "Defendants"). AAL’s common stock traded on Nasdaq under symbol AAL.
+Class period: July 20, 2023 through May 28, 2024, inclusive.
+Alleged misconduct and theory: Plaintiffs allege that during the class period Defendants knowingly and materially misrepresented and omitted facts about the success and financial impact of American’s shift in sales/distribution strategy—"Modern Retailing"—designed to move corporate and agency bookings away from legacy EDIFACT/GDS channels to direct and NDC (New Distribution Capability) channels. Plaintiffs contend Defendants falsely portrayed (i) strong adoption of NDC by agencies and corporate customers, (ii) durable/encouraging business demand (including managed corporate and SMB demand), (iii) retention of market share, and (iv) the reasonableness of 2Q 2024 and full-year 2024 earnings/free-cash-flow guidance, while internally knowing that the strategy was alienating travel agencies, TMCs, and corporate customers, causing reduced bookings, lost corporate share (including close-in, premium bookings), and revenue underperformance versus peers.
+Key factual allegations: (1) Starting December 2022 through spring 2024, AAL implemented distribution changes including (a) removing ~40% of fare content (including basic economy and certain premium products) from EDIFACT channels in April 2023, (b) revising agency/corporate incentive structures and contracts (effective July 2023) to reward NDC bookings and penalize failure to meet NDC/share targets, and (c) rolling out SMB program changes (AAdvantage Business) that required direct booking to earn benefits. (2) Confidential witnesses (CW1, CW2) describe rapid deterioration in agency/corporate relationships beginning in early 2023; agencies/TMCs steering customers to competitors; and internal metrics (SalesLink Insights, PRISM, IATA data) showing declining agency bookings (e.g., ~15% YoY decline for larger agencies by July 2023), corporate bookings down more, and persistent share declines through at least January 2024, with poor NDC adoption. (3) Despite these purported internal indicators, Defendants repeatedly made optimistic statements in earnings calls, conferences, SEC filings, press releases, and media interviews about NDC progress, business demand, share retention, and guidance. (4) Corrective disclosures: On May 28–29, 2024, AAL announced Raja’s departure and materially reduced 2Q 2024 guidance; at the May 29, 2024 Bernstein conference Isom attributed “softness in customer bookings” to AAL’s sales/distribution changes, admitted execution missteps (“used a lot of sticks”), and stated the approach was “driving customers away.” AAL’s stock fell from $13.44 (May 28 close) to $11.62 (May 29 close). Post-class period, AAL further disclosed on July 25, 2024 that the prior strategy cost ~$750 million revenue in 1H 2024 with expected additional ~$750 million impact in 2H 2024, and that AAL was reversing course.
+Claims asserted: (Count I) Section 10(b) of the Exchange Act and SEC Rule 10b-5 against all Defendants, based on alleged material misstatements/omissions and a scheme to inflate/maintain AAL’s stock price; and (Count II) Section 20(a) control-person liability against the Individual Defendants predicated on the alleged primary violation.
+Alleged misstatements/omissions categories: (i) SEC risk-factor disclosures in Forms 10-Q/10-K allegedly misleading by portraying distribution-strategy harms as hypothetical; (ii) statements of encouragement/pleasure/comfort about NDC rollout and corporate demand; (iii) statements denying pushback and claiming share retention; (iv) statements about agency adoption of NDC and “preferred retailer” status; and (v) reaffirmations/issuance of 2Q and full-year 2024 guidance allegedly lacking a reasonable basis given known adverse trends.
+Scienter and loss causation allegations: Plaintiffs plead scienter via CW accounts of internal data visibility, management meetings, and alleged admissions (including Isom’s later acknowledgment that deviation versus peers was identified in 1Q 2024 but management hoped it would reverse), plus the commissioning of Bain &amp; Co. to review the strategy before Raja’s exit. Loss causation is pleaded through the May 28–29, 2024 disclosures and stock drop, with analyst commentary attributing the miss to AAL-specific distribution-strategy issues rather than industry-wide demand weakness.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Exchange Act Section 10(b) and Rule 10b-5(b) (material misstatements/omissions)</t>
+          <t>Count I — Section 10(b) and Rule 10b-5 (misstatements/omissions and scheme liability) against American Airlines Group Inc., Isom, May, and Raja</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2764,20 +3126,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private claim under §10(b) and Rule 10b-5(b), plaintiffs must plausibly allege: (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. The PSLRA and Rule 9(b) require particularity as to the “who, what, when, where, and how” of the alleged fraud, and the PSLRA requires facts giving rise to a “strong inference” of scienter.
-1. Material misrepresentation/omission. The complaint pleads numerous specific statements in SEC filings and earnings calls during the class period that Mobileye’s shipments would “depend upon market conditions,” that Mobileye was monitoring inventory and balancing quarter-to-quarter, and that customers had substantial capacity—statements that, as pled, conveyed that reported EyeQ volumes and revenue reflected genuine demand rather than forced, non-demand-driven shipments. It also pleads specific offering/periodic-report language that Mobileye “generally” did not have contracts requiring customers to purchase set quantities and that minimum commitments were limited and driven by shortages.
-At the pleading stage, plaintiffs plausibly allege falsity and misleading half-truths: the January 25, 2024 earnings call is pled as an admission that Mobileye used full-year commitments in 2022 and 2023 that made it “impossible” for customers to adjust quantities to demand. Coupled with the pleaded facts that Mobileye nonetheless repeatedly described shipment volumes as dependent on “market conditions,” and that it downplayed the extent and effect of minimum-quantity commitments, plaintiffs plausibly plead that at least some statements were misleading.
-Materiality is plausibly alleged. The complaint ties the challenged statements to the core of Mobileye’s business: EyeQ allegedly comprised ~90% of revenue, and the alleged channel inventory overhang and artificial revenue inflation would be important to a reasonable investor assessing growth sustainability and guidance credibility, particularly for a recently spun-off issuer. These are not immaterial “puffery” in context; statements about the basis for revenue growth, the existence/extent of binding customer commitments, and inventory alignment are capable of objective verification and plausibly material.
-2. Scienter. The PSLRA requires a strong inference that defendants acted intentionally or with deliberate recklessness. Plaintiffs plead multiple, mutually reinforcing scienter indicia: (i) core operations—EyeQ allegedly drives ~90% of revenue, making it plausible senior executives tracked volumes and customer ordering practices; (ii) alleged admissions in January 2024 that the annual commitments constrained customers’ ability to adjust to demand; (iii) confidential-witness accounts (FE2) alleging the inventory push “went up to Amnon” and that management meetings included the CFO; (iv) confidential-witness account (FE1) describing forced year-end deliveries and non-cancellable minimums at a major customer; (v) industry practice allegations suggesting Mobileye received frequent forecasts and inventory signals; and (vi) the alleged magnitude and persistence of the inventory buildup (6–7 million units) and the dramatic year-end volume spikes.
-At this stage, taking the allegations collectively as Tellabs requires, the inference that senior management knew (or was deliberately reckless in not knowing) that reported volumes were materially inflated by forced shipments is at least as compelling as the competing inference of mere mismanagement. The complaint does not rely solely on “fraud by hindsight”; it pleads contemporaneous visibility (forecasts/EDI), customer objections, and internal escalation.
-3. Reliance. Plaintiffs plead market efficiency and invoke Basic’s fraud-on-the-market presumption. That is sufficient at the pleading stage.
-4. Loss causation and economic loss. Plaintiffs plead two partial corrective disclosures (January 4, 2024 and August 1, 2024) followed by statistically large stock drops. The January 4 disclosure expressly revealed excess customer inventory and a resulting revenue collapse—facts directly tied to the alleged misstatements about demand alignment and inventory monitoring. The August 1 disclosure allegedly revealed continuing weakness and lack of visibility, contradicting prior assurances that inventory would clear quickly and guidance was stable. That suffices to plead loss causation.
-Accordingly, the motion to dismiss is denied as to Count I.</t>
+          <t>Taking the well-pleaded allegations as true and applying the PSLRA and Rule 9(b), Plaintiffs plausibly allege actionable misstatements/omissions, scienter, and loss causation.
+Material misstatements/omissions: The complaint identifies numerous specific statements in SEC filings, earnings calls, conferences, press releases, and interviews that go beyond nonactionable puffery by asserting concrete facts about (i) NDC adoption by agencies (e.g., “majority of indirect bookings” via NDC-capable agencies; agencies “beyond 30% NDC bookings”; “vast majority” transitioning), (ii) corporate/SMB demand and managed corporate recovery, (iii) share retention, and (iv) guidance being “on track” and “implicit” in observed trends. Plaintiffs also plausibly plead that risk-factor disclosures were misleading to the extent they framed realized distribution-strategy harms as merely potential, while Defendants allegedly knew the adverse impacts were already occurring.
+Falsity is plausibly pleaded through detailed CW allegations describing internal booking/share metrics (SalesLink Insights, PRISM, IATA) showing persistent declines and poor NDC adoption, coupled with later admissions that the strategy “driv[ing] customers away” contributed to revenue softness and guidance reductions. At the pleading stage, the CW descriptions include job roles, access to data, time frames, and examples sufficient to support reliability.
+Scienter: Plaintiffs plead a strong inference that at least Isom and Raja (and plausibly May, who signed key 8-Ks and provided guidance) knew or were reckless in not knowing that the public narrative of successful adoption/strong corporate demand and the issued guidance lacked a reasonable basis. The complaint alleges (i) contemporaneous internal metrics and regular management review of share/adoption data, (ii) the centrality of corporate/agency channels to revenue, (iii) the magnitude and persistence of the alleged declines, and (iv) post-class admissions indicating awareness by 1Q 2024 of underperformance versus peers attributable to the distribution strategy. Considering competing inferences, the inference of at least recklessness is at least as compelling as benign explanations at this stage.
+Forward-looking statements/safe harbor: To the extent guidance and projections are forward-looking, Plaintiffs plausibly allege actual knowledge of falsity (or at least deliberate recklessness) and that the challenged statements were intertwined with present-tense representations about existing booking trends, adoption, and customer behavior. The safe harbor therefore does not warrant dismissal on the pleadings.
+Reliance and transaction causation: Reliance is adequately pleaded under the fraud-on-the-market theory for a Nasdaq-traded security.
+Loss causation: Plaintiffs plausibly allege that the May 28–29, 2024 disclosures (Raja’s departure, guidance cut, and admissions that the strategy drove customers away) revealed the truth and caused a statistically and economically significant price drop, with analyst commentary attributing the decline to company-specific distribution-strategy issues. This suffices at the motion-to-dismiss stage.
+Accordingly, Count I is sustained.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Exchange Act Section 10(b) and Rule 10b-5(a) and (c) (scheme liability)</t>
+          <t>Count II — Section 20(a) control-person liability against Isom, May, and Raja</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2787,85 +3148,47 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Legal standard. Rule 10b-5(a) and (c) prohibit employing a device, scheme, or artifice to defraud and engaging in a fraudulent course of business. Plaintiffs must plead deceptive conduct, scienter, reliance, and loss causation. After Lorenzo, dissemination of false statements can support (a)/(c) liability, but plaintiffs must still allege conduct that is itself deceptive (not merely aiding and abetting), and must satisfy the PSLRA’s heightened pleading standards.
-Here, plaintiffs plead more than misstatements. They allege a course of conduct: imposing annual minimum-quantity commitments, refusing cancellations, and shipping unrequested product late in the year to satisfy commitments, thereby recognizing revenue untethered to demand and creating a concealed channel inventory overhang. At the pleading stage, this alleged “channel stuffing” is plausibly deceptive conduct because it allegedly created a misleading picture of demand-driven sales and sustainable growth, and it is pled as being concealed from investors through contemporaneous statements about shipments depending on market conditions and inventory being monitored and stabilized.
-Scienter, reliance, and loss causation are plausibly alleged for the reasons stated with respect to Count I. The January 2024 disclosure of 6–7 million units of excess inventory and the resulting guidance collapse plausibly connects the alleged scheme to investor losses.
-Defendants’ argument that the conduct is merely “hard bargaining” or ordinary supply-chain contracting raises factual disputes not resolvable on a motion to dismiss where plaintiffs allege forced shipments over customer objection and concealment of the resulting inventory and revenue inflation.
-Accordingly, the motion to dismiss is denied as to Count II.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Exchange Act Section 20(a) (control person liability)</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Legal standard. To state a §20(a) claim, plaintiffs must plead (1) a primary violation of the Exchange Act by the controlled person, and (2) that the defendant exercised actual power or control over the primary violator. Many courts also consider culpable participation, but at the pleading stage control is generally sufficient where the primary violation is adequately alleged.
-Because the complaint plausibly pleads primary violations under §10(b)/Rule 10b-5 against Mobileye (Counts I and II), the first element is satisfied.
-As to control, the executive defendants are alleged to have held senior roles (CEO/President/Director; CFOs; Chief Communications Officer), to have participated in drafting/signing SEC filings and making earnings-call statements, and to have had authority over Mobileye’s public disclosures and operations. Those allegations plausibly plead control.
-Affirmative defenses (good faith/non-culpable participation) are not resolved at this stage.
-Accordingly, the motion to dismiss is denied as to Count III.</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Securities Act Section 11 (June 2023 secondary offering)</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Legal standard. Section 11 imposes liability where a registration statement contained an untrue statement of material fact or omitted a material fact required to be stated or necessary to make statements not misleading. Scienter is not required. Plaintiffs must plead (1) standing (purchase traceable to the offering), (2) a material misstatement/omission in the registration statement, and (3) damages; defendants may raise negative causation and due diligence as defenses.
-Standing/traceability is adequately pled: Oklahoma Firefighters alleges it purchased 30,115 shares directly in the June 2023 offering at $42 per share.
-Material misstatements/omissions are plausibly pled. The offering documents incorporated the March 9, 2023 Form 10-K and May 11, 2023 Form 10-Q, which allegedly stated Mobileye “generally” did not have contracts requiring customers to purchase set quantities and that volumes supplied would “depend upon market conditions,” while also suggesting minimum commitments were limited and driven by shortages. Plaintiffs plausibly allege that, by the offering date, Mobileye had already shipped 4–5 million excess EyeQ units and had minimum-commitment arrangements with customers comprising ~70% of revenue, making the “generally” characterization and the “market conditions” framing misleading absent fuller disclosure.
-The complaint also plausibly alleges omissions under Regulation S-K Items 303 and 105: that known trends/uncertainties and material risks existed because excess channel inventory and binding annual commitments were reasonably likely to depress future orders and render reported revenue not indicative of future performance. At the pleading stage, plaintiffs plausibly allege these were known to management given the alleged customer forecasts/inventory visibility and the confidential-witness allegations.
-Materiality is plausibly alleged because the alleged practices affected the principal revenue driver (EyeQ) and the sustainability of growth.
-Defenses such as due diligence (for the individual signatories) and negative causation are fact-intensive and not resolved on a motion to dismiss.
-Accordingly, the motion to dismiss is denied as to Count IV.</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Securities Act Section 15 (control person liability)</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>sustained</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Legal standard. Section 15 provides control-person liability for violations of §11 (and §12). Plaintiffs must plead a primary violation and control by the defendant.
-Because the complaint plausibly pleads a §11 claim against Mobileye (Count IV), the primary violation element is satisfied.
-Control is plausibly alleged as to Shashua (CEO/President/Director) and Heller (CFO through June 26, 2023), both of whom allegedly signed the registration statement and had authority over Mobileye’s disclosures and operations at the time of the offering.
-Accordingly, the motion to dismiss is denied as to Count V.</t>
-        </is>
-      </c>
+          <t>Because Plaintiffs have adequately pleaded a primary violation under Section 10(b) and Rule 10b-5, and have plausibly alleged that each Individual Defendant, by virtue of senior executive roles and alleged involvement in and authority over the challenged statements and strategy, had control over AAL’s public disclosures and operations relevant to the alleged fraud, the Section 20(a) claim is adequately pleaded. Any good-faith/non-culpable participation defense is fact-intensive and not resolved on the pleadings.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>43947</v>
+        <v>55240</v>
       </c>
       <c r="X25" t="n">
-        <v>3560</v>
-      </c>
+        <v>1933</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>txnd-4_24-cv-00673</t>
+          <t>txsd-4-21-cv-02473</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2878,18 +3201,18 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>This is a federal securities class action brought on behalf of purchasers of American Airlines Group Inc. (“American” or the “Company”) publicly traded securities during the alleged Class Period July 20, 2023 through May 28, 2024, inclusive. The named plaintiffs are court-appointed Co-Lead Plaintiffs Dominik Dumancic and Luis Vicente Davidoff Cracasso, and additional named plaintiff Richard Wilkinson (collectively, “Plaintiffs”). The defendants are American (Nasdaq: AAL) and three senior executives: Robert D. Isom, Jr. (CEO, President, and director), Devon E. May (CFO), and Vasu S. Raja (Chief Commercial Officer until May 28, 2024) (collectively, “Defendants”).
-Core theory of the case: Plaintiffs allege that during the Class Period Defendants knowingly or recklessly misrepresented the success and financial effects of American’s “Modern Retailing” sales/distribution strategy—an aggressive push to move corporate and agency bookings from legacy EDIFACT/GDS channels to direct and NDC-enabled channels—while omitting that the strategy was alienating travel agencies, travel management companies (“TMCs”), and corporate customers, causing market-share losses (especially in managed corporate and close-in bookings) and materially impairing revenue. Plaintiffs allege Defendants also issued and reaffirmed false earnings guidance for 2Q 2024 and full-year 2024 that assumed the strategy was working.
-Factual allegations supporting falsity/misleadingness: The complaint describes American’s pre-Class Period and Class Period distribution changes, including (i) December 5, 2022 notices requiring NDC connectivity by April 2023 to access full content; (ii) April 3, 2023 removal of roughly 40% of fare content (including basic economy and certain premium products) from EDIFACT channels; and (iii) July 2023 contract changes that reduced traditional incentives/perks for agencies, TMCs, SMBs, and corporations and tied incentives to NDC adoption with allegedly unrealistic targets.
-Plaintiffs rely heavily on two confidential witnesses (“CW1” and “CW2”), both former American employees in sales roles, who allege that: (a) agencies/TMCs rapidly shifted share away from American beginning around June 2023; (b) corporate and agency bookings declined materially (CW2 alleges larger-agency bookings down ~15% year-over-year by July 2023 and corporate bookings “much lower”); (c) NDC adoption was poor among many agencies/TMCs; (d) American’s NDC channels lacked key functionality (e.g., duty-of-care data and servicing features), creating customer pushback; and (e) internal tools and reports (SalesLink Insights, PRISM, and IATA data) showed persistent share/bookings deterioration and were circulated upward. Plaintiffs further plead that Defendants later admitted the strategy “drove customers away,” that American “moved faster than we should,” and that the strategy caused substantial revenue harm.
-Alleged misstatements/omissions: Plaintiffs identify numerous statements in SEC filings (Forms 10-Q and 10-K risk factors), earnings calls, conferences, press releases, and interviews from July 20, 2023 through April 25, 2024. The alleged misstatements fall into several themes: (1) portraying NDC/Modern Retailing adoption and partner response as strong and encouraging; (2) representing business demand and corporate recovery as durable and improving; (3) asserting American was holding market share and not seeing negative customer behavior; (4) issuing/reaffirming 2Q 2024 and full-year 2024 guidance (including EPS and free cash flow) allegedly without a reasonable basis; and (5) describing distribution-related risks as hypothetical in risk factors while allegedly failing to disclose the risks had already materialized.
-Corrective disclosures and loss causation: Plaintiffs allege partial corrective disclosures on May 28–29, 2024. On May 28, 2024 (after market close), American announced Raja’s departure and cut 2Q 2024 guidance (operating margin, EPS, TRASM expectations). On May 29, 2024, at the Bernstein conference, Isom attributed “softness in customer bookings” in part to “changes that we have made to our sales and distribution strategy,” admitted the approach was “driving customers away,” and described reversing aspects of the strategy. American’s stock allegedly fell from $13.44 (May 28 close) to $11.62 (May 29 close). Plaintiffs also cite later disclosures on July 25, 2024 (post-Class Period) quantifying an alleged $750 million revenue impact in 1H 2024 and expected additional $750 million impact in 2H 2024.
-Legal claims asserted: (1) Section 10(b) of the Exchange Act and SEC Rule 10b-5 against all Defendants; and (2) Section 20(a) control-person liability against the Individual Defendants (Isom, May, Raja).</t>
+          <t>Parties: Court-appointed Lead Plaintiffs Utah Retirement Systems and Construction Laborers Pension Trust for Southern California bring a putative class action on behalf of purchasers/acquirers of Concho Resources Inc. (NYSE: CXO) common stock. Defendants are Concho; ConocoPhillips (successor-in-interest after a 2021 acquisition); and Individual Defendants Timothy A. Leach (CEO/Chair), Jack F. Harper (CFO then President), C. William Giraud (EVP then COO), E. Joseph Wright (COO through Jan. 2019), and Brenda R. Schroer (CAO/Treasurer then CFO).
+Class period: February 21, 2018 through July 31, 2019, inclusive.
+Alleged misconduct and theory: Plaintiffs allege Defendants orchestrated and concealed a companywide, high-risk shift to “manufacturing mode” / large-scale development involving simultaneous completion of tightly spaced wells (including “cube” and “zipper” style operations), while publicly portraying the shift as validated, data-driven, risk-mitigated, and capable of sustaining &gt;20% production growth. The complaint centers on the “Dominator” project (a 23-well, ~230-foot spacing multi-well pad in the Northern Delaware Basin) as a flagship example, but alleges the conduct was broader: the company allegedly devoted the vast majority of its development budget to similar aggressive spacing projects while representing that risk was balanced and dispersed.
+Key alleged misstatements/omissions: (1) statements that well spacing and completion designs were “validated,” that Concho “knew what the spacing needs to be,” and that parent-child interference/degradation was modeled and “baked into” forecasts; (2) statements touting “outstanding” results, strong early production, and attractive returns from large-scale projects including Dominator; (3) production and growth guidance (2018–2020) allegedly inflated because internal risking and modeling did not reflect the materially increased interference/degradation risk from tight spacing and simultaneous multi-well development; (4) risk disclosures stating Concho used multi-well pad drilling “where practical,” allegedly misleading because manufacturing-mode projects were pervasive and materially changed the company’s risk profile.
+Factual support pled: Plaintiffs rely heavily on confidential former employee accounts (reservoir engineers, geoscience/applied technology staff, land/operations personnel) alleging internal warnings that Dominator and other projects were too tightly spaced, that fracture/interference modeling was not done or was ignored, and that management—particularly Giraud—directed use of historical “off-the-shelf” risk profiles and treated wells as isolated in forecasting despite known compounding risks. Plaintiffs also plead (i) comparative production data suggesting Dominator’s initial production underperformed peers in the Wolfcamp; (ii) alleged real-time internal data (pressure gauges) showing early underperformance; and (iii) post-class admissions that Dominator spacing was “too tight” and that other spacing tests affected performance.
+Corrective disclosure and loss causation: After market close July 31, 2019, Concho disclosed disappointing 2Q19 results, cut guidance, reduced rig count sharply, and stated Dominator performance indicated spacing was “too tight.” On August 1, 2019, management elaborated that performance data showed the Upper Wolfcamp was developed too densely and that future projects would use wider spacing. The stock allegedly fell ~22% on August 1, 2019 on unusually high volume. Later statements (Sept.–Oct. 2019) acknowledged other spacing tests beyond Dominator. In Feb. 2020, Concho disclosed a new risk factor about tighter spacing and a 16% proved reserves reduction attributed primarily to negative performance revisions from tighter-spacing projects.
+Claims asserted: Count I under Exchange Act §10(b) and Rule 10b-5 (misstatements/omissions and scheme allegations) against all Defendants; Count II under §20(a) against the Individual Defendants as control persons.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Section 10(b) of the Exchange Act and Rule 10b-5</t>
+          <t>Count I – Section 10(b) and Rule 10b-5 (misstatements/omissions and scheme liability) against Concho, ConocoPhillips (successor), and Individual Defendants</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2899,23 +3222,18 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Legal standard. To plead a private securities-fraud claim under §10(b) and Rule 10b-5, Plaintiffs must allege (1) a material misrepresentation or omission; (2) scienter; (3) a connection with the purchase or sale of a security; (4) reliance; (5) economic loss; and (6) loss causation. Under the PSLRA and Rule 9(b), falsity must be pled with particularity, and scienter must be pled with facts giving rise to a strong inference that the defendant acted with intent to deceive or with deliberate recklessness.
-1. Material misrepresentation/omission. Plaintiffs plead a coherent theory that Defendants repeatedly represented that Modern Retailing/NDC execution was proceeding well, that agency/corporate response was strong, that business demand and corporate recovery were durable, and that American was holding share, while omitting that internal data allegedly showed the strategy was alienating agencies/TMCs/corporations and materially eroding bookings/share and revenue.
-At the pleading stage, these allegations are sufficiently particularized. The complaint identifies the challenged statements by date, forum (10-Q/10-K risk factors, earnings calls, press releases, conferences, media interviews), speaker, and substance. It also pleads why they were allegedly false when made: CW1 and CW2 describe contemporaneous booking/share declines and poor NDC adoption; the complaint alleges internal reporting systems (SalesLink Insights, PRISM, IATA) tracked share and channel mix; and Plaintiffs plead that Defendants later admitted the strategy “drove customers away” and required reversal.
-Defendants’ likely arguments that many statements are puffery or immaterial optimism do not warrant wholesale dismissal at this stage. Some statements (e.g., being “pleased,” “encouraged,” “on the right path”) may be nonactionable in isolation. But Plaintiffs also plead more concrete representations—e.g., assertions about corporate volume trends, share retention, adoption levels, and guidance “implicit” in the NDC strategy—that plausibly could be material to investors evaluating American’s revenue trajectory, corporate share, and the viability of a major strategic shift. Likewise, Plaintiffs plausibly allege that risk-factor language framing harms as hypothetical could be misleading if Defendants knew the risk had already materialized.
-2. Scienter. The complaint adequately pleads a strong inference of scienter as to at least Raja and Isom, and plausibly as to May.
-The scienter allegations are not limited to “fraud by hindsight.” Plaintiffs plead (a) access to and monitoring of specific internal metrics and reports (SalesLink Insights, PRISM, IATA) showing agency/corporate share and channel adoption; (b) the centrality of corporate/agency distribution to American’s revenue (including allegations that a substantial portion of passenger revenue was booked through channels affected by the strategy); (c) CW accounts that the deterioration was noticeable and persistent beginning in mid-2023; (d) specific late-Class Period statements (April 25, 2024 earnings call) where Raja allegedly denied pushback and claimed corporate revenues were “coming back very materially,” while Plaintiffs allege Defendants already knew of a “deviation” versus peers in 1Q 2024; and (e) post-Class Period admissions attributed to Isom that American identified the deviation in 1Q 2024 but hoped it would reverse.
-Considering these allegations holistically, the inference that Defendants (at least Isom and Raja) knew or were deliberately reckless in not knowing that the distribution strategy was materially impairing corporate/agency performance is at least as compelling as the competing inference that they were merely optimistic about a difficult transition.
-As to May, the allegations are somewhat thinner, but Plaintiffs plead he signed SEC filings and the May 28, 2024 8-K, participated in guidance communications, and as CFO plausibly had access to the same performance information bearing on guidance and revenue trends. At the motion-to-dismiss stage, that is sufficient to proceed against May on the primary claim, particularly where Plaintiffs’ theory is that guidance and revenue/demand statements were issued without a reasonable basis.
-3. Reliance. Plaintiffs plead an efficient market for AAL stock and invoke the fraud-on-the-market presumption (Basic) and, alternatively, Affiliated Ute for omissions. At this stage, that is sufficient.
-4. Loss causation and economic loss. Plaintiffs plead a price decline following May 28–29, 2024 disclosures tying revenue softness and guidance reductions to the distribution strategy and acknowledging customer loss. They allege the stock fell materially on May 29, 2024, and cite analyst commentary attributing the decline to American-specific distribution strategy issues. This is adequate to plead loss causation.
-5. PSLRA safe harbor/forward-looking statements. Some challenged statements include forward-looking guidance. Plaintiffs plead that Defendants lacked a reasonable basis and/or had actual knowledge of falsity, and that cautionary language was not meaningful as to the concealed, already-materialized adverse facts. At the pleading stage, the safe harbor does not compel dismissal of the guidance-based theory.
-Accordingly, the motion to dismiss is denied as to the §10(b)/Rule 10b-5 claim.</t>
+          <t>Taking the well-pleaded allegations as true and applying the PSLRA and Rule 9(b), the complaint plausibly alleges (1) actionable statements, (2) materiality, (3) a strong inference of scienter, and (4) loss causation.
+Actionable misstatements/omissions: Many challenged statements are not mere puffery or inactionable optimism because they are framed as concrete, verifiable representations about (i) validated well spacing and completion design; (ii) the existence and use of “real-time”/empirical data and internal modeling to account for parent-child interference and degradation; and (iii) that such impacts were “baked into” type curves, plans, and public forecasts. At the pleading stage, former-employee allegations that management directed use of historical risk profiles, failed to model degradation from tight spacing, and ignored internal warnings plausibly render those statements misleading when made. Statements about Dominator’s “strong early production” and that “returns look pretty good” are plausibly misleading in context where plaintiffs allege contemporaneous internal pressure/production data showed underperformance and interference.
+Materiality: The alleged misstatements concern core operational drivers for an E&amp;P company (well performance, spacing, reserves, and production guidance) and the company’s touted strategic “inflection point.” The alleged corrective disclosures (spacing too tight; guidance cuts; rig reductions) and market reaction support materiality at this stage.
+Scienter: Plaintiffs plead a strong inference that at least certain Individual Defendants (particularly Giraud and senior executives) knew or were deliberately reckless regarding the increased risk and the inadequacy of risking/modeling. The complaint alleges repeated internal warnings, executive-led budgeting/risking meetings, centralized forecasting processes feeding public guidance, access to real-time production/pressure data, and post-class admissions attributing poor performance to tight spacing and that issues should have been caught sooner. These allegations collectively support an inference of scienter at least as compelling as nonfraudulent explanations at the motion-to-dismiss stage.
+Forward-looking/safe harbor: Many alleged misstatements are present-tense assertions of validation, modeling, and risk practices, not solely forward-looking. To the extent production guidance is forward-looking, plaintiffs plausibly allege it lacked meaningful cautionary language tailored to the specific, then-known spacing/interference risks and that Defendants had actual knowledge of contrary internal information.
+Loss causation: Plaintiffs plausibly plead that the July 31/August 1, 2019 disclosures revealed (or at least made apparent) the concealed spacing/interference problems and their impact on production outlook and capital efficiency, followed by a sharp one-day stock drop. At this stage, the alleged corrective disclosure and price decline suffice; competing causation issues are better addressed on a fuller record.
+Accordingly, dismissal is denied as to Count I.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Section 20(a) of the Exchange Act (control person liability)</t>
+          <t>Count II – Section 20(a) control person liability against Individual Defendants</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2925,10 +3243,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Legal standard. To plead control-person liability under §20(a), Plaintiffs must allege (1) a primary violation of the securities laws by the controlled person and (2) that the defendant exercised actual power or control over the primary violator. Many courts also consider culpable participation, but at the pleading stage in this Circuit, adequately alleging control plus a primary violation is generally sufficient; good faith is an affirmative defense.
-Primary violation. Because the §10(b)/Rule 10b-5 claim survives, Plaintiffs have adequately alleged a primary violation by American.
-Control. Plaintiffs adequately allege that Isom (CEO and director), May (CFO), and Raja (CCO) had the power to control the content and dissemination of American’s public statements, SEC filings, earnings releases, and investor communications, and were directly involved in the strategic initiative at issue. The complaint also pleads that Raja directed the distribution strategy and that Isom later stated the strategy was “my strategies,” supporting control and involvement.
-At this stage, these allegations suffice to plead control-person liability. The motion to dismiss is denied as to the §20(a) claim.</t>
+          <t>Because the complaint plausibly states a primary violation under §10(b)/Rule 10b-5, and because it adequately alleges each Individual Defendant’s control over Concho’s public statements and operations (senior executive roles; signing SEC filings; participation in earnings calls and investor conferences; alleged involvement in budgeting/forecasting and project approval), the §20(a) claim is plausibly pled at this stage. Any individualized defenses (e.g., good faith) are not resolved on the pleadings. Accordingly, dismissal is denied as to Count II.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2944,11 +3259,26 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>55487</v>
+        <v>67041</v>
       </c>
       <c r="X26" t="n">
-        <v>2512</v>
-      </c>
+        <v>1668</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
